--- a/parsonal/h_takashima/saibaikun/さいばいくん設計.xlsx
+++ b/parsonal/h_takashima/saibaikun/さいばいくん設計.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25510"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B6E36F9-62C4-4EEA-9B36-CCE42B196F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C335E3FA-C438-4426-9F45-99624BFBD426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="さいばいくん（ページ構成など）" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="151">
   <si>
     <t>ページ構成</t>
   </si>
@@ -142,19 +142,13 @@
     <t>■M_CHARACTER</t>
   </si>
   <si>
-    <t>■M_ACTION</t>
-  </si>
-  <si>
     <t>CHARACTER_ID</t>
   </si>
   <si>
     <t>CHARACTER_NAME</t>
   </si>
   <si>
-    <t>ACTION_ID</t>
-  </si>
-  <si>
-    <t>ACTION_NAME</t>
+    <t>IMG_PATH</t>
   </si>
   <si>
     <t>キャラクターID</t>
@@ -163,34 +157,37 @@
     <t>キャラクター種類</t>
   </si>
   <si>
-    <t>アクションID</t>
-  </si>
-  <si>
-    <t>アクション名</t>
+    <t>キャラクター画像パス</t>
   </si>
   <si>
     <t>だるま</t>
   </si>
   <si>
-    <t>ごはん</t>
+    <t>/img/1.png</t>
   </si>
   <si>
     <t>ほおずき</t>
   </si>
   <si>
-    <t>そうじ</t>
+    <t>/img/2.png</t>
   </si>
   <si>
     <t>おばけ</t>
   </si>
   <si>
-    <t>あそぶ</t>
+    <t>/img/3.png</t>
   </si>
   <si>
     <t>えび</t>
   </si>
   <si>
+    <t>/img/4.png</t>
+  </si>
+  <si>
     <t>はながみ</t>
+  </si>
+  <si>
+    <t>/img/5.png</t>
   </si>
   <si>
     <t>▼いらないか</t>
@@ -220,6 +217,9 @@
     <t>■T_USER</t>
   </si>
   <si>
+    <t>…Ins：セットアップ時　Upd：さいばいくん2体目開始時</t>
+  </si>
+  <si>
     <t>SAIBAI_COUNT</t>
   </si>
   <si>
@@ -238,6 +238,9 @@
     <t>■T_SAIBAI_DAICHO</t>
   </si>
   <si>
+    <t>…Ins：セットアップ時　Upd：レベルアップ時（条件クリア後次回ログイン時）</t>
+  </si>
+  <si>
     <t>SAIBAI_DAICHO_ID</t>
   </si>
   <si>
@@ -245,6 +248,9 @@
   </si>
   <si>
     <t>REVEL</t>
+  </si>
+  <si>
+    <t>セットアップ時にデータを登録、レベルアップ時にレベルを＋する</t>
   </si>
   <si>
     <t>さいばいくん台帳ID</t>
@@ -274,28 +280,25 @@
     <t>■T_ACTION_RRK</t>
   </si>
   <si>
+    <t>…Ins：ログイン時　Upd：さいばい時、ログイン時（ログイン日時以前のレコードをチェック済みにする）</t>
+  </si>
+  <si>
     <t>ACTION_YMD</t>
   </si>
   <si>
     <t>ACTION_COUNT_1</t>
   </si>
   <si>
-    <t>ARCHIEVE_FLG_1</t>
-  </si>
-  <si>
     <t>ACTION_COUNT_2</t>
-  </si>
-  <si>
-    <t>ARCHIEVE_FLG_2</t>
   </si>
   <si>
     <t>ACTION_COUNT_3</t>
   </si>
   <si>
-    <t>ARCHIEVE_FLG_3</t>
+    <t>CHECKED_FLG</t>
   </si>
   <si>
-    <t>CHECKED_FLG</t>
+    <t>ログイン時にログイン日時点のレコードを追加する</t>
   </si>
   <si>
     <t>アクション実行年月日</t>
@@ -304,19 +307,10 @@
     <t>ごはん実行回数</t>
   </si>
   <si>
-    <t>ごはん達成フラグ</t>
-  </si>
-  <si>
     <t>そうじ実行回数</t>
   </si>
   <si>
-    <t>そうじ達成フラグ</t>
-  </si>
-  <si>
     <t>あそび実行回数</t>
-  </si>
-  <si>
-    <t>あそび達成フラグ</t>
   </si>
   <si>
     <t>チェック済みフラグ</t>
@@ -334,10 +328,10 @@
     <t>2022/07/09</t>
   </si>
   <si>
-    <t>1</t>
+    <t>■T_LOGIN_LOG</t>
   </si>
   <si>
-    <t>■T_LOGIN_LOG</t>
+    <t>…Ins：ログイン時</t>
   </si>
   <si>
     <t>RRK_NO</t>
@@ -347,6 +341,9 @@
   </si>
   <si>
     <t>ZENKAI_LOGIN_TM</t>
+  </si>
+  <si>
+    <t>初回ログイン時は前回ログイン日時＝ログイン日時を設定する</t>
   </si>
   <si>
     <t>履歴番号</t>
@@ -415,40 +412,37 @@
     <t>★初回動作</t>
   </si>
   <si>
-    <t>①</t>
+    <t>①入力　②ボタン押下</t>
+  </si>
+  <si>
+    <t>　　　　USERテーブルを検索→</t>
+  </si>
+  <si>
+    <t>　　　　　なまえが存在していたらログイン③-1</t>
+  </si>
+  <si>
+    <t>　　　　　存在していなければ、登録③-2</t>
+  </si>
+  <si>
+    <t>③-1選択　キャラクターマスタから全部出す</t>
+  </si>
+  <si>
+    <t>③-2選択　かいぬしIDをキーに、さいばい台帳からレベル20以下のキャラクターを出力する</t>
+  </si>
+  <si>
+    <t>④ボタン押下</t>
+  </si>
+  <si>
+    <t>　※かいぬし登録済みの場合、ボタンは「さいばい開始」でメイン画面へ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">⑤ </t>
   </si>
   <si>
     <t>入力</t>
   </si>
   <si>
     <t>→</t>
-  </si>
-  <si>
-    <t>T_USER.USER_NAME</t>
-  </si>
-  <si>
-    <t>T_SAIBAI_DAICHO.USER_NAME</t>
-  </si>
-  <si>
-    <t>②</t>
-  </si>
-  <si>
-    <t>パラメータあたえて次ページへ遷移</t>
-  </si>
-  <si>
-    <t>③</t>
-  </si>
-  <si>
-    <t>選択（キャラクターマスタから）</t>
-  </si>
-  <si>
-    <t>T_SAIBAI_DAICHO.CHARACTER_ID</t>
-  </si>
-  <si>
-    <t>④</t>
-  </si>
-  <si>
-    <t xml:space="preserve">⑤ </t>
   </si>
   <si>
     <t>T_SAIBAI_DAICHO.SAIBAI_NAME</t>
@@ -500,7 +494,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,8 +568,13 @@
       <color rgb="FF1A303D"/>
       <name val="メイリオ"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,30 +607,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE8FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBFDFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEDECED"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -760,11 +741,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -774,88 +779,55 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -864,70 +836,101 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -9225,8 +9228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6569DEC0-455C-4B48-9DF7-435AC7931908}">
   <dimension ref="B1:AJ47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AI13" sqref="AI13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
@@ -9411,10 +9414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AA76"/>
+  <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
@@ -9445,101 +9448,101 @@
       <c r="D3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="2:9" ht="18.75">
+      <c r="D4" s="38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="18.75">
-      <c r="D4" s="51" t="s">
+      <c r="E4" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="F4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>40</v>
-      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:9" ht="18.75">
       <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" ht="18.75">
+      <c r="D6" s="35">
+        <v>1</v>
+      </c>
+      <c r="E6" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="F6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" ht="18.75">
+      <c r="D7" s="35">
+        <v>2</v>
+      </c>
+      <c r="E7" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="2:9" ht="18.75">
-      <c r="D6" s="45">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="45">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" ht="18.75">
+      <c r="D8" s="35">
+        <v>3</v>
+      </c>
+      <c r="E8" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" ht="18.75">
-      <c r="D7" s="45">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="45">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" ht="18.75">
+      <c r="D9" s="35">
+        <v>4</v>
+      </c>
+      <c r="E9" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="18.75">
-      <c r="D8" s="45">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="45">
-        <v>3</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="2:9" ht="18.75">
-      <c r="D9" s="45">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" ht="18.75">
-      <c r="D10" s="45">
+      <c r="D10" s="35">
         <v>5</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>52</v>
+      <c r="E10" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18.75">
@@ -9551,12 +9554,12 @@
     </row>
     <row r="13" spans="2:9" ht="18.75" hidden="1">
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="18.75" hidden="1">
       <c r="C14" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -9566,13 +9569,13 @@
     <row r="15" spans="2:9" ht="18.75" hidden="1">
       <c r="C15" s="31"/>
       <c r="D15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="G15" s="8"/>
     </row>
@@ -9582,10 +9585,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="33" t="s">
         <v>58</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>59</v>
       </c>
       <c r="G16" s="8"/>
     </row>
@@ -9595,439 +9598,383 @@
         <v>2</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="3:9" ht="18.75"/>
     <row r="19" spans="3:9" ht="18.75"/>
     <row r="20" spans="3:9" ht="18.75">
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="18.75">
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="73" t="s">
         <v>62</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="3:9" ht="18.75">
-      <c r="D22" s="47" t="s">
+      <c r="D22" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="39" t="s">
         <v>65</v>
       </c>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="3:9" ht="18.75">
-      <c r="D23" s="45">
+      <c r="D23" s="35">
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="45">
+        <v>57</v>
+      </c>
+      <c r="F23" s="35">
         <v>1</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="3:9" ht="18.75">
-      <c r="D24" s="45">
+      <c r="D24" s="35">
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="35">
         <v>2</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="3:9" ht="18.75"/>
     <row r="26" spans="3:9" ht="18.75">
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="42" t="s">
         <v>67</v>
       </c>
+      <c r="E26" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="27" spans="3:9" ht="18.75">
-      <c r="D27" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="50" t="s">
+      <c r="D27" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="G27" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="52" t="s">
+      <c r="E27" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="1"/>
+      <c r="G27" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="28" spans="3:9" ht="18.75">
-      <c r="D28" s="49" t="s">
-        <v>71</v>
+      <c r="D28" s="37" t="s">
+        <v>73</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="36" t="s">
         <v>63</v>
       </c>
       <c r="H28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="3:9" ht="18.75">
+      <c r="D29" s="35">
+        <v>1</v>
+      </c>
+      <c r="E29" s="35">
+        <v>2</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G29" s="35">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="3:9" ht="18.75">
+      <c r="D30" s="35">
+        <v>2</v>
+      </c>
+      <c r="E30" s="35">
+        <v>4</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="35">
+        <v>2</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="3:9" ht="18.75">
+      <c r="D31" s="35">
+        <v>3</v>
+      </c>
+      <c r="E31" s="35">
+        <v>3</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="35">
+        <v>2</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="3:9" ht="18.75"/>
+    <row r="33" spans="4:10" ht="18.75" customHeight="1">
+      <c r="D33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="4:10" ht="18.75" customHeight="1">
+      <c r="D34" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" ht="18.75" customHeight="1">
+      <c r="D35" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="3:9" ht="18.75">
-      <c r="D29" s="45">
+      <c r="E35" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G35" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="H35" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" s="48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" ht="18.75" customHeight="1">
+      <c r="D36" s="35">
         <v>1</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E36" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="40">
+        <v>0</v>
+      </c>
+      <c r="G36" s="40">
+        <v>0</v>
+      </c>
+      <c r="H36" s="40">
+        <v>0</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" ht="18.75" customHeight="1">
+      <c r="D37" s="35">
+        <v>1</v>
+      </c>
+      <c r="E37" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" s="40">
+        <v>3</v>
+      </c>
+      <c r="G37" s="40">
+        <v>3</v>
+      </c>
+      <c r="H37" s="40">
+        <v>1</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" ht="18.75" customHeight="1">
+      <c r="D38" s="35">
+        <v>1</v>
+      </c>
+      <c r="E38" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="F38" s="40">
+        <v>1</v>
+      </c>
+      <c r="G38" s="40">
+        <v>1</v>
+      </c>
+      <c r="H38" s="40">
+        <v>1</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" ht="18.75" customHeight="1"/>
+    <row r="40" spans="4:10" ht="18.75" customHeight="1">
+      <c r="D40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" ht="18.75" customHeight="1">
+      <c r="D41" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" ht="18.75" customHeight="1">
+      <c r="D42" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" ht="18.75" customHeight="1">
+      <c r="D43" s="35">
+        <v>1</v>
+      </c>
+      <c r="E43" s="35">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" ht="18.75" customHeight="1">
+      <c r="D44" s="35">
+        <v>1</v>
+      </c>
+      <c r="E44" s="35">
         <v>2</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="45">
+      <c r="F44" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" ht="18.75" customHeight="1">
+      <c r="D45" s="35">
+        <v>2</v>
+      </c>
+      <c r="E45" s="35">
         <v>1</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="3:9" ht="18.75">
-      <c r="D30" s="45">
-        <v>2</v>
-      </c>
-      <c r="E30" s="45">
-        <v>4</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="45">
-        <v>2</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="3:9" ht="18.75">
-      <c r="D31" s="45">
+      <c r="F45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" ht="18.75" customHeight="1">
+      <c r="D46" s="35">
+        <v>1</v>
+      </c>
+      <c r="E46" s="35">
         <v>3</v>
       </c>
-      <c r="E31" s="45">
-        <v>3</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="45">
-        <v>2</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="3:9" ht="18.75"/>
-    <row r="33" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D34" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="H34" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="I34" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="J34" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="K34" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="L34" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="M34" s="65"/>
-      <c r="N34" s="65"/>
-      <c r="O34" s="65"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="65"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="65"/>
-      <c r="AA34" s="65"/>
-    </row>
-    <row r="35" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D35" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F35" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="H35" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="J35" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="K35" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="L35" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="65"/>
-      <c r="AA35" s="65"/>
-    </row>
-    <row r="36" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D36" s="45">
-        <v>1</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" s="53">
-        <v>0</v>
-      </c>
-      <c r="G36" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="53">
-        <v>0</v>
-      </c>
-      <c r="I36" s="54">
-        <v>0</v>
-      </c>
-      <c r="J36" s="53">
-        <v>0</v>
-      </c>
-      <c r="K36" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="L36" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D37" s="45">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="53">
-        <v>3</v>
-      </c>
-      <c r="G37" s="54">
-        <v>1</v>
-      </c>
-      <c r="H37" s="53">
-        <v>3</v>
-      </c>
-      <c r="I37" s="54">
-        <v>1</v>
-      </c>
-      <c r="J37" s="53">
-        <v>1</v>
-      </c>
-      <c r="K37" s="54">
-        <v>1</v>
-      </c>
-      <c r="L37" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D38" s="45">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F38" s="53">
-        <v>1</v>
-      </c>
-      <c r="G38" s="54">
-        <v>0</v>
-      </c>
-      <c r="H38" s="53">
-        <v>1</v>
-      </c>
-      <c r="I38" s="54">
-        <v>0</v>
-      </c>
-      <c r="J38" s="53">
-        <v>1</v>
-      </c>
-      <c r="K38" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="L38" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="4:27" ht="18.75" customHeight="1"/>
-    <row r="40" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D40" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D41" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="G41" s="52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D42" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" s="52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D43" s="45">
-        <v>1</v>
-      </c>
-      <c r="E43" s="45">
-        <v>1</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G43" s="5" t="s">
+      <c r="F46" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D44" s="45">
-        <v>1</v>
-      </c>
-      <c r="E44" s="45">
-        <v>2</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D45" s="45">
-        <v>2</v>
-      </c>
-      <c r="E45" s="45">
-        <v>1</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="4:27" ht="18.75" customHeight="1">
-      <c r="D46" s="45">
-        <v>1</v>
-      </c>
-      <c r="E46" s="45">
-        <v>3</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="4:27" ht="18.75" customHeight="1"/>
-    <row r="48" spans="4:27" ht="18.75"/>
+    <row r="47" spans="4:10" ht="18.75" customHeight="1"/>
+    <row r="48" spans="4:10" ht="18.75"/>
     <row r="49" ht="18.75"/>
     <row r="50" ht="18.75"/>
     <row r="56" ht="18.75"/>
@@ -10066,7 +10013,7 @@
   <sheetData>
     <row r="1" spans="1:53" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="13.5" customHeight="1">
@@ -10163,7 +10110,7 @@
       <c r="AS3" s="13"/>
       <c r="AT3" s="14"/>
       <c r="AY3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:53" ht="13.5" customHeight="1">
@@ -10213,154 +10160,154 @@
       <c r="AS4" s="13"/>
       <c r="AT4" s="14"/>
       <c r="AZ4" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" ht="13.5" customHeight="1">
+      <c r="B5" s="77" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="1:53" ht="13.5" customHeight="1">
-      <c r="B5" s="38" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="78"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="78"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="78"/>
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="78"/>
+      <c r="AQ5" s="78"/>
+      <c r="AR5" s="78"/>
+      <c r="AS5" s="78"/>
+      <c r="AT5" s="79"/>
+      <c r="BA5" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="39"/>
-      <c r="AT5" s="40"/>
-      <c r="BA5" s="2" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="6" spans="1:53" ht="13.5" customHeight="1">
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="39"/>
-      <c r="AS6" s="39"/>
-      <c r="AT6" s="40"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="78"/>
+      <c r="AM6" s="78"/>
+      <c r="AN6" s="78"/>
+      <c r="AO6" s="78"/>
+      <c r="AP6" s="78"/>
+      <c r="AQ6" s="78"/>
+      <c r="AR6" s="78"/>
+      <c r="AS6" s="78"/>
+      <c r="AT6" s="79"/>
     </row>
     <row r="7" spans="1:53" ht="13.5" customHeight="1">
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="40"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="78"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="79"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" customHeight="1">
       <c r="B8" s="12"/>
@@ -10504,53 +10451,53 @@
       <c r="AT10" s="14"/>
     </row>
     <row r="11" spans="1:53" ht="13.5" customHeight="1">
-      <c r="B11" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="36"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="36"/>
-      <c r="AS11" s="36"/>
-      <c r="AT11" s="37"/>
+      <c r="B11" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
+      <c r="Y11" s="75"/>
+      <c r="Z11" s="75"/>
+      <c r="AA11" s="75"/>
+      <c r="AB11" s="75"/>
+      <c r="AC11" s="75"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="75"/>
+      <c r="AI11" s="75"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="75"/>
+      <c r="AN11" s="75"/>
+      <c r="AO11" s="75"/>
+      <c r="AP11" s="75"/>
+      <c r="AQ11" s="75"/>
+      <c r="AR11" s="75"/>
+      <c r="AS11" s="75"/>
+      <c r="AT11" s="76"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" customHeight="1">
       <c r="B12" s="12"/>
@@ -11022,7 +10969,7 @@
       <c r="AS21" s="13"/>
       <c r="AT21" s="14"/>
       <c r="AW21" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:60" ht="13.5" customHeight="1">
@@ -11354,163 +11301,163 @@
       <c r="AS30" s="13"/>
       <c r="AT30" s="14"/>
       <c r="AZ30" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="2:60" ht="13.5" customHeight="1">
+      <c r="B31" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="78"/>
+      <c r="W31" s="78"/>
+      <c r="X31" s="78"/>
+      <c r="Y31" s="78"/>
+      <c r="Z31" s="78"/>
+      <c r="AA31" s="78"/>
+      <c r="AB31" s="78"/>
+      <c r="AC31" s="78"/>
+      <c r="AD31" s="78"/>
+      <c r="AE31" s="78"/>
+      <c r="AF31" s="78"/>
+      <c r="AG31" s="78"/>
+      <c r="AH31" s="78"/>
+      <c r="AI31" s="78"/>
+      <c r="AJ31" s="78"/>
+      <c r="AK31" s="78"/>
+      <c r="AL31" s="78"/>
+      <c r="AM31" s="78"/>
+      <c r="AN31" s="78"/>
+      <c r="AO31" s="78"/>
+      <c r="AP31" s="78"/>
+      <c r="AQ31" s="78"/>
+      <c r="AR31" s="78"/>
+      <c r="AS31" s="78"/>
+      <c r="AT31" s="79"/>
+      <c r="BA31" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="2:60" ht="13.5" customHeight="1">
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="78"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="78"/>
+      <c r="Y32" s="78"/>
+      <c r="Z32" s="78"/>
+      <c r="AA32" s="78"/>
+      <c r="AB32" s="78"/>
+      <c r="AC32" s="78"/>
+      <c r="AD32" s="78"/>
+      <c r="AE32" s="78"/>
+      <c r="AF32" s="78"/>
+      <c r="AG32" s="78"/>
+      <c r="AH32" s="78"/>
+      <c r="AI32" s="78"/>
+      <c r="AJ32" s="78"/>
+      <c r="AK32" s="78"/>
+      <c r="AL32" s="78"/>
+      <c r="AM32" s="78"/>
+      <c r="AN32" s="78"/>
+      <c r="AO32" s="78"/>
+      <c r="AP32" s="78"/>
+      <c r="AQ32" s="78"/>
+      <c r="AR32" s="78"/>
+      <c r="AS32" s="78"/>
+      <c r="AT32" s="79"/>
+      <c r="BB32" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="31" spans="2:60" ht="13.5" customHeight="1">
-      <c r="B31" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="39"/>
-      <c r="AH31" s="39"/>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="39"/>
-      <c r="AK31" s="39"/>
-      <c r="AL31" s="39"/>
-      <c r="AM31" s="39"/>
-      <c r="AN31" s="39"/>
-      <c r="AO31" s="39"/>
-      <c r="AP31" s="39"/>
-      <c r="AQ31" s="39"/>
-      <c r="AR31" s="39"/>
-      <c r="AS31" s="39"/>
-      <c r="AT31" s="40"/>
-      <c r="BA31" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="2:60" ht="13.5" customHeight="1">
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
-      <c r="AK32" s="39"/>
-      <c r="AL32" s="39"/>
-      <c r="AM32" s="39"/>
-      <c r="AN32" s="39"/>
-      <c r="AO32" s="39"/>
-      <c r="AP32" s="39"/>
-      <c r="AQ32" s="39"/>
-      <c r="AR32" s="39"/>
-      <c r="AS32" s="39"/>
-      <c r="AT32" s="40"/>
-      <c r="BB32" s="2" t="s">
+      <c r="BG32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BG32" s="2" t="s">
+      <c r="BH32" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="BH32" s="2" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="33" spans="2:46" ht="13.5" customHeight="1">
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="39"/>
-      <c r="AH33" s="39"/>
-      <c r="AI33" s="39"/>
-      <c r="AJ33" s="39"/>
-      <c r="AK33" s="39"/>
-      <c r="AL33" s="39"/>
-      <c r="AM33" s="39"/>
-      <c r="AN33" s="39"/>
-      <c r="AO33" s="39"/>
-      <c r="AP33" s="39"/>
-      <c r="AQ33" s="39"/>
-      <c r="AR33" s="39"/>
-      <c r="AS33" s="39"/>
-      <c r="AT33" s="40"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="78"/>
+      <c r="W33" s="78"/>
+      <c r="X33" s="78"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="78"/>
+      <c r="AA33" s="78"/>
+      <c r="AB33" s="78"/>
+      <c r="AC33" s="78"/>
+      <c r="AD33" s="78"/>
+      <c r="AE33" s="78"/>
+      <c r="AF33" s="78"/>
+      <c r="AG33" s="78"/>
+      <c r="AH33" s="78"/>
+      <c r="AI33" s="78"/>
+      <c r="AJ33" s="78"/>
+      <c r="AK33" s="78"/>
+      <c r="AL33" s="78"/>
+      <c r="AM33" s="78"/>
+      <c r="AN33" s="78"/>
+      <c r="AO33" s="78"/>
+      <c r="AP33" s="78"/>
+      <c r="AQ33" s="78"/>
+      <c r="AR33" s="78"/>
+      <c r="AS33" s="78"/>
+      <c r="AT33" s="79"/>
     </row>
     <row r="34" spans="2:46" ht="13.5" customHeight="1">
       <c r="B34" s="18"/>
@@ -11795,53 +11742,53 @@
       <c r="AT39" s="14"/>
     </row>
     <row r="40" spans="2:46" ht="13.5" customHeight="1">
-      <c r="B40" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="36"/>
-      <c r="Z40" s="36"/>
-      <c r="AA40" s="36"/>
-      <c r="AB40" s="36"/>
-      <c r="AC40" s="36"/>
-      <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="36"/>
-      <c r="AG40" s="36"/>
-      <c r="AH40" s="36"/>
-      <c r="AI40" s="36"/>
-      <c r="AJ40" s="36"/>
-      <c r="AK40" s="36"/>
-      <c r="AL40" s="36"/>
-      <c r="AM40" s="36"/>
-      <c r="AN40" s="36"/>
-      <c r="AO40" s="36"/>
-      <c r="AP40" s="36"/>
-      <c r="AQ40" s="36"/>
-      <c r="AR40" s="36"/>
-      <c r="AS40" s="36"/>
-      <c r="AT40" s="37"/>
+      <c r="B40" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="75"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="75"/>
+      <c r="X40" s="75"/>
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="75"/>
+      <c r="AB40" s="75"/>
+      <c r="AC40" s="75"/>
+      <c r="AD40" s="75"/>
+      <c r="AE40" s="75"/>
+      <c r="AF40" s="75"/>
+      <c r="AG40" s="75"/>
+      <c r="AH40" s="75"/>
+      <c r="AI40" s="75"/>
+      <c r="AJ40" s="75"/>
+      <c r="AK40" s="75"/>
+      <c r="AL40" s="75"/>
+      <c r="AM40" s="75"/>
+      <c r="AN40" s="75"/>
+      <c r="AO40" s="75"/>
+      <c r="AP40" s="75"/>
+      <c r="AQ40" s="75"/>
+      <c r="AR40" s="75"/>
+      <c r="AS40" s="75"/>
+      <c r="AT40" s="76"/>
     </row>
     <row r="41" spans="2:46" ht="13.5" customHeight="1">
       <c r="B41" s="12"/>
@@ -12407,7 +12354,7 @@
       <c r="AS54" s="10"/>
       <c r="AT54" s="11"/>
       <c r="AZ54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="2:54" ht="13.5" customHeight="1">
@@ -12457,7 +12404,7 @@
       <c r="AS55" s="13"/>
       <c r="AT55" s="14"/>
       <c r="BA55" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="2:54" ht="13.5" customHeight="1">
@@ -12507,154 +12454,154 @@
       <c r="AS56" s="13"/>
       <c r="AT56" s="14"/>
       <c r="BB56" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="2:54" ht="13.5" customHeight="1">
-      <c r="B57" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="J57" s="39"/>
-      <c r="K57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="39"/>
-      <c r="O57" s="39"/>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="39"/>
-      <c r="R57" s="39"/>
-      <c r="S57" s="39"/>
-      <c r="T57" s="39"/>
-      <c r="U57" s="39"/>
-      <c r="V57" s="39"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="39"/>
-      <c r="Z57" s="39"/>
-      <c r="AA57" s="39"/>
-      <c r="AB57" s="39"/>
-      <c r="AC57" s="39"/>
-      <c r="AD57" s="39"/>
-      <c r="AE57" s="39"/>
-      <c r="AF57" s="39"/>
-      <c r="AG57" s="39"/>
-      <c r="AH57" s="39"/>
-      <c r="AI57" s="39"/>
-      <c r="AJ57" s="39"/>
-      <c r="AK57" s="39"/>
-      <c r="AL57" s="39"/>
-      <c r="AM57" s="39"/>
-      <c r="AN57" s="39"/>
-      <c r="AO57" s="39"/>
-      <c r="AP57" s="39"/>
-      <c r="AQ57" s="39"/>
-      <c r="AR57" s="39"/>
-      <c r="AS57" s="39"/>
-      <c r="AT57" s="40"/>
+      <c r="B57" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="78"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="78"/>
+      <c r="K57" s="78"/>
+      <c r="L57" s="78"/>
+      <c r="M57" s="78"/>
+      <c r="N57" s="78"/>
+      <c r="O57" s="78"/>
+      <c r="P57" s="78"/>
+      <c r="Q57" s="78"/>
+      <c r="R57" s="78"/>
+      <c r="S57" s="78"/>
+      <c r="T57" s="78"/>
+      <c r="U57" s="78"/>
+      <c r="V57" s="78"/>
+      <c r="W57" s="78"/>
+      <c r="X57" s="78"/>
+      <c r="Y57" s="78"/>
+      <c r="Z57" s="78"/>
+      <c r="AA57" s="78"/>
+      <c r="AB57" s="78"/>
+      <c r="AC57" s="78"/>
+      <c r="AD57" s="78"/>
+      <c r="AE57" s="78"/>
+      <c r="AF57" s="78"/>
+      <c r="AG57" s="78"/>
+      <c r="AH57" s="78"/>
+      <c r="AI57" s="78"/>
+      <c r="AJ57" s="78"/>
+      <c r="AK57" s="78"/>
+      <c r="AL57" s="78"/>
+      <c r="AM57" s="78"/>
+      <c r="AN57" s="78"/>
+      <c r="AO57" s="78"/>
+      <c r="AP57" s="78"/>
+      <c r="AQ57" s="78"/>
+      <c r="AR57" s="78"/>
+      <c r="AS57" s="78"/>
+      <c r="AT57" s="79"/>
       <c r="BB57" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="2:54" ht="13.5" customHeight="1">
-      <c r="B58" s="38"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
-      <c r="Z58" s="39"/>
-      <c r="AA58" s="39"/>
-      <c r="AB58" s="39"/>
-      <c r="AC58" s="39"/>
-      <c r="AD58" s="39"/>
-      <c r="AE58" s="39"/>
-      <c r="AF58" s="39"/>
-      <c r="AG58" s="39"/>
-      <c r="AH58" s="39"/>
-      <c r="AI58" s="39"/>
-      <c r="AJ58" s="39"/>
-      <c r="AK58" s="39"/>
-      <c r="AL58" s="39"/>
-      <c r="AM58" s="39"/>
-      <c r="AN58" s="39"/>
-      <c r="AO58" s="39"/>
-      <c r="AP58" s="39"/>
-      <c r="AQ58" s="39"/>
-      <c r="AR58" s="39"/>
-      <c r="AS58" s="39"/>
-      <c r="AT58" s="40"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
+      <c r="K58" s="78"/>
+      <c r="L58" s="78"/>
+      <c r="M58" s="78"/>
+      <c r="N58" s="78"/>
+      <c r="O58" s="78"/>
+      <c r="P58" s="78"/>
+      <c r="Q58" s="78"/>
+      <c r="R58" s="78"/>
+      <c r="S58" s="78"/>
+      <c r="T58" s="78"/>
+      <c r="U58" s="78"/>
+      <c r="V58" s="78"/>
+      <c r="W58" s="78"/>
+      <c r="X58" s="78"/>
+      <c r="Y58" s="78"/>
+      <c r="Z58" s="78"/>
+      <c r="AA58" s="78"/>
+      <c r="AB58" s="78"/>
+      <c r="AC58" s="78"/>
+      <c r="AD58" s="78"/>
+      <c r="AE58" s="78"/>
+      <c r="AF58" s="78"/>
+      <c r="AG58" s="78"/>
+      <c r="AH58" s="78"/>
+      <c r="AI58" s="78"/>
+      <c r="AJ58" s="78"/>
+      <c r="AK58" s="78"/>
+      <c r="AL58" s="78"/>
+      <c r="AM58" s="78"/>
+      <c r="AN58" s="78"/>
+      <c r="AO58" s="78"/>
+      <c r="AP58" s="78"/>
+      <c r="AQ58" s="78"/>
+      <c r="AR58" s="78"/>
+      <c r="AS58" s="78"/>
+      <c r="AT58" s="79"/>
     </row>
     <row r="59" spans="2:54" ht="13.5" customHeight="1">
-      <c r="B59" s="38"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39"/>
-      <c r="AA59" s="39"/>
-      <c r="AB59" s="39"/>
-      <c r="AC59" s="39"/>
-      <c r="AD59" s="39"/>
-      <c r="AE59" s="39"/>
-      <c r="AF59" s="39"/>
-      <c r="AG59" s="39"/>
-      <c r="AH59" s="39"/>
-      <c r="AI59" s="39"/>
-      <c r="AJ59" s="39"/>
-      <c r="AK59" s="39"/>
-      <c r="AL59" s="39"/>
-      <c r="AM59" s="39"/>
-      <c r="AN59" s="39"/>
-      <c r="AO59" s="39"/>
-      <c r="AP59" s="39"/>
-      <c r="AQ59" s="39"/>
-      <c r="AR59" s="39"/>
-      <c r="AS59" s="39"/>
-      <c r="AT59" s="40"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="78"/>
+      <c r="M59" s="78"/>
+      <c r="N59" s="78"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="78"/>
+      <c r="R59" s="78"/>
+      <c r="S59" s="78"/>
+      <c r="T59" s="78"/>
+      <c r="U59" s="78"/>
+      <c r="V59" s="78"/>
+      <c r="W59" s="78"/>
+      <c r="X59" s="78"/>
+      <c r="Y59" s="78"/>
+      <c r="Z59" s="78"/>
+      <c r="AA59" s="78"/>
+      <c r="AB59" s="78"/>
+      <c r="AC59" s="78"/>
+      <c r="AD59" s="78"/>
+      <c r="AE59" s="78"/>
+      <c r="AF59" s="78"/>
+      <c r="AG59" s="78"/>
+      <c r="AH59" s="78"/>
+      <c r="AI59" s="78"/>
+      <c r="AJ59" s="78"/>
+      <c r="AK59" s="78"/>
+      <c r="AL59" s="78"/>
+      <c r="AM59" s="78"/>
+      <c r="AN59" s="78"/>
+      <c r="AO59" s="78"/>
+      <c r="AP59" s="78"/>
+      <c r="AQ59" s="78"/>
+      <c r="AR59" s="78"/>
+      <c r="AS59" s="78"/>
+      <c r="AT59" s="79"/>
     </row>
     <row r="60" spans="2:54" ht="13.5" customHeight="1">
       <c r="B60" s="12"/>
@@ -12939,53 +12886,53 @@
       <c r="AT65" s="14"/>
     </row>
     <row r="66" spans="2:46" ht="13.5" customHeight="1">
-      <c r="B66" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="36"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="36"/>
-      <c r="W66" s="36"/>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="36"/>
-      <c r="Z66" s="36"/>
-      <c r="AA66" s="36"/>
-      <c r="AB66" s="36"/>
-      <c r="AC66" s="36"/>
-      <c r="AD66" s="36"/>
-      <c r="AE66" s="36"/>
-      <c r="AF66" s="36"/>
-      <c r="AG66" s="36"/>
-      <c r="AH66" s="36"/>
-      <c r="AI66" s="36"/>
-      <c r="AJ66" s="36"/>
-      <c r="AK66" s="36"/>
-      <c r="AL66" s="36"/>
-      <c r="AM66" s="36"/>
-      <c r="AN66" s="36"/>
-      <c r="AO66" s="36"/>
-      <c r="AP66" s="36"/>
-      <c r="AQ66" s="36"/>
-      <c r="AR66" s="36"/>
-      <c r="AS66" s="36"/>
-      <c r="AT66" s="37"/>
+      <c r="B66" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="75"/>
+      <c r="J66" s="75"/>
+      <c r="K66" s="75"/>
+      <c r="L66" s="75"/>
+      <c r="M66" s="75"/>
+      <c r="N66" s="75"/>
+      <c r="O66" s="75"/>
+      <c r="P66" s="75"/>
+      <c r="Q66" s="75"/>
+      <c r="R66" s="75"/>
+      <c r="S66" s="75"/>
+      <c r="T66" s="75"/>
+      <c r="U66" s="75"/>
+      <c r="V66" s="75"/>
+      <c r="W66" s="75"/>
+      <c r="X66" s="75"/>
+      <c r="Y66" s="75"/>
+      <c r="Z66" s="75"/>
+      <c r="AA66" s="75"/>
+      <c r="AB66" s="75"/>
+      <c r="AC66" s="75"/>
+      <c r="AD66" s="75"/>
+      <c r="AE66" s="75"/>
+      <c r="AF66" s="75"/>
+      <c r="AG66" s="75"/>
+      <c r="AH66" s="75"/>
+      <c r="AI66" s="75"/>
+      <c r="AJ66" s="75"/>
+      <c r="AK66" s="75"/>
+      <c r="AL66" s="75"/>
+      <c r="AM66" s="75"/>
+      <c r="AN66" s="75"/>
+      <c r="AO66" s="75"/>
+      <c r="AP66" s="75"/>
+      <c r="AQ66" s="75"/>
+      <c r="AR66" s="75"/>
+      <c r="AS66" s="75"/>
+      <c r="AT66" s="76"/>
     </row>
     <row r="67" spans="2:46" ht="13.5" customHeight="1">
       <c r="B67" s="12"/>
@@ -13506,12 +13453,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B66:AT66"/>
     <mergeCell ref="B5:AT7"/>
     <mergeCell ref="B11:AT11"/>
     <mergeCell ref="B31:AT33"/>
     <mergeCell ref="B40:AT40"/>
     <mergeCell ref="B57:AT59"/>
-    <mergeCell ref="B66:AT66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13520,11 +13467,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759149CA-11B2-457B-BAC8-4D170E3593B3}">
-  <dimension ref="A1:CX141"/>
+  <dimension ref="A1:CU141"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AH17" sqref="AH17"/>
-    </sheetView>
+    <sheetView showGridLines="0" topLeftCell="G84" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
@@ -13540,12 +13485,12 @@
   <sheetData>
     <row r="1" spans="1:59" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:59" ht="13.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="13.5" customHeight="1">
@@ -13642,17 +13587,9 @@
       <c r="AS4" s="13"/>
       <c r="AT4" s="14"/>
       <c r="AX4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG4" s="56" t="s">
-        <v>130</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="BG4" s="42"/>
     </row>
     <row r="5" spans="1:59" ht="13.5" customHeight="1">
       <c r="B5" s="12"/>
@@ -13701,164 +13638,160 @@
       <c r="AS5" s="13"/>
       <c r="AT5" s="14"/>
       <c r="AX5" s="2"/>
-      <c r="AY5" s="2"/>
-      <c r="BC5" s="1" t="s">
+      <c r="AY5" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG5" s="42"/>
+    </row>
+    <row r="6" spans="1:59" ht="13.5" customHeight="1">
+      <c r="B6" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="78"/>
+      <c r="AC6" s="78"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="78"/>
+      <c r="AG6" s="78"/>
+      <c r="AH6" s="78"/>
+      <c r="AI6" s="78"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="78"/>
+      <c r="AM6" s="78"/>
+      <c r="AN6" s="78"/>
+      <c r="AO6" s="78"/>
+      <c r="AP6" s="78"/>
+      <c r="AQ6" s="78"/>
+      <c r="AR6" s="78"/>
+      <c r="AS6" s="78"/>
+      <c r="AT6" s="79"/>
+      <c r="AY6" s="42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" ht="13.5" customHeight="1">
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="78"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="79"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BG5" s="56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" ht="13.5" customHeight="1">
-      <c r="B6" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="39"/>
-      <c r="AS6" s="39"/>
-      <c r="AT6" s="40"/>
-      <c r="AX6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY6" s="56" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59" ht="13.5" customHeight="1">
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="40"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2"/>
     </row>
     <row r="8" spans="1:59" ht="13.5" customHeight="1">
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="39"/>
-      <c r="AG8" s="39"/>
-      <c r="AH8" s="39"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="39"/>
-      <c r="AM8" s="39"/>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="39"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="39"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="39"/>
-      <c r="AT8" s="40"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="78"/>
+      <c r="AE8" s="78"/>
+      <c r="AF8" s="78"/>
+      <c r="AG8" s="78"/>
+      <c r="AH8" s="78"/>
+      <c r="AI8" s="78"/>
+      <c r="AJ8" s="78"/>
+      <c r="AK8" s="78"/>
+      <c r="AL8" s="78"/>
+      <c r="AM8" s="78"/>
+      <c r="AN8" s="78"/>
+      <c r="AO8" s="78"/>
+      <c r="AP8" s="78"/>
+      <c r="AQ8" s="78"/>
+      <c r="AR8" s="78"/>
+      <c r="AS8" s="78"/>
+      <c r="AT8" s="79"/>
     </row>
     <row r="9" spans="1:59" ht="13.5" customHeight="1">
       <c r="B9" s="12"/>
@@ -14002,53 +13935,53 @@
       <c r="AT11" s="14"/>
     </row>
     <row r="12" spans="1:59" ht="13.5" customHeight="1">
-      <c r="B12" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="36"/>
-      <c r="AQ12" s="36"/>
-      <c r="AR12" s="36"/>
-      <c r="AS12" s="36"/>
-      <c r="AT12" s="37"/>
+      <c r="B12" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="75"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="75"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="75"/>
+      <c r="AN12" s="75"/>
+      <c r="AO12" s="75"/>
+      <c r="AP12" s="75"/>
+      <c r="AQ12" s="75"/>
+      <c r="AR12" s="75"/>
+      <c r="AS12" s="75"/>
+      <c r="AT12" s="76"/>
     </row>
     <row r="13" spans="1:59" ht="13.5" customHeight="1">
       <c r="B13" s="12"/>
@@ -14755,17 +14688,9 @@
       <c r="AS29" s="10"/>
       <c r="AT29" s="11"/>
       <c r="AX29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AY29" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BC29" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG29" s="56" t="s">
-        <v>136</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="BG29" s="42"/>
     </row>
     <row r="30" spans="2:59" ht="13.5" customHeight="1">
       <c r="B30" s="12"/>
@@ -14813,12 +14738,7 @@
       <c r="AR30" s="13"/>
       <c r="AS30" s="13"/>
       <c r="AT30" s="14"/>
-      <c r="AX30" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY30" s="56" t="s">
-        <v>133</v>
-      </c>
+      <c r="AY30" s="42"/>
     </row>
     <row r="31" spans="2:59" ht="13.5" customHeight="1">
       <c r="B31" s="12"/>
@@ -14866,151 +14786,157 @@
       <c r="AR31" s="13"/>
       <c r="AS31" s="13"/>
       <c r="AT31" s="14"/>
+      <c r="AX31" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="32" spans="2:59" ht="13.5" customHeight="1">
-      <c r="B32" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
-      <c r="AK32" s="39"/>
-      <c r="AL32" s="39"/>
-      <c r="AM32" s="39"/>
-      <c r="AN32" s="39"/>
-      <c r="AO32" s="39"/>
-      <c r="AP32" s="39"/>
-      <c r="AQ32" s="39"/>
-      <c r="AR32" s="39"/>
-      <c r="AS32" s="39"/>
-      <c r="AT32" s="40"/>
-    </row>
-    <row r="33" spans="2:46" ht="13.5" customHeight="1">
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="39"/>
-      <c r="AH33" s="39"/>
-      <c r="AI33" s="39"/>
-      <c r="AJ33" s="39"/>
-      <c r="AK33" s="39"/>
-      <c r="AL33" s="39"/>
-      <c r="AM33" s="39"/>
-      <c r="AN33" s="39"/>
-      <c r="AO33" s="39"/>
-      <c r="AP33" s="39"/>
-      <c r="AQ33" s="39"/>
-      <c r="AR33" s="39"/>
-      <c r="AS33" s="39"/>
-      <c r="AT33" s="40"/>
-    </row>
-    <row r="34" spans="2:46" ht="13.5" customHeight="1">
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="39"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="39"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="39"/>
-      <c r="AF34" s="39"/>
-      <c r="AG34" s="39"/>
-      <c r="AH34" s="39"/>
-      <c r="AI34" s="39"/>
-      <c r="AJ34" s="39"/>
-      <c r="AK34" s="39"/>
-      <c r="AL34" s="39"/>
-      <c r="AM34" s="39"/>
-      <c r="AN34" s="39"/>
-      <c r="AO34" s="39"/>
-      <c r="AP34" s="39"/>
-      <c r="AQ34" s="39"/>
-      <c r="AR34" s="39"/>
-      <c r="AS34" s="39"/>
-      <c r="AT34" s="40"/>
-    </row>
-    <row r="35" spans="2:46" ht="13.5" customHeight="1">
+      <c r="B32" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="78"/>
+      <c r="V32" s="78"/>
+      <c r="W32" s="78"/>
+      <c r="X32" s="78"/>
+      <c r="Y32" s="78"/>
+      <c r="Z32" s="78"/>
+      <c r="AA32" s="78"/>
+      <c r="AB32" s="78"/>
+      <c r="AC32" s="78"/>
+      <c r="AD32" s="78"/>
+      <c r="AE32" s="78"/>
+      <c r="AF32" s="78"/>
+      <c r="AG32" s="78"/>
+      <c r="AH32" s="78"/>
+      <c r="AI32" s="78"/>
+      <c r="AJ32" s="78"/>
+      <c r="AK32" s="78"/>
+      <c r="AL32" s="78"/>
+      <c r="AM32" s="78"/>
+      <c r="AN32" s="78"/>
+      <c r="AO32" s="78"/>
+      <c r="AP32" s="78"/>
+      <c r="AQ32" s="78"/>
+      <c r="AR32" s="78"/>
+      <c r="AS32" s="78"/>
+      <c r="AT32" s="79"/>
+    </row>
+    <row r="33" spans="2:50" ht="13.5" customHeight="1">
+      <c r="B33" s="77"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="78"/>
+      <c r="W33" s="78"/>
+      <c r="X33" s="78"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="78"/>
+      <c r="AA33" s="78"/>
+      <c r="AB33" s="78"/>
+      <c r="AC33" s="78"/>
+      <c r="AD33" s="78"/>
+      <c r="AE33" s="78"/>
+      <c r="AF33" s="78"/>
+      <c r="AG33" s="78"/>
+      <c r="AH33" s="78"/>
+      <c r="AI33" s="78"/>
+      <c r="AJ33" s="78"/>
+      <c r="AK33" s="78"/>
+      <c r="AL33" s="78"/>
+      <c r="AM33" s="78"/>
+      <c r="AN33" s="78"/>
+      <c r="AO33" s="78"/>
+      <c r="AP33" s="78"/>
+      <c r="AQ33" s="78"/>
+      <c r="AR33" s="78"/>
+      <c r="AS33" s="78"/>
+      <c r="AT33" s="79"/>
+    </row>
+    <row r="34" spans="2:50" ht="13.5" customHeight="1">
+      <c r="B34" s="77"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="78"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="78"/>
+      <c r="V34" s="78"/>
+      <c r="W34" s="78"/>
+      <c r="X34" s="78"/>
+      <c r="Y34" s="78"/>
+      <c r="Z34" s="78"/>
+      <c r="AA34" s="78"/>
+      <c r="AB34" s="78"/>
+      <c r="AC34" s="78"/>
+      <c r="AD34" s="78"/>
+      <c r="AE34" s="78"/>
+      <c r="AF34" s="78"/>
+      <c r="AG34" s="78"/>
+      <c r="AH34" s="78"/>
+      <c r="AI34" s="78"/>
+      <c r="AJ34" s="78"/>
+      <c r="AK34" s="78"/>
+      <c r="AL34" s="78"/>
+      <c r="AM34" s="78"/>
+      <c r="AN34" s="78"/>
+      <c r="AO34" s="78"/>
+      <c r="AP34" s="78"/>
+      <c r="AQ34" s="78"/>
+      <c r="AR34" s="78"/>
+      <c r="AS34" s="78"/>
+      <c r="AT34" s="79"/>
+      <c r="AX34" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="2:50" ht="13.5" customHeight="1">
       <c r="B35" s="18"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -15056,8 +14982,11 @@
       <c r="AR35" s="19"/>
       <c r="AS35" s="19"/>
       <c r="AT35" s="20"/>
-    </row>
-    <row r="36" spans="2:46" ht="13.5" customHeight="1">
+      <c r="AX35" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:50" ht="13.5" customHeight="1">
       <c r="B36" s="12"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -15104,7 +15033,7 @@
       <c r="AS36" s="13"/>
       <c r="AT36" s="14"/>
     </row>
-    <row r="37" spans="2:46" ht="13.5" customHeight="1">
+    <row r="37" spans="2:50" ht="13.5" customHeight="1">
       <c r="B37" s="12"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -15151,7 +15080,7 @@
       <c r="AS37" s="13"/>
       <c r="AT37" s="14"/>
     </row>
-    <row r="38" spans="2:46" ht="13.5" customHeight="1">
+    <row r="38" spans="2:50" ht="13.5" customHeight="1">
       <c r="B38" s="12"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -15198,7 +15127,7 @@
       <c r="AS38" s="13"/>
       <c r="AT38" s="14"/>
     </row>
-    <row r="39" spans="2:46" ht="13.5" customHeight="1">
+    <row r="39" spans="2:50" ht="13.5" customHeight="1">
       <c r="B39" s="12"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -15245,7 +15174,7 @@
       <c r="AS39" s="13"/>
       <c r="AT39" s="14"/>
     </row>
-    <row r="40" spans="2:46" ht="13.5" customHeight="1">
+    <row r="40" spans="2:50" ht="13.5" customHeight="1">
       <c r="B40" s="12"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -15292,56 +15221,56 @@
       <c r="AS40" s="13"/>
       <c r="AT40" s="14"/>
     </row>
-    <row r="41" spans="2:46" ht="13.5" customHeight="1">
-      <c r="B41" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="36"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="36"/>
-      <c r="Y41" s="36"/>
-      <c r="Z41" s="36"/>
-      <c r="AA41" s="36"/>
-      <c r="AB41" s="36"/>
-      <c r="AC41" s="36"/>
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="36"/>
-      <c r="AF41" s="36"/>
-      <c r="AG41" s="36"/>
-      <c r="AH41" s="36"/>
-      <c r="AI41" s="36"/>
-      <c r="AJ41" s="36"/>
-      <c r="AK41" s="36"/>
-      <c r="AL41" s="36"/>
-      <c r="AM41" s="36"/>
-      <c r="AN41" s="36"/>
-      <c r="AO41" s="36"/>
-      <c r="AP41" s="36"/>
-      <c r="AQ41" s="36"/>
-      <c r="AR41" s="36"/>
-      <c r="AS41" s="36"/>
-      <c r="AT41" s="37"/>
-    </row>
-    <row r="42" spans="2:46" ht="13.5" customHeight="1">
+    <row r="41" spans="2:50" ht="13.5" customHeight="1">
+      <c r="B41" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="75"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="75"/>
+      <c r="V41" s="75"/>
+      <c r="W41" s="75"/>
+      <c r="X41" s="75"/>
+      <c r="Y41" s="75"/>
+      <c r="Z41" s="75"/>
+      <c r="AA41" s="75"/>
+      <c r="AB41" s="75"/>
+      <c r="AC41" s="75"/>
+      <c r="AD41" s="75"/>
+      <c r="AE41" s="75"/>
+      <c r="AF41" s="75"/>
+      <c r="AG41" s="75"/>
+      <c r="AH41" s="75"/>
+      <c r="AI41" s="75"/>
+      <c r="AJ41" s="75"/>
+      <c r="AK41" s="75"/>
+      <c r="AL41" s="75"/>
+      <c r="AM41" s="75"/>
+      <c r="AN41" s="75"/>
+      <c r="AO41" s="75"/>
+      <c r="AP41" s="75"/>
+      <c r="AQ41" s="75"/>
+      <c r="AR41" s="75"/>
+      <c r="AS41" s="75"/>
+      <c r="AT41" s="76"/>
+    </row>
+    <row r="42" spans="2:50" ht="13.5" customHeight="1">
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -15388,7 +15317,7 @@
       <c r="AS42" s="13"/>
       <c r="AT42" s="14"/>
     </row>
-    <row r="43" spans="2:46" ht="13.5" customHeight="1">
+    <row r="43" spans="2:50" ht="13.5" customHeight="1">
       <c r="B43" s="12"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -15435,7 +15364,7 @@
       <c r="AS43" s="13"/>
       <c r="AT43" s="14"/>
     </row>
-    <row r="44" spans="2:46" ht="13.5" customHeight="1">
+    <row r="44" spans="2:50" ht="13.5" customHeight="1">
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -15482,7 +15411,7 @@
       <c r="AS44" s="13"/>
       <c r="AT44" s="14"/>
     </row>
-    <row r="45" spans="2:46" ht="13.5" customHeight="1">
+    <row r="45" spans="2:50" ht="13.5" customHeight="1">
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -15529,7 +15458,7 @@
       <c r="AS45" s="13"/>
       <c r="AT45" s="14"/>
     </row>
-    <row r="46" spans="2:46" ht="13.5" customHeight="1">
+    <row r="46" spans="2:50" ht="13.5" customHeight="1">
       <c r="B46" s="12"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -15576,7 +15505,7 @@
       <c r="AS46" s="13"/>
       <c r="AT46" s="14"/>
     </row>
-    <row r="47" spans="2:46" ht="13.5" customHeight="1">
+    <row r="47" spans="2:50" ht="13.5" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -15623,7 +15552,7 @@
       <c r="AS47" s="13"/>
       <c r="AT47" s="14"/>
     </row>
-    <row r="48" spans="2:46" ht="13.5" customHeight="1">
+    <row r="48" spans="2:50" ht="13.5" customHeight="1">
       <c r="B48" s="12"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -15670,7 +15599,7 @@
       <c r="AS48" s="13"/>
       <c r="AT48" s="14"/>
     </row>
-    <row r="49" spans="2:102" ht="13.5" customHeight="1">
+    <row r="49" spans="2:99" ht="13.5" customHeight="1">
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -15717,7 +15646,7 @@
       <c r="AS49" s="13"/>
       <c r="AT49" s="14"/>
     </row>
-    <row r="50" spans="2:102" ht="13.5" customHeight="1">
+    <row r="50" spans="2:99" ht="13.5" customHeight="1">
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -15764,7 +15693,7 @@
       <c r="AS50" s="13"/>
       <c r="AT50" s="14"/>
     </row>
-    <row r="51" spans="2:102" ht="13.5" customHeight="1">
+    <row r="51" spans="2:99" ht="13.5" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -15811,7 +15740,7 @@
       <c r="AS51" s="13"/>
       <c r="AT51" s="14"/>
     </row>
-    <row r="52" spans="2:102" ht="13.5" customHeight="1">
+    <row r="52" spans="2:99" ht="13.5" customHeight="1">
       <c r="B52" s="15"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
@@ -15858,7 +15787,7 @@
       <c r="AS52" s="16"/>
       <c r="AT52" s="17"/>
     </row>
-    <row r="55" spans="2:102" ht="13.5" customHeight="1">
+    <row r="55" spans="2:99" ht="13.5" customHeight="1">
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -15905,19 +15834,19 @@
       <c r="AS55" s="10"/>
       <c r="AT55" s="11"/>
       <c r="AX55" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AY55" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="BC55" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG55" s="56" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="2:102" ht="13.5" customHeight="1">
+        <v>136</v>
+      </c>
+      <c r="BG55" s="42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="2:99" ht="13.5" customHeight="1">
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -15964,13 +15893,13 @@
       <c r="AS56" s="13"/>
       <c r="AT56" s="14"/>
       <c r="AX56" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AY56" s="56" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="2:102" ht="13.5" customHeight="1">
+        <v>138</v>
+      </c>
+      <c r="AY56" s="42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="2:99" ht="13.5" customHeight="1">
       <c r="B57" s="12"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -16016,347 +15945,286 @@
       <c r="AR57" s="13"/>
       <c r="AS57" s="13"/>
       <c r="AT57" s="14"/>
-      <c r="BB57" s="79"/>
-      <c r="BC57" s="79"/>
-      <c r="BD57" s="79"/>
-      <c r="BE57" s="79"/>
-      <c r="BF57" s="79"/>
-      <c r="BG57" s="79"/>
-      <c r="BH57" s="79"/>
-      <c r="BI57" s="79"/>
-      <c r="BJ57" s="79"/>
-      <c r="BK57" s="79"/>
-      <c r="BL57" s="79"/>
-      <c r="BM57" s="79"/>
-      <c r="BN57" s="79"/>
-      <c r="BO57" s="79"/>
-      <c r="BP57" s="79"/>
-      <c r="BQ57" s="79"/>
-      <c r="BR57" s="79"/>
-      <c r="BS57" s="79"/>
-      <c r="BT57" s="79"/>
-      <c r="BU57" s="79"/>
-      <c r="BV57" s="79"/>
-      <c r="BW57" s="79"/>
-      <c r="BX57" s="79"/>
-      <c r="BY57" s="79"/>
-      <c r="BZ57" s="79"/>
-      <c r="CA57" s="79"/>
-      <c r="CB57" s="79"/>
-      <c r="CC57" s="79"/>
-      <c r="CD57" s="79"/>
-      <c r="CE57" s="79"/>
-      <c r="CF57" s="79"/>
-      <c r="CG57" s="79"/>
-      <c r="CH57" s="79"/>
-      <c r="CI57" s="79"/>
-      <c r="CJ57" s="79"/>
-      <c r="CK57" s="79"/>
-      <c r="CL57" s="79"/>
-      <c r="CM57" s="79"/>
-      <c r="CN57" s="76"/>
-      <c r="CO57" s="76"/>
-      <c r="CP57" s="76"/>
-      <c r="CQ57" s="76"/>
-      <c r="CR57" s="76"/>
-      <c r="CS57" s="76"/>
-      <c r="CT57" s="76"/>
-      <c r="CU57" s="76"/>
-      <c r="CV57" s="76"/>
-      <c r="CW57" s="76"/>
-      <c r="CX57" s="76"/>
-    </row>
-    <row r="58" spans="2:102" ht="13.5" customHeight="1">
-      <c r="B58" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="39"/>
-      <c r="K58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
-      <c r="Z58" s="39"/>
-      <c r="AA58" s="39"/>
-      <c r="AB58" s="39"/>
-      <c r="AC58" s="39"/>
-      <c r="AD58" s="39"/>
-      <c r="AE58" s="39"/>
-      <c r="AF58" s="39"/>
-      <c r="AG58" s="39"/>
-      <c r="AH58" s="39"/>
-      <c r="AI58" s="39"/>
-      <c r="AJ58" s="39"/>
-      <c r="AK58" s="39"/>
-      <c r="AL58" s="39"/>
-      <c r="AM58" s="39"/>
-      <c r="AN58" s="39"/>
-      <c r="AO58" s="39"/>
-      <c r="AP58" s="39"/>
-      <c r="AQ58" s="39"/>
-      <c r="AR58" s="39"/>
-      <c r="AS58" s="39"/>
-      <c r="AT58" s="40"/>
-      <c r="BB58" s="79"/>
-      <c r="BC58" s="77"/>
-      <c r="BD58" s="77"/>
-      <c r="BE58" s="77"/>
-      <c r="BF58" s="77"/>
-      <c r="BG58" s="77"/>
-      <c r="BH58" s="77"/>
-      <c r="BI58" s="77"/>
-      <c r="BJ58" s="77"/>
-      <c r="BK58" s="77"/>
-      <c r="BL58" s="77"/>
-      <c r="BM58" s="77"/>
-      <c r="BN58" s="77"/>
-      <c r="BO58" s="77"/>
-      <c r="BP58" s="77"/>
-      <c r="BQ58" s="77"/>
-      <c r="BR58" s="77"/>
-      <c r="BS58" s="77"/>
-      <c r="BT58" s="77"/>
-      <c r="BU58" s="77"/>
-      <c r="BV58" s="77"/>
-      <c r="BW58" s="77"/>
-      <c r="BX58" s="77"/>
-      <c r="BY58" s="77"/>
-      <c r="BZ58" s="77"/>
-      <c r="CA58" s="77"/>
-      <c r="CB58" s="77"/>
-      <c r="CC58" s="77"/>
-      <c r="CD58" s="77"/>
-      <c r="CE58" s="77"/>
-      <c r="CF58" s="77"/>
-      <c r="CG58" s="77"/>
-      <c r="CH58" s="77"/>
-      <c r="CI58" s="77"/>
-      <c r="CJ58" s="77"/>
-      <c r="CK58" s="77"/>
-      <c r="CL58" s="77"/>
-      <c r="CM58" s="77"/>
-      <c r="CN58" s="77"/>
-      <c r="CO58" s="77"/>
-      <c r="CP58" s="77"/>
-      <c r="CQ58" s="77"/>
-      <c r="CR58" s="77"/>
-      <c r="CS58" s="77"/>
-      <c r="CT58" s="77"/>
-      <c r="CU58" s="77"/>
-      <c r="CV58" s="76"/>
-      <c r="CW58" s="76"/>
-      <c r="CX58" s="76"/>
-    </row>
-    <row r="59" spans="2:102" ht="13.5" customHeight="1">
-      <c r="B59" s="38"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39"/>
-      <c r="AA59" s="39"/>
-      <c r="AB59" s="39"/>
-      <c r="AC59" s="39"/>
-      <c r="AD59" s="39"/>
-      <c r="AE59" s="39"/>
-      <c r="AF59" s="39"/>
-      <c r="AG59" s="39"/>
-      <c r="AH59" s="39"/>
-      <c r="AI59" s="39"/>
-      <c r="AJ59" s="39"/>
-      <c r="AK59" s="39"/>
-      <c r="AL59" s="39"/>
-      <c r="AM59" s="39"/>
-      <c r="AN59" s="39"/>
-      <c r="AO59" s="39"/>
-      <c r="AP59" s="39"/>
-      <c r="AQ59" s="39"/>
-      <c r="AR59" s="39"/>
-      <c r="AS59" s="39"/>
-      <c r="AT59" s="40"/>
-      <c r="BB59" s="79"/>
-      <c r="BC59" s="77"/>
-      <c r="BD59" s="77"/>
-      <c r="BE59" s="77"/>
-      <c r="BF59" s="77"/>
-      <c r="BG59" s="77"/>
-      <c r="BH59" s="77"/>
-      <c r="BI59" s="77"/>
-      <c r="BJ59" s="77"/>
-      <c r="BK59" s="77"/>
-      <c r="BL59" s="77"/>
-      <c r="BM59" s="77"/>
-      <c r="BN59" s="77"/>
-      <c r="BO59" s="77"/>
-      <c r="BP59" s="77"/>
-      <c r="BQ59" s="77"/>
-      <c r="BR59" s="77"/>
-      <c r="BS59" s="77"/>
-      <c r="BT59" s="77"/>
-      <c r="BU59" s="77"/>
-      <c r="BV59" s="77"/>
-      <c r="BW59" s="77"/>
-      <c r="BX59" s="77"/>
-      <c r="BY59" s="77"/>
-      <c r="BZ59" s="77"/>
-      <c r="CA59" s="77"/>
-      <c r="CB59" s="77"/>
-      <c r="CC59" s="77"/>
-      <c r="CD59" s="77"/>
-      <c r="CE59" s="77"/>
-      <c r="CF59" s="77"/>
-      <c r="CG59" s="77"/>
-      <c r="CH59" s="77"/>
-      <c r="CI59" s="77"/>
-      <c r="CJ59" s="77"/>
-      <c r="CK59" s="77"/>
-      <c r="CL59" s="77"/>
-      <c r="CM59" s="77"/>
-      <c r="CN59" s="77"/>
-      <c r="CO59" s="77"/>
-      <c r="CP59" s="77"/>
-      <c r="CQ59" s="77"/>
-      <c r="CR59" s="77"/>
-      <c r="CS59" s="77"/>
-      <c r="CT59" s="77"/>
-      <c r="CU59" s="77"/>
-      <c r="CV59" s="76"/>
-      <c r="CW59" s="76"/>
-      <c r="CX59" s="76"/>
-    </row>
-    <row r="60" spans="2:102" ht="13.5" customHeight="1">
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="39"/>
-      <c r="AB60" s="39"/>
-      <c r="AC60" s="39"/>
-      <c r="AD60" s="39"/>
-      <c r="AE60" s="39"/>
-      <c r="AF60" s="39"/>
-      <c r="AG60" s="39"/>
-      <c r="AH60" s="39"/>
-      <c r="AI60" s="39"/>
-      <c r="AJ60" s="39"/>
-      <c r="AK60" s="39"/>
-      <c r="AL60" s="39"/>
-      <c r="AM60" s="39"/>
-      <c r="AN60" s="39"/>
-      <c r="AO60" s="39"/>
-      <c r="AP60" s="39"/>
-      <c r="AQ60" s="39"/>
-      <c r="AR60" s="39"/>
-      <c r="AS60" s="39"/>
-      <c r="AT60" s="40"/>
-      <c r="BB60" s="79"/>
-      <c r="BC60" s="77"/>
-      <c r="BD60" s="77"/>
-      <c r="BE60" s="77"/>
-      <c r="BF60" s="77"/>
-      <c r="BG60" s="77"/>
-      <c r="BH60" s="77"/>
-      <c r="BI60" s="77"/>
-      <c r="BJ60" s="77"/>
-      <c r="BK60" s="77"/>
-      <c r="BL60" s="77"/>
-      <c r="BM60" s="77"/>
-      <c r="BN60" s="77"/>
-      <c r="BO60" s="77"/>
-      <c r="BP60" s="77"/>
-      <c r="BQ60" s="77"/>
-      <c r="BR60" s="77"/>
-      <c r="BS60" s="77"/>
-      <c r="BT60" s="77"/>
-      <c r="BU60" s="77"/>
-      <c r="BV60" s="77"/>
-      <c r="BW60" s="77"/>
-      <c r="BX60" s="77"/>
-      <c r="BY60" s="77"/>
-      <c r="BZ60" s="77"/>
-      <c r="CA60" s="77"/>
-      <c r="CB60" s="77"/>
-      <c r="CC60" s="77"/>
-      <c r="CD60" s="77"/>
-      <c r="CE60" s="77"/>
-      <c r="CF60" s="77"/>
-      <c r="CG60" s="77"/>
-      <c r="CH60" s="77"/>
-      <c r="CI60" s="77"/>
-      <c r="CJ60" s="77"/>
-      <c r="CK60" s="77"/>
-      <c r="CL60" s="77"/>
-      <c r="CM60" s="77"/>
-      <c r="CN60" s="77"/>
-      <c r="CO60" s="77"/>
-      <c r="CP60" s="77"/>
-      <c r="CQ60" s="77"/>
-      <c r="CR60" s="77"/>
-      <c r="CS60" s="77"/>
-      <c r="CT60" s="77"/>
-      <c r="CU60" s="77"/>
-      <c r="CV60" s="76"/>
-      <c r="CW60" s="76"/>
-      <c r="CX60" s="76"/>
-    </row>
-    <row r="61" spans="2:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="58" spans="2:99" ht="13.5" customHeight="1">
+      <c r="B58" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="78"/>
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
+      <c r="K58" s="78"/>
+      <c r="L58" s="78"/>
+      <c r="M58" s="78"/>
+      <c r="N58" s="78"/>
+      <c r="O58" s="78"/>
+      <c r="P58" s="78"/>
+      <c r="Q58" s="78"/>
+      <c r="R58" s="78"/>
+      <c r="S58" s="78"/>
+      <c r="T58" s="78"/>
+      <c r="U58" s="78"/>
+      <c r="V58" s="78"/>
+      <c r="W58" s="78"/>
+      <c r="X58" s="78"/>
+      <c r="Y58" s="78"/>
+      <c r="Z58" s="78"/>
+      <c r="AA58" s="78"/>
+      <c r="AB58" s="78"/>
+      <c r="AC58" s="78"/>
+      <c r="AD58" s="78"/>
+      <c r="AE58" s="78"/>
+      <c r="AF58" s="78"/>
+      <c r="AG58" s="78"/>
+      <c r="AH58" s="78"/>
+      <c r="AI58" s="78"/>
+      <c r="AJ58" s="78"/>
+      <c r="AK58" s="78"/>
+      <c r="AL58" s="78"/>
+      <c r="AM58" s="78"/>
+      <c r="AN58" s="78"/>
+      <c r="AO58" s="78"/>
+      <c r="AP58" s="78"/>
+      <c r="AQ58" s="78"/>
+      <c r="AR58" s="78"/>
+      <c r="AS58" s="78"/>
+      <c r="AT58" s="79"/>
+      <c r="BC58" s="80"/>
+      <c r="BD58" s="80"/>
+      <c r="BE58" s="80"/>
+      <c r="BF58" s="80"/>
+      <c r="BG58" s="80"/>
+      <c r="BH58" s="80"/>
+      <c r="BI58" s="80"/>
+      <c r="BJ58" s="80"/>
+      <c r="BK58" s="80"/>
+      <c r="BL58" s="80"/>
+      <c r="BM58" s="80"/>
+      <c r="BN58" s="80"/>
+      <c r="BO58" s="80"/>
+      <c r="BP58" s="80"/>
+      <c r="BQ58" s="80"/>
+      <c r="BR58" s="80"/>
+      <c r="BS58" s="80"/>
+      <c r="BT58" s="80"/>
+      <c r="BU58" s="80"/>
+      <c r="BV58" s="80"/>
+      <c r="BW58" s="80"/>
+      <c r="BX58" s="80"/>
+      <c r="BY58" s="80"/>
+      <c r="BZ58" s="80"/>
+      <c r="CA58" s="80"/>
+      <c r="CB58" s="80"/>
+      <c r="CC58" s="80"/>
+      <c r="CD58" s="80"/>
+      <c r="CE58" s="80"/>
+      <c r="CF58" s="80"/>
+      <c r="CG58" s="80"/>
+      <c r="CH58" s="80"/>
+      <c r="CI58" s="80"/>
+      <c r="CJ58" s="80"/>
+      <c r="CK58" s="80"/>
+      <c r="CL58" s="80"/>
+      <c r="CM58" s="80"/>
+      <c r="CN58" s="80"/>
+      <c r="CO58" s="80"/>
+      <c r="CP58" s="80"/>
+      <c r="CQ58" s="80"/>
+      <c r="CR58" s="80"/>
+      <c r="CS58" s="80"/>
+      <c r="CT58" s="80"/>
+      <c r="CU58" s="80"/>
+    </row>
+    <row r="59" spans="2:99" ht="13.5" customHeight="1">
+      <c r="B59" s="77"/>
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="78"/>
+      <c r="I59" s="78"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="78"/>
+      <c r="L59" s="78"/>
+      <c r="M59" s="78"/>
+      <c r="N59" s="78"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="78"/>
+      <c r="Q59" s="78"/>
+      <c r="R59" s="78"/>
+      <c r="S59" s="78"/>
+      <c r="T59" s="78"/>
+      <c r="U59" s="78"/>
+      <c r="V59" s="78"/>
+      <c r="W59" s="78"/>
+      <c r="X59" s="78"/>
+      <c r="Y59" s="78"/>
+      <c r="Z59" s="78"/>
+      <c r="AA59" s="78"/>
+      <c r="AB59" s="78"/>
+      <c r="AC59" s="78"/>
+      <c r="AD59" s="78"/>
+      <c r="AE59" s="78"/>
+      <c r="AF59" s="78"/>
+      <c r="AG59" s="78"/>
+      <c r="AH59" s="78"/>
+      <c r="AI59" s="78"/>
+      <c r="AJ59" s="78"/>
+      <c r="AK59" s="78"/>
+      <c r="AL59" s="78"/>
+      <c r="AM59" s="78"/>
+      <c r="AN59" s="78"/>
+      <c r="AO59" s="78"/>
+      <c r="AP59" s="78"/>
+      <c r="AQ59" s="78"/>
+      <c r="AR59" s="78"/>
+      <c r="AS59" s="78"/>
+      <c r="AT59" s="79"/>
+      <c r="BC59" s="80"/>
+      <c r="BD59" s="80"/>
+      <c r="BE59" s="80"/>
+      <c r="BF59" s="80"/>
+      <c r="BG59" s="80"/>
+      <c r="BH59" s="80"/>
+      <c r="BI59" s="80"/>
+      <c r="BJ59" s="80"/>
+      <c r="BK59" s="80"/>
+      <c r="BL59" s="80"/>
+      <c r="BM59" s="80"/>
+      <c r="BN59" s="80"/>
+      <c r="BO59" s="80"/>
+      <c r="BP59" s="80"/>
+      <c r="BQ59" s="80"/>
+      <c r="BR59" s="80"/>
+      <c r="BS59" s="80"/>
+      <c r="BT59" s="80"/>
+      <c r="BU59" s="80"/>
+      <c r="BV59" s="80"/>
+      <c r="BW59" s="80"/>
+      <c r="BX59" s="80"/>
+      <c r="BY59" s="80"/>
+      <c r="BZ59" s="80"/>
+      <c r="CA59" s="80"/>
+      <c r="CB59" s="80"/>
+      <c r="CC59" s="80"/>
+      <c r="CD59" s="80"/>
+      <c r="CE59" s="80"/>
+      <c r="CF59" s="80"/>
+      <c r="CG59" s="80"/>
+      <c r="CH59" s="80"/>
+      <c r="CI59" s="80"/>
+      <c r="CJ59" s="80"/>
+      <c r="CK59" s="80"/>
+      <c r="CL59" s="80"/>
+      <c r="CM59" s="80"/>
+      <c r="CN59" s="80"/>
+      <c r="CO59" s="80"/>
+      <c r="CP59" s="80"/>
+      <c r="CQ59" s="80"/>
+      <c r="CR59" s="80"/>
+      <c r="CS59" s="80"/>
+      <c r="CT59" s="80"/>
+      <c r="CU59" s="80"/>
+    </row>
+    <row r="60" spans="2:99" ht="13.5" customHeight="1">
+      <c r="B60" s="77"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="78"/>
+      <c r="H60" s="78"/>
+      <c r="I60" s="78"/>
+      <c r="J60" s="78"/>
+      <c r="K60" s="78"/>
+      <c r="L60" s="78"/>
+      <c r="M60" s="78"/>
+      <c r="N60" s="78"/>
+      <c r="O60" s="78"/>
+      <c r="P60" s="78"/>
+      <c r="Q60" s="78"/>
+      <c r="R60" s="78"/>
+      <c r="S60" s="78"/>
+      <c r="T60" s="78"/>
+      <c r="U60" s="78"/>
+      <c r="V60" s="78"/>
+      <c r="W60" s="78"/>
+      <c r="X60" s="78"/>
+      <c r="Y60" s="78"/>
+      <c r="Z60" s="78"/>
+      <c r="AA60" s="78"/>
+      <c r="AB60" s="78"/>
+      <c r="AC60" s="78"/>
+      <c r="AD60" s="78"/>
+      <c r="AE60" s="78"/>
+      <c r="AF60" s="78"/>
+      <c r="AG60" s="78"/>
+      <c r="AH60" s="78"/>
+      <c r="AI60" s="78"/>
+      <c r="AJ60" s="78"/>
+      <c r="AK60" s="78"/>
+      <c r="AL60" s="78"/>
+      <c r="AM60" s="78"/>
+      <c r="AN60" s="78"/>
+      <c r="AO60" s="78"/>
+      <c r="AP60" s="78"/>
+      <c r="AQ60" s="78"/>
+      <c r="AR60" s="78"/>
+      <c r="AS60" s="78"/>
+      <c r="AT60" s="79"/>
+      <c r="BC60" s="80"/>
+      <c r="BD60" s="80"/>
+      <c r="BE60" s="80"/>
+      <c r="BF60" s="80"/>
+      <c r="BG60" s="80"/>
+      <c r="BH60" s="80"/>
+      <c r="BI60" s="80"/>
+      <c r="BJ60" s="80"/>
+      <c r="BK60" s="80"/>
+      <c r="BL60" s="80"/>
+      <c r="BM60" s="80"/>
+      <c r="BN60" s="80"/>
+      <c r="BO60" s="80"/>
+      <c r="BP60" s="80"/>
+      <c r="BQ60" s="80"/>
+      <c r="BR60" s="80"/>
+      <c r="BS60" s="80"/>
+      <c r="BT60" s="80"/>
+      <c r="BU60" s="80"/>
+      <c r="BV60" s="80"/>
+      <c r="BW60" s="80"/>
+      <c r="BX60" s="80"/>
+      <c r="BY60" s="80"/>
+      <c r="BZ60" s="80"/>
+      <c r="CA60" s="80"/>
+      <c r="CB60" s="80"/>
+      <c r="CC60" s="80"/>
+      <c r="CD60" s="80"/>
+      <c r="CE60" s="80"/>
+      <c r="CF60" s="80"/>
+      <c r="CG60" s="80"/>
+      <c r="CH60" s="80"/>
+      <c r="CI60" s="80"/>
+      <c r="CJ60" s="80"/>
+      <c r="CK60" s="80"/>
+      <c r="CL60" s="80"/>
+      <c r="CM60" s="80"/>
+      <c r="CN60" s="80"/>
+      <c r="CO60" s="80"/>
+      <c r="CP60" s="80"/>
+      <c r="CQ60" s="80"/>
+      <c r="CR60" s="80"/>
+      <c r="CS60" s="80"/>
+      <c r="CT60" s="80"/>
+      <c r="CU60" s="80"/>
+    </row>
+    <row r="61" spans="2:99" ht="13.5" customHeight="1">
       <c r="B61" s="12"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -16402,57 +16270,8 @@
       <c r="AR61" s="13"/>
       <c r="AS61" s="13"/>
       <c r="AT61" s="14"/>
-      <c r="BB61" s="79"/>
-      <c r="BC61" s="79"/>
-      <c r="BD61" s="79"/>
-      <c r="BE61" s="79"/>
-      <c r="BF61" s="79"/>
-      <c r="BG61" s="79"/>
-      <c r="BH61" s="79"/>
-      <c r="BI61" s="79"/>
-      <c r="BJ61" s="79"/>
-      <c r="BK61" s="79"/>
-      <c r="BL61" s="79"/>
-      <c r="BM61" s="79"/>
-      <c r="BN61" s="79"/>
-      <c r="BO61" s="79"/>
-      <c r="BP61" s="79"/>
-      <c r="BQ61" s="79"/>
-      <c r="BR61" s="79"/>
-      <c r="BS61" s="79"/>
-      <c r="BT61" s="79"/>
-      <c r="BU61" s="79"/>
-      <c r="BV61" s="79"/>
-      <c r="BW61" s="79"/>
-      <c r="BX61" s="79"/>
-      <c r="BY61" s="79"/>
-      <c r="BZ61" s="79"/>
-      <c r="CA61" s="79"/>
-      <c r="CB61" s="79"/>
-      <c r="CC61" s="79"/>
-      <c r="CD61" s="79"/>
-      <c r="CE61" s="79"/>
-      <c r="CF61" s="79"/>
-      <c r="CG61" s="79"/>
-      <c r="CH61" s="79"/>
-      <c r="CI61" s="79"/>
-      <c r="CJ61" s="79"/>
-      <c r="CK61" s="79"/>
-      <c r="CL61" s="79"/>
-      <c r="CM61" s="79"/>
-      <c r="CN61" s="76"/>
-      <c r="CO61" s="76"/>
-      <c r="CP61" s="76"/>
-      <c r="CQ61" s="76"/>
-      <c r="CR61" s="76"/>
-      <c r="CS61" s="76"/>
-      <c r="CT61" s="76"/>
-      <c r="CU61" s="76"/>
-      <c r="CV61" s="76"/>
-      <c r="CW61" s="76"/>
-      <c r="CX61" s="76"/>
-    </row>
-    <row r="62" spans="2:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="62" spans="2:99" ht="13.5" customHeight="1">
       <c r="B62" s="12"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -16498,57 +16317,8 @@
       <c r="AR62" s="13"/>
       <c r="AS62" s="13"/>
       <c r="AT62" s="14"/>
-      <c r="BB62" s="79"/>
-      <c r="BC62" s="79"/>
-      <c r="BD62" s="79"/>
-      <c r="BE62" s="79"/>
-      <c r="BF62" s="79"/>
-      <c r="BG62" s="79"/>
-      <c r="BH62" s="79"/>
-      <c r="BI62" s="79"/>
-      <c r="BJ62" s="79"/>
-      <c r="BK62" s="79"/>
-      <c r="BL62" s="79"/>
-      <c r="BM62" s="79"/>
-      <c r="BN62" s="79"/>
-      <c r="BO62" s="79"/>
-      <c r="BP62" s="79"/>
-      <c r="BQ62" s="79"/>
-      <c r="BR62" s="79"/>
-      <c r="BS62" s="79"/>
-      <c r="BT62" s="79"/>
-      <c r="BU62" s="79"/>
-      <c r="BV62" s="79"/>
-      <c r="BW62" s="79"/>
-      <c r="BX62" s="79"/>
-      <c r="BY62" s="79"/>
-      <c r="BZ62" s="79"/>
-      <c r="CA62" s="79"/>
-      <c r="CB62" s="79"/>
-      <c r="CC62" s="79"/>
-      <c r="CD62" s="79"/>
-      <c r="CE62" s="79"/>
-      <c r="CF62" s="79"/>
-      <c r="CG62" s="79"/>
-      <c r="CH62" s="79"/>
-      <c r="CI62" s="79"/>
-      <c r="CJ62" s="79"/>
-      <c r="CK62" s="79"/>
-      <c r="CL62" s="79"/>
-      <c r="CM62" s="79"/>
-      <c r="CN62" s="76"/>
-      <c r="CO62" s="76"/>
-      <c r="CP62" s="76"/>
-      <c r="CQ62" s="76"/>
-      <c r="CR62" s="76"/>
-      <c r="CS62" s="76"/>
-      <c r="CT62" s="76"/>
-      <c r="CU62" s="76"/>
-      <c r="CV62" s="76"/>
-      <c r="CW62" s="76"/>
-      <c r="CX62" s="76"/>
-    </row>
-    <row r="63" spans="2:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="63" spans="2:99" ht="13.5" customHeight="1">
       <c r="B63" s="12"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -16594,57 +16364,8 @@
       <c r="AR63" s="13"/>
       <c r="AS63" s="13"/>
       <c r="AT63" s="14"/>
-      <c r="BB63" s="79"/>
-      <c r="BC63" s="79"/>
-      <c r="BD63" s="79"/>
-      <c r="BE63" s="79"/>
-      <c r="BF63" s="79"/>
-      <c r="BG63" s="79"/>
-      <c r="BH63" s="79"/>
-      <c r="BI63" s="79"/>
-      <c r="BJ63" s="79"/>
-      <c r="BK63" s="79"/>
-      <c r="BL63" s="79"/>
-      <c r="BM63" s="79"/>
-      <c r="BN63" s="79"/>
-      <c r="BO63" s="79"/>
-      <c r="BP63" s="79"/>
-      <c r="BQ63" s="79"/>
-      <c r="BR63" s="79"/>
-      <c r="BS63" s="79"/>
-      <c r="BT63" s="79"/>
-      <c r="BU63" s="79"/>
-      <c r="BV63" s="79"/>
-      <c r="BW63" s="79"/>
-      <c r="BX63" s="79"/>
-      <c r="BY63" s="79"/>
-      <c r="BZ63" s="79"/>
-      <c r="CA63" s="79"/>
-      <c r="CB63" s="79"/>
-      <c r="CC63" s="79"/>
-      <c r="CD63" s="79"/>
-      <c r="CE63" s="79"/>
-      <c r="CF63" s="79"/>
-      <c r="CG63" s="79"/>
-      <c r="CH63" s="79"/>
-      <c r="CI63" s="79"/>
-      <c r="CJ63" s="79"/>
-      <c r="CK63" s="79"/>
-      <c r="CL63" s="79"/>
-      <c r="CM63" s="79"/>
-      <c r="CN63" s="76"/>
-      <c r="CO63" s="76"/>
-      <c r="CP63" s="76"/>
-      <c r="CQ63" s="76"/>
-      <c r="CR63" s="76"/>
-      <c r="CS63" s="76"/>
-      <c r="CT63" s="76"/>
-      <c r="CU63" s="76"/>
-      <c r="CV63" s="76"/>
-      <c r="CW63" s="76"/>
-      <c r="CX63" s="76"/>
-    </row>
-    <row r="64" spans="2:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="64" spans="2:99" ht="13.5" customHeight="1">
       <c r="B64" s="12"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -16690,57 +16411,8 @@
       <c r="AR64" s="13"/>
       <c r="AS64" s="13"/>
       <c r="AT64" s="14"/>
-      <c r="BB64" s="79"/>
-      <c r="BC64" s="79"/>
-      <c r="BD64" s="79"/>
-      <c r="BE64" s="79"/>
-      <c r="BF64" s="79"/>
-      <c r="BG64" s="79"/>
-      <c r="BH64" s="79"/>
-      <c r="BI64" s="79"/>
-      <c r="BJ64" s="79"/>
-      <c r="BK64" s="79"/>
-      <c r="BL64" s="79"/>
-      <c r="BM64" s="79"/>
-      <c r="BN64" s="79"/>
-      <c r="BO64" s="79"/>
-      <c r="BP64" s="79"/>
-      <c r="BQ64" s="79"/>
-      <c r="BR64" s="79"/>
-      <c r="BS64" s="79"/>
-      <c r="BT64" s="79"/>
-      <c r="BU64" s="79"/>
-      <c r="BV64" s="79"/>
-      <c r="BW64" s="79"/>
-      <c r="BX64" s="79"/>
-      <c r="BY64" s="79"/>
-      <c r="BZ64" s="79"/>
-      <c r="CA64" s="79"/>
-      <c r="CB64" s="79"/>
-      <c r="CC64" s="79"/>
-      <c r="CD64" s="79"/>
-      <c r="CE64" s="79"/>
-      <c r="CF64" s="79"/>
-      <c r="CG64" s="79"/>
-      <c r="CH64" s="79"/>
-      <c r="CI64" s="79"/>
-      <c r="CJ64" s="79"/>
-      <c r="CK64" s="79"/>
-      <c r="CL64" s="79"/>
-      <c r="CM64" s="79"/>
-      <c r="CN64" s="76"/>
-      <c r="CO64" s="76"/>
-      <c r="CP64" s="76"/>
-      <c r="CQ64" s="76"/>
-      <c r="CR64" s="76"/>
-      <c r="CS64" s="76"/>
-      <c r="CT64" s="76"/>
-      <c r="CU64" s="76"/>
-      <c r="CV64" s="76"/>
-      <c r="CW64" s="76"/>
-      <c r="CX64" s="76"/>
-    </row>
-    <row r="65" spans="2:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="65" spans="2:99" ht="13.5" customHeight="1">
       <c r="B65" s="12"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -16786,57 +16458,8 @@
       <c r="AR65" s="13"/>
       <c r="AS65" s="13"/>
       <c r="AT65" s="14"/>
-      <c r="BB65" s="79"/>
-      <c r="BC65" s="79"/>
-      <c r="BD65" s="79"/>
-      <c r="BE65" s="79"/>
-      <c r="BF65" s="79"/>
-      <c r="BG65" s="79"/>
-      <c r="BH65" s="79"/>
-      <c r="BI65" s="79"/>
-      <c r="BJ65" s="79"/>
-      <c r="BK65" s="79"/>
-      <c r="BL65" s="79"/>
-      <c r="BM65" s="79"/>
-      <c r="BN65" s="79"/>
-      <c r="BO65" s="79"/>
-      <c r="BP65" s="79"/>
-      <c r="BQ65" s="79"/>
-      <c r="BR65" s="79"/>
-      <c r="BS65" s="79"/>
-      <c r="BT65" s="79"/>
-      <c r="BU65" s="79"/>
-      <c r="BV65" s="79"/>
-      <c r="BW65" s="79"/>
-      <c r="BX65" s="79"/>
-      <c r="BY65" s="79"/>
-      <c r="BZ65" s="79"/>
-      <c r="CA65" s="79"/>
-      <c r="CB65" s="79"/>
-      <c r="CC65" s="79"/>
-      <c r="CD65" s="79"/>
-      <c r="CE65" s="79"/>
-      <c r="CF65" s="79"/>
-      <c r="CG65" s="79"/>
-      <c r="CH65" s="79"/>
-      <c r="CI65" s="79"/>
-      <c r="CJ65" s="79"/>
-      <c r="CK65" s="79"/>
-      <c r="CL65" s="79"/>
-      <c r="CM65" s="79"/>
-      <c r="CN65" s="76"/>
-      <c r="CO65" s="76"/>
-      <c r="CP65" s="76"/>
-      <c r="CQ65" s="76"/>
-      <c r="CR65" s="76"/>
-      <c r="CS65" s="76"/>
-      <c r="CT65" s="76"/>
-      <c r="CU65" s="76"/>
-      <c r="CV65" s="76"/>
-      <c r="CW65" s="76"/>
-      <c r="CX65" s="76"/>
-    </row>
-    <row r="66" spans="2:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="66" spans="2:99" ht="13.5" customHeight="1">
       <c r="B66" s="12"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -16882,155 +16505,102 @@
       <c r="AR66" s="13"/>
       <c r="AS66" s="13"/>
       <c r="AT66" s="14"/>
-      <c r="BB66" s="79"/>
-      <c r="BC66" s="79"/>
-      <c r="BD66" s="79"/>
-      <c r="BE66" s="79"/>
-      <c r="BF66" s="79"/>
-      <c r="BG66" s="79"/>
-      <c r="BH66" s="79"/>
-      <c r="BI66" s="79"/>
-      <c r="BJ66" s="79"/>
-      <c r="BK66" s="79"/>
-      <c r="BL66" s="79"/>
-      <c r="BM66" s="79"/>
-      <c r="BN66" s="79"/>
-      <c r="BO66" s="79"/>
-      <c r="BP66" s="79"/>
-      <c r="BQ66" s="79"/>
-      <c r="BR66" s="79"/>
-      <c r="BS66" s="79"/>
-      <c r="BT66" s="79"/>
-      <c r="BU66" s="79"/>
-      <c r="BV66" s="79"/>
-      <c r="BW66" s="79"/>
-      <c r="BX66" s="79"/>
-      <c r="BY66" s="79"/>
-      <c r="BZ66" s="79"/>
-      <c r="CA66" s="79"/>
-      <c r="CB66" s="79"/>
-      <c r="CC66" s="79"/>
-      <c r="CD66" s="79"/>
-      <c r="CE66" s="79"/>
-      <c r="CF66" s="79"/>
-      <c r="CG66" s="79"/>
-      <c r="CH66" s="79"/>
-      <c r="CI66" s="79"/>
-      <c r="CJ66" s="79"/>
-      <c r="CK66" s="79"/>
-      <c r="CL66" s="79"/>
-      <c r="CM66" s="79"/>
-      <c r="CN66" s="76"/>
-      <c r="CO66" s="76"/>
-      <c r="CP66" s="76"/>
-      <c r="CQ66" s="76"/>
-      <c r="CR66" s="76"/>
-      <c r="CS66" s="76"/>
-      <c r="CT66" s="76"/>
-      <c r="CU66" s="76"/>
-      <c r="CV66" s="76"/>
-      <c r="CW66" s="76"/>
-      <c r="CX66" s="76"/>
-    </row>
-    <row r="67" spans="2:102" ht="13.5" customHeight="1">
-      <c r="B67" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
-      <c r="T67" s="36"/>
-      <c r="U67" s="36"/>
-      <c r="V67" s="36"/>
-      <c r="W67" s="36"/>
-      <c r="X67" s="36"/>
-      <c r="Y67" s="36"/>
-      <c r="Z67" s="36"/>
-      <c r="AA67" s="36"/>
-      <c r="AB67" s="36"/>
-      <c r="AC67" s="36"/>
-      <c r="AD67" s="36"/>
-      <c r="AE67" s="36"/>
-      <c r="AF67" s="36"/>
-      <c r="AG67" s="36"/>
-      <c r="AH67" s="36"/>
-      <c r="AI67" s="36"/>
-      <c r="AJ67" s="36"/>
-      <c r="AK67" s="36"/>
-      <c r="AL67" s="36"/>
-      <c r="AM67" s="36"/>
-      <c r="AN67" s="36"/>
-      <c r="AO67" s="36"/>
-      <c r="AP67" s="36"/>
-      <c r="AQ67" s="36"/>
-      <c r="AR67" s="36"/>
-      <c r="AS67" s="36"/>
-      <c r="AT67" s="37"/>
-      <c r="BB67" s="79"/>
-      <c r="BC67" s="78"/>
-      <c r="BD67" s="78"/>
-      <c r="BE67" s="78"/>
-      <c r="BF67" s="78"/>
-      <c r="BG67" s="78"/>
-      <c r="BH67" s="78"/>
-      <c r="BI67" s="78"/>
-      <c r="BJ67" s="78"/>
-      <c r="BK67" s="78"/>
-      <c r="BL67" s="78"/>
-      <c r="BM67" s="78"/>
-      <c r="BN67" s="78"/>
-      <c r="BO67" s="78"/>
-      <c r="BP67" s="78"/>
-      <c r="BQ67" s="78"/>
-      <c r="BR67" s="78"/>
-      <c r="BS67" s="78"/>
-      <c r="BT67" s="78"/>
-      <c r="BU67" s="78"/>
-      <c r="BV67" s="78"/>
-      <c r="BW67" s="78"/>
-      <c r="BX67" s="78"/>
-      <c r="BY67" s="78"/>
-      <c r="BZ67" s="78"/>
-      <c r="CA67" s="78"/>
-      <c r="CB67" s="78"/>
-      <c r="CC67" s="78"/>
-      <c r="CD67" s="78"/>
-      <c r="CE67" s="78"/>
-      <c r="CF67" s="78"/>
-      <c r="CG67" s="78"/>
-      <c r="CH67" s="78"/>
-      <c r="CI67" s="78"/>
-      <c r="CJ67" s="78"/>
-      <c r="CK67" s="78"/>
-      <c r="CL67" s="78"/>
-      <c r="CM67" s="78"/>
-      <c r="CN67" s="78"/>
-      <c r="CO67" s="78"/>
-      <c r="CP67" s="78"/>
-      <c r="CQ67" s="78"/>
-      <c r="CR67" s="78"/>
-      <c r="CS67" s="78"/>
-      <c r="CT67" s="78"/>
-      <c r="CU67" s="78"/>
-      <c r="CV67" s="76"/>
-      <c r="CW67" s="76"/>
-      <c r="CX67" s="76"/>
-    </row>
-    <row r="68" spans="2:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="67" spans="2:99" ht="13.5" customHeight="1">
+      <c r="B67" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="75"/>
+      <c r="M67" s="75"/>
+      <c r="N67" s="75"/>
+      <c r="O67" s="75"/>
+      <c r="P67" s="75"/>
+      <c r="Q67" s="75"/>
+      <c r="R67" s="75"/>
+      <c r="S67" s="75"/>
+      <c r="T67" s="75"/>
+      <c r="U67" s="75"/>
+      <c r="V67" s="75"/>
+      <c r="W67" s="75"/>
+      <c r="X67" s="75"/>
+      <c r="Y67" s="75"/>
+      <c r="Z67" s="75"/>
+      <c r="AA67" s="75"/>
+      <c r="AB67" s="75"/>
+      <c r="AC67" s="75"/>
+      <c r="AD67" s="75"/>
+      <c r="AE67" s="75"/>
+      <c r="AF67" s="75"/>
+      <c r="AG67" s="75"/>
+      <c r="AH67" s="75"/>
+      <c r="AI67" s="75"/>
+      <c r="AJ67" s="75"/>
+      <c r="AK67" s="75"/>
+      <c r="AL67" s="75"/>
+      <c r="AM67" s="75"/>
+      <c r="AN67" s="75"/>
+      <c r="AO67" s="75"/>
+      <c r="AP67" s="75"/>
+      <c r="AQ67" s="75"/>
+      <c r="AR67" s="75"/>
+      <c r="AS67" s="75"/>
+      <c r="AT67" s="76"/>
+      <c r="BC67" s="81"/>
+      <c r="BD67" s="81"/>
+      <c r="BE67" s="81"/>
+      <c r="BF67" s="81"/>
+      <c r="BG67" s="81"/>
+      <c r="BH67" s="81"/>
+      <c r="BI67" s="81"/>
+      <c r="BJ67" s="81"/>
+      <c r="BK67" s="81"/>
+      <c r="BL67" s="81"/>
+      <c r="BM67" s="81"/>
+      <c r="BN67" s="81"/>
+      <c r="BO67" s="81"/>
+      <c r="BP67" s="81"/>
+      <c r="BQ67" s="81"/>
+      <c r="BR67" s="81"/>
+      <c r="BS67" s="81"/>
+      <c r="BT67" s="81"/>
+      <c r="BU67" s="81"/>
+      <c r="BV67" s="81"/>
+      <c r="BW67" s="81"/>
+      <c r="BX67" s="81"/>
+      <c r="BY67" s="81"/>
+      <c r="BZ67" s="81"/>
+      <c r="CA67" s="81"/>
+      <c r="CB67" s="81"/>
+      <c r="CC67" s="81"/>
+      <c r="CD67" s="81"/>
+      <c r="CE67" s="81"/>
+      <c r="CF67" s="81"/>
+      <c r="CG67" s="81"/>
+      <c r="CH67" s="81"/>
+      <c r="CI67" s="81"/>
+      <c r="CJ67" s="81"/>
+      <c r="CK67" s="81"/>
+      <c r="CL67" s="81"/>
+      <c r="CM67" s="81"/>
+      <c r="CN67" s="81"/>
+      <c r="CO67" s="81"/>
+      <c r="CP67" s="81"/>
+      <c r="CQ67" s="81"/>
+      <c r="CR67" s="81"/>
+      <c r="CS67" s="81"/>
+      <c r="CT67" s="81"/>
+      <c r="CU67" s="81"/>
+    </row>
+    <row r="68" spans="2:99" ht="13.5" customHeight="1">
       <c r="B68" s="12"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -17076,57 +16646,8 @@
       <c r="AR68" s="13"/>
       <c r="AS68" s="13"/>
       <c r="AT68" s="14"/>
-      <c r="BB68" s="79"/>
-      <c r="BC68" s="79"/>
-      <c r="BD68" s="79"/>
-      <c r="BE68" s="79"/>
-      <c r="BF68" s="79"/>
-      <c r="BG68" s="79"/>
-      <c r="BH68" s="79"/>
-      <c r="BI68" s="79"/>
-      <c r="BJ68" s="79"/>
-      <c r="BK68" s="79"/>
-      <c r="BL68" s="79"/>
-      <c r="BM68" s="79"/>
-      <c r="BN68" s="79"/>
-      <c r="BO68" s="79"/>
-      <c r="BP68" s="79"/>
-      <c r="BQ68" s="79"/>
-      <c r="BR68" s="79"/>
-      <c r="BS68" s="79"/>
-      <c r="BT68" s="79"/>
-      <c r="BU68" s="79"/>
-      <c r="BV68" s="79"/>
-      <c r="BW68" s="79"/>
-      <c r="BX68" s="79"/>
-      <c r="BY68" s="79"/>
-      <c r="BZ68" s="79"/>
-      <c r="CA68" s="79"/>
-      <c r="CB68" s="79"/>
-      <c r="CC68" s="79"/>
-      <c r="CD68" s="79"/>
-      <c r="CE68" s="79"/>
-      <c r="CF68" s="79"/>
-      <c r="CG68" s="79"/>
-      <c r="CH68" s="79"/>
-      <c r="CI68" s="79"/>
-      <c r="CJ68" s="79"/>
-      <c r="CK68" s="79"/>
-      <c r="CL68" s="79"/>
-      <c r="CM68" s="79"/>
-      <c r="CN68" s="76"/>
-      <c r="CO68" s="76"/>
-      <c r="CP68" s="76"/>
-      <c r="CQ68" s="76"/>
-      <c r="CR68" s="76"/>
-      <c r="CS68" s="76"/>
-      <c r="CT68" s="76"/>
-      <c r="CU68" s="76"/>
-      <c r="CV68" s="76"/>
-      <c r="CW68" s="76"/>
-      <c r="CX68" s="76"/>
-    </row>
-    <row r="69" spans="2:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="69" spans="2:99" ht="13.5" customHeight="1">
       <c r="B69" s="12"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -17172,57 +16693,8 @@
       <c r="AR69" s="13"/>
       <c r="AS69" s="13"/>
       <c r="AT69" s="14"/>
-      <c r="BB69" s="79"/>
-      <c r="BC69" s="79"/>
-      <c r="BD69" s="79"/>
-      <c r="BE69" s="79"/>
-      <c r="BF69" s="79"/>
-      <c r="BG69" s="79"/>
-      <c r="BH69" s="79"/>
-      <c r="BI69" s="79"/>
-      <c r="BJ69" s="79"/>
-      <c r="BK69" s="79"/>
-      <c r="BL69" s="79"/>
-      <c r="BM69" s="79"/>
-      <c r="BN69" s="79"/>
-      <c r="BO69" s="79"/>
-      <c r="BP69" s="79"/>
-      <c r="BQ69" s="79"/>
-      <c r="BR69" s="79"/>
-      <c r="BS69" s="79"/>
-      <c r="BT69" s="79"/>
-      <c r="BU69" s="79"/>
-      <c r="BV69" s="79"/>
-      <c r="BW69" s="79"/>
-      <c r="BX69" s="79"/>
-      <c r="BY69" s="79"/>
-      <c r="BZ69" s="79"/>
-      <c r="CA69" s="79"/>
-      <c r="CB69" s="79"/>
-      <c r="CC69" s="79"/>
-      <c r="CD69" s="79"/>
-      <c r="CE69" s="79"/>
-      <c r="CF69" s="79"/>
-      <c r="CG69" s="79"/>
-      <c r="CH69" s="79"/>
-      <c r="CI69" s="79"/>
-      <c r="CJ69" s="79"/>
-      <c r="CK69" s="79"/>
-      <c r="CL69" s="79"/>
-      <c r="CM69" s="79"/>
-      <c r="CN69" s="76"/>
-      <c r="CO69" s="76"/>
-      <c r="CP69" s="76"/>
-      <c r="CQ69" s="76"/>
-      <c r="CR69" s="76"/>
-      <c r="CS69" s="76"/>
-      <c r="CT69" s="76"/>
-      <c r="CU69" s="76"/>
-      <c r="CV69" s="76"/>
-      <c r="CW69" s="76"/>
-      <c r="CX69" s="76"/>
-    </row>
-    <row r="70" spans="2:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="70" spans="2:99" ht="13.5" customHeight="1">
       <c r="B70" s="12"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -17268,57 +16740,8 @@
       <c r="AR70" s="13"/>
       <c r="AS70" s="13"/>
       <c r="AT70" s="14"/>
-      <c r="BB70" s="79"/>
-      <c r="BC70" s="79"/>
-      <c r="BD70" s="79"/>
-      <c r="BE70" s="79"/>
-      <c r="BF70" s="79"/>
-      <c r="BG70" s="79"/>
-      <c r="BH70" s="79"/>
-      <c r="BI70" s="79"/>
-      <c r="BJ70" s="79"/>
-      <c r="BK70" s="79"/>
-      <c r="BL70" s="79"/>
-      <c r="BM70" s="79"/>
-      <c r="BN70" s="79"/>
-      <c r="BO70" s="79"/>
-      <c r="BP70" s="79"/>
-      <c r="BQ70" s="79"/>
-      <c r="BR70" s="79"/>
-      <c r="BS70" s="79"/>
-      <c r="BT70" s="79"/>
-      <c r="BU70" s="79"/>
-      <c r="BV70" s="79"/>
-      <c r="BW70" s="79"/>
-      <c r="BX70" s="79"/>
-      <c r="BY70" s="79"/>
-      <c r="BZ70" s="79"/>
-      <c r="CA70" s="79"/>
-      <c r="CB70" s="79"/>
-      <c r="CC70" s="79"/>
-      <c r="CD70" s="79"/>
-      <c r="CE70" s="79"/>
-      <c r="CF70" s="79"/>
-      <c r="CG70" s="79"/>
-      <c r="CH70" s="79"/>
-      <c r="CI70" s="79"/>
-      <c r="CJ70" s="79"/>
-      <c r="CK70" s="79"/>
-      <c r="CL70" s="79"/>
-      <c r="CM70" s="79"/>
-      <c r="CN70" s="76"/>
-      <c r="CO70" s="76"/>
-      <c r="CP70" s="76"/>
-      <c r="CQ70" s="76"/>
-      <c r="CR70" s="76"/>
-      <c r="CS70" s="76"/>
-      <c r="CT70" s="76"/>
-      <c r="CU70" s="76"/>
-      <c r="CV70" s="76"/>
-      <c r="CW70" s="76"/>
-      <c r="CX70" s="76"/>
-    </row>
-    <row r="71" spans="2:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="71" spans="2:99" ht="13.5" customHeight="1">
       <c r="B71" s="12"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -17364,57 +16787,8 @@
       <c r="AR71" s="13"/>
       <c r="AS71" s="13"/>
       <c r="AT71" s="14"/>
-      <c r="BB71" s="79"/>
-      <c r="BC71" s="79"/>
-      <c r="BD71" s="79"/>
-      <c r="BE71" s="79"/>
-      <c r="BF71" s="79"/>
-      <c r="BG71" s="79"/>
-      <c r="BH71" s="79"/>
-      <c r="BI71" s="79"/>
-      <c r="BJ71" s="79"/>
-      <c r="BK71" s="79"/>
-      <c r="BL71" s="79"/>
-      <c r="BM71" s="79"/>
-      <c r="BN71" s="79"/>
-      <c r="BO71" s="79"/>
-      <c r="BP71" s="79"/>
-      <c r="BQ71" s="79"/>
-      <c r="BR71" s="79"/>
-      <c r="BS71" s="79"/>
-      <c r="BT71" s="79"/>
-      <c r="BU71" s="79"/>
-      <c r="BV71" s="79"/>
-      <c r="BW71" s="79"/>
-      <c r="BX71" s="79"/>
-      <c r="BY71" s="79"/>
-      <c r="BZ71" s="79"/>
-      <c r="CA71" s="79"/>
-      <c r="CB71" s="79"/>
-      <c r="CC71" s="79"/>
-      <c r="CD71" s="79"/>
-      <c r="CE71" s="79"/>
-      <c r="CF71" s="79"/>
-      <c r="CG71" s="79"/>
-      <c r="CH71" s="79"/>
-      <c r="CI71" s="79"/>
-      <c r="CJ71" s="79"/>
-      <c r="CK71" s="79"/>
-      <c r="CL71" s="79"/>
-      <c r="CM71" s="79"/>
-      <c r="CN71" s="76"/>
-      <c r="CO71" s="76"/>
-      <c r="CP71" s="76"/>
-      <c r="CQ71" s="76"/>
-      <c r="CR71" s="76"/>
-      <c r="CS71" s="76"/>
-      <c r="CT71" s="76"/>
-      <c r="CU71" s="76"/>
-      <c r="CV71" s="76"/>
-      <c r="CW71" s="76"/>
-      <c r="CX71" s="76"/>
-    </row>
-    <row r="72" spans="2:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="72" spans="2:99" ht="13.5" customHeight="1">
       <c r="B72" s="12"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -17460,57 +16834,8 @@
       <c r="AR72" s="13"/>
       <c r="AS72" s="13"/>
       <c r="AT72" s="14"/>
-      <c r="BB72" s="79"/>
-      <c r="BC72" s="79"/>
-      <c r="BD72" s="79"/>
-      <c r="BE72" s="79"/>
-      <c r="BF72" s="79"/>
-      <c r="BG72" s="79"/>
-      <c r="BH72" s="79"/>
-      <c r="BI72" s="79"/>
-      <c r="BJ72" s="79"/>
-      <c r="BK72" s="79"/>
-      <c r="BL72" s="79"/>
-      <c r="BM72" s="79"/>
-      <c r="BN72" s="79"/>
-      <c r="BO72" s="79"/>
-      <c r="BP72" s="79"/>
-      <c r="BQ72" s="79"/>
-      <c r="BR72" s="79"/>
-      <c r="BS72" s="79"/>
-      <c r="BT72" s="79"/>
-      <c r="BU72" s="79"/>
-      <c r="BV72" s="79"/>
-      <c r="BW72" s="79"/>
-      <c r="BX72" s="79"/>
-      <c r="BY72" s="79"/>
-      <c r="BZ72" s="79"/>
-      <c r="CA72" s="79"/>
-      <c r="CB72" s="79"/>
-      <c r="CC72" s="79"/>
-      <c r="CD72" s="79"/>
-      <c r="CE72" s="79"/>
-      <c r="CF72" s="79"/>
-      <c r="CG72" s="79"/>
-      <c r="CH72" s="79"/>
-      <c r="CI72" s="79"/>
-      <c r="CJ72" s="79"/>
-      <c r="CK72" s="79"/>
-      <c r="CL72" s="79"/>
-      <c r="CM72" s="79"/>
-      <c r="CN72" s="76"/>
-      <c r="CO72" s="76"/>
-      <c r="CP72" s="76"/>
-      <c r="CQ72" s="76"/>
-      <c r="CR72" s="76"/>
-      <c r="CS72" s="76"/>
-      <c r="CT72" s="76"/>
-      <c r="CU72" s="76"/>
-      <c r="CV72" s="76"/>
-      <c r="CW72" s="76"/>
-      <c r="CX72" s="76"/>
-    </row>
-    <row r="73" spans="2:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="73" spans="2:99" ht="13.5" customHeight="1">
       <c r="B73" s="12"/>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -17556,57 +16881,8 @@
       <c r="AR73" s="13"/>
       <c r="AS73" s="13"/>
       <c r="AT73" s="14"/>
-      <c r="BB73" s="79"/>
-      <c r="BC73" s="79"/>
-      <c r="BD73" s="79"/>
-      <c r="BE73" s="79"/>
-      <c r="BF73" s="79"/>
-      <c r="BG73" s="79"/>
-      <c r="BH73" s="79"/>
-      <c r="BI73" s="79"/>
-      <c r="BJ73" s="79"/>
-      <c r="BK73" s="79"/>
-      <c r="BL73" s="79"/>
-      <c r="BM73" s="79"/>
-      <c r="BN73" s="79"/>
-      <c r="BO73" s="79"/>
-      <c r="BP73" s="79"/>
-      <c r="BQ73" s="79"/>
-      <c r="BR73" s="79"/>
-      <c r="BS73" s="79"/>
-      <c r="BT73" s="79"/>
-      <c r="BU73" s="79"/>
-      <c r="BV73" s="79"/>
-      <c r="BW73" s="79"/>
-      <c r="BX73" s="79"/>
-      <c r="BY73" s="79"/>
-      <c r="BZ73" s="79"/>
-      <c r="CA73" s="79"/>
-      <c r="CB73" s="79"/>
-      <c r="CC73" s="79"/>
-      <c r="CD73" s="79"/>
-      <c r="CE73" s="79"/>
-      <c r="CF73" s="79"/>
-      <c r="CG73" s="79"/>
-      <c r="CH73" s="79"/>
-      <c r="CI73" s="79"/>
-      <c r="CJ73" s="79"/>
-      <c r="CK73" s="79"/>
-      <c r="CL73" s="79"/>
-      <c r="CM73" s="79"/>
-      <c r="CN73" s="76"/>
-      <c r="CO73" s="76"/>
-      <c r="CP73" s="76"/>
-      <c r="CQ73" s="76"/>
-      <c r="CR73" s="76"/>
-      <c r="CS73" s="76"/>
-      <c r="CT73" s="76"/>
-      <c r="CU73" s="76"/>
-      <c r="CV73" s="76"/>
-      <c r="CW73" s="76"/>
-      <c r="CX73" s="76"/>
-    </row>
-    <row r="74" spans="2:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="74" spans="2:99" ht="13.5" customHeight="1">
       <c r="B74" s="12"/>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -17652,57 +16928,8 @@
       <c r="AR74" s="13"/>
       <c r="AS74" s="13"/>
       <c r="AT74" s="14"/>
-      <c r="BB74" s="79"/>
-      <c r="BC74" s="79"/>
-      <c r="BD74" s="79"/>
-      <c r="BE74" s="79"/>
-      <c r="BF74" s="79"/>
-      <c r="BG74" s="79"/>
-      <c r="BH74" s="79"/>
-      <c r="BI74" s="79"/>
-      <c r="BJ74" s="79"/>
-      <c r="BK74" s="79"/>
-      <c r="BL74" s="79"/>
-      <c r="BM74" s="79"/>
-      <c r="BN74" s="79"/>
-      <c r="BO74" s="79"/>
-      <c r="BP74" s="79"/>
-      <c r="BQ74" s="79"/>
-      <c r="BR74" s="79"/>
-      <c r="BS74" s="79"/>
-      <c r="BT74" s="79"/>
-      <c r="BU74" s="79"/>
-      <c r="BV74" s="79"/>
-      <c r="BW74" s="79"/>
-      <c r="BX74" s="79"/>
-      <c r="BY74" s="79"/>
-      <c r="BZ74" s="79"/>
-      <c r="CA74" s="79"/>
-      <c r="CB74" s="79"/>
-      <c r="CC74" s="79"/>
-      <c r="CD74" s="79"/>
-      <c r="CE74" s="79"/>
-      <c r="CF74" s="79"/>
-      <c r="CG74" s="79"/>
-      <c r="CH74" s="79"/>
-      <c r="CI74" s="79"/>
-      <c r="CJ74" s="79"/>
-      <c r="CK74" s="79"/>
-      <c r="CL74" s="79"/>
-      <c r="CM74" s="79"/>
-      <c r="CN74" s="76"/>
-      <c r="CO74" s="76"/>
-      <c r="CP74" s="76"/>
-      <c r="CQ74" s="76"/>
-      <c r="CR74" s="76"/>
-      <c r="CS74" s="76"/>
-      <c r="CT74" s="76"/>
-      <c r="CU74" s="76"/>
-      <c r="CV74" s="76"/>
-      <c r="CW74" s="76"/>
-      <c r="CX74" s="76"/>
-    </row>
-    <row r="75" spans="2:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="75" spans="2:99" ht="13.5" customHeight="1">
       <c r="B75" s="12"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -17748,57 +16975,8 @@
       <c r="AR75" s="13"/>
       <c r="AS75" s="13"/>
       <c r="AT75" s="14"/>
-      <c r="BB75" s="79"/>
-      <c r="BC75" s="79"/>
-      <c r="BD75" s="79"/>
-      <c r="BE75" s="79"/>
-      <c r="BF75" s="79"/>
-      <c r="BG75" s="79"/>
-      <c r="BH75" s="79"/>
-      <c r="BI75" s="79"/>
-      <c r="BJ75" s="79"/>
-      <c r="BK75" s="79"/>
-      <c r="BL75" s="79"/>
-      <c r="BM75" s="79"/>
-      <c r="BN75" s="79"/>
-      <c r="BO75" s="79"/>
-      <c r="BP75" s="79"/>
-      <c r="BQ75" s="79"/>
-      <c r="BR75" s="79"/>
-      <c r="BS75" s="79"/>
-      <c r="BT75" s="79"/>
-      <c r="BU75" s="79"/>
-      <c r="BV75" s="79"/>
-      <c r="BW75" s="79"/>
-      <c r="BX75" s="79"/>
-      <c r="BY75" s="79"/>
-      <c r="BZ75" s="79"/>
-      <c r="CA75" s="79"/>
-      <c r="CB75" s="79"/>
-      <c r="CC75" s="79"/>
-      <c r="CD75" s="79"/>
-      <c r="CE75" s="79"/>
-      <c r="CF75" s="79"/>
-      <c r="CG75" s="79"/>
-      <c r="CH75" s="79"/>
-      <c r="CI75" s="79"/>
-      <c r="CJ75" s="79"/>
-      <c r="CK75" s="79"/>
-      <c r="CL75" s="79"/>
-      <c r="CM75" s="79"/>
-      <c r="CN75" s="76"/>
-      <c r="CO75" s="76"/>
-      <c r="CP75" s="76"/>
-      <c r="CQ75" s="76"/>
-      <c r="CR75" s="76"/>
-      <c r="CS75" s="76"/>
-      <c r="CT75" s="76"/>
-      <c r="CU75" s="76"/>
-      <c r="CV75" s="76"/>
-      <c r="CW75" s="76"/>
-      <c r="CX75" s="76"/>
-    </row>
-    <row r="76" spans="2:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="76" spans="2:99" ht="13.5" customHeight="1">
       <c r="B76" s="12"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -17844,57 +17022,8 @@
       <c r="AR76" s="13"/>
       <c r="AS76" s="13"/>
       <c r="AT76" s="14"/>
-      <c r="BB76" s="79"/>
-      <c r="BC76" s="79"/>
-      <c r="BD76" s="79"/>
-      <c r="BE76" s="79"/>
-      <c r="BF76" s="79"/>
-      <c r="BG76" s="79"/>
-      <c r="BH76" s="79"/>
-      <c r="BI76" s="79"/>
-      <c r="BJ76" s="79"/>
-      <c r="BK76" s="79"/>
-      <c r="BL76" s="79"/>
-      <c r="BM76" s="79"/>
-      <c r="BN76" s="79"/>
-      <c r="BO76" s="79"/>
-      <c r="BP76" s="79"/>
-      <c r="BQ76" s="79"/>
-      <c r="BR76" s="79"/>
-      <c r="BS76" s="79"/>
-      <c r="BT76" s="79"/>
-      <c r="BU76" s="79"/>
-      <c r="BV76" s="79"/>
-      <c r="BW76" s="79"/>
-      <c r="BX76" s="79"/>
-      <c r="BY76" s="79"/>
-      <c r="BZ76" s="79"/>
-      <c r="CA76" s="79"/>
-      <c r="CB76" s="79"/>
-      <c r="CC76" s="79"/>
-      <c r="CD76" s="79"/>
-      <c r="CE76" s="79"/>
-      <c r="CF76" s="79"/>
-      <c r="CG76" s="79"/>
-      <c r="CH76" s="79"/>
-      <c r="CI76" s="79"/>
-      <c r="CJ76" s="79"/>
-      <c r="CK76" s="79"/>
-      <c r="CL76" s="79"/>
-      <c r="CM76" s="79"/>
-      <c r="CN76" s="76"/>
-      <c r="CO76" s="76"/>
-      <c r="CP76" s="76"/>
-      <c r="CQ76" s="76"/>
-      <c r="CR76" s="76"/>
-      <c r="CS76" s="76"/>
-      <c r="CT76" s="76"/>
-      <c r="CU76" s="76"/>
-      <c r="CV76" s="76"/>
-      <c r="CW76" s="76"/>
-      <c r="CX76" s="76"/>
-    </row>
-    <row r="77" spans="2:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="77" spans="2:99" ht="13.5" customHeight="1">
       <c r="B77" s="12"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -17940,57 +17069,8 @@
       <c r="AR77" s="13"/>
       <c r="AS77" s="13"/>
       <c r="AT77" s="14"/>
-      <c r="BB77" s="79"/>
-      <c r="BC77" s="79"/>
-      <c r="BD77" s="79"/>
-      <c r="BE77" s="79"/>
-      <c r="BF77" s="79"/>
-      <c r="BG77" s="79"/>
-      <c r="BH77" s="79"/>
-      <c r="BI77" s="79"/>
-      <c r="BJ77" s="79"/>
-      <c r="BK77" s="79"/>
-      <c r="BL77" s="79"/>
-      <c r="BM77" s="79"/>
-      <c r="BN77" s="79"/>
-      <c r="BO77" s="79"/>
-      <c r="BP77" s="79"/>
-      <c r="BQ77" s="79"/>
-      <c r="BR77" s="79"/>
-      <c r="BS77" s="79"/>
-      <c r="BT77" s="79"/>
-      <c r="BU77" s="79"/>
-      <c r="BV77" s="79"/>
-      <c r="BW77" s="79"/>
-      <c r="BX77" s="79"/>
-      <c r="BY77" s="79"/>
-      <c r="BZ77" s="79"/>
-      <c r="CA77" s="79"/>
-      <c r="CB77" s="79"/>
-      <c r="CC77" s="79"/>
-      <c r="CD77" s="79"/>
-      <c r="CE77" s="79"/>
-      <c r="CF77" s="79"/>
-      <c r="CG77" s="79"/>
-      <c r="CH77" s="79"/>
-      <c r="CI77" s="79"/>
-      <c r="CJ77" s="79"/>
-      <c r="CK77" s="79"/>
-      <c r="CL77" s="79"/>
-      <c r="CM77" s="79"/>
-      <c r="CN77" s="76"/>
-      <c r="CO77" s="76"/>
-      <c r="CP77" s="76"/>
-      <c r="CQ77" s="76"/>
-      <c r="CR77" s="76"/>
-      <c r="CS77" s="76"/>
-      <c r="CT77" s="76"/>
-      <c r="CU77" s="76"/>
-      <c r="CV77" s="76"/>
-      <c r="CW77" s="76"/>
-      <c r="CX77" s="76"/>
-    </row>
-    <row r="78" spans="2:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="78" spans="2:99" ht="13.5" customHeight="1">
       <c r="B78" s="15"/>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
@@ -18036,219 +17116,17 @@
       <c r="AR78" s="16"/>
       <c r="AS78" s="16"/>
       <c r="AT78" s="17"/>
-      <c r="BB78" s="79"/>
-      <c r="BC78" s="79"/>
-      <c r="BD78" s="79"/>
-      <c r="BE78" s="79"/>
-      <c r="BF78" s="79"/>
-      <c r="BG78" s="79"/>
-      <c r="BH78" s="79"/>
-      <c r="BI78" s="79"/>
-      <c r="BJ78" s="79"/>
-      <c r="BK78" s="79"/>
-      <c r="BL78" s="79"/>
-      <c r="BM78" s="79"/>
-      <c r="BN78" s="79"/>
-      <c r="BO78" s="79"/>
-      <c r="BP78" s="79"/>
-      <c r="BQ78" s="79"/>
-      <c r="BR78" s="79"/>
-      <c r="BS78" s="79"/>
-      <c r="BT78" s="79"/>
-      <c r="BU78" s="79"/>
-      <c r="BV78" s="79"/>
-      <c r="BW78" s="79"/>
-      <c r="BX78" s="79"/>
-      <c r="BY78" s="79"/>
-      <c r="BZ78" s="79"/>
-      <c r="CA78" s="79"/>
-      <c r="CB78" s="79"/>
-      <c r="CC78" s="79"/>
-      <c r="CD78" s="79"/>
-      <c r="CE78" s="79"/>
-      <c r="CF78" s="79"/>
-      <c r="CG78" s="79"/>
-      <c r="CH78" s="79"/>
-      <c r="CI78" s="79"/>
-      <c r="CJ78" s="79"/>
-      <c r="CK78" s="79"/>
-      <c r="CL78" s="79"/>
-      <c r="CM78" s="79"/>
-      <c r="CN78" s="76"/>
-      <c r="CO78" s="76"/>
-      <c r="CP78" s="76"/>
-      <c r="CQ78" s="76"/>
-      <c r="CR78" s="76"/>
-      <c r="CS78" s="76"/>
-      <c r="CT78" s="76"/>
-      <c r="CU78" s="76"/>
-      <c r="CV78" s="76"/>
-      <c r="CW78" s="76"/>
-      <c r="CX78" s="76"/>
-    </row>
-    <row r="79" spans="2:102" ht="13.5" customHeight="1">
-      <c r="BB79" s="79"/>
-      <c r="BC79" s="79"/>
-      <c r="BD79" s="79"/>
-      <c r="BE79" s="79"/>
-      <c r="BF79" s="79"/>
-      <c r="BG79" s="79"/>
-      <c r="BH79" s="79"/>
-      <c r="BI79" s="79"/>
-      <c r="BJ79" s="79"/>
-      <c r="BK79" s="79"/>
-      <c r="BL79" s="79"/>
-      <c r="BM79" s="79"/>
-      <c r="BN79" s="79"/>
-      <c r="BO79" s="79"/>
-      <c r="BP79" s="79"/>
-      <c r="BQ79" s="79"/>
-      <c r="BR79" s="79"/>
-      <c r="BS79" s="79"/>
-      <c r="BT79" s="79"/>
-      <c r="BU79" s="79"/>
-      <c r="BV79" s="79"/>
-      <c r="BW79" s="79"/>
-      <c r="BX79" s="79"/>
-      <c r="BY79" s="79"/>
-      <c r="BZ79" s="79"/>
-      <c r="CA79" s="79"/>
-      <c r="CB79" s="79"/>
-      <c r="CC79" s="79"/>
-      <c r="CD79" s="79"/>
-      <c r="CE79" s="79"/>
-      <c r="CF79" s="79"/>
-      <c r="CG79" s="79"/>
-      <c r="CH79" s="79"/>
-      <c r="CI79" s="79"/>
-      <c r="CJ79" s="79"/>
-      <c r="CK79" s="79"/>
-      <c r="CL79" s="79"/>
-      <c r="CM79" s="79"/>
-      <c r="CN79" s="76"/>
-      <c r="CO79" s="76"/>
-      <c r="CP79" s="76"/>
-      <c r="CQ79" s="76"/>
-      <c r="CR79" s="76"/>
-      <c r="CS79" s="76"/>
-      <c r="CT79" s="76"/>
-      <c r="CU79" s="76"/>
-      <c r="CV79" s="76"/>
-      <c r="CW79" s="76"/>
-      <c r="CX79" s="76"/>
-    </row>
-    <row r="80" spans="2:102" ht="13.5" customHeight="1">
-      <c r="BB80" s="79"/>
-      <c r="BC80" s="79"/>
-      <c r="BD80" s="79"/>
-      <c r="BE80" s="79"/>
-      <c r="BF80" s="79"/>
-      <c r="BG80" s="79"/>
-      <c r="BH80" s="79"/>
-      <c r="BI80" s="79"/>
-      <c r="BJ80" s="79"/>
-      <c r="BK80" s="79"/>
-      <c r="BL80" s="79"/>
-      <c r="BM80" s="79"/>
-      <c r="BN80" s="79"/>
-      <c r="BO80" s="79"/>
-      <c r="BP80" s="79"/>
-      <c r="BQ80" s="79"/>
-      <c r="BR80" s="79"/>
-      <c r="BS80" s="79"/>
-      <c r="BT80" s="79"/>
-      <c r="BU80" s="79"/>
-      <c r="BV80" s="79"/>
-      <c r="BW80" s="79"/>
-      <c r="BX80" s="79"/>
-      <c r="BY80" s="79"/>
-      <c r="BZ80" s="79"/>
-      <c r="CA80" s="79"/>
-      <c r="CB80" s="79"/>
-      <c r="CC80" s="79"/>
-      <c r="CD80" s="79"/>
-      <c r="CE80" s="79"/>
-      <c r="CF80" s="79"/>
-      <c r="CG80" s="79"/>
-      <c r="CH80" s="79"/>
-      <c r="CI80" s="79"/>
-      <c r="CJ80" s="79"/>
-      <c r="CK80" s="79"/>
-      <c r="CL80" s="79"/>
-      <c r="CM80" s="79"/>
-      <c r="CN80" s="76"/>
-      <c r="CO80" s="76"/>
-      <c r="CP80" s="76"/>
-      <c r="CQ80" s="76"/>
-      <c r="CR80" s="76"/>
-      <c r="CS80" s="76"/>
-      <c r="CT80" s="76"/>
-      <c r="CU80" s="76"/>
-      <c r="CV80" s="76"/>
-      <c r="CW80" s="76"/>
-      <c r="CX80" s="76"/>
-    </row>
-    <row r="81" spans="1:102" ht="13.5" customHeight="1">
-      <c r="BB81" s="79"/>
-      <c r="BC81" s="79"/>
-      <c r="BD81" s="79"/>
-      <c r="BE81" s="79"/>
-      <c r="BF81" s="79"/>
-      <c r="BG81" s="79"/>
-      <c r="BH81" s="79"/>
-      <c r="BI81" s="79"/>
-      <c r="BJ81" s="79"/>
-      <c r="BK81" s="79"/>
-      <c r="BL81" s="79"/>
-      <c r="BM81" s="79"/>
-      <c r="BN81" s="79"/>
-      <c r="BO81" s="79"/>
-      <c r="BP81" s="79"/>
-      <c r="BQ81" s="79"/>
-      <c r="BR81" s="79"/>
-      <c r="BS81" s="79"/>
-      <c r="BT81" s="79"/>
-      <c r="BU81" s="79"/>
-      <c r="BV81" s="79"/>
-      <c r="BW81" s="79"/>
-      <c r="BX81" s="79"/>
-      <c r="BY81" s="79"/>
-      <c r="BZ81" s="79"/>
-      <c r="CA81" s="79"/>
-      <c r="CB81" s="79"/>
-      <c r="CC81" s="79"/>
-      <c r="CD81" s="79"/>
-      <c r="CE81" s="79"/>
-      <c r="CF81" s="79"/>
-      <c r="CG81" s="79"/>
-      <c r="CH81" s="79"/>
-      <c r="CI81" s="79"/>
-      <c r="CJ81" s="79"/>
-      <c r="CK81" s="79"/>
-      <c r="CL81" s="79"/>
-      <c r="CM81" s="79"/>
-      <c r="CN81" s="76"/>
-      <c r="CO81" s="76"/>
-      <c r="CP81" s="76"/>
-      <c r="CQ81" s="76"/>
-      <c r="CR81" s="76"/>
-      <c r="CS81" s="76"/>
-      <c r="CT81" s="76"/>
-      <c r="CU81" s="76"/>
-      <c r="CV81" s="76"/>
-      <c r="CW81" s="76"/>
-      <c r="CX81" s="76"/>
-    </row>
-    <row r="86" spans="1:102" ht="13.5" customHeight="1">
+    </row>
+    <row r="86" spans="1:91" ht="13.5" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AU86" s="1"/>
       <c r="AV86" s="1"/>
       <c r="AW86" s="1"/>
       <c r="CM86" s="2"/>
     </row>
-    <row r="87" spans="1:102" ht="13.5" customHeight="1">
+    <row r="87" spans="1:91" ht="13.5" customHeight="1">
       <c r="B87" s="9"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
@@ -18299,7 +17177,7 @@
       <c r="AW87" s="1"/>
       <c r="CM87" s="2"/>
     </row>
-    <row r="88" spans="1:102" ht="13.5" customHeight="1">
+    <row r="88" spans="1:91" ht="13.5" customHeight="1">
       <c r="B88" s="12"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
@@ -18350,7 +17228,7 @@
       <c r="AW88" s="1"/>
       <c r="CM88" s="2"/>
     </row>
-    <row r="89" spans="1:102" ht="13.5" customHeight="1">
+    <row r="89" spans="1:91" ht="13.5" customHeight="1">
       <c r="B89" s="12"/>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -18401,162 +17279,162 @@
       <c r="AW89" s="1"/>
       <c r="CM89" s="2"/>
     </row>
-    <row r="90" spans="1:102" ht="13.5" customHeight="1">
-      <c r="B90" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C90" s="39"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="39"/>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="39"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="39"/>
-      <c r="N90" s="39"/>
-      <c r="O90" s="39"/>
-      <c r="P90" s="39"/>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="39"/>
-      <c r="S90" s="39"/>
-      <c r="T90" s="39"/>
-      <c r="U90" s="39"/>
-      <c r="V90" s="39"/>
-      <c r="W90" s="39"/>
-      <c r="X90" s="39"/>
-      <c r="Y90" s="39"/>
-      <c r="Z90" s="39"/>
-      <c r="AA90" s="39"/>
-      <c r="AB90" s="39"/>
-      <c r="AC90" s="39"/>
-      <c r="AD90" s="39"/>
-      <c r="AE90" s="39"/>
-      <c r="AF90" s="39"/>
-      <c r="AG90" s="39"/>
-      <c r="AH90" s="39"/>
-      <c r="AI90" s="39"/>
-      <c r="AJ90" s="39"/>
-      <c r="AK90" s="39"/>
-      <c r="AL90" s="39"/>
-      <c r="AM90" s="39"/>
-      <c r="AN90" s="39"/>
-      <c r="AO90" s="39"/>
-      <c r="AP90" s="39"/>
-      <c r="AQ90" s="39"/>
-      <c r="AR90" s="39"/>
-      <c r="AS90" s="39"/>
-      <c r="AT90" s="40"/>
+    <row r="90" spans="1:91" ht="13.5" customHeight="1">
+      <c r="B90" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" s="78"/>
+      <c r="D90" s="78"/>
+      <c r="E90" s="78"/>
+      <c r="F90" s="78"/>
+      <c r="G90" s="78"/>
+      <c r="H90" s="78"/>
+      <c r="I90" s="78"/>
+      <c r="J90" s="78"/>
+      <c r="K90" s="78"/>
+      <c r="L90" s="78"/>
+      <c r="M90" s="78"/>
+      <c r="N90" s="78"/>
+      <c r="O90" s="78"/>
+      <c r="P90" s="78"/>
+      <c r="Q90" s="78"/>
+      <c r="R90" s="78"/>
+      <c r="S90" s="78"/>
+      <c r="T90" s="78"/>
+      <c r="U90" s="78"/>
+      <c r="V90" s="78"/>
+      <c r="W90" s="78"/>
+      <c r="X90" s="78"/>
+      <c r="Y90" s="78"/>
+      <c r="Z90" s="78"/>
+      <c r="AA90" s="78"/>
+      <c r="AB90" s="78"/>
+      <c r="AC90" s="78"/>
+      <c r="AD90" s="78"/>
+      <c r="AE90" s="78"/>
+      <c r="AF90" s="78"/>
+      <c r="AG90" s="78"/>
+      <c r="AH90" s="78"/>
+      <c r="AI90" s="78"/>
+      <c r="AJ90" s="78"/>
+      <c r="AK90" s="78"/>
+      <c r="AL90" s="78"/>
+      <c r="AM90" s="78"/>
+      <c r="AN90" s="78"/>
+      <c r="AO90" s="78"/>
+      <c r="AP90" s="78"/>
+      <c r="AQ90" s="78"/>
+      <c r="AR90" s="78"/>
+      <c r="AS90" s="78"/>
+      <c r="AT90" s="79"/>
       <c r="AU90" s="1"/>
       <c r="AV90" s="1"/>
       <c r="AW90" s="1"/>
       <c r="CM90" s="2"/>
     </row>
-    <row r="91" spans="1:102" ht="13.5" customHeight="1">
-      <c r="B91" s="38"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-      <c r="J91" s="39"/>
-      <c r="K91" s="39"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="39"/>
-      <c r="N91" s="39"/>
-      <c r="O91" s="39"/>
-      <c r="P91" s="39"/>
-      <c r="Q91" s="39"/>
-      <c r="R91" s="39"/>
-      <c r="S91" s="39"/>
-      <c r="T91" s="39"/>
-      <c r="U91" s="39"/>
-      <c r="V91" s="39"/>
-      <c r="W91" s="39"/>
-      <c r="X91" s="39"/>
-      <c r="Y91" s="39"/>
-      <c r="Z91" s="39"/>
-      <c r="AA91" s="39"/>
-      <c r="AB91" s="39"/>
-      <c r="AC91" s="39"/>
-      <c r="AD91" s="39"/>
-      <c r="AE91" s="39"/>
-      <c r="AF91" s="39"/>
-      <c r="AG91" s="39"/>
-      <c r="AH91" s="39"/>
-      <c r="AI91" s="39"/>
-      <c r="AJ91" s="39"/>
-      <c r="AK91" s="39"/>
-      <c r="AL91" s="39"/>
-      <c r="AM91" s="39"/>
-      <c r="AN91" s="39"/>
-      <c r="AO91" s="39"/>
-      <c r="AP91" s="39"/>
-      <c r="AQ91" s="39"/>
-      <c r="AR91" s="39"/>
-      <c r="AS91" s="39"/>
-      <c r="AT91" s="40"/>
+    <row r="91" spans="1:91" ht="13.5" customHeight="1">
+      <c r="B91" s="77"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="78"/>
+      <c r="E91" s="78"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="78"/>
+      <c r="H91" s="78"/>
+      <c r="I91" s="78"/>
+      <c r="J91" s="78"/>
+      <c r="K91" s="78"/>
+      <c r="L91" s="78"/>
+      <c r="M91" s="78"/>
+      <c r="N91" s="78"/>
+      <c r="O91" s="78"/>
+      <c r="P91" s="78"/>
+      <c r="Q91" s="78"/>
+      <c r="R91" s="78"/>
+      <c r="S91" s="78"/>
+      <c r="T91" s="78"/>
+      <c r="U91" s="78"/>
+      <c r="V91" s="78"/>
+      <c r="W91" s="78"/>
+      <c r="X91" s="78"/>
+      <c r="Y91" s="78"/>
+      <c r="Z91" s="78"/>
+      <c r="AA91" s="78"/>
+      <c r="AB91" s="78"/>
+      <c r="AC91" s="78"/>
+      <c r="AD91" s="78"/>
+      <c r="AE91" s="78"/>
+      <c r="AF91" s="78"/>
+      <c r="AG91" s="78"/>
+      <c r="AH91" s="78"/>
+      <c r="AI91" s="78"/>
+      <c r="AJ91" s="78"/>
+      <c r="AK91" s="78"/>
+      <c r="AL91" s="78"/>
+      <c r="AM91" s="78"/>
+      <c r="AN91" s="78"/>
+      <c r="AO91" s="78"/>
+      <c r="AP91" s="78"/>
+      <c r="AQ91" s="78"/>
+      <c r="AR91" s="78"/>
+      <c r="AS91" s="78"/>
+      <c r="AT91" s="79"/>
       <c r="AU91" s="1"/>
       <c r="AV91" s="1"/>
       <c r="AW91" s="1"/>
       <c r="CM91" s="2"/>
     </row>
-    <row r="92" spans="1:102" ht="13.5" customHeight="1">
-      <c r="B92" s="38"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="J92" s="39"/>
-      <c r="K92" s="39"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="39"/>
-      <c r="N92" s="39"/>
-      <c r="O92" s="39"/>
-      <c r="P92" s="39"/>
-      <c r="Q92" s="39"/>
-      <c r="R92" s="39"/>
-      <c r="S92" s="39"/>
-      <c r="T92" s="39"/>
-      <c r="U92" s="39"/>
-      <c r="V92" s="39"/>
-      <c r="W92" s="39"/>
-      <c r="X92" s="39"/>
-      <c r="Y92" s="39"/>
-      <c r="Z92" s="39"/>
-      <c r="AA92" s="39"/>
-      <c r="AB92" s="39"/>
-      <c r="AC92" s="39"/>
-      <c r="AD92" s="39"/>
-      <c r="AE92" s="39"/>
-      <c r="AF92" s="39"/>
-      <c r="AG92" s="39"/>
-      <c r="AH92" s="39"/>
-      <c r="AI92" s="39"/>
-      <c r="AJ92" s="39"/>
-      <c r="AK92" s="39"/>
-      <c r="AL92" s="39"/>
-      <c r="AM92" s="39"/>
-      <c r="AN92" s="39"/>
-      <c r="AO92" s="39"/>
-      <c r="AP92" s="39"/>
-      <c r="AQ92" s="39"/>
-      <c r="AR92" s="39"/>
-      <c r="AS92" s="39"/>
-      <c r="AT92" s="40"/>
+    <row r="92" spans="1:91" ht="13.5" customHeight="1">
+      <c r="B92" s="77"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="78"/>
+      <c r="E92" s="78"/>
+      <c r="F92" s="78"/>
+      <c r="G92" s="78"/>
+      <c r="H92" s="78"/>
+      <c r="I92" s="78"/>
+      <c r="J92" s="78"/>
+      <c r="K92" s="78"/>
+      <c r="L92" s="78"/>
+      <c r="M92" s="78"/>
+      <c r="N92" s="78"/>
+      <c r="O92" s="78"/>
+      <c r="P92" s="78"/>
+      <c r="Q92" s="78"/>
+      <c r="R92" s="78"/>
+      <c r="S92" s="78"/>
+      <c r="T92" s="78"/>
+      <c r="U92" s="78"/>
+      <c r="V92" s="78"/>
+      <c r="W92" s="78"/>
+      <c r="X92" s="78"/>
+      <c r="Y92" s="78"/>
+      <c r="Z92" s="78"/>
+      <c r="AA92" s="78"/>
+      <c r="AB92" s="78"/>
+      <c r="AC92" s="78"/>
+      <c r="AD92" s="78"/>
+      <c r="AE92" s="78"/>
+      <c r="AF92" s="78"/>
+      <c r="AG92" s="78"/>
+      <c r="AH92" s="78"/>
+      <c r="AI92" s="78"/>
+      <c r="AJ92" s="78"/>
+      <c r="AK92" s="78"/>
+      <c r="AL92" s="78"/>
+      <c r="AM92" s="78"/>
+      <c r="AN92" s="78"/>
+      <c r="AO92" s="78"/>
+      <c r="AP92" s="78"/>
+      <c r="AQ92" s="78"/>
+      <c r="AR92" s="78"/>
+      <c r="AS92" s="78"/>
+      <c r="AT92" s="79"/>
       <c r="AU92" s="1"/>
       <c r="AV92" s="1"/>
       <c r="AW92" s="1"/>
       <c r="CM92" s="2"/>
     </row>
-    <row r="93" spans="1:102" ht="13.5" customHeight="1">
+    <row r="93" spans="1:91" ht="13.5" customHeight="1">
       <c r="B93" s="12"/>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
@@ -18607,7 +17485,7 @@
       <c r="AW93" s="1"/>
       <c r="CM93" s="2"/>
     </row>
-    <row r="94" spans="1:102" ht="13.5" customHeight="1">
+    <row r="94" spans="1:91" ht="13.5" customHeight="1">
       <c r="B94" s="12"/>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -18658,7 +17536,7 @@
       <c r="AW94" s="1"/>
       <c r="CM94" s="2"/>
     </row>
-    <row r="95" spans="1:102" ht="13.5" customHeight="1">
+    <row r="95" spans="1:91" ht="13.5" customHeight="1">
       <c r="B95" s="12"/>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -18709,54 +17587,54 @@
       <c r="AW95" s="1"/>
       <c r="CM95" s="2"/>
     </row>
-    <row r="96" spans="1:102" ht="13.5" customHeight="1">
-      <c r="B96" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="36"/>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="36"/>
-      <c r="R96" s="36"/>
-      <c r="S96" s="36"/>
-      <c r="T96" s="36"/>
-      <c r="U96" s="36"/>
-      <c r="V96" s="36"/>
-      <c r="W96" s="36"/>
-      <c r="X96" s="36"/>
-      <c r="Y96" s="36"/>
-      <c r="Z96" s="36"/>
-      <c r="AA96" s="36"/>
-      <c r="AB96" s="36"/>
-      <c r="AC96" s="36"/>
-      <c r="AD96" s="36"/>
-      <c r="AE96" s="36"/>
-      <c r="AF96" s="36"/>
-      <c r="AG96" s="36"/>
-      <c r="AH96" s="36"/>
-      <c r="AI96" s="36"/>
-      <c r="AJ96" s="36"/>
-      <c r="AK96" s="36"/>
-      <c r="AL96" s="36"/>
-      <c r="AM96" s="36"/>
-      <c r="AN96" s="36"/>
-      <c r="AO96" s="36"/>
-      <c r="AP96" s="36"/>
-      <c r="AQ96" s="36"/>
-      <c r="AR96" s="36"/>
-      <c r="AS96" s="36"/>
-      <c r="AT96" s="37"/>
+    <row r="96" spans="1:91" ht="13.5" customHeight="1">
+      <c r="B96" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" s="75"/>
+      <c r="D96" s="75"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="75"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="75"/>
+      <c r="I96" s="75"/>
+      <c r="J96" s="75"/>
+      <c r="K96" s="75"/>
+      <c r="L96" s="75"/>
+      <c r="M96" s="75"/>
+      <c r="N96" s="75"/>
+      <c r="O96" s="75"/>
+      <c r="P96" s="75"/>
+      <c r="Q96" s="75"/>
+      <c r="R96" s="75"/>
+      <c r="S96" s="75"/>
+      <c r="T96" s="75"/>
+      <c r="U96" s="75"/>
+      <c r="V96" s="75"/>
+      <c r="W96" s="75"/>
+      <c r="X96" s="75"/>
+      <c r="Y96" s="75"/>
+      <c r="Z96" s="75"/>
+      <c r="AA96" s="75"/>
+      <c r="AB96" s="75"/>
+      <c r="AC96" s="75"/>
+      <c r="AD96" s="75"/>
+      <c r="AE96" s="75"/>
+      <c r="AF96" s="75"/>
+      <c r="AG96" s="75"/>
+      <c r="AH96" s="75"/>
+      <c r="AI96" s="75"/>
+      <c r="AJ96" s="75"/>
+      <c r="AK96" s="75"/>
+      <c r="AL96" s="75"/>
+      <c r="AM96" s="75"/>
+      <c r="AN96" s="75"/>
+      <c r="AO96" s="75"/>
+      <c r="AP96" s="75"/>
+      <c r="AQ96" s="75"/>
+      <c r="AR96" s="75"/>
+      <c r="AS96" s="75"/>
+      <c r="AT96" s="76"/>
       <c r="AU96" s="1"/>
       <c r="AV96" s="1"/>
       <c r="AW96" s="1"/>
@@ -19537,47 +18415,47 @@
       <c r="AU113" s="1"/>
       <c r="AV113" s="1"/>
       <c r="AW113" s="1"/>
-      <c r="AX113" s="80"/>
-      <c r="AY113" s="81"/>
-      <c r="AZ113" s="81"/>
-      <c r="BA113" s="81"/>
-      <c r="BB113" s="81"/>
-      <c r="BC113" s="81"/>
-      <c r="BD113" s="81"/>
-      <c r="BE113" s="81"/>
-      <c r="BF113" s="81"/>
-      <c r="BG113" s="81"/>
-      <c r="BH113" s="81"/>
-      <c r="BI113" s="81"/>
-      <c r="BJ113" s="81"/>
-      <c r="BK113" s="81"/>
-      <c r="BL113" s="81"/>
-      <c r="BM113" s="81"/>
-      <c r="BN113" s="81"/>
-      <c r="BO113" s="81"/>
-      <c r="BP113" s="81"/>
-      <c r="BQ113" s="81"/>
-      <c r="BR113" s="81"/>
-      <c r="BS113" s="81"/>
-      <c r="BT113" s="81"/>
-      <c r="BU113" s="81"/>
-      <c r="BV113" s="81"/>
-      <c r="BW113" s="81"/>
-      <c r="BX113" s="81"/>
-      <c r="BY113" s="81"/>
-      <c r="BZ113" s="81"/>
-      <c r="CA113" s="81"/>
-      <c r="CB113" s="81"/>
-      <c r="CC113" s="81"/>
-      <c r="CD113" s="81"/>
-      <c r="CE113" s="81"/>
-      <c r="CF113" s="81"/>
-      <c r="CG113" s="81"/>
-      <c r="CH113" s="81"/>
-      <c r="CI113" s="81"/>
-      <c r="CJ113" s="81"/>
-      <c r="CK113" s="81"/>
-      <c r="CL113" s="81"/>
+      <c r="AX113" s="55"/>
+      <c r="AY113" s="56"/>
+      <c r="AZ113" s="56"/>
+      <c r="BA113" s="56"/>
+      <c r="BB113" s="56"/>
+      <c r="BC113" s="56"/>
+      <c r="BD113" s="56"/>
+      <c r="BE113" s="56"/>
+      <c r="BF113" s="56"/>
+      <c r="BG113" s="56"/>
+      <c r="BH113" s="56"/>
+      <c r="BI113" s="56"/>
+      <c r="BJ113" s="56"/>
+      <c r="BK113" s="56"/>
+      <c r="BL113" s="56"/>
+      <c r="BM113" s="56"/>
+      <c r="BN113" s="56"/>
+      <c r="BO113" s="56"/>
+      <c r="BP113" s="56"/>
+      <c r="BQ113" s="56"/>
+      <c r="BR113" s="56"/>
+      <c r="BS113" s="56"/>
+      <c r="BT113" s="56"/>
+      <c r="BU113" s="56"/>
+      <c r="BV113" s="56"/>
+      <c r="BW113" s="56"/>
+      <c r="BX113" s="56"/>
+      <c r="BY113" s="56"/>
+      <c r="BZ113" s="56"/>
+      <c r="CA113" s="56"/>
+      <c r="CB113" s="56"/>
+      <c r="CC113" s="56"/>
+      <c r="CD113" s="56"/>
+      <c r="CE113" s="56"/>
+      <c r="CF113" s="56"/>
+      <c r="CG113" s="56"/>
+      <c r="CH113" s="56"/>
+      <c r="CI113" s="56"/>
+      <c r="CJ113" s="56"/>
+      <c r="CK113" s="56"/>
+      <c r="CL113" s="56"/>
       <c r="CM113" s="10"/>
       <c r="CN113" s="10"/>
       <c r="CO113" s="10"/>
@@ -19632,47 +18510,47 @@
       <c r="AU114" s="1"/>
       <c r="AV114" s="1"/>
       <c r="AW114" s="1"/>
-      <c r="AX114" s="82"/>
-      <c r="AY114" s="83"/>
-      <c r="AZ114" s="83"/>
-      <c r="BA114" s="83"/>
-      <c r="BB114" s="83"/>
-      <c r="BC114" s="83"/>
-      <c r="BD114" s="83"/>
-      <c r="BE114" s="83"/>
-      <c r="BF114" s="83"/>
-      <c r="BG114" s="83"/>
-      <c r="BH114" s="83"/>
-      <c r="BI114" s="83"/>
-      <c r="BJ114" s="83"/>
-      <c r="BK114" s="83"/>
-      <c r="BL114" s="83"/>
-      <c r="BM114" s="83"/>
-      <c r="BN114" s="83"/>
-      <c r="BO114" s="83"/>
-      <c r="BP114" s="83"/>
-      <c r="BQ114" s="83"/>
-      <c r="BR114" s="83"/>
-      <c r="BS114" s="83"/>
-      <c r="BT114" s="83"/>
-      <c r="BU114" s="83"/>
-      <c r="BV114" s="83"/>
-      <c r="BW114" s="83"/>
-      <c r="BX114" s="83"/>
-      <c r="BY114" s="83"/>
-      <c r="BZ114" s="83"/>
-      <c r="CA114" s="83"/>
-      <c r="CB114" s="83"/>
-      <c r="CC114" s="83"/>
-      <c r="CD114" s="83"/>
-      <c r="CE114" s="83"/>
-      <c r="CF114" s="83"/>
-      <c r="CG114" s="83"/>
-      <c r="CH114" s="83"/>
-      <c r="CI114" s="83"/>
-      <c r="CJ114" s="83"/>
-      <c r="CK114" s="83"/>
-      <c r="CL114" s="83"/>
+      <c r="AX114" s="57"/>
+      <c r="AY114" s="58"/>
+      <c r="AZ114" s="58"/>
+      <c r="BA114" s="58"/>
+      <c r="BB114" s="58"/>
+      <c r="BC114" s="58"/>
+      <c r="BD114" s="58"/>
+      <c r="BE114" s="58"/>
+      <c r="BF114" s="58"/>
+      <c r="BG114" s="58"/>
+      <c r="BH114" s="58"/>
+      <c r="BI114" s="58"/>
+      <c r="BJ114" s="58"/>
+      <c r="BK114" s="58"/>
+      <c r="BL114" s="58"/>
+      <c r="BM114" s="58"/>
+      <c r="BN114" s="58"/>
+      <c r="BO114" s="58"/>
+      <c r="BP114" s="58"/>
+      <c r="BQ114" s="58"/>
+      <c r="BR114" s="58"/>
+      <c r="BS114" s="58"/>
+      <c r="BT114" s="58"/>
+      <c r="BU114" s="58"/>
+      <c r="BV114" s="58"/>
+      <c r="BW114" s="58"/>
+      <c r="BX114" s="58"/>
+      <c r="BY114" s="58"/>
+      <c r="BZ114" s="58"/>
+      <c r="CA114" s="58"/>
+      <c r="CB114" s="58"/>
+      <c r="CC114" s="58"/>
+      <c r="CD114" s="58"/>
+      <c r="CE114" s="58"/>
+      <c r="CF114" s="58"/>
+      <c r="CG114" s="58"/>
+      <c r="CH114" s="58"/>
+      <c r="CI114" s="58"/>
+      <c r="CJ114" s="58"/>
+      <c r="CK114" s="58"/>
+      <c r="CL114" s="58"/>
       <c r="CM114" s="13"/>
       <c r="CN114" s="13"/>
       <c r="CO114" s="13"/>
@@ -19727,340 +18605,340 @@
       <c r="AU115" s="1"/>
       <c r="AV115" s="1"/>
       <c r="AW115" s="1"/>
-      <c r="AX115" s="82"/>
-      <c r="AY115" s="83"/>
-      <c r="AZ115" s="83"/>
-      <c r="BA115" s="83"/>
-      <c r="BB115" s="83"/>
-      <c r="BC115" s="83"/>
-      <c r="BD115" s="83"/>
-      <c r="BE115" s="83"/>
-      <c r="BF115" s="83"/>
-      <c r="BG115" s="83"/>
-      <c r="BH115" s="83"/>
-      <c r="BI115" s="83"/>
-      <c r="BJ115" s="83"/>
-      <c r="BK115" s="83"/>
-      <c r="BL115" s="83"/>
-      <c r="BM115" s="83"/>
-      <c r="BN115" s="83"/>
-      <c r="BO115" s="83"/>
-      <c r="BP115" s="83"/>
-      <c r="BQ115" s="83"/>
-      <c r="BR115" s="83"/>
-      <c r="BS115" s="83"/>
-      <c r="BT115" s="83"/>
-      <c r="BU115" s="83"/>
-      <c r="BV115" s="83"/>
-      <c r="BW115" s="83"/>
-      <c r="BX115" s="83"/>
-      <c r="BY115" s="83"/>
-      <c r="BZ115" s="83"/>
-      <c r="CA115" s="83"/>
-      <c r="CB115" s="83"/>
-      <c r="CC115" s="83"/>
-      <c r="CD115" s="83"/>
-      <c r="CE115" s="83"/>
-      <c r="CF115" s="83"/>
-      <c r="CG115" s="83"/>
-      <c r="CH115" s="83"/>
-      <c r="CI115" s="83"/>
-      <c r="CJ115" s="83"/>
-      <c r="CK115" s="83"/>
-      <c r="CL115" s="83"/>
+      <c r="AX115" s="57"/>
+      <c r="AY115" s="58"/>
+      <c r="AZ115" s="58"/>
+      <c r="BA115" s="58"/>
+      <c r="BB115" s="58"/>
+      <c r="BC115" s="58"/>
+      <c r="BD115" s="58"/>
+      <c r="BE115" s="58"/>
+      <c r="BF115" s="58"/>
+      <c r="BG115" s="58"/>
+      <c r="BH115" s="58"/>
+      <c r="BI115" s="58"/>
+      <c r="BJ115" s="58"/>
+      <c r="BK115" s="58"/>
+      <c r="BL115" s="58"/>
+      <c r="BM115" s="58"/>
+      <c r="BN115" s="58"/>
+      <c r="BO115" s="58"/>
+      <c r="BP115" s="58"/>
+      <c r="BQ115" s="58"/>
+      <c r="BR115" s="58"/>
+      <c r="BS115" s="58"/>
+      <c r="BT115" s="58"/>
+      <c r="BU115" s="58"/>
+      <c r="BV115" s="58"/>
+      <c r="BW115" s="58"/>
+      <c r="BX115" s="58"/>
+      <c r="BY115" s="58"/>
+      <c r="BZ115" s="58"/>
+      <c r="CA115" s="58"/>
+      <c r="CB115" s="58"/>
+      <c r="CC115" s="58"/>
+      <c r="CD115" s="58"/>
+      <c r="CE115" s="58"/>
+      <c r="CF115" s="58"/>
+      <c r="CG115" s="58"/>
+      <c r="CH115" s="58"/>
+      <c r="CI115" s="58"/>
+      <c r="CJ115" s="58"/>
+      <c r="CK115" s="58"/>
+      <c r="CL115" s="58"/>
       <c r="CM115" s="13"/>
       <c r="CN115" s="13"/>
       <c r="CO115" s="13"/>
       <c r="CP115" s="14"/>
     </row>
     <row r="116" spans="2:94" ht="13.5" customHeight="1">
-      <c r="B116" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C116" s="39"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="39"/>
-      <c r="G116" s="39"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="39"/>
-      <c r="J116" s="39"/>
-      <c r="K116" s="39"/>
-      <c r="L116" s="39"/>
-      <c r="M116" s="39"/>
-      <c r="N116" s="39"/>
-      <c r="O116" s="39"/>
-      <c r="P116" s="39"/>
-      <c r="Q116" s="39"/>
-      <c r="R116" s="39"/>
-      <c r="S116" s="39"/>
-      <c r="T116" s="39"/>
-      <c r="U116" s="39"/>
-      <c r="V116" s="39"/>
-      <c r="W116" s="39"/>
-      <c r="X116" s="39"/>
-      <c r="Y116" s="39"/>
-      <c r="Z116" s="39"/>
-      <c r="AA116" s="39"/>
-      <c r="AB116" s="39"/>
-      <c r="AC116" s="39"/>
-      <c r="AD116" s="39"/>
-      <c r="AE116" s="39"/>
-      <c r="AF116" s="39"/>
-      <c r="AG116" s="39"/>
-      <c r="AH116" s="39"/>
-      <c r="AI116" s="39"/>
-      <c r="AJ116" s="39"/>
-      <c r="AK116" s="39"/>
-      <c r="AL116" s="39"/>
-      <c r="AM116" s="39"/>
-      <c r="AN116" s="39"/>
-      <c r="AO116" s="39"/>
-      <c r="AP116" s="39"/>
-      <c r="AQ116" s="39"/>
-      <c r="AR116" s="39"/>
-      <c r="AS116" s="39"/>
-      <c r="AT116" s="40"/>
+      <c r="B116" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C116" s="78"/>
+      <c r="D116" s="78"/>
+      <c r="E116" s="78"/>
+      <c r="F116" s="78"/>
+      <c r="G116" s="78"/>
+      <c r="H116" s="78"/>
+      <c r="I116" s="78"/>
+      <c r="J116" s="78"/>
+      <c r="K116" s="78"/>
+      <c r="L116" s="78"/>
+      <c r="M116" s="78"/>
+      <c r="N116" s="78"/>
+      <c r="O116" s="78"/>
+      <c r="P116" s="78"/>
+      <c r="Q116" s="78"/>
+      <c r="R116" s="78"/>
+      <c r="S116" s="78"/>
+      <c r="T116" s="78"/>
+      <c r="U116" s="78"/>
+      <c r="V116" s="78"/>
+      <c r="W116" s="78"/>
+      <c r="X116" s="78"/>
+      <c r="Y116" s="78"/>
+      <c r="Z116" s="78"/>
+      <c r="AA116" s="78"/>
+      <c r="AB116" s="78"/>
+      <c r="AC116" s="78"/>
+      <c r="AD116" s="78"/>
+      <c r="AE116" s="78"/>
+      <c r="AF116" s="78"/>
+      <c r="AG116" s="78"/>
+      <c r="AH116" s="78"/>
+      <c r="AI116" s="78"/>
+      <c r="AJ116" s="78"/>
+      <c r="AK116" s="78"/>
+      <c r="AL116" s="78"/>
+      <c r="AM116" s="78"/>
+      <c r="AN116" s="78"/>
+      <c r="AO116" s="78"/>
+      <c r="AP116" s="78"/>
+      <c r="AQ116" s="78"/>
+      <c r="AR116" s="78"/>
+      <c r="AS116" s="78"/>
+      <c r="AT116" s="79"/>
       <c r="AU116" s="1"/>
       <c r="AV116" s="1"/>
       <c r="AW116" s="1"/>
-      <c r="AX116" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="AY116" s="39"/>
-      <c r="AZ116" s="39"/>
-      <c r="BA116" s="39"/>
-      <c r="BB116" s="39"/>
-      <c r="BC116" s="39"/>
-      <c r="BD116" s="39"/>
-      <c r="BE116" s="39"/>
-      <c r="BF116" s="39"/>
-      <c r="BG116" s="39"/>
-      <c r="BH116" s="39"/>
-      <c r="BI116" s="39"/>
-      <c r="BJ116" s="39"/>
-      <c r="BK116" s="39"/>
-      <c r="BL116" s="39"/>
-      <c r="BM116" s="39"/>
-      <c r="BN116" s="39"/>
-      <c r="BO116" s="39"/>
-      <c r="BP116" s="39"/>
-      <c r="BQ116" s="39"/>
-      <c r="BR116" s="39"/>
-      <c r="BS116" s="39"/>
-      <c r="BT116" s="39"/>
-      <c r="BU116" s="39"/>
-      <c r="BV116" s="39"/>
-      <c r="BW116" s="39"/>
-      <c r="BX116" s="39"/>
-      <c r="BY116" s="39"/>
-      <c r="BZ116" s="39"/>
-      <c r="CA116" s="39"/>
-      <c r="CB116" s="39"/>
-      <c r="CC116" s="39"/>
-      <c r="CD116" s="39"/>
-      <c r="CE116" s="39"/>
-      <c r="CF116" s="39"/>
-      <c r="CG116" s="39"/>
-      <c r="CH116" s="39"/>
-      <c r="CI116" s="39"/>
-      <c r="CJ116" s="39"/>
-      <c r="CK116" s="39"/>
-      <c r="CL116" s="39"/>
-      <c r="CM116" s="39"/>
-      <c r="CN116" s="39"/>
-      <c r="CO116" s="39"/>
-      <c r="CP116" s="40"/>
+      <c r="AX116" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY116" s="78"/>
+      <c r="AZ116" s="78"/>
+      <c r="BA116" s="78"/>
+      <c r="BB116" s="78"/>
+      <c r="BC116" s="78"/>
+      <c r="BD116" s="78"/>
+      <c r="BE116" s="78"/>
+      <c r="BF116" s="78"/>
+      <c r="BG116" s="78"/>
+      <c r="BH116" s="78"/>
+      <c r="BI116" s="78"/>
+      <c r="BJ116" s="78"/>
+      <c r="BK116" s="78"/>
+      <c r="BL116" s="78"/>
+      <c r="BM116" s="78"/>
+      <c r="BN116" s="78"/>
+      <c r="BO116" s="78"/>
+      <c r="BP116" s="78"/>
+      <c r="BQ116" s="78"/>
+      <c r="BR116" s="78"/>
+      <c r="BS116" s="78"/>
+      <c r="BT116" s="78"/>
+      <c r="BU116" s="78"/>
+      <c r="BV116" s="78"/>
+      <c r="BW116" s="78"/>
+      <c r="BX116" s="78"/>
+      <c r="BY116" s="78"/>
+      <c r="BZ116" s="78"/>
+      <c r="CA116" s="78"/>
+      <c r="CB116" s="78"/>
+      <c r="CC116" s="78"/>
+      <c r="CD116" s="78"/>
+      <c r="CE116" s="78"/>
+      <c r="CF116" s="78"/>
+      <c r="CG116" s="78"/>
+      <c r="CH116" s="78"/>
+      <c r="CI116" s="78"/>
+      <c r="CJ116" s="78"/>
+      <c r="CK116" s="78"/>
+      <c r="CL116" s="78"/>
+      <c r="CM116" s="78"/>
+      <c r="CN116" s="78"/>
+      <c r="CO116" s="78"/>
+      <c r="CP116" s="79"/>
     </row>
     <row r="117" spans="2:94" ht="13.5" customHeight="1">
-      <c r="B117" s="38"/>
-      <c r="C117" s="39"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="39"/>
-      <c r="G117" s="39"/>
-      <c r="H117" s="39"/>
-      <c r="I117" s="39"/>
-      <c r="J117" s="39"/>
-      <c r="K117" s="39"/>
-      <c r="L117" s="39"/>
-      <c r="M117" s="39"/>
-      <c r="N117" s="39"/>
-      <c r="O117" s="39"/>
-      <c r="P117" s="39"/>
-      <c r="Q117" s="39"/>
-      <c r="R117" s="39"/>
-      <c r="S117" s="39"/>
-      <c r="T117" s="39"/>
-      <c r="U117" s="39"/>
-      <c r="V117" s="39"/>
-      <c r="W117" s="39"/>
-      <c r="X117" s="39"/>
-      <c r="Y117" s="39"/>
-      <c r="Z117" s="39"/>
-      <c r="AA117" s="39"/>
-      <c r="AB117" s="39"/>
-      <c r="AC117" s="39"/>
-      <c r="AD117" s="39"/>
-      <c r="AE117" s="39"/>
-      <c r="AF117" s="39"/>
-      <c r="AG117" s="39"/>
-      <c r="AH117" s="39"/>
-      <c r="AI117" s="39"/>
-      <c r="AJ117" s="39"/>
-      <c r="AK117" s="39"/>
-      <c r="AL117" s="39"/>
-      <c r="AM117" s="39"/>
-      <c r="AN117" s="39"/>
-      <c r="AO117" s="39"/>
-      <c r="AP117" s="39"/>
-      <c r="AQ117" s="39"/>
-      <c r="AR117" s="39"/>
-      <c r="AS117" s="39"/>
-      <c r="AT117" s="40"/>
+      <c r="B117" s="77"/>
+      <c r="C117" s="78"/>
+      <c r="D117" s="78"/>
+      <c r="E117" s="78"/>
+      <c r="F117" s="78"/>
+      <c r="G117" s="78"/>
+      <c r="H117" s="78"/>
+      <c r="I117" s="78"/>
+      <c r="J117" s="78"/>
+      <c r="K117" s="78"/>
+      <c r="L117" s="78"/>
+      <c r="M117" s="78"/>
+      <c r="N117" s="78"/>
+      <c r="O117" s="78"/>
+      <c r="P117" s="78"/>
+      <c r="Q117" s="78"/>
+      <c r="R117" s="78"/>
+      <c r="S117" s="78"/>
+      <c r="T117" s="78"/>
+      <c r="U117" s="78"/>
+      <c r="V117" s="78"/>
+      <c r="W117" s="78"/>
+      <c r="X117" s="78"/>
+      <c r="Y117" s="78"/>
+      <c r="Z117" s="78"/>
+      <c r="AA117" s="78"/>
+      <c r="AB117" s="78"/>
+      <c r="AC117" s="78"/>
+      <c r="AD117" s="78"/>
+      <c r="AE117" s="78"/>
+      <c r="AF117" s="78"/>
+      <c r="AG117" s="78"/>
+      <c r="AH117" s="78"/>
+      <c r="AI117" s="78"/>
+      <c r="AJ117" s="78"/>
+      <c r="AK117" s="78"/>
+      <c r="AL117" s="78"/>
+      <c r="AM117" s="78"/>
+      <c r="AN117" s="78"/>
+      <c r="AO117" s="78"/>
+      <c r="AP117" s="78"/>
+      <c r="AQ117" s="78"/>
+      <c r="AR117" s="78"/>
+      <c r="AS117" s="78"/>
+      <c r="AT117" s="79"/>
       <c r="AU117" s="1"/>
       <c r="AV117" s="1"/>
       <c r="AW117" s="1"/>
-      <c r="AX117" s="38"/>
-      <c r="AY117" s="39"/>
-      <c r="AZ117" s="39"/>
-      <c r="BA117" s="39"/>
-      <c r="BB117" s="39"/>
-      <c r="BC117" s="39"/>
-      <c r="BD117" s="39"/>
-      <c r="BE117" s="39"/>
-      <c r="BF117" s="39"/>
-      <c r="BG117" s="39"/>
-      <c r="BH117" s="39"/>
-      <c r="BI117" s="39"/>
-      <c r="BJ117" s="39"/>
-      <c r="BK117" s="39"/>
-      <c r="BL117" s="39"/>
-      <c r="BM117" s="39"/>
-      <c r="BN117" s="39"/>
-      <c r="BO117" s="39"/>
-      <c r="BP117" s="39"/>
-      <c r="BQ117" s="39"/>
-      <c r="BR117" s="39"/>
-      <c r="BS117" s="39"/>
-      <c r="BT117" s="39"/>
-      <c r="BU117" s="39"/>
-      <c r="BV117" s="39"/>
-      <c r="BW117" s="39"/>
-      <c r="BX117" s="39"/>
-      <c r="BY117" s="39"/>
-      <c r="BZ117" s="39"/>
-      <c r="CA117" s="39"/>
-      <c r="CB117" s="39"/>
-      <c r="CC117" s="39"/>
-      <c r="CD117" s="39"/>
-      <c r="CE117" s="39"/>
-      <c r="CF117" s="39"/>
-      <c r="CG117" s="39"/>
-      <c r="CH117" s="39"/>
-      <c r="CI117" s="39"/>
-      <c r="CJ117" s="39"/>
-      <c r="CK117" s="39"/>
-      <c r="CL117" s="39"/>
-      <c r="CM117" s="39"/>
-      <c r="CN117" s="39"/>
-      <c r="CO117" s="39"/>
-      <c r="CP117" s="40"/>
+      <c r="AX117" s="77"/>
+      <c r="AY117" s="78"/>
+      <c r="AZ117" s="78"/>
+      <c r="BA117" s="78"/>
+      <c r="BB117" s="78"/>
+      <c r="BC117" s="78"/>
+      <c r="BD117" s="78"/>
+      <c r="BE117" s="78"/>
+      <c r="BF117" s="78"/>
+      <c r="BG117" s="78"/>
+      <c r="BH117" s="78"/>
+      <c r="BI117" s="78"/>
+      <c r="BJ117" s="78"/>
+      <c r="BK117" s="78"/>
+      <c r="BL117" s="78"/>
+      <c r="BM117" s="78"/>
+      <c r="BN117" s="78"/>
+      <c r="BO117" s="78"/>
+      <c r="BP117" s="78"/>
+      <c r="BQ117" s="78"/>
+      <c r="BR117" s="78"/>
+      <c r="BS117" s="78"/>
+      <c r="BT117" s="78"/>
+      <c r="BU117" s="78"/>
+      <c r="BV117" s="78"/>
+      <c r="BW117" s="78"/>
+      <c r="BX117" s="78"/>
+      <c r="BY117" s="78"/>
+      <c r="BZ117" s="78"/>
+      <c r="CA117" s="78"/>
+      <c r="CB117" s="78"/>
+      <c r="CC117" s="78"/>
+      <c r="CD117" s="78"/>
+      <c r="CE117" s="78"/>
+      <c r="CF117" s="78"/>
+      <c r="CG117" s="78"/>
+      <c r="CH117" s="78"/>
+      <c r="CI117" s="78"/>
+      <c r="CJ117" s="78"/>
+      <c r="CK117" s="78"/>
+      <c r="CL117" s="78"/>
+      <c r="CM117" s="78"/>
+      <c r="CN117" s="78"/>
+      <c r="CO117" s="78"/>
+      <c r="CP117" s="79"/>
     </row>
     <row r="118" spans="2:94" ht="13.5" customHeight="1">
-      <c r="B118" s="38"/>
-      <c r="C118" s="39"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="39"/>
-      <c r="G118" s="39"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="39"/>
-      <c r="J118" s="39"/>
-      <c r="K118" s="39"/>
-      <c r="L118" s="39"/>
-      <c r="M118" s="39"/>
-      <c r="N118" s="39"/>
-      <c r="O118" s="39"/>
-      <c r="P118" s="39"/>
-      <c r="Q118" s="39"/>
-      <c r="R118" s="39"/>
-      <c r="S118" s="39"/>
-      <c r="T118" s="39"/>
-      <c r="U118" s="39"/>
-      <c r="V118" s="39"/>
-      <c r="W118" s="39"/>
-      <c r="X118" s="39"/>
-      <c r="Y118" s="39"/>
-      <c r="Z118" s="39"/>
-      <c r="AA118" s="39"/>
-      <c r="AB118" s="39"/>
-      <c r="AC118" s="39"/>
-      <c r="AD118" s="39"/>
-      <c r="AE118" s="39"/>
-      <c r="AF118" s="39"/>
-      <c r="AG118" s="39"/>
-      <c r="AH118" s="39"/>
-      <c r="AI118" s="39"/>
-      <c r="AJ118" s="39"/>
-      <c r="AK118" s="39"/>
-      <c r="AL118" s="39"/>
-      <c r="AM118" s="39"/>
-      <c r="AN118" s="39"/>
-      <c r="AO118" s="39"/>
-      <c r="AP118" s="39"/>
-      <c r="AQ118" s="39"/>
-      <c r="AR118" s="39"/>
-      <c r="AS118" s="39"/>
-      <c r="AT118" s="40"/>
+      <c r="B118" s="77"/>
+      <c r="C118" s="78"/>
+      <c r="D118" s="78"/>
+      <c r="E118" s="78"/>
+      <c r="F118" s="78"/>
+      <c r="G118" s="78"/>
+      <c r="H118" s="78"/>
+      <c r="I118" s="78"/>
+      <c r="J118" s="78"/>
+      <c r="K118" s="78"/>
+      <c r="L118" s="78"/>
+      <c r="M118" s="78"/>
+      <c r="N118" s="78"/>
+      <c r="O118" s="78"/>
+      <c r="P118" s="78"/>
+      <c r="Q118" s="78"/>
+      <c r="R118" s="78"/>
+      <c r="S118" s="78"/>
+      <c r="T118" s="78"/>
+      <c r="U118" s="78"/>
+      <c r="V118" s="78"/>
+      <c r="W118" s="78"/>
+      <c r="X118" s="78"/>
+      <c r="Y118" s="78"/>
+      <c r="Z118" s="78"/>
+      <c r="AA118" s="78"/>
+      <c r="AB118" s="78"/>
+      <c r="AC118" s="78"/>
+      <c r="AD118" s="78"/>
+      <c r="AE118" s="78"/>
+      <c r="AF118" s="78"/>
+      <c r="AG118" s="78"/>
+      <c r="AH118" s="78"/>
+      <c r="AI118" s="78"/>
+      <c r="AJ118" s="78"/>
+      <c r="AK118" s="78"/>
+      <c r="AL118" s="78"/>
+      <c r="AM118" s="78"/>
+      <c r="AN118" s="78"/>
+      <c r="AO118" s="78"/>
+      <c r="AP118" s="78"/>
+      <c r="AQ118" s="78"/>
+      <c r="AR118" s="78"/>
+      <c r="AS118" s="78"/>
+      <c r="AT118" s="79"/>
       <c r="AU118" s="1"/>
       <c r="AV118" s="1"/>
       <c r="AW118" s="1"/>
-      <c r="AX118" s="38"/>
-      <c r="AY118" s="39"/>
-      <c r="AZ118" s="39"/>
-      <c r="BA118" s="39"/>
-      <c r="BB118" s="39"/>
-      <c r="BC118" s="39"/>
-      <c r="BD118" s="39"/>
-      <c r="BE118" s="39"/>
-      <c r="BF118" s="39"/>
-      <c r="BG118" s="39"/>
-      <c r="BH118" s="39"/>
-      <c r="BI118" s="39"/>
-      <c r="BJ118" s="39"/>
-      <c r="BK118" s="39"/>
-      <c r="BL118" s="39"/>
-      <c r="BM118" s="39"/>
-      <c r="BN118" s="39"/>
-      <c r="BO118" s="39"/>
-      <c r="BP118" s="39"/>
-      <c r="BQ118" s="39"/>
-      <c r="BR118" s="39"/>
-      <c r="BS118" s="39"/>
-      <c r="BT118" s="39"/>
-      <c r="BU118" s="39"/>
-      <c r="BV118" s="39"/>
-      <c r="BW118" s="39"/>
-      <c r="BX118" s="39"/>
-      <c r="BY118" s="39"/>
-      <c r="BZ118" s="39"/>
-      <c r="CA118" s="39"/>
-      <c r="CB118" s="39"/>
-      <c r="CC118" s="39"/>
-      <c r="CD118" s="39"/>
-      <c r="CE118" s="39"/>
-      <c r="CF118" s="39"/>
-      <c r="CG118" s="39"/>
-      <c r="CH118" s="39"/>
-      <c r="CI118" s="39"/>
-      <c r="CJ118" s="39"/>
-      <c r="CK118" s="39"/>
-      <c r="CL118" s="39"/>
-      <c r="CM118" s="39"/>
-      <c r="CN118" s="39"/>
-      <c r="CO118" s="39"/>
-      <c r="CP118" s="40"/>
+      <c r="AX118" s="77"/>
+      <c r="AY118" s="78"/>
+      <c r="AZ118" s="78"/>
+      <c r="BA118" s="78"/>
+      <c r="BB118" s="78"/>
+      <c r="BC118" s="78"/>
+      <c r="BD118" s="78"/>
+      <c r="BE118" s="78"/>
+      <c r="BF118" s="78"/>
+      <c r="BG118" s="78"/>
+      <c r="BH118" s="78"/>
+      <c r="BI118" s="78"/>
+      <c r="BJ118" s="78"/>
+      <c r="BK118" s="78"/>
+      <c r="BL118" s="78"/>
+      <c r="BM118" s="78"/>
+      <c r="BN118" s="78"/>
+      <c r="BO118" s="78"/>
+      <c r="BP118" s="78"/>
+      <c r="BQ118" s="78"/>
+      <c r="BR118" s="78"/>
+      <c r="BS118" s="78"/>
+      <c r="BT118" s="78"/>
+      <c r="BU118" s="78"/>
+      <c r="BV118" s="78"/>
+      <c r="BW118" s="78"/>
+      <c r="BX118" s="78"/>
+      <c r="BY118" s="78"/>
+      <c r="BZ118" s="78"/>
+      <c r="CA118" s="78"/>
+      <c r="CB118" s="78"/>
+      <c r="CC118" s="78"/>
+      <c r="CD118" s="78"/>
+      <c r="CE118" s="78"/>
+      <c r="CF118" s="78"/>
+      <c r="CG118" s="78"/>
+      <c r="CH118" s="78"/>
+      <c r="CI118" s="78"/>
+      <c r="CJ118" s="78"/>
+      <c r="CK118" s="78"/>
+      <c r="CL118" s="78"/>
+      <c r="CM118" s="78"/>
+      <c r="CN118" s="78"/>
+      <c r="CO118" s="78"/>
+      <c r="CP118" s="79"/>
     </row>
     <row r="119" spans="2:94" ht="13.5" customHeight="1">
       <c r="B119" s="18"/>
@@ -20111,47 +18989,47 @@
       <c r="AU119" s="1"/>
       <c r="AV119" s="1"/>
       <c r="AW119" s="1"/>
-      <c r="AX119" s="84"/>
-      <c r="AY119" s="85"/>
-      <c r="AZ119" s="85"/>
-      <c r="BA119" s="85"/>
-      <c r="BB119" s="85"/>
-      <c r="BC119" s="85"/>
-      <c r="BD119" s="85"/>
-      <c r="BE119" s="85"/>
-      <c r="BF119" s="85"/>
-      <c r="BG119" s="85"/>
-      <c r="BH119" s="85"/>
-      <c r="BI119" s="85"/>
-      <c r="BJ119" s="85"/>
-      <c r="BK119" s="85"/>
-      <c r="BL119" s="85"/>
-      <c r="BM119" s="85"/>
-      <c r="BN119" s="85"/>
-      <c r="BO119" s="85"/>
-      <c r="BP119" s="85"/>
-      <c r="BQ119" s="85"/>
-      <c r="BR119" s="85"/>
-      <c r="BS119" s="85"/>
-      <c r="BT119" s="85"/>
-      <c r="BU119" s="85"/>
-      <c r="BV119" s="85"/>
-      <c r="BW119" s="85"/>
-      <c r="BX119" s="85"/>
-      <c r="BY119" s="85"/>
-      <c r="BZ119" s="85"/>
-      <c r="CA119" s="85"/>
-      <c r="CB119" s="85"/>
-      <c r="CC119" s="85"/>
-      <c r="CD119" s="85"/>
-      <c r="CE119" s="85"/>
-      <c r="CF119" s="85"/>
-      <c r="CG119" s="85"/>
-      <c r="CH119" s="85"/>
-      <c r="CI119" s="85"/>
-      <c r="CJ119" s="85"/>
-      <c r="CK119" s="85"/>
-      <c r="CL119" s="85"/>
+      <c r="AX119" s="59"/>
+      <c r="AY119" s="60"/>
+      <c r="AZ119" s="60"/>
+      <c r="BA119" s="60"/>
+      <c r="BB119" s="60"/>
+      <c r="BC119" s="60"/>
+      <c r="BD119" s="60"/>
+      <c r="BE119" s="60"/>
+      <c r="BF119" s="60"/>
+      <c r="BG119" s="60"/>
+      <c r="BH119" s="60"/>
+      <c r="BI119" s="60"/>
+      <c r="BJ119" s="60"/>
+      <c r="BK119" s="60"/>
+      <c r="BL119" s="60"/>
+      <c r="BM119" s="60"/>
+      <c r="BN119" s="60"/>
+      <c r="BO119" s="60"/>
+      <c r="BP119" s="60"/>
+      <c r="BQ119" s="60"/>
+      <c r="BR119" s="60"/>
+      <c r="BS119" s="60"/>
+      <c r="BT119" s="60"/>
+      <c r="BU119" s="60"/>
+      <c r="BV119" s="60"/>
+      <c r="BW119" s="60"/>
+      <c r="BX119" s="60"/>
+      <c r="BY119" s="60"/>
+      <c r="BZ119" s="60"/>
+      <c r="CA119" s="60"/>
+      <c r="CB119" s="60"/>
+      <c r="CC119" s="60"/>
+      <c r="CD119" s="60"/>
+      <c r="CE119" s="60"/>
+      <c r="CF119" s="60"/>
+      <c r="CG119" s="60"/>
+      <c r="CH119" s="60"/>
+      <c r="CI119" s="60"/>
+      <c r="CJ119" s="60"/>
+      <c r="CK119" s="60"/>
+      <c r="CL119" s="60"/>
       <c r="CM119" s="19"/>
       <c r="CN119" s="19"/>
       <c r="CO119" s="19"/>
@@ -20206,150 +19084,150 @@
       <c r="AU120" s="1"/>
       <c r="AV120" s="1"/>
       <c r="AW120" s="1"/>
-      <c r="AX120" s="82"/>
-      <c r="AY120" s="83"/>
-      <c r="AZ120" s="83"/>
-      <c r="BA120" s="83"/>
-      <c r="BB120" s="83"/>
-      <c r="BC120" s="83"/>
-      <c r="BD120" s="83"/>
-      <c r="BE120" s="83"/>
-      <c r="BF120" s="83"/>
-      <c r="BG120" s="83"/>
-      <c r="BH120" s="83"/>
-      <c r="BI120" s="83"/>
-      <c r="BJ120" s="83"/>
-      <c r="BK120" s="83"/>
-      <c r="BL120" s="83"/>
-      <c r="BM120" s="83"/>
-      <c r="BN120" s="83"/>
-      <c r="BO120" s="83"/>
-      <c r="BP120" s="83"/>
-      <c r="BQ120" s="83"/>
-      <c r="BR120" s="83"/>
-      <c r="BS120" s="83"/>
-      <c r="BT120" s="83"/>
-      <c r="BU120" s="83"/>
-      <c r="BV120" s="83"/>
-      <c r="BW120" s="83"/>
-      <c r="BX120" s="83"/>
-      <c r="BY120" s="83"/>
-      <c r="BZ120" s="83"/>
-      <c r="CA120" s="83"/>
-      <c r="CB120" s="83"/>
-      <c r="CC120" s="83"/>
-      <c r="CD120" s="83"/>
-      <c r="CE120" s="83"/>
-      <c r="CF120" s="83"/>
-      <c r="CG120" s="83"/>
-      <c r="CH120" s="83"/>
-      <c r="CI120" s="83"/>
-      <c r="CJ120" s="83"/>
-      <c r="CK120" s="83"/>
-      <c r="CL120" s="83"/>
+      <c r="AX120" s="57"/>
+      <c r="AY120" s="58"/>
+      <c r="AZ120" s="58"/>
+      <c r="BA120" s="58"/>
+      <c r="BB120" s="58"/>
+      <c r="BC120" s="58"/>
+      <c r="BD120" s="58"/>
+      <c r="BE120" s="58"/>
+      <c r="BF120" s="58"/>
+      <c r="BG120" s="58"/>
+      <c r="BH120" s="58"/>
+      <c r="BI120" s="58"/>
+      <c r="BJ120" s="58"/>
+      <c r="BK120" s="58"/>
+      <c r="BL120" s="58"/>
+      <c r="BM120" s="58"/>
+      <c r="BN120" s="58"/>
+      <c r="BO120" s="58"/>
+      <c r="BP120" s="58"/>
+      <c r="BQ120" s="58"/>
+      <c r="BR120" s="58"/>
+      <c r="BS120" s="58"/>
+      <c r="BT120" s="58"/>
+      <c r="BU120" s="58"/>
+      <c r="BV120" s="58"/>
+      <c r="BW120" s="58"/>
+      <c r="BX120" s="58"/>
+      <c r="BY120" s="58"/>
+      <c r="BZ120" s="58"/>
+      <c r="CA120" s="58"/>
+      <c r="CB120" s="58"/>
+      <c r="CC120" s="58"/>
+      <c r="CD120" s="58"/>
+      <c r="CE120" s="58"/>
+      <c r="CF120" s="58"/>
+      <c r="CG120" s="58"/>
+      <c r="CH120" s="58"/>
+      <c r="CI120" s="58"/>
+      <c r="CJ120" s="58"/>
+      <c r="CK120" s="58"/>
+      <c r="CL120" s="58"/>
       <c r="CM120" s="13"/>
       <c r="CN120" s="13"/>
       <c r="CO120" s="13"/>
       <c r="CP120" s="14"/>
     </row>
     <row r="121" spans="2:94" ht="13.5" customHeight="1">
-      <c r="B121" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C121" s="36"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="36"/>
-      <c r="F121" s="36"/>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="36"/>
-      <c r="J121" s="36"/>
-      <c r="K121" s="36"/>
-      <c r="L121" s="36"/>
-      <c r="M121" s="36"/>
-      <c r="N121" s="36"/>
-      <c r="O121" s="36"/>
-      <c r="P121" s="36"/>
-      <c r="Q121" s="36"/>
-      <c r="R121" s="36"/>
-      <c r="S121" s="36"/>
-      <c r="T121" s="36"/>
-      <c r="U121" s="36"/>
-      <c r="V121" s="36"/>
-      <c r="W121" s="36"/>
-      <c r="X121" s="36"/>
-      <c r="Y121" s="36"/>
-      <c r="Z121" s="36"/>
-      <c r="AA121" s="36"/>
-      <c r="AB121" s="36"/>
-      <c r="AC121" s="36"/>
-      <c r="AD121" s="36"/>
-      <c r="AE121" s="36"/>
-      <c r="AF121" s="36"/>
-      <c r="AG121" s="36"/>
-      <c r="AH121" s="36"/>
-      <c r="AI121" s="36"/>
-      <c r="AJ121" s="36"/>
-      <c r="AK121" s="36"/>
-      <c r="AL121" s="36"/>
-      <c r="AM121" s="36"/>
-      <c r="AN121" s="36"/>
-      <c r="AO121" s="36"/>
-      <c r="AP121" s="36"/>
-      <c r="AQ121" s="36"/>
-      <c r="AR121" s="36"/>
-      <c r="AS121" s="36"/>
-      <c r="AT121" s="37"/>
+      <c r="B121" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" s="75"/>
+      <c r="D121" s="75"/>
+      <c r="E121" s="75"/>
+      <c r="F121" s="75"/>
+      <c r="G121" s="75"/>
+      <c r="H121" s="75"/>
+      <c r="I121" s="75"/>
+      <c r="J121" s="75"/>
+      <c r="K121" s="75"/>
+      <c r="L121" s="75"/>
+      <c r="M121" s="75"/>
+      <c r="N121" s="75"/>
+      <c r="O121" s="75"/>
+      <c r="P121" s="75"/>
+      <c r="Q121" s="75"/>
+      <c r="R121" s="75"/>
+      <c r="S121" s="75"/>
+      <c r="T121" s="75"/>
+      <c r="U121" s="75"/>
+      <c r="V121" s="75"/>
+      <c r="W121" s="75"/>
+      <c r="X121" s="75"/>
+      <c r="Y121" s="75"/>
+      <c r="Z121" s="75"/>
+      <c r="AA121" s="75"/>
+      <c r="AB121" s="75"/>
+      <c r="AC121" s="75"/>
+      <c r="AD121" s="75"/>
+      <c r="AE121" s="75"/>
+      <c r="AF121" s="75"/>
+      <c r="AG121" s="75"/>
+      <c r="AH121" s="75"/>
+      <c r="AI121" s="75"/>
+      <c r="AJ121" s="75"/>
+      <c r="AK121" s="75"/>
+      <c r="AL121" s="75"/>
+      <c r="AM121" s="75"/>
+      <c r="AN121" s="75"/>
+      <c r="AO121" s="75"/>
+      <c r="AP121" s="75"/>
+      <c r="AQ121" s="75"/>
+      <c r="AR121" s="75"/>
+      <c r="AS121" s="75"/>
+      <c r="AT121" s="76"/>
       <c r="AU121" s="1"/>
       <c r="AV121" s="1"/>
       <c r="AW121" s="1"/>
-      <c r="AX121" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="AY121" s="36"/>
-      <c r="AZ121" s="36"/>
-      <c r="BA121" s="36"/>
-      <c r="BB121" s="36"/>
-      <c r="BC121" s="36"/>
-      <c r="BD121" s="36"/>
-      <c r="BE121" s="36"/>
-      <c r="BF121" s="36"/>
-      <c r="BG121" s="36"/>
-      <c r="BH121" s="36"/>
-      <c r="BI121" s="36"/>
-      <c r="BJ121" s="36"/>
-      <c r="BK121" s="36"/>
-      <c r="BL121" s="36"/>
-      <c r="BM121" s="36"/>
-      <c r="BN121" s="36"/>
-      <c r="BO121" s="36"/>
-      <c r="BP121" s="36"/>
-      <c r="BQ121" s="36"/>
-      <c r="BR121" s="36"/>
-      <c r="BS121" s="36"/>
-      <c r="BT121" s="36"/>
-      <c r="BU121" s="36"/>
-      <c r="BV121" s="36"/>
-      <c r="BW121" s="36"/>
-      <c r="BX121" s="36"/>
-      <c r="BY121" s="36"/>
-      <c r="BZ121" s="36"/>
-      <c r="CA121" s="36"/>
-      <c r="CB121" s="36"/>
-      <c r="CC121" s="36"/>
-      <c r="CD121" s="36"/>
-      <c r="CE121" s="36"/>
-      <c r="CF121" s="36"/>
-      <c r="CG121" s="36"/>
-      <c r="CH121" s="36"/>
-      <c r="CI121" s="36"/>
-      <c r="CJ121" s="36"/>
-      <c r="CK121" s="36"/>
-      <c r="CL121" s="36"/>
-      <c r="CM121" s="36"/>
-      <c r="CN121" s="36"/>
-      <c r="CO121" s="36"/>
-      <c r="CP121" s="37"/>
+      <c r="AX121" s="74" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY121" s="75"/>
+      <c r="AZ121" s="75"/>
+      <c r="BA121" s="75"/>
+      <c r="BB121" s="75"/>
+      <c r="BC121" s="75"/>
+      <c r="BD121" s="75"/>
+      <c r="BE121" s="75"/>
+      <c r="BF121" s="75"/>
+      <c r="BG121" s="75"/>
+      <c r="BH121" s="75"/>
+      <c r="BI121" s="75"/>
+      <c r="BJ121" s="75"/>
+      <c r="BK121" s="75"/>
+      <c r="BL121" s="75"/>
+      <c r="BM121" s="75"/>
+      <c r="BN121" s="75"/>
+      <c r="BO121" s="75"/>
+      <c r="BP121" s="75"/>
+      <c r="BQ121" s="75"/>
+      <c r="BR121" s="75"/>
+      <c r="BS121" s="75"/>
+      <c r="BT121" s="75"/>
+      <c r="BU121" s="75"/>
+      <c r="BV121" s="75"/>
+      <c r="BW121" s="75"/>
+      <c r="BX121" s="75"/>
+      <c r="BY121" s="75"/>
+      <c r="BZ121" s="75"/>
+      <c r="CA121" s="75"/>
+      <c r="CB121" s="75"/>
+      <c r="CC121" s="75"/>
+      <c r="CD121" s="75"/>
+      <c r="CE121" s="75"/>
+      <c r="CF121" s="75"/>
+      <c r="CG121" s="75"/>
+      <c r="CH121" s="75"/>
+      <c r="CI121" s="75"/>
+      <c r="CJ121" s="75"/>
+      <c r="CK121" s="75"/>
+      <c r="CL121" s="75"/>
+      <c r="CM121" s="75"/>
+      <c r="CN121" s="75"/>
+      <c r="CO121" s="75"/>
+      <c r="CP121" s="76"/>
     </row>
     <row r="122" spans="2:94" ht="13.5" customHeight="1">
       <c r="B122" s="12"/>
@@ -20400,47 +19278,47 @@
       <c r="AU122" s="1"/>
       <c r="AV122" s="1"/>
       <c r="AW122" s="1"/>
-      <c r="AX122" s="82"/>
-      <c r="AY122" s="83"/>
-      <c r="AZ122" s="83"/>
-      <c r="BA122" s="83"/>
-      <c r="BB122" s="83"/>
-      <c r="BC122" s="83"/>
-      <c r="BD122" s="83"/>
-      <c r="BE122" s="83"/>
-      <c r="BF122" s="83"/>
-      <c r="BG122" s="83"/>
-      <c r="BH122" s="83"/>
-      <c r="BI122" s="83"/>
-      <c r="BJ122" s="83"/>
-      <c r="BK122" s="83"/>
-      <c r="BL122" s="83"/>
-      <c r="BM122" s="83"/>
-      <c r="BN122" s="83"/>
-      <c r="BO122" s="83"/>
-      <c r="BP122" s="83"/>
-      <c r="BQ122" s="83"/>
-      <c r="BR122" s="83"/>
-      <c r="BS122" s="83"/>
-      <c r="BT122" s="83"/>
-      <c r="BU122" s="83"/>
-      <c r="BV122" s="83"/>
-      <c r="BW122" s="83"/>
-      <c r="BX122" s="83"/>
-      <c r="BY122" s="83"/>
-      <c r="BZ122" s="83"/>
-      <c r="CA122" s="83"/>
-      <c r="CB122" s="83"/>
-      <c r="CC122" s="83"/>
-      <c r="CD122" s="83"/>
-      <c r="CE122" s="83"/>
-      <c r="CF122" s="83"/>
-      <c r="CG122" s="83"/>
-      <c r="CH122" s="83"/>
-      <c r="CI122" s="83"/>
-      <c r="CJ122" s="83"/>
-      <c r="CK122" s="83"/>
-      <c r="CL122" s="83"/>
+      <c r="AX122" s="57"/>
+      <c r="AY122" s="58"/>
+      <c r="AZ122" s="58"/>
+      <c r="BA122" s="58"/>
+      <c r="BB122" s="58"/>
+      <c r="BC122" s="58"/>
+      <c r="BD122" s="58"/>
+      <c r="BE122" s="58"/>
+      <c r="BF122" s="58"/>
+      <c r="BG122" s="58"/>
+      <c r="BH122" s="58"/>
+      <c r="BI122" s="58"/>
+      <c r="BJ122" s="58"/>
+      <c r="BK122" s="58"/>
+      <c r="BL122" s="58"/>
+      <c r="BM122" s="58"/>
+      <c r="BN122" s="58"/>
+      <c r="BO122" s="58"/>
+      <c r="BP122" s="58"/>
+      <c r="BQ122" s="58"/>
+      <c r="BR122" s="58"/>
+      <c r="BS122" s="58"/>
+      <c r="BT122" s="58"/>
+      <c r="BU122" s="58"/>
+      <c r="BV122" s="58"/>
+      <c r="BW122" s="58"/>
+      <c r="BX122" s="58"/>
+      <c r="BY122" s="58"/>
+      <c r="BZ122" s="58"/>
+      <c r="CA122" s="58"/>
+      <c r="CB122" s="58"/>
+      <c r="CC122" s="58"/>
+      <c r="CD122" s="58"/>
+      <c r="CE122" s="58"/>
+      <c r="CF122" s="58"/>
+      <c r="CG122" s="58"/>
+      <c r="CH122" s="58"/>
+      <c r="CI122" s="58"/>
+      <c r="CJ122" s="58"/>
+      <c r="CK122" s="58"/>
+      <c r="CL122" s="58"/>
       <c r="CM122" s="13"/>
       <c r="CN122" s="13"/>
       <c r="CO122" s="13"/>
@@ -20495,47 +19373,47 @@
       <c r="AU123" s="1"/>
       <c r="AV123" s="1"/>
       <c r="AW123" s="1"/>
-      <c r="AX123" s="82"/>
-      <c r="AY123" s="83"/>
-      <c r="AZ123" s="83"/>
-      <c r="BA123" s="83"/>
-      <c r="BB123" s="83"/>
-      <c r="BC123" s="83"/>
-      <c r="BD123" s="83"/>
-      <c r="BE123" s="83"/>
-      <c r="BF123" s="83"/>
-      <c r="BG123" s="83"/>
-      <c r="BH123" s="83"/>
-      <c r="BI123" s="83"/>
-      <c r="BJ123" s="83"/>
-      <c r="BK123" s="83"/>
-      <c r="BL123" s="83"/>
-      <c r="BM123" s="83"/>
-      <c r="BN123" s="83"/>
-      <c r="BO123" s="83"/>
-      <c r="BP123" s="83"/>
-      <c r="BQ123" s="83"/>
-      <c r="BR123" s="83"/>
-      <c r="BS123" s="83"/>
-      <c r="BT123" s="83"/>
-      <c r="BU123" s="83"/>
-      <c r="BV123" s="83"/>
-      <c r="BW123" s="83"/>
-      <c r="BX123" s="83"/>
-      <c r="BY123" s="83"/>
-      <c r="BZ123" s="83"/>
-      <c r="CA123" s="83"/>
-      <c r="CB123" s="83"/>
-      <c r="CC123" s="83"/>
-      <c r="CD123" s="83"/>
-      <c r="CE123" s="83"/>
-      <c r="CF123" s="83"/>
-      <c r="CG123" s="83"/>
-      <c r="CH123" s="83"/>
-      <c r="CI123" s="83"/>
-      <c r="CJ123" s="83"/>
-      <c r="CK123" s="83"/>
-      <c r="CL123" s="83"/>
+      <c r="AX123" s="57"/>
+      <c r="AY123" s="58"/>
+      <c r="AZ123" s="58"/>
+      <c r="BA123" s="58"/>
+      <c r="BB123" s="58"/>
+      <c r="BC123" s="58"/>
+      <c r="BD123" s="58"/>
+      <c r="BE123" s="58"/>
+      <c r="BF123" s="58"/>
+      <c r="BG123" s="58"/>
+      <c r="BH123" s="58"/>
+      <c r="BI123" s="58"/>
+      <c r="BJ123" s="58"/>
+      <c r="BK123" s="58"/>
+      <c r="BL123" s="58"/>
+      <c r="BM123" s="58"/>
+      <c r="BN123" s="58"/>
+      <c r="BO123" s="58"/>
+      <c r="BP123" s="58"/>
+      <c r="BQ123" s="58"/>
+      <c r="BR123" s="58"/>
+      <c r="BS123" s="58"/>
+      <c r="BT123" s="58"/>
+      <c r="BU123" s="58"/>
+      <c r="BV123" s="58"/>
+      <c r="BW123" s="58"/>
+      <c r="BX123" s="58"/>
+      <c r="BY123" s="58"/>
+      <c r="BZ123" s="58"/>
+      <c r="CA123" s="58"/>
+      <c r="CB123" s="58"/>
+      <c r="CC123" s="58"/>
+      <c r="CD123" s="58"/>
+      <c r="CE123" s="58"/>
+      <c r="CF123" s="58"/>
+      <c r="CG123" s="58"/>
+      <c r="CH123" s="58"/>
+      <c r="CI123" s="58"/>
+      <c r="CJ123" s="58"/>
+      <c r="CK123" s="58"/>
+      <c r="CL123" s="58"/>
       <c r="CM123" s="13"/>
       <c r="CN123" s="13"/>
       <c r="CO123" s="13"/>
@@ -20590,146 +19468,146 @@
       <c r="AU124" s="1"/>
       <c r="AV124" s="1"/>
       <c r="AW124" s="1"/>
-      <c r="AX124" s="82"/>
-      <c r="AY124" s="83"/>
-      <c r="AZ124" s="83"/>
-      <c r="BA124" s="83"/>
-      <c r="BB124" s="83"/>
-      <c r="BC124" s="83"/>
-      <c r="BD124" s="83"/>
-      <c r="BE124" s="83"/>
-      <c r="BF124" s="83"/>
-      <c r="BG124" s="83"/>
-      <c r="BH124" s="83"/>
-      <c r="BI124" s="83"/>
-      <c r="BJ124" s="83"/>
-      <c r="BK124" s="83"/>
-      <c r="BL124" s="83"/>
-      <c r="BM124" s="83"/>
-      <c r="BN124" s="83"/>
-      <c r="BO124" s="83"/>
-      <c r="BP124" s="83"/>
-      <c r="BQ124" s="83"/>
-      <c r="BR124" s="83"/>
-      <c r="BS124" s="83"/>
-      <c r="BT124" s="83"/>
-      <c r="BU124" s="83"/>
-      <c r="BV124" s="83"/>
-      <c r="BW124" s="83"/>
-      <c r="BX124" s="83"/>
-      <c r="BY124" s="83"/>
-      <c r="BZ124" s="83"/>
-      <c r="CA124" s="83"/>
-      <c r="CB124" s="83"/>
-      <c r="CC124" s="83"/>
-      <c r="CD124" s="83"/>
-      <c r="CE124" s="83"/>
-      <c r="CF124" s="83"/>
-      <c r="CG124" s="83"/>
-      <c r="CH124" s="83"/>
-      <c r="CI124" s="83"/>
-      <c r="CJ124" s="83"/>
-      <c r="CK124" s="83"/>
-      <c r="CL124" s="83"/>
+      <c r="AX124" s="57"/>
+      <c r="AY124" s="58"/>
+      <c r="AZ124" s="58"/>
+      <c r="BA124" s="58"/>
+      <c r="BB124" s="58"/>
+      <c r="BC124" s="58"/>
+      <c r="BD124" s="58"/>
+      <c r="BE124" s="58"/>
+      <c r="BF124" s="58"/>
+      <c r="BG124" s="58"/>
+      <c r="BH124" s="58"/>
+      <c r="BI124" s="58"/>
+      <c r="BJ124" s="58"/>
+      <c r="BK124" s="58"/>
+      <c r="BL124" s="58"/>
+      <c r="BM124" s="58"/>
+      <c r="BN124" s="58"/>
+      <c r="BO124" s="58"/>
+      <c r="BP124" s="58"/>
+      <c r="BQ124" s="58"/>
+      <c r="BR124" s="58"/>
+      <c r="BS124" s="58"/>
+      <c r="BT124" s="58"/>
+      <c r="BU124" s="58"/>
+      <c r="BV124" s="58"/>
+      <c r="BW124" s="58"/>
+      <c r="BX124" s="58"/>
+      <c r="BY124" s="58"/>
+      <c r="BZ124" s="58"/>
+      <c r="CA124" s="58"/>
+      <c r="CB124" s="58"/>
+      <c r="CC124" s="58"/>
+      <c r="CD124" s="58"/>
+      <c r="CE124" s="58"/>
+      <c r="CF124" s="58"/>
+      <c r="CG124" s="58"/>
+      <c r="CH124" s="58"/>
+      <c r="CI124" s="58"/>
+      <c r="CJ124" s="58"/>
+      <c r="CK124" s="58"/>
+      <c r="CL124" s="58"/>
       <c r="CM124" s="13"/>
       <c r="CN124" s="13"/>
       <c r="CO124" s="13"/>
       <c r="CP124" s="14"/>
     </row>
     <row r="125" spans="2:94" ht="13.5" customHeight="1">
-      <c r="B125" s="70"/>
-      <c r="C125" s="71"/>
-      <c r="D125" s="71"/>
-      <c r="E125" s="71"/>
-      <c r="F125" s="71"/>
-      <c r="G125" s="71"/>
-      <c r="H125" s="71"/>
-      <c r="I125" s="71"/>
-      <c r="J125" s="71"/>
-      <c r="K125" s="71"/>
-      <c r="L125" s="71"/>
-      <c r="M125" s="71"/>
-      <c r="N125" s="71"/>
-      <c r="O125" s="71"/>
-      <c r="P125" s="71"/>
-      <c r="Q125" s="71"/>
-      <c r="R125" s="71"/>
-      <c r="S125" s="71"/>
-      <c r="T125" s="71"/>
-      <c r="U125" s="71"/>
-      <c r="V125" s="71"/>
-      <c r="W125" s="71"/>
-      <c r="X125" s="71"/>
-      <c r="Y125" s="71"/>
-      <c r="Z125" s="71"/>
-      <c r="AA125" s="71"/>
-      <c r="AB125" s="71"/>
-      <c r="AC125" s="71"/>
-      <c r="AD125" s="71"/>
-      <c r="AE125" s="71"/>
-      <c r="AF125" s="71"/>
-      <c r="AG125" s="71"/>
-      <c r="AH125" s="71"/>
-      <c r="AI125" s="71"/>
-      <c r="AJ125" s="71"/>
-      <c r="AK125" s="71"/>
-      <c r="AL125" s="71"/>
-      <c r="AM125" s="71"/>
-      <c r="AN125" s="71"/>
-      <c r="AO125" s="71"/>
-      <c r="AP125" s="71"/>
-      <c r="AQ125" s="71"/>
-      <c r="AR125" s="71"/>
-      <c r="AS125" s="71"/>
-      <c r="AT125" s="72"/>
+      <c r="B125" s="49"/>
+      <c r="C125" s="50"/>
+      <c r="D125" s="50"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
+      <c r="H125" s="50"/>
+      <c r="I125" s="50"/>
+      <c r="J125" s="50"/>
+      <c r="K125" s="50"/>
+      <c r="L125" s="50"/>
+      <c r="M125" s="50"/>
+      <c r="N125" s="50"/>
+      <c r="O125" s="50"/>
+      <c r="P125" s="50"/>
+      <c r="Q125" s="50"/>
+      <c r="R125" s="50"/>
+      <c r="S125" s="50"/>
+      <c r="T125" s="50"/>
+      <c r="U125" s="50"/>
+      <c r="V125" s="50"/>
+      <c r="W125" s="50"/>
+      <c r="X125" s="50"/>
+      <c r="Y125" s="50"/>
+      <c r="Z125" s="50"/>
+      <c r="AA125" s="50"/>
+      <c r="AB125" s="50"/>
+      <c r="AC125" s="50"/>
+      <c r="AD125" s="50"/>
+      <c r="AE125" s="50"/>
+      <c r="AF125" s="50"/>
+      <c r="AG125" s="50"/>
+      <c r="AH125" s="50"/>
+      <c r="AI125" s="50"/>
+      <c r="AJ125" s="50"/>
+      <c r="AK125" s="50"/>
+      <c r="AL125" s="50"/>
+      <c r="AM125" s="50"/>
+      <c r="AN125" s="50"/>
+      <c r="AO125" s="50"/>
+      <c r="AP125" s="50"/>
+      <c r="AQ125" s="50"/>
+      <c r="AR125" s="50"/>
+      <c r="AS125" s="50"/>
+      <c r="AT125" s="51"/>
       <c r="AU125" s="1"/>
       <c r="AV125" s="1"/>
       <c r="AW125" s="1"/>
-      <c r="AX125" s="86"/>
-      <c r="AY125" s="87"/>
-      <c r="AZ125" s="87"/>
-      <c r="BA125" s="87"/>
-      <c r="BB125" s="87"/>
-      <c r="BC125" s="87"/>
-      <c r="BD125" s="87"/>
-      <c r="BE125" s="87"/>
-      <c r="BF125" s="87"/>
-      <c r="BG125" s="87"/>
-      <c r="BH125" s="87"/>
-      <c r="BI125" s="87"/>
-      <c r="BJ125" s="87"/>
-      <c r="BK125" s="87"/>
-      <c r="BL125" s="87"/>
-      <c r="BM125" s="87"/>
-      <c r="BN125" s="87"/>
-      <c r="BO125" s="87"/>
-      <c r="BP125" s="87"/>
-      <c r="BQ125" s="87"/>
-      <c r="BR125" s="87"/>
-      <c r="BS125" s="87"/>
-      <c r="BT125" s="87"/>
-      <c r="BU125" s="87"/>
-      <c r="BV125" s="87"/>
-      <c r="BW125" s="87"/>
-      <c r="BX125" s="87"/>
-      <c r="BY125" s="87"/>
-      <c r="BZ125" s="87"/>
-      <c r="CA125" s="87"/>
-      <c r="CB125" s="87"/>
-      <c r="CC125" s="87"/>
-      <c r="CD125" s="87"/>
-      <c r="CE125" s="87"/>
-      <c r="CF125" s="87"/>
-      <c r="CG125" s="87"/>
-      <c r="CH125" s="87"/>
-      <c r="CI125" s="87"/>
-      <c r="CJ125" s="87"/>
-      <c r="CK125" s="87"/>
-      <c r="CL125" s="87"/>
-      <c r="CM125" s="71"/>
-      <c r="CN125" s="71"/>
-      <c r="CO125" s="71"/>
-      <c r="CP125" s="72"/>
+      <c r="AX125" s="61"/>
+      <c r="AY125" s="62"/>
+      <c r="AZ125" s="62"/>
+      <c r="BA125" s="62"/>
+      <c r="BB125" s="62"/>
+      <c r="BC125" s="62"/>
+      <c r="BD125" s="62"/>
+      <c r="BE125" s="62"/>
+      <c r="BF125" s="62"/>
+      <c r="BG125" s="62"/>
+      <c r="BH125" s="62"/>
+      <c r="BI125" s="62"/>
+      <c r="BJ125" s="62"/>
+      <c r="BK125" s="62"/>
+      <c r="BL125" s="62"/>
+      <c r="BM125" s="62"/>
+      <c r="BN125" s="62"/>
+      <c r="BO125" s="62"/>
+      <c r="BP125" s="62"/>
+      <c r="BQ125" s="62"/>
+      <c r="BR125" s="62"/>
+      <c r="BS125" s="62"/>
+      <c r="BT125" s="62"/>
+      <c r="BU125" s="62"/>
+      <c r="BV125" s="62"/>
+      <c r="BW125" s="62"/>
+      <c r="BX125" s="62"/>
+      <c r="BY125" s="62"/>
+      <c r="BZ125" s="62"/>
+      <c r="CA125" s="62"/>
+      <c r="CB125" s="62"/>
+      <c r="CC125" s="62"/>
+      <c r="CD125" s="62"/>
+      <c r="CE125" s="62"/>
+      <c r="CF125" s="62"/>
+      <c r="CG125" s="62"/>
+      <c r="CH125" s="62"/>
+      <c r="CI125" s="62"/>
+      <c r="CJ125" s="62"/>
+      <c r="CK125" s="62"/>
+      <c r="CL125" s="62"/>
+      <c r="CM125" s="50"/>
+      <c r="CN125" s="50"/>
+      <c r="CO125" s="50"/>
+      <c r="CP125" s="51"/>
     </row>
     <row r="126" spans="2:94" ht="13.5" customHeight="1">
       <c r="B126" s="12"/>
@@ -20780,47 +19658,47 @@
       <c r="AU126" s="1"/>
       <c r="AV126" s="1"/>
       <c r="AW126" s="1"/>
-      <c r="AX126" s="82"/>
-      <c r="AY126" s="83"/>
-      <c r="AZ126" s="83"/>
-      <c r="BA126" s="83"/>
-      <c r="BB126" s="83"/>
-      <c r="BC126" s="83"/>
-      <c r="BD126" s="83"/>
-      <c r="BE126" s="83"/>
-      <c r="BF126" s="83"/>
-      <c r="BG126" s="83"/>
-      <c r="BH126" s="83"/>
-      <c r="BI126" s="83"/>
-      <c r="BJ126" s="83"/>
-      <c r="BK126" s="83"/>
-      <c r="BL126" s="83"/>
-      <c r="BM126" s="83"/>
-      <c r="BN126" s="83"/>
-      <c r="BO126" s="83"/>
-      <c r="BP126" s="83"/>
-      <c r="BQ126" s="83"/>
-      <c r="BR126" s="83"/>
-      <c r="BS126" s="83"/>
-      <c r="BT126" s="83"/>
-      <c r="BU126" s="83"/>
-      <c r="BV126" s="83"/>
-      <c r="BW126" s="83"/>
-      <c r="BX126" s="83"/>
-      <c r="BY126" s="83"/>
-      <c r="BZ126" s="83"/>
-      <c r="CA126" s="83"/>
-      <c r="CB126" s="83"/>
-      <c r="CC126" s="83"/>
-      <c r="CD126" s="83"/>
-      <c r="CE126" s="83"/>
-      <c r="CF126" s="83"/>
-      <c r="CG126" s="83"/>
-      <c r="CH126" s="83"/>
-      <c r="CI126" s="83"/>
-      <c r="CJ126" s="83"/>
-      <c r="CK126" s="83"/>
-      <c r="CL126" s="83"/>
+      <c r="AX126" s="57"/>
+      <c r="AY126" s="58"/>
+      <c r="AZ126" s="58"/>
+      <c r="BA126" s="58"/>
+      <c r="BB126" s="58"/>
+      <c r="BC126" s="58"/>
+      <c r="BD126" s="58"/>
+      <c r="BE126" s="58"/>
+      <c r="BF126" s="58"/>
+      <c r="BG126" s="58"/>
+      <c r="BH126" s="58"/>
+      <c r="BI126" s="58"/>
+      <c r="BJ126" s="58"/>
+      <c r="BK126" s="58"/>
+      <c r="BL126" s="58"/>
+      <c r="BM126" s="58"/>
+      <c r="BN126" s="58"/>
+      <c r="BO126" s="58"/>
+      <c r="BP126" s="58"/>
+      <c r="BQ126" s="58"/>
+      <c r="BR126" s="58"/>
+      <c r="BS126" s="58"/>
+      <c r="BT126" s="58"/>
+      <c r="BU126" s="58"/>
+      <c r="BV126" s="58"/>
+      <c r="BW126" s="58"/>
+      <c r="BX126" s="58"/>
+      <c r="BY126" s="58"/>
+      <c r="BZ126" s="58"/>
+      <c r="CA126" s="58"/>
+      <c r="CB126" s="58"/>
+      <c r="CC126" s="58"/>
+      <c r="CD126" s="58"/>
+      <c r="CE126" s="58"/>
+      <c r="CF126" s="58"/>
+      <c r="CG126" s="58"/>
+      <c r="CH126" s="58"/>
+      <c r="CI126" s="58"/>
+      <c r="CJ126" s="58"/>
+      <c r="CK126" s="58"/>
+      <c r="CL126" s="58"/>
       <c r="CM126" s="13"/>
       <c r="CN126" s="13"/>
       <c r="CO126" s="13"/>
@@ -20875,47 +19753,47 @@
       <c r="AU127" s="1"/>
       <c r="AV127" s="1"/>
       <c r="AW127" s="1"/>
-      <c r="AX127" s="82"/>
-      <c r="AY127" s="83"/>
-      <c r="AZ127" s="83"/>
-      <c r="BA127" s="83"/>
-      <c r="BB127" s="83"/>
-      <c r="BC127" s="83"/>
-      <c r="BD127" s="83"/>
-      <c r="BE127" s="83"/>
-      <c r="BF127" s="83"/>
-      <c r="BG127" s="83"/>
-      <c r="BH127" s="83"/>
-      <c r="BI127" s="83"/>
-      <c r="BJ127" s="83"/>
-      <c r="BK127" s="83"/>
-      <c r="BL127" s="83"/>
-      <c r="BM127" s="83"/>
-      <c r="BN127" s="83"/>
-      <c r="BO127" s="83"/>
-      <c r="BP127" s="83"/>
-      <c r="BQ127" s="83"/>
-      <c r="BR127" s="83"/>
-      <c r="BS127" s="83"/>
-      <c r="BT127" s="83"/>
-      <c r="BU127" s="83"/>
-      <c r="BV127" s="83"/>
-      <c r="BW127" s="83"/>
-      <c r="BX127" s="83"/>
-      <c r="BY127" s="83"/>
-      <c r="BZ127" s="83"/>
-      <c r="CA127" s="83"/>
-      <c r="CB127" s="83"/>
-      <c r="CC127" s="83"/>
-      <c r="CD127" s="83"/>
-      <c r="CE127" s="83"/>
-      <c r="CF127" s="83"/>
-      <c r="CG127" s="83"/>
-      <c r="CH127" s="83"/>
-      <c r="CI127" s="83"/>
-      <c r="CJ127" s="83"/>
-      <c r="CK127" s="83"/>
-      <c r="CL127" s="83"/>
+      <c r="AX127" s="57"/>
+      <c r="AY127" s="58"/>
+      <c r="AZ127" s="58"/>
+      <c r="BA127" s="58"/>
+      <c r="BB127" s="58"/>
+      <c r="BC127" s="58"/>
+      <c r="BD127" s="58"/>
+      <c r="BE127" s="58"/>
+      <c r="BF127" s="58"/>
+      <c r="BG127" s="58"/>
+      <c r="BH127" s="58"/>
+      <c r="BI127" s="58"/>
+      <c r="BJ127" s="58"/>
+      <c r="BK127" s="58"/>
+      <c r="BL127" s="58"/>
+      <c r="BM127" s="58"/>
+      <c r="BN127" s="58"/>
+      <c r="BO127" s="58"/>
+      <c r="BP127" s="58"/>
+      <c r="BQ127" s="58"/>
+      <c r="BR127" s="58"/>
+      <c r="BS127" s="58"/>
+      <c r="BT127" s="58"/>
+      <c r="BU127" s="58"/>
+      <c r="BV127" s="58"/>
+      <c r="BW127" s="58"/>
+      <c r="BX127" s="58"/>
+      <c r="BY127" s="58"/>
+      <c r="BZ127" s="58"/>
+      <c r="CA127" s="58"/>
+      <c r="CB127" s="58"/>
+      <c r="CC127" s="58"/>
+      <c r="CD127" s="58"/>
+      <c r="CE127" s="58"/>
+      <c r="CF127" s="58"/>
+      <c r="CG127" s="58"/>
+      <c r="CH127" s="58"/>
+      <c r="CI127" s="58"/>
+      <c r="CJ127" s="58"/>
+      <c r="CK127" s="58"/>
+      <c r="CL127" s="58"/>
       <c r="CM127" s="13"/>
       <c r="CN127" s="13"/>
       <c r="CO127" s="13"/>
@@ -20970,152 +19848,152 @@
       <c r="AU128" s="1"/>
       <c r="AV128" s="1"/>
       <c r="AW128" s="1"/>
-      <c r="AX128" s="82"/>
-      <c r="AY128" s="83"/>
-      <c r="AZ128" s="83"/>
-      <c r="BA128" s="83"/>
-      <c r="BB128" s="83"/>
-      <c r="BC128" s="83"/>
-      <c r="BD128" s="83"/>
-      <c r="BE128" s="83"/>
-      <c r="BF128" s="83"/>
-      <c r="BG128" s="83"/>
-      <c r="BH128" s="83"/>
-      <c r="BI128" s="83"/>
-      <c r="BJ128" s="83"/>
-      <c r="BK128" s="83"/>
-      <c r="BL128" s="83"/>
-      <c r="BM128" s="83"/>
-      <c r="BN128" s="83"/>
-      <c r="BO128" s="83"/>
-      <c r="BP128" s="83"/>
-      <c r="BQ128" s="83"/>
-      <c r="BR128" s="83"/>
-      <c r="BS128" s="83"/>
-      <c r="BT128" s="83"/>
-      <c r="BU128" s="83"/>
-      <c r="BV128" s="83"/>
-      <c r="BW128" s="83"/>
-      <c r="BX128" s="83"/>
-      <c r="BY128" s="83"/>
-      <c r="BZ128" s="83"/>
-      <c r="CA128" s="83"/>
-      <c r="CB128" s="83"/>
-      <c r="CC128" s="83"/>
-      <c r="CD128" s="83"/>
-      <c r="CE128" s="83"/>
-      <c r="CF128" s="83"/>
-      <c r="CG128" s="83"/>
-      <c r="CH128" s="83"/>
-      <c r="CI128" s="83"/>
-      <c r="CJ128" s="83"/>
-      <c r="CK128" s="83"/>
-      <c r="CL128" s="83"/>
+      <c r="AX128" s="57"/>
+      <c r="AY128" s="58"/>
+      <c r="AZ128" s="58"/>
+      <c r="BA128" s="58"/>
+      <c r="BB128" s="58"/>
+      <c r="BC128" s="58"/>
+      <c r="BD128" s="58"/>
+      <c r="BE128" s="58"/>
+      <c r="BF128" s="58"/>
+      <c r="BG128" s="58"/>
+      <c r="BH128" s="58"/>
+      <c r="BI128" s="58"/>
+      <c r="BJ128" s="58"/>
+      <c r="BK128" s="58"/>
+      <c r="BL128" s="58"/>
+      <c r="BM128" s="58"/>
+      <c r="BN128" s="58"/>
+      <c r="BO128" s="58"/>
+      <c r="BP128" s="58"/>
+      <c r="BQ128" s="58"/>
+      <c r="BR128" s="58"/>
+      <c r="BS128" s="58"/>
+      <c r="BT128" s="58"/>
+      <c r="BU128" s="58"/>
+      <c r="BV128" s="58"/>
+      <c r="BW128" s="58"/>
+      <c r="BX128" s="58"/>
+      <c r="BY128" s="58"/>
+      <c r="BZ128" s="58"/>
+      <c r="CA128" s="58"/>
+      <c r="CB128" s="58"/>
+      <c r="CC128" s="58"/>
+      <c r="CD128" s="58"/>
+      <c r="CE128" s="58"/>
+      <c r="CF128" s="58"/>
+      <c r="CG128" s="58"/>
+      <c r="CH128" s="58"/>
+      <c r="CI128" s="58"/>
+      <c r="CJ128" s="58"/>
+      <c r="CK128" s="58"/>
+      <c r="CL128" s="58"/>
       <c r="CM128" s="13"/>
       <c r="CN128" s="13"/>
       <c r="CO128" s="13"/>
       <c r="CP128" s="14"/>
     </row>
-    <row r="129" spans="1:94" ht="13.5" customHeight="1">
-      <c r="B129" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="C129" s="68"/>
-      <c r="D129" s="68"/>
-      <c r="E129" s="68"/>
-      <c r="F129" s="68"/>
-      <c r="G129" s="68"/>
-      <c r="H129" s="68"/>
-      <c r="I129" s="68"/>
-      <c r="J129" s="68"/>
-      <c r="K129" s="68"/>
-      <c r="L129" s="68"/>
-      <c r="M129" s="68"/>
-      <c r="N129" s="68"/>
-      <c r="O129" s="68"/>
-      <c r="P129" s="68"/>
-      <c r="Q129" s="68"/>
-      <c r="R129" s="68"/>
-      <c r="S129" s="68"/>
-      <c r="T129" s="68"/>
-      <c r="U129" s="68"/>
-      <c r="V129" s="68"/>
-      <c r="W129" s="68"/>
-      <c r="X129" s="68"/>
-      <c r="Y129" s="68"/>
-      <c r="Z129" s="68"/>
-      <c r="AA129" s="68"/>
-      <c r="AB129" s="68"/>
-      <c r="AC129" s="68"/>
-      <c r="AD129" s="68"/>
-      <c r="AE129" s="68"/>
-      <c r="AF129" s="68"/>
-      <c r="AG129" s="68"/>
-      <c r="AH129" s="68"/>
-      <c r="AI129" s="68"/>
-      <c r="AJ129" s="68"/>
-      <c r="AK129" s="68"/>
-      <c r="AL129" s="68"/>
-      <c r="AM129" s="68"/>
-      <c r="AN129" s="68"/>
-      <c r="AO129" s="68"/>
-      <c r="AP129" s="68"/>
-      <c r="AQ129" s="68"/>
-      <c r="AR129" s="68"/>
-      <c r="AS129" s="68"/>
-      <c r="AT129" s="69"/>
+    <row r="129" spans="2:94" ht="13.5" customHeight="1">
+      <c r="B129" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C129" s="83"/>
+      <c r="D129" s="83"/>
+      <c r="E129" s="83"/>
+      <c r="F129" s="83"/>
+      <c r="G129" s="83"/>
+      <c r="H129" s="83"/>
+      <c r="I129" s="83"/>
+      <c r="J129" s="83"/>
+      <c r="K129" s="83"/>
+      <c r="L129" s="83"/>
+      <c r="M129" s="83"/>
+      <c r="N129" s="83"/>
+      <c r="O129" s="83"/>
+      <c r="P129" s="83"/>
+      <c r="Q129" s="83"/>
+      <c r="R129" s="83"/>
+      <c r="S129" s="83"/>
+      <c r="T129" s="83"/>
+      <c r="U129" s="83"/>
+      <c r="V129" s="83"/>
+      <c r="W129" s="83"/>
+      <c r="X129" s="83"/>
+      <c r="Y129" s="83"/>
+      <c r="Z129" s="83"/>
+      <c r="AA129" s="83"/>
+      <c r="AB129" s="83"/>
+      <c r="AC129" s="83"/>
+      <c r="AD129" s="83"/>
+      <c r="AE129" s="83"/>
+      <c r="AF129" s="83"/>
+      <c r="AG129" s="83"/>
+      <c r="AH129" s="83"/>
+      <c r="AI129" s="83"/>
+      <c r="AJ129" s="83"/>
+      <c r="AK129" s="83"/>
+      <c r="AL129" s="83"/>
+      <c r="AM129" s="83"/>
+      <c r="AN129" s="83"/>
+      <c r="AO129" s="83"/>
+      <c r="AP129" s="83"/>
+      <c r="AQ129" s="83"/>
+      <c r="AR129" s="83"/>
+      <c r="AS129" s="83"/>
+      <c r="AT129" s="84"/>
       <c r="AU129" s="1"/>
       <c r="AV129" s="1"/>
       <c r="AW129" s="1"/>
-      <c r="AX129" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY129" s="68"/>
-      <c r="AZ129" s="68"/>
-      <c r="BA129" s="68"/>
-      <c r="BB129" s="68"/>
-      <c r="BC129" s="68"/>
-      <c r="BD129" s="68"/>
-      <c r="BE129" s="68"/>
-      <c r="BF129" s="68"/>
-      <c r="BG129" s="68"/>
-      <c r="BH129" s="68"/>
-      <c r="BI129" s="68"/>
-      <c r="BJ129" s="68"/>
-      <c r="BK129" s="68"/>
-      <c r="BL129" s="68"/>
-      <c r="BM129" s="68"/>
-      <c r="BN129" s="68"/>
-      <c r="BO129" s="68"/>
-      <c r="BP129" s="68"/>
-      <c r="BQ129" s="68"/>
-      <c r="BR129" s="68"/>
-      <c r="BS129" s="68"/>
-      <c r="BT129" s="68"/>
-      <c r="BU129" s="68"/>
-      <c r="BV129" s="68"/>
-      <c r="BW129" s="68"/>
-      <c r="BX129" s="68"/>
-      <c r="BY129" s="68"/>
-      <c r="BZ129" s="68"/>
-      <c r="CA129" s="68"/>
-      <c r="CB129" s="68"/>
-      <c r="CC129" s="68"/>
-      <c r="CD129" s="68"/>
-      <c r="CE129" s="68"/>
-      <c r="CF129" s="68"/>
-      <c r="CG129" s="68"/>
-      <c r="CH129" s="68"/>
-      <c r="CI129" s="68"/>
-      <c r="CJ129" s="68"/>
-      <c r="CK129" s="68"/>
-      <c r="CL129" s="68"/>
-      <c r="CM129" s="68"/>
-      <c r="CN129" s="68"/>
-      <c r="CO129" s="68"/>
-      <c r="CP129" s="69"/>
-    </row>
-    <row r="130" spans="1:94" ht="13.5" customHeight="1">
+      <c r="AX129" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY129" s="83"/>
+      <c r="AZ129" s="83"/>
+      <c r="BA129" s="83"/>
+      <c r="BB129" s="83"/>
+      <c r="BC129" s="83"/>
+      <c r="BD129" s="83"/>
+      <c r="BE129" s="83"/>
+      <c r="BF129" s="83"/>
+      <c r="BG129" s="83"/>
+      <c r="BH129" s="83"/>
+      <c r="BI129" s="83"/>
+      <c r="BJ129" s="83"/>
+      <c r="BK129" s="83"/>
+      <c r="BL129" s="83"/>
+      <c r="BM129" s="83"/>
+      <c r="BN129" s="83"/>
+      <c r="BO129" s="83"/>
+      <c r="BP129" s="83"/>
+      <c r="BQ129" s="83"/>
+      <c r="BR129" s="83"/>
+      <c r="BS129" s="83"/>
+      <c r="BT129" s="83"/>
+      <c r="BU129" s="83"/>
+      <c r="BV129" s="83"/>
+      <c r="BW129" s="83"/>
+      <c r="BX129" s="83"/>
+      <c r="BY129" s="83"/>
+      <c r="BZ129" s="83"/>
+      <c r="CA129" s="83"/>
+      <c r="CB129" s="83"/>
+      <c r="CC129" s="83"/>
+      <c r="CD129" s="83"/>
+      <c r="CE129" s="83"/>
+      <c r="CF129" s="83"/>
+      <c r="CG129" s="83"/>
+      <c r="CH129" s="83"/>
+      <c r="CI129" s="83"/>
+      <c r="CJ129" s="83"/>
+      <c r="CK129" s="83"/>
+      <c r="CL129" s="83"/>
+      <c r="CM129" s="83"/>
+      <c r="CN129" s="83"/>
+      <c r="CO129" s="83"/>
+      <c r="CP129" s="84"/>
+    </row>
+    <row r="130" spans="2:94" ht="13.5" customHeight="1">
       <c r="B130" s="12"/>
       <c r="C130" s="13"/>
       <c r="D130" s="13"/>
@@ -21164,53 +20042,53 @@
       <c r="AU130" s="1"/>
       <c r="AV130" s="1"/>
       <c r="AW130" s="1"/>
-      <c r="AX130" s="82"/>
-      <c r="AY130" s="83"/>
-      <c r="AZ130" s="83"/>
-      <c r="BA130" s="83"/>
-      <c r="BB130" s="83"/>
-      <c r="BC130" s="83"/>
-      <c r="BD130" s="83"/>
-      <c r="BE130" s="83"/>
-      <c r="BF130" s="83"/>
-      <c r="BG130" s="83"/>
-      <c r="BH130" s="83"/>
-      <c r="BI130" s="83"/>
-      <c r="BJ130" s="83"/>
-      <c r="BK130" s="83"/>
-      <c r="BL130" s="83"/>
-      <c r="BM130" s="83"/>
-      <c r="BN130" s="83"/>
-      <c r="BO130" s="83"/>
-      <c r="BP130" s="83"/>
-      <c r="BQ130" s="83"/>
-      <c r="BR130" s="83"/>
-      <c r="BS130" s="83"/>
-      <c r="BT130" s="83"/>
-      <c r="BU130" s="83"/>
-      <c r="BV130" s="83"/>
-      <c r="BW130" s="83"/>
-      <c r="BX130" s="83"/>
-      <c r="BY130" s="83"/>
-      <c r="BZ130" s="83"/>
-      <c r="CA130" s="83"/>
-      <c r="CB130" s="83"/>
-      <c r="CC130" s="83"/>
-      <c r="CD130" s="83"/>
-      <c r="CE130" s="83"/>
-      <c r="CF130" s="83"/>
-      <c r="CG130" s="83"/>
-      <c r="CH130" s="83"/>
-      <c r="CI130" s="83"/>
-      <c r="CJ130" s="83"/>
-      <c r="CK130" s="83"/>
-      <c r="CL130" s="83"/>
+      <c r="AX130" s="57"/>
+      <c r="AY130" s="58"/>
+      <c r="AZ130" s="58"/>
+      <c r="BA130" s="58"/>
+      <c r="BB130" s="58"/>
+      <c r="BC130" s="58"/>
+      <c r="BD130" s="58"/>
+      <c r="BE130" s="58"/>
+      <c r="BF130" s="58"/>
+      <c r="BG130" s="58"/>
+      <c r="BH130" s="58"/>
+      <c r="BI130" s="58"/>
+      <c r="BJ130" s="58"/>
+      <c r="BK130" s="58"/>
+      <c r="BL130" s="58"/>
+      <c r="BM130" s="58"/>
+      <c r="BN130" s="58"/>
+      <c r="BO130" s="58"/>
+      <c r="BP130" s="58"/>
+      <c r="BQ130" s="58"/>
+      <c r="BR130" s="58"/>
+      <c r="BS130" s="58"/>
+      <c r="BT130" s="58"/>
+      <c r="BU130" s="58"/>
+      <c r="BV130" s="58"/>
+      <c r="BW130" s="58"/>
+      <c r="BX130" s="58"/>
+      <c r="BY130" s="58"/>
+      <c r="BZ130" s="58"/>
+      <c r="CA130" s="58"/>
+      <c r="CB130" s="58"/>
+      <c r="CC130" s="58"/>
+      <c r="CD130" s="58"/>
+      <c r="CE130" s="58"/>
+      <c r="CF130" s="58"/>
+      <c r="CG130" s="58"/>
+      <c r="CH130" s="58"/>
+      <c r="CI130" s="58"/>
+      <c r="CJ130" s="58"/>
+      <c r="CK130" s="58"/>
+      <c r="CL130" s="58"/>
       <c r="CM130" s="13"/>
       <c r="CN130" s="13"/>
       <c r="CO130" s="13"/>
       <c r="CP130" s="14"/>
     </row>
-    <row r="131" spans="1:94" ht="13.5" customHeight="1">
+    <row r="131" spans="2:94" ht="13.5" customHeight="1">
       <c r="B131" s="12"/>
       <c r="C131" s="13"/>
       <c r="D131" s="13"/>
@@ -21259,148 +20137,148 @@
       <c r="AU131" s="1"/>
       <c r="AV131" s="1"/>
       <c r="AW131" s="1"/>
-      <c r="AX131" s="82"/>
-      <c r="AY131" s="83"/>
-      <c r="AZ131" s="83"/>
-      <c r="BA131" s="83"/>
-      <c r="BB131" s="83"/>
-      <c r="BC131" s="83"/>
-      <c r="BD131" s="83"/>
-      <c r="BE131" s="83"/>
-      <c r="BF131" s="83"/>
-      <c r="BG131" s="83"/>
-      <c r="BH131" s="83"/>
-      <c r="BI131" s="83"/>
-      <c r="BJ131" s="83"/>
-      <c r="BK131" s="83"/>
-      <c r="BL131" s="83"/>
-      <c r="BM131" s="83"/>
-      <c r="BN131" s="83"/>
-      <c r="BO131" s="83"/>
-      <c r="BP131" s="83"/>
-      <c r="BQ131" s="83"/>
-      <c r="BR131" s="83"/>
-      <c r="BS131" s="83"/>
-      <c r="BT131" s="83"/>
-      <c r="BU131" s="83"/>
-      <c r="BV131" s="83"/>
-      <c r="BW131" s="83"/>
-      <c r="BX131" s="83"/>
-      <c r="BY131" s="83"/>
-      <c r="BZ131" s="83"/>
-      <c r="CA131" s="83"/>
-      <c r="CB131" s="83"/>
-      <c r="CC131" s="83"/>
-      <c r="CD131" s="83"/>
-      <c r="CE131" s="83"/>
-      <c r="CF131" s="83"/>
-      <c r="CG131" s="83"/>
-      <c r="CH131" s="83"/>
-      <c r="CI131" s="83"/>
-      <c r="CJ131" s="83"/>
-      <c r="CK131" s="83"/>
-      <c r="CL131" s="83"/>
+      <c r="AX131" s="57"/>
+      <c r="AY131" s="58"/>
+      <c r="AZ131" s="58"/>
+      <c r="BA131" s="58"/>
+      <c r="BB131" s="58"/>
+      <c r="BC131" s="58"/>
+      <c r="BD131" s="58"/>
+      <c r="BE131" s="58"/>
+      <c r="BF131" s="58"/>
+      <c r="BG131" s="58"/>
+      <c r="BH131" s="58"/>
+      <c r="BI131" s="58"/>
+      <c r="BJ131" s="58"/>
+      <c r="BK131" s="58"/>
+      <c r="BL131" s="58"/>
+      <c r="BM131" s="58"/>
+      <c r="BN131" s="58"/>
+      <c r="BO131" s="58"/>
+      <c r="BP131" s="58"/>
+      <c r="BQ131" s="58"/>
+      <c r="BR131" s="58"/>
+      <c r="BS131" s="58"/>
+      <c r="BT131" s="58"/>
+      <c r="BU131" s="58"/>
+      <c r="BV131" s="58"/>
+      <c r="BW131" s="58"/>
+      <c r="BX131" s="58"/>
+      <c r="BY131" s="58"/>
+      <c r="BZ131" s="58"/>
+      <c r="CA131" s="58"/>
+      <c r="CB131" s="58"/>
+      <c r="CC131" s="58"/>
+      <c r="CD131" s="58"/>
+      <c r="CE131" s="58"/>
+      <c r="CF131" s="58"/>
+      <c r="CG131" s="58"/>
+      <c r="CH131" s="58"/>
+      <c r="CI131" s="58"/>
+      <c r="CJ131" s="58"/>
+      <c r="CK131" s="58"/>
+      <c r="CL131" s="58"/>
       <c r="CM131" s="13"/>
       <c r="CN131" s="13"/>
       <c r="CO131" s="13"/>
       <c r="CP131" s="14"/>
     </row>
-    <row r="132" spans="1:94" ht="13.5" customHeight="1">
-      <c r="B132" s="73"/>
-      <c r="C132" s="74"/>
-      <c r="D132" s="74"/>
-      <c r="E132" s="74"/>
-      <c r="F132" s="74"/>
-      <c r="G132" s="74"/>
-      <c r="H132" s="74"/>
-      <c r="I132" s="74"/>
-      <c r="J132" s="74"/>
-      <c r="K132" s="74"/>
-      <c r="L132" s="74"/>
-      <c r="M132" s="74"/>
-      <c r="N132" s="74"/>
-      <c r="O132" s="74"/>
-      <c r="P132" s="74"/>
-      <c r="Q132" s="74"/>
-      <c r="R132" s="74"/>
-      <c r="S132" s="74"/>
-      <c r="T132" s="74"/>
-      <c r="U132" s="74"/>
-      <c r="V132" s="74"/>
-      <c r="W132" s="74"/>
-      <c r="X132" s="74"/>
-      <c r="Y132" s="74"/>
-      <c r="Z132" s="74"/>
-      <c r="AA132" s="74"/>
-      <c r="AB132" s="74"/>
-      <c r="AC132" s="74"/>
-      <c r="AD132" s="74"/>
-      <c r="AE132" s="74"/>
-      <c r="AF132" s="74"/>
-      <c r="AG132" s="74"/>
-      <c r="AH132" s="74"/>
-      <c r="AI132" s="74"/>
-      <c r="AJ132" s="74"/>
-      <c r="AK132" s="74"/>
-      <c r="AL132" s="74"/>
-      <c r="AM132" s="74"/>
-      <c r="AN132" s="74"/>
-      <c r="AO132" s="74"/>
-      <c r="AP132" s="74"/>
-      <c r="AQ132" s="74"/>
-      <c r="AR132" s="74"/>
-      <c r="AS132" s="74"/>
-      <c r="AT132" s="75"/>
+    <row r="132" spans="2:94" ht="13.5" customHeight="1">
+      <c r="B132" s="52"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="53"/>
+      <c r="F132" s="53"/>
+      <c r="G132" s="53"/>
+      <c r="H132" s="53"/>
+      <c r="I132" s="53"/>
+      <c r="J132" s="53"/>
+      <c r="K132" s="53"/>
+      <c r="L132" s="53"/>
+      <c r="M132" s="53"/>
+      <c r="N132" s="53"/>
+      <c r="O132" s="53"/>
+      <c r="P132" s="53"/>
+      <c r="Q132" s="53"/>
+      <c r="R132" s="53"/>
+      <c r="S132" s="53"/>
+      <c r="T132" s="53"/>
+      <c r="U132" s="53"/>
+      <c r="V132" s="53"/>
+      <c r="W132" s="53"/>
+      <c r="X132" s="53"/>
+      <c r="Y132" s="53"/>
+      <c r="Z132" s="53"/>
+      <c r="AA132" s="53"/>
+      <c r="AB132" s="53"/>
+      <c r="AC132" s="53"/>
+      <c r="AD132" s="53"/>
+      <c r="AE132" s="53"/>
+      <c r="AF132" s="53"/>
+      <c r="AG132" s="53"/>
+      <c r="AH132" s="53"/>
+      <c r="AI132" s="53"/>
+      <c r="AJ132" s="53"/>
+      <c r="AK132" s="53"/>
+      <c r="AL132" s="53"/>
+      <c r="AM132" s="53"/>
+      <c r="AN132" s="53"/>
+      <c r="AO132" s="53"/>
+      <c r="AP132" s="53"/>
+      <c r="AQ132" s="53"/>
+      <c r="AR132" s="53"/>
+      <c r="AS132" s="53"/>
+      <c r="AT132" s="54"/>
       <c r="AU132" s="1"/>
       <c r="AV132" s="1"/>
       <c r="AW132" s="1"/>
-      <c r="AX132" s="88"/>
-      <c r="AY132" s="89"/>
-      <c r="AZ132" s="89"/>
-      <c r="BA132" s="89"/>
-      <c r="BB132" s="89"/>
-      <c r="BC132" s="89"/>
-      <c r="BD132" s="89"/>
-      <c r="BE132" s="89"/>
-      <c r="BF132" s="89"/>
-      <c r="BG132" s="89"/>
-      <c r="BH132" s="89"/>
-      <c r="BI132" s="89"/>
-      <c r="BJ132" s="89"/>
-      <c r="BK132" s="89"/>
-      <c r="BL132" s="89"/>
-      <c r="BM132" s="89"/>
-      <c r="BN132" s="89"/>
-      <c r="BO132" s="89"/>
-      <c r="BP132" s="89"/>
-      <c r="BQ132" s="89"/>
-      <c r="BR132" s="89"/>
-      <c r="BS132" s="89"/>
-      <c r="BT132" s="89"/>
-      <c r="BU132" s="89"/>
-      <c r="BV132" s="89"/>
-      <c r="BW132" s="89"/>
-      <c r="BX132" s="89"/>
-      <c r="BY132" s="89"/>
-      <c r="BZ132" s="89"/>
-      <c r="CA132" s="89"/>
-      <c r="CB132" s="89"/>
-      <c r="CC132" s="89"/>
-      <c r="CD132" s="89"/>
-      <c r="CE132" s="89"/>
-      <c r="CF132" s="89"/>
-      <c r="CG132" s="89"/>
-      <c r="CH132" s="89"/>
-      <c r="CI132" s="89"/>
-      <c r="CJ132" s="89"/>
-      <c r="CK132" s="89"/>
-      <c r="CL132" s="89"/>
-      <c r="CM132" s="74"/>
-      <c r="CN132" s="74"/>
-      <c r="CO132" s="74"/>
-      <c r="CP132" s="75"/>
-    </row>
-    <row r="133" spans="1:94" ht="13.5" customHeight="1">
+      <c r="AX132" s="63"/>
+      <c r="AY132" s="64"/>
+      <c r="AZ132" s="64"/>
+      <c r="BA132" s="64"/>
+      <c r="BB132" s="64"/>
+      <c r="BC132" s="64"/>
+      <c r="BD132" s="64"/>
+      <c r="BE132" s="64"/>
+      <c r="BF132" s="64"/>
+      <c r="BG132" s="64"/>
+      <c r="BH132" s="64"/>
+      <c r="BI132" s="64"/>
+      <c r="BJ132" s="64"/>
+      <c r="BK132" s="64"/>
+      <c r="BL132" s="64"/>
+      <c r="BM132" s="64"/>
+      <c r="BN132" s="64"/>
+      <c r="BO132" s="64"/>
+      <c r="BP132" s="64"/>
+      <c r="BQ132" s="64"/>
+      <c r="BR132" s="64"/>
+      <c r="BS132" s="64"/>
+      <c r="BT132" s="64"/>
+      <c r="BU132" s="64"/>
+      <c r="BV132" s="64"/>
+      <c r="BW132" s="64"/>
+      <c r="BX132" s="64"/>
+      <c r="BY132" s="64"/>
+      <c r="BZ132" s="64"/>
+      <c r="CA132" s="64"/>
+      <c r="CB132" s="64"/>
+      <c r="CC132" s="64"/>
+      <c r="CD132" s="64"/>
+      <c r="CE132" s="64"/>
+      <c r="CF132" s="64"/>
+      <c r="CG132" s="64"/>
+      <c r="CH132" s="64"/>
+      <c r="CI132" s="64"/>
+      <c r="CJ132" s="64"/>
+      <c r="CK132" s="64"/>
+      <c r="CL132" s="64"/>
+      <c r="CM132" s="53"/>
+      <c r="CN132" s="53"/>
+      <c r="CO132" s="53"/>
+      <c r="CP132" s="54"/>
+    </row>
+    <row r="133" spans="2:94" ht="13.5" customHeight="1">
       <c r="B133" s="12"/>
       <c r="C133" s="13"/>
       <c r="D133" s="13"/>
@@ -21449,53 +20327,53 @@
       <c r="AU133" s="1"/>
       <c r="AV133" s="1"/>
       <c r="AW133" s="1"/>
-      <c r="AX133" s="82"/>
-      <c r="AY133" s="83"/>
-      <c r="AZ133" s="83"/>
-      <c r="BA133" s="83"/>
-      <c r="BB133" s="83"/>
-      <c r="BC133" s="83"/>
-      <c r="BD133" s="83"/>
-      <c r="BE133" s="83"/>
-      <c r="BF133" s="83"/>
-      <c r="BG133" s="83"/>
-      <c r="BH133" s="83"/>
-      <c r="BI133" s="83"/>
-      <c r="BJ133" s="83"/>
-      <c r="BK133" s="83"/>
-      <c r="BL133" s="83"/>
-      <c r="BM133" s="83"/>
-      <c r="BN133" s="83"/>
-      <c r="BO133" s="83"/>
-      <c r="BP133" s="83"/>
-      <c r="BQ133" s="83"/>
-      <c r="BR133" s="83"/>
-      <c r="BS133" s="83"/>
-      <c r="BT133" s="83"/>
-      <c r="BU133" s="83"/>
-      <c r="BV133" s="83"/>
-      <c r="BW133" s="83"/>
-      <c r="BX133" s="83"/>
-      <c r="BY133" s="83"/>
-      <c r="BZ133" s="83"/>
-      <c r="CA133" s="83"/>
-      <c r="CB133" s="83"/>
-      <c r="CC133" s="83"/>
-      <c r="CD133" s="83"/>
-      <c r="CE133" s="83"/>
-      <c r="CF133" s="83"/>
-      <c r="CG133" s="83"/>
-      <c r="CH133" s="83"/>
-      <c r="CI133" s="83"/>
-      <c r="CJ133" s="83"/>
-      <c r="CK133" s="83"/>
-      <c r="CL133" s="83"/>
+      <c r="AX133" s="57"/>
+      <c r="AY133" s="58"/>
+      <c r="AZ133" s="58"/>
+      <c r="BA133" s="58"/>
+      <c r="BB133" s="58"/>
+      <c r="BC133" s="58"/>
+      <c r="BD133" s="58"/>
+      <c r="BE133" s="58"/>
+      <c r="BF133" s="58"/>
+      <c r="BG133" s="58"/>
+      <c r="BH133" s="58"/>
+      <c r="BI133" s="58"/>
+      <c r="BJ133" s="58"/>
+      <c r="BK133" s="58"/>
+      <c r="BL133" s="58"/>
+      <c r="BM133" s="58"/>
+      <c r="BN133" s="58"/>
+      <c r="BO133" s="58"/>
+      <c r="BP133" s="58"/>
+      <c r="BQ133" s="58"/>
+      <c r="BR133" s="58"/>
+      <c r="BS133" s="58"/>
+      <c r="BT133" s="58"/>
+      <c r="BU133" s="58"/>
+      <c r="BV133" s="58"/>
+      <c r="BW133" s="58"/>
+      <c r="BX133" s="58"/>
+      <c r="BY133" s="58"/>
+      <c r="BZ133" s="58"/>
+      <c r="CA133" s="58"/>
+      <c r="CB133" s="58"/>
+      <c r="CC133" s="58"/>
+      <c r="CD133" s="58"/>
+      <c r="CE133" s="58"/>
+      <c r="CF133" s="58"/>
+      <c r="CG133" s="58"/>
+      <c r="CH133" s="58"/>
+      <c r="CI133" s="58"/>
+      <c r="CJ133" s="58"/>
+      <c r="CK133" s="58"/>
+      <c r="CL133" s="58"/>
       <c r="CM133" s="13"/>
       <c r="CN133" s="13"/>
       <c r="CO133" s="13"/>
       <c r="CP133" s="14"/>
     </row>
-    <row r="134" spans="1:94" ht="13.5" customHeight="1">
+    <row r="134" spans="2:94" ht="13.5" customHeight="1">
       <c r="B134" s="12"/>
       <c r="C134" s="13"/>
       <c r="D134" s="13"/>
@@ -21544,53 +20422,53 @@
       <c r="AU134" s="1"/>
       <c r="AV134" s="1"/>
       <c r="AW134" s="1"/>
-      <c r="AX134" s="82"/>
-      <c r="AY134" s="83"/>
-      <c r="AZ134" s="83"/>
-      <c r="BA134" s="83"/>
-      <c r="BB134" s="83"/>
-      <c r="BC134" s="83"/>
-      <c r="BD134" s="83"/>
-      <c r="BE134" s="83"/>
-      <c r="BF134" s="83"/>
-      <c r="BG134" s="83"/>
-      <c r="BH134" s="83"/>
-      <c r="BI134" s="83"/>
-      <c r="BJ134" s="83"/>
-      <c r="BK134" s="83"/>
-      <c r="BL134" s="83"/>
-      <c r="BM134" s="83"/>
-      <c r="BN134" s="83"/>
-      <c r="BO134" s="83"/>
-      <c r="BP134" s="83"/>
-      <c r="BQ134" s="83"/>
-      <c r="BR134" s="83"/>
-      <c r="BS134" s="83"/>
-      <c r="BT134" s="83"/>
-      <c r="BU134" s="83"/>
-      <c r="BV134" s="83"/>
-      <c r="BW134" s="83"/>
-      <c r="BX134" s="83"/>
-      <c r="BY134" s="83"/>
-      <c r="BZ134" s="83"/>
-      <c r="CA134" s="83"/>
-      <c r="CB134" s="83"/>
-      <c r="CC134" s="83"/>
-      <c r="CD134" s="83"/>
-      <c r="CE134" s="83"/>
-      <c r="CF134" s="83"/>
-      <c r="CG134" s="83"/>
-      <c r="CH134" s="83"/>
-      <c r="CI134" s="83"/>
-      <c r="CJ134" s="83"/>
-      <c r="CK134" s="83"/>
-      <c r="CL134" s="83"/>
+      <c r="AX134" s="57"/>
+      <c r="AY134" s="58"/>
+      <c r="AZ134" s="58"/>
+      <c r="BA134" s="58"/>
+      <c r="BB134" s="58"/>
+      <c r="BC134" s="58"/>
+      <c r="BD134" s="58"/>
+      <c r="BE134" s="58"/>
+      <c r="BF134" s="58"/>
+      <c r="BG134" s="58"/>
+      <c r="BH134" s="58"/>
+      <c r="BI134" s="58"/>
+      <c r="BJ134" s="58"/>
+      <c r="BK134" s="58"/>
+      <c r="BL134" s="58"/>
+      <c r="BM134" s="58"/>
+      <c r="BN134" s="58"/>
+      <c r="BO134" s="58"/>
+      <c r="BP134" s="58"/>
+      <c r="BQ134" s="58"/>
+      <c r="BR134" s="58"/>
+      <c r="BS134" s="58"/>
+      <c r="BT134" s="58"/>
+      <c r="BU134" s="58"/>
+      <c r="BV134" s="58"/>
+      <c r="BW134" s="58"/>
+      <c r="BX134" s="58"/>
+      <c r="BY134" s="58"/>
+      <c r="BZ134" s="58"/>
+      <c r="CA134" s="58"/>
+      <c r="CB134" s="58"/>
+      <c r="CC134" s="58"/>
+      <c r="CD134" s="58"/>
+      <c r="CE134" s="58"/>
+      <c r="CF134" s="58"/>
+      <c r="CG134" s="58"/>
+      <c r="CH134" s="58"/>
+      <c r="CI134" s="58"/>
+      <c r="CJ134" s="58"/>
+      <c r="CK134" s="58"/>
+      <c r="CL134" s="58"/>
       <c r="CM134" s="13"/>
       <c r="CN134" s="13"/>
       <c r="CO134" s="13"/>
       <c r="CP134" s="14"/>
     </row>
-    <row r="135" spans="1:94" ht="13.5" customHeight="1">
+    <row r="135" spans="2:94" ht="13.5" customHeight="1">
       <c r="B135" s="12"/>
       <c r="C135" s="13"/>
       <c r="D135" s="13"/>
@@ -21639,53 +20517,53 @@
       <c r="AU135" s="1"/>
       <c r="AV135" s="1"/>
       <c r="AW135" s="1"/>
-      <c r="AX135" s="82"/>
-      <c r="AY135" s="83"/>
-      <c r="AZ135" s="83"/>
-      <c r="BA135" s="83"/>
-      <c r="BB135" s="83"/>
-      <c r="BC135" s="83"/>
-      <c r="BD135" s="83"/>
-      <c r="BE135" s="83"/>
-      <c r="BF135" s="83"/>
-      <c r="BG135" s="83"/>
-      <c r="BH135" s="83"/>
-      <c r="BI135" s="83"/>
-      <c r="BJ135" s="83"/>
-      <c r="BK135" s="83"/>
-      <c r="BL135" s="83"/>
-      <c r="BM135" s="83"/>
-      <c r="BN135" s="83"/>
-      <c r="BO135" s="83"/>
-      <c r="BP135" s="83"/>
-      <c r="BQ135" s="83"/>
-      <c r="BR135" s="83"/>
-      <c r="BS135" s="83"/>
-      <c r="BT135" s="83"/>
-      <c r="BU135" s="83"/>
-      <c r="BV135" s="83"/>
-      <c r="BW135" s="83"/>
-      <c r="BX135" s="83"/>
-      <c r="BY135" s="83"/>
-      <c r="BZ135" s="83"/>
-      <c r="CA135" s="83"/>
-      <c r="CB135" s="83"/>
-      <c r="CC135" s="83"/>
-      <c r="CD135" s="83"/>
-      <c r="CE135" s="83"/>
-      <c r="CF135" s="83"/>
-      <c r="CG135" s="83"/>
-      <c r="CH135" s="83"/>
-      <c r="CI135" s="83"/>
-      <c r="CJ135" s="83"/>
-      <c r="CK135" s="83"/>
-      <c r="CL135" s="83"/>
+      <c r="AX135" s="57"/>
+      <c r="AY135" s="58"/>
+      <c r="AZ135" s="58"/>
+      <c r="BA135" s="58"/>
+      <c r="BB135" s="58"/>
+      <c r="BC135" s="58"/>
+      <c r="BD135" s="58"/>
+      <c r="BE135" s="58"/>
+      <c r="BF135" s="58"/>
+      <c r="BG135" s="58"/>
+      <c r="BH135" s="58"/>
+      <c r="BI135" s="58"/>
+      <c r="BJ135" s="58"/>
+      <c r="BK135" s="58"/>
+      <c r="BL135" s="58"/>
+      <c r="BM135" s="58"/>
+      <c r="BN135" s="58"/>
+      <c r="BO135" s="58"/>
+      <c r="BP135" s="58"/>
+      <c r="BQ135" s="58"/>
+      <c r="BR135" s="58"/>
+      <c r="BS135" s="58"/>
+      <c r="BT135" s="58"/>
+      <c r="BU135" s="58"/>
+      <c r="BV135" s="58"/>
+      <c r="BW135" s="58"/>
+      <c r="BX135" s="58"/>
+      <c r="BY135" s="58"/>
+      <c r="BZ135" s="58"/>
+      <c r="CA135" s="58"/>
+      <c r="CB135" s="58"/>
+      <c r="CC135" s="58"/>
+      <c r="CD135" s="58"/>
+      <c r="CE135" s="58"/>
+      <c r="CF135" s="58"/>
+      <c r="CG135" s="58"/>
+      <c r="CH135" s="58"/>
+      <c r="CI135" s="58"/>
+      <c r="CJ135" s="58"/>
+      <c r="CK135" s="58"/>
+      <c r="CL135" s="58"/>
       <c r="CM135" s="13"/>
       <c r="CN135" s="13"/>
       <c r="CO135" s="13"/>
       <c r="CP135" s="14"/>
     </row>
-    <row r="136" spans="1:94" ht="13.5" customHeight="1">
+    <row r="136" spans="2:94" ht="13.5" customHeight="1">
       <c r="B136" s="15"/>
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
@@ -21734,176 +20612,80 @@
       <c r="AU136" s="1"/>
       <c r="AV136" s="1"/>
       <c r="AW136" s="1"/>
-      <c r="AX136" s="90"/>
-      <c r="AY136" s="91"/>
-      <c r="AZ136" s="91"/>
-      <c r="BA136" s="91"/>
-      <c r="BB136" s="91"/>
-      <c r="BC136" s="91"/>
-      <c r="BD136" s="91"/>
-      <c r="BE136" s="91"/>
-      <c r="BF136" s="91"/>
-      <c r="BG136" s="91"/>
-      <c r="BH136" s="91"/>
-      <c r="BI136" s="91"/>
-      <c r="BJ136" s="91"/>
-      <c r="BK136" s="91"/>
-      <c r="BL136" s="91"/>
-      <c r="BM136" s="91"/>
-      <c r="BN136" s="91"/>
-      <c r="BO136" s="91"/>
-      <c r="BP136" s="91"/>
-      <c r="BQ136" s="91"/>
-      <c r="BR136" s="91"/>
-      <c r="BS136" s="91"/>
-      <c r="BT136" s="91"/>
-      <c r="BU136" s="91"/>
-      <c r="BV136" s="91"/>
-      <c r="BW136" s="91"/>
-      <c r="BX136" s="91"/>
-      <c r="BY136" s="91"/>
-      <c r="BZ136" s="91"/>
-      <c r="CA136" s="91"/>
-      <c r="CB136" s="91"/>
-      <c r="CC136" s="91"/>
-      <c r="CD136" s="91"/>
-      <c r="CE136" s="91"/>
-      <c r="CF136" s="91"/>
-      <c r="CG136" s="91"/>
-      <c r="CH136" s="91"/>
-      <c r="CI136" s="91"/>
-      <c r="CJ136" s="91"/>
-      <c r="CK136" s="91"/>
-      <c r="CL136" s="91"/>
+      <c r="AX136" s="65"/>
+      <c r="AY136" s="66"/>
+      <c r="AZ136" s="66"/>
+      <c r="BA136" s="66"/>
+      <c r="BB136" s="66"/>
+      <c r="BC136" s="66"/>
+      <c r="BD136" s="66"/>
+      <c r="BE136" s="66"/>
+      <c r="BF136" s="66"/>
+      <c r="BG136" s="66"/>
+      <c r="BH136" s="66"/>
+      <c r="BI136" s="66"/>
+      <c r="BJ136" s="66"/>
+      <c r="BK136" s="66"/>
+      <c r="BL136" s="66"/>
+      <c r="BM136" s="66"/>
+      <c r="BN136" s="66"/>
+      <c r="BO136" s="66"/>
+      <c r="BP136" s="66"/>
+      <c r="BQ136" s="66"/>
+      <c r="BR136" s="66"/>
+      <c r="BS136" s="66"/>
+      <c r="BT136" s="66"/>
+      <c r="BU136" s="66"/>
+      <c r="BV136" s="66"/>
+      <c r="BW136" s="66"/>
+      <c r="BX136" s="66"/>
+      <c r="BY136" s="66"/>
+      <c r="BZ136" s="66"/>
+      <c r="CA136" s="66"/>
+      <c r="CB136" s="66"/>
+      <c r="CC136" s="66"/>
+      <c r="CD136" s="66"/>
+      <c r="CE136" s="66"/>
+      <c r="CF136" s="66"/>
+      <c r="CG136" s="66"/>
+      <c r="CH136" s="66"/>
+      <c r="CI136" s="66"/>
+      <c r="CJ136" s="66"/>
+      <c r="CK136" s="66"/>
+      <c r="CL136" s="66"/>
       <c r="CM136" s="16"/>
       <c r="CN136" s="16"/>
       <c r="CO136" s="16"/>
       <c r="CP136" s="17"/>
     </row>
-    <row r="137" spans="1:94" ht="13.5" customHeight="1">
+    <row r="137" spans="2:94" ht="13.5" customHeight="1">
       <c r="AU137" s="1"/>
       <c r="AV137" s="1"/>
       <c r="AW137" s="1"/>
       <c r="AX137" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="CM137" s="2"/>
     </row>
-    <row r="138" spans="1:94" ht="13.5" customHeight="1">
+    <row r="138" spans="2:94" ht="13.5" customHeight="1">
       <c r="AU138" s="1"/>
       <c r="AV138" s="1"/>
       <c r="AW138" s="1"/>
       <c r="CM138" s="2"/>
     </row>
-    <row r="139" spans="1:94" ht="13.5" customHeight="1">
-      <c r="A139" s="76"/>
-      <c r="B139" s="76"/>
-      <c r="C139" s="76"/>
-      <c r="D139" s="76"/>
-      <c r="E139" s="76"/>
-      <c r="F139" s="76"/>
-      <c r="G139" s="76"/>
-      <c r="H139" s="76"/>
-      <c r="I139" s="76"/>
-      <c r="J139" s="76"/>
-      <c r="K139" s="76"/>
-      <c r="L139" s="76"/>
-      <c r="M139" s="76"/>
-      <c r="N139" s="76"/>
-      <c r="O139" s="76"/>
-      <c r="P139" s="76"/>
-      <c r="Q139" s="76"/>
-      <c r="R139" s="76"/>
-      <c r="S139" s="76"/>
-      <c r="T139" s="76"/>
-      <c r="U139" s="76"/>
-      <c r="V139" s="76"/>
-      <c r="W139" s="76"/>
-      <c r="X139" s="76"/>
-      <c r="Y139" s="76"/>
-      <c r="Z139" s="76"/>
-      <c r="AA139" s="76"/>
-      <c r="AB139" s="76"/>
-      <c r="AC139" s="76"/>
-      <c r="AD139" s="76"/>
-      <c r="AE139" s="76"/>
-      <c r="AF139" s="76"/>
-      <c r="AG139" s="76"/>
-      <c r="AH139" s="76"/>
-      <c r="AI139" s="76"/>
-      <c r="AJ139" s="76"/>
-      <c r="AK139" s="76"/>
-      <c r="AL139" s="76"/>
-      <c r="AM139" s="76"/>
-      <c r="AN139" s="76"/>
-      <c r="AO139" s="76"/>
-      <c r="AP139" s="76"/>
-      <c r="AQ139" s="76"/>
-      <c r="AR139" s="76"/>
-      <c r="AS139" s="76"/>
-      <c r="AT139" s="76"/>
-      <c r="AU139" s="79"/>
-      <c r="AV139" s="79"/>
-      <c r="AW139" s="79"/>
-      <c r="AX139" s="79"/>
-      <c r="AY139" s="79"/>
+    <row r="139" spans="2:94" ht="13.5" customHeight="1">
+      <c r="AU139" s="1"/>
+      <c r="AV139" s="1"/>
+      <c r="AW139" s="1"/>
       <c r="CM139" s="2"/>
     </row>
-    <row r="140" spans="1:94" ht="13.5" customHeight="1">
-      <c r="A140" s="76"/>
-      <c r="B140" s="76"/>
-      <c r="C140" s="76"/>
-      <c r="D140" s="76"/>
-      <c r="E140" s="76"/>
-      <c r="F140" s="76"/>
-      <c r="G140" s="76"/>
-      <c r="H140" s="76"/>
-      <c r="I140" s="76"/>
-      <c r="J140" s="76"/>
-      <c r="K140" s="76"/>
-      <c r="L140" s="76"/>
-      <c r="M140" s="76"/>
-      <c r="N140" s="76"/>
-      <c r="O140" s="76"/>
-      <c r="P140" s="76"/>
-      <c r="Q140" s="76"/>
-      <c r="R140" s="76"/>
-      <c r="S140" s="76"/>
-      <c r="T140" s="76"/>
-      <c r="U140" s="76"/>
-      <c r="V140" s="76"/>
-      <c r="W140" s="76"/>
-      <c r="X140" s="76"/>
-      <c r="Y140" s="76"/>
-      <c r="Z140" s="76"/>
-      <c r="AA140" s="76"/>
-      <c r="AB140" s="76"/>
-      <c r="AC140" s="76"/>
-      <c r="AD140" s="76"/>
-      <c r="AE140" s="76"/>
-      <c r="AF140" s="76"/>
-      <c r="AG140" s="76"/>
-      <c r="AH140" s="76"/>
-      <c r="AI140" s="76"/>
-      <c r="AJ140" s="76"/>
-      <c r="AK140" s="76"/>
-      <c r="AL140" s="76"/>
-      <c r="AM140" s="76"/>
-      <c r="AN140" s="76"/>
-      <c r="AO140" s="76"/>
-      <c r="AP140" s="76"/>
-      <c r="AQ140" s="76"/>
-      <c r="AR140" s="76"/>
-      <c r="AS140" s="76"/>
-      <c r="AT140" s="76"/>
-      <c r="AU140" s="79"/>
-      <c r="AV140" s="79"/>
-      <c r="AW140" s="79"/>
-      <c r="AX140" s="79"/>
-      <c r="AY140" s="79"/>
+    <row r="140" spans="2:94" ht="13.5" customHeight="1">
+      <c r="AU140" s="1"/>
+      <c r="AV140" s="1"/>
+      <c r="AW140" s="1"/>
       <c r="CM140" s="2"/>
     </row>
-    <row r="141" spans="1:94" ht="13.5" customHeight="1">
+    <row r="141" spans="2:94" ht="13.5" customHeight="1">
       <c r="AU141" s="1"/>
       <c r="AV141" s="1"/>
       <c r="AW141" s="1"/>
@@ -21911,22 +20693,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B6:AT8"/>
+    <mergeCell ref="B12:AT12"/>
+    <mergeCell ref="B32:AT34"/>
+    <mergeCell ref="B41:AT41"/>
+    <mergeCell ref="B58:AT60"/>
+    <mergeCell ref="BC58:CU60"/>
+    <mergeCell ref="BC67:CU67"/>
+    <mergeCell ref="B121:AT121"/>
+    <mergeCell ref="B129:AT129"/>
+    <mergeCell ref="B67:AT67"/>
     <mergeCell ref="AX116:CP118"/>
     <mergeCell ref="AX121:CP121"/>
     <mergeCell ref="AX129:CP129"/>
     <mergeCell ref="B90:AT92"/>
     <mergeCell ref="B96:AT96"/>
     <mergeCell ref="B116:AT118"/>
-    <mergeCell ref="BC58:CU60"/>
-    <mergeCell ref="BC67:CU67"/>
-    <mergeCell ref="B121:AT121"/>
-    <mergeCell ref="B129:AT129"/>
-    <mergeCell ref="B67:AT67"/>
-    <mergeCell ref="B6:AT8"/>
-    <mergeCell ref="B12:AT12"/>
-    <mergeCell ref="B32:AT34"/>
-    <mergeCell ref="B41:AT41"/>
-    <mergeCell ref="B58:AT60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21938,7 +20720,7 @@
   <dimension ref="B2:BH51"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="BG15" sqref="BG15"/>
+      <selection activeCell="BE7" sqref="BE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" customHeight="1"/>
@@ -22004,28 +20786,28 @@
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BF2" s="1"/>
-      <c r="BG2" s="56"/>
+      <c r="BG2" s="42"/>
       <c r="BH2" s="1"/>
     </row>
     <row r="3" spans="2:60" ht="13.5" customHeight="1">
       <c r="B3" s="12"/>
-      <c r="C3" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
+      <c r="C3" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
@@ -22048,13 +20830,13 @@
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
       <c r="AJ3" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK3" s="28"/>
       <c r="AL3" s="28"/>
       <c r="AM3" s="28"/>
       <c r="AN3" s="28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AO3" s="28"/>
       <c r="AP3" s="28"/>
@@ -22065,18 +20847,18 @@
     </row>
     <row r="4" spans="2:60" ht="13.5" customHeight="1">
       <c r="B4" s="12"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
@@ -22099,13 +20881,13 @@
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
       <c r="AJ4" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AK4" s="28"/>
       <c r="AL4" s="28"/>
       <c r="AM4" s="28"/>
       <c r="AN4" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AO4" s="28"/>
       <c r="AP4" s="28"/>
@@ -22150,7 +20932,7 @@
       <c r="AH5" s="21"/>
       <c r="AI5" s="21"/>
       <c r="AJ5" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AK5" s="28"/>
       <c r="AL5" s="30"/>
@@ -22199,7 +20981,7 @@
       <c r="AH6" s="21"/>
       <c r="AI6" s="21"/>
       <c r="AJ6" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AK6" s="28"/>
       <c r="AL6" s="30"/>
@@ -22248,7 +21030,7 @@
       <c r="AH7" s="21"/>
       <c r="AI7" s="21"/>
       <c r="AJ7" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AK7" s="28"/>
       <c r="AL7" s="30"/>
@@ -22297,7 +21079,7 @@
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AK8" s="28"/>
       <c r="AL8" s="30"/>
@@ -22782,53 +21564,53 @@
       <c r="AT18" s="14"/>
     </row>
     <row r="19" spans="2:59" ht="13.5" customHeight="1">
-      <c r="B19" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="43"/>
-      <c r="AC19" s="43"/>
-      <c r="AD19" s="43"/>
-      <c r="AE19" s="43"/>
-      <c r="AF19" s="43"/>
-      <c r="AG19" s="43"/>
-      <c r="AH19" s="43"/>
-      <c r="AI19" s="43"/>
-      <c r="AJ19" s="43"/>
-      <c r="AK19" s="43"/>
-      <c r="AL19" s="43"/>
-      <c r="AM19" s="43"/>
-      <c r="AN19" s="43"/>
-      <c r="AO19" s="43"/>
-      <c r="AP19" s="43"/>
-      <c r="AQ19" s="43"/>
-      <c r="AR19" s="43"/>
-      <c r="AS19" s="43"/>
-      <c r="AT19" s="44"/>
+      <c r="B19" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="87"/>
+      <c r="AE19" s="87"/>
+      <c r="AF19" s="87"/>
+      <c r="AG19" s="87"/>
+      <c r="AH19" s="87"/>
+      <c r="AI19" s="87"/>
+      <c r="AJ19" s="87"/>
+      <c r="AK19" s="87"/>
+      <c r="AL19" s="87"/>
+      <c r="AM19" s="87"/>
+      <c r="AN19" s="87"/>
+      <c r="AO19" s="87"/>
+      <c r="AP19" s="87"/>
+      <c r="AQ19" s="87"/>
+      <c r="AR19" s="87"/>
+      <c r="AS19" s="87"/>
+      <c r="AT19" s="88"/>
     </row>
     <row r="20" spans="2:59" ht="13.5" customHeight="1">
       <c r="B20" s="12"/>
@@ -23161,20 +21943,20 @@
     </row>
     <row r="29" spans="2:59" ht="13.5" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
+      <c r="C29" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
@@ -23197,13 +21979,13 @@
       <c r="AH29" s="13"/>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK29" s="28"/>
       <c r="AL29" s="28"/>
       <c r="AM29" s="28"/>
       <c r="AN29" s="28" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AO29" s="28"/>
       <c r="AP29" s="28"/>
@@ -23214,18 +21996,18 @@
     </row>
     <row r="30" spans="2:59" ht="13.5" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
@@ -23248,13 +22030,13 @@
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AK30" s="28"/>
       <c r="AL30" s="28"/>
       <c r="AM30" s="28"/>
       <c r="AN30" s="29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AO30" s="28"/>
       <c r="AP30" s="28"/>
@@ -23299,7 +22081,7 @@
       <c r="AH31" s="21"/>
       <c r="AI31" s="21"/>
       <c r="AJ31" s="28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AK31" s="28"/>
       <c r="AL31" s="30"/>
@@ -23348,7 +22130,7 @@
       <c r="AH32" s="21"/>
       <c r="AI32" s="21"/>
       <c r="AJ32" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AK32" s="28"/>
       <c r="AL32" s="30"/>
@@ -23397,7 +22179,7 @@
       <c r="AH33" s="21"/>
       <c r="AI33" s="21"/>
       <c r="AJ33" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AK33" s="28"/>
       <c r="AL33" s="30"/>
@@ -23446,7 +22228,7 @@
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AK34" s="28"/>
       <c r="AL34" s="30"/>
@@ -23930,53 +22712,53 @@
       <c r="AT44" s="14"/>
     </row>
     <row r="45" spans="2:46" ht="13.5" customHeight="1">
-      <c r="B45" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="43"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="43"/>
-      <c r="Z45" s="43"/>
-      <c r="AA45" s="43"/>
-      <c r="AB45" s="43"/>
-      <c r="AC45" s="43"/>
-      <c r="AD45" s="43"/>
-      <c r="AE45" s="43"/>
-      <c r="AF45" s="43"/>
-      <c r="AG45" s="43"/>
-      <c r="AH45" s="43"/>
-      <c r="AI45" s="43"/>
-      <c r="AJ45" s="43"/>
-      <c r="AK45" s="43"/>
-      <c r="AL45" s="43"/>
-      <c r="AM45" s="43"/>
-      <c r="AN45" s="43"/>
-      <c r="AO45" s="43"/>
-      <c r="AP45" s="43"/>
-      <c r="AQ45" s="43"/>
-      <c r="AR45" s="43"/>
-      <c r="AS45" s="43"/>
-      <c r="AT45" s="44"/>
+      <c r="B45" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="87"/>
+      <c r="Q45" s="87"/>
+      <c r="R45" s="87"/>
+      <c r="S45" s="87"/>
+      <c r="T45" s="87"/>
+      <c r="U45" s="87"/>
+      <c r="V45" s="87"/>
+      <c r="W45" s="87"/>
+      <c r="X45" s="87"/>
+      <c r="Y45" s="87"/>
+      <c r="Z45" s="87"/>
+      <c r="AA45" s="87"/>
+      <c r="AB45" s="87"/>
+      <c r="AC45" s="87"/>
+      <c r="AD45" s="87"/>
+      <c r="AE45" s="87"/>
+      <c r="AF45" s="87"/>
+      <c r="AG45" s="87"/>
+      <c r="AH45" s="87"/>
+      <c r="AI45" s="87"/>
+      <c r="AJ45" s="87"/>
+      <c r="AK45" s="87"/>
+      <c r="AL45" s="87"/>
+      <c r="AM45" s="87"/>
+      <c r="AN45" s="87"/>
+      <c r="AO45" s="87"/>
+      <c r="AP45" s="87"/>
+      <c r="AQ45" s="87"/>
+      <c r="AR45" s="87"/>
+      <c r="AS45" s="87"/>
+      <c r="AT45" s="88"/>
     </row>
     <row r="46" spans="2:46" ht="13.5" customHeight="1">
       <c r="B46" s="12"/>

--- a/parsonal/h_takashima/saibaikun/さいばいくん設計.xlsx
+++ b/parsonal/h_takashima/saibaikun/さいばいくん設計.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25611"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C335E3FA-C438-4426-9F45-99624BFBD426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{816F3143-33E3-4BE3-AA74-51FDF39D0FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="さいばいくん（ページ構成など）" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="169">
   <si>
     <t>ページ構成</t>
   </si>
@@ -49,7 +49,7 @@
     <t>ーかいぬしのなまえ</t>
   </si>
   <si>
-    <t>・箱（レベル0）より下はない（死なない）</t>
+    <t>・たまご（レベル0）より下はない（死なない）</t>
   </si>
   <si>
     <t>ーさいばいくんのなまえ</t>
@@ -94,7 +94,7 @@
     <t>ーさいばいくんなまえ</t>
   </si>
   <si>
-    <t>・箱状態（初期）</t>
+    <t>・たまご（初期）</t>
   </si>
   <si>
     <t>ー種類（おとなのみ）</t>
@@ -106,13 +106,13 @@
     <t>ーアクションボタン</t>
   </si>
   <si>
-    <t>・そうじを1日3回、3日続けてできたら生まれる</t>
+    <t>・そうじを1日3回、3日続けてできたらレベルアップ</t>
   </si>
   <si>
     <t>ーごはん（うまれる前は非活性）</t>
   </si>
   <si>
-    <t>・3日連続達成できなければ、箱のまま</t>
+    <t>・3日連続達成できなければ、たまごのまま</t>
   </si>
   <si>
     <t>ーそうじ</t>
@@ -134,6 +134,21 @@
   </si>
   <si>
     <t>・1日のうち、ごはんを1回、そうじを1回もしなければ、レベル-1</t>
+  </si>
+  <si>
+    <t>・レベル1以上だったら、</t>
+  </si>
+  <si>
+    <t>　・1日のうち、ごはんもそうじも1回もしなければ、レベル-1</t>
+  </si>
+  <si>
+    <t>　・1日のうち、ごはんを1回　または　そうじを1回していれば、レベル変動なし</t>
+  </si>
+  <si>
+    <t>・レベル1だったら、</t>
+  </si>
+  <si>
+    <t>　・レベル変動なし</t>
   </si>
   <si>
     <t>テーブル</t>
@@ -486,6 +501,45 @@
   <si>
     <t>さいばいメニュー</t>
   </si>
+  <si>
+    <t>今日</t>
+  </si>
+  <si>
+    <t>昨日</t>
+  </si>
+  <si>
+    <t>一昨日</t>
+  </si>
+  <si>
+    <t>一昨昨日</t>
+  </si>
+  <si>
+    <t>フラグ０</t>
+  </si>
+  <si>
+    <t>フラグ１</t>
+  </si>
+  <si>
+    <t>そうじ０</t>
+  </si>
+  <si>
+    <t>そうじ３</t>
+  </si>
+  <si>
+    <t>（前日のチェック）</t>
+  </si>
+  <si>
+    <t>・昨日のそうじカウント＝３の場合、チェック済みフラグをON</t>
+  </si>
+  <si>
+    <t>フラグ０→１</t>
+  </si>
+  <si>
+    <t>（レベルアップチェック）</t>
+  </si>
+  <si>
+    <t>・昨日、一昨日、一昨日のフラグが１の場合、レベル＋１</t>
+  </si>
 </sst>
 </file>
 
@@ -494,7 +548,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -571,6 +625,17 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="メイリオ"/>
     </font>
   </fonts>
@@ -769,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -882,6 +947,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -927,7 +995,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9228,8 +9295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6569DEC0-455C-4B48-9DF7-435AC7931908}">
   <dimension ref="B1:AJ47"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AI13" sqref="AI13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AZ26" sqref="AZ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
@@ -9376,15 +9443,35 @@
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ20" s="1" t="s">
+      <c r="AJ20" s="76" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="3:36" ht="18.75"/>
-    <row r="22" spans="3:36" ht="18.75"/>
-    <row r="23" spans="3:36" ht="18.75"/>
-    <row r="24" spans="3:36" ht="18.75"/>
-    <row r="25" spans="3:36" ht="18.75"/>
+    <row r="21" spans="3:36" ht="18.75">
+      <c r="AJ21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="3:36" ht="18.75">
+      <c r="AJ22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="3:36" ht="18.75">
+      <c r="AJ23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="3:36" ht="18.75">
+      <c r="AJ24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="3:36" ht="18.75">
+      <c r="AJ25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="26" spans="3:36" ht="18.75"/>
     <row r="27" spans="3:36" ht="18.75"/>
     <row r="28" spans="3:36" ht="18.75"/>
@@ -9416,8 +9503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5"/>
@@ -9441,38 +9528,38 @@
     <row r="1" spans="2:9" ht="18.75"/>
     <row r="2" spans="2:9" ht="18.75">
       <c r="B2" s="34" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="18.75">
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:9" ht="18.75">
       <c r="D4" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="89" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>42</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:9" ht="18.75">
       <c r="D5" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -9483,10 +9570,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -9497,10 +9584,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -9511,10 +9598,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -9525,10 +9612,10 @@
         <v>4</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -9539,10 +9626,10 @@
         <v>5</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18.75">
@@ -9554,12 +9641,12 @@
     </row>
     <row r="13" spans="2:9" ht="18.75" hidden="1">
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="18.75" hidden="1">
       <c r="C14" s="31" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -9569,13 +9656,13 @@
     <row r="15" spans="2:9" ht="18.75" hidden="1">
       <c r="C15" s="31"/>
       <c r="D15" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G15" s="8"/>
     </row>
@@ -9585,10 +9672,10 @@
         <v>1</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G16" s="8"/>
     </row>
@@ -9598,10 +9685,10 @@
         <v>2</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G17" s="8"/>
     </row>
@@ -9609,33 +9696,33 @@
     <row r="19" spans="3:9" ht="18.75"/>
     <row r="20" spans="3:9" ht="18.75">
       <c r="D20" s="42" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="18.75">
       <c r="D21" s="36" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F21" s="73" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="3:9" ht="18.75">
       <c r="D22" s="36" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -9644,7 +9731,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F23" s="35">
         <v>1</v>
@@ -9656,7 +9743,7 @@
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F24" s="35">
         <v>2</v>
@@ -9666,47 +9753,47 @@
     <row r="25" spans="3:9" ht="18.75"/>
     <row r="26" spans="3:9" ht="18.75">
       <c r="D26" s="42" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="3:9" ht="18.75">
       <c r="D27" s="43" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F27" s="39" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H27" s="39" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="3:9" ht="18.75">
       <c r="D28" s="37" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F28" s="39" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I28" s="1"/>
     </row>
@@ -9718,13 +9805,13 @@
         <v>2</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G29" s="35">
         <v>1</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -9736,13 +9823,13 @@
         <v>4</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G30" s="35">
         <v>2</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I30" s="1"/>
     </row>
@@ -9754,67 +9841,67 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G31" s="35">
         <v>2</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="3:9" ht="18.75"/>
     <row r="33" spans="4:10" ht="18.75" customHeight="1">
       <c r="D33" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="4:10" ht="18.75" customHeight="1">
       <c r="D34" s="70" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E34" s="69" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F34" s="71" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G34" s="46" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H34" s="46" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I34" s="47" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="4:10" ht="18.75" customHeight="1">
       <c r="D35" s="67" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E35" s="72" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F35" s="46" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G35" s="46" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H35" s="46" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I35" s="48" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="4:10" ht="18.75" customHeight="1">
@@ -9822,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="68" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F36" s="40">
         <v>0</v>
@@ -9834,7 +9921,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="41" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="4:10" ht="18.75" customHeight="1">
@@ -9842,7 +9929,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="68" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F37" s="40">
         <v>3</v>
@@ -9854,7 +9941,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="4:10" ht="18.75" customHeight="1">
@@ -9862,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="68" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F38" s="40">
         <v>1</v>
@@ -9874,47 +9961,47 @@
         <v>1</v>
       </c>
       <c r="I38" s="41" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="4:10" ht="18.75" customHeight="1"/>
     <row r="40" spans="4:10" ht="18.75" customHeight="1">
       <c r="D40" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="4:10" ht="18.75" customHeight="1">
       <c r="D41" s="44" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E41" s="45" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G41" s="39" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="4:10" ht="18.75" customHeight="1">
       <c r="D42" s="36" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G42" s="39" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="4:10" ht="18.75" customHeight="1">
@@ -9925,10 +10012,10 @@
         <v>1</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="4:10" ht="18.75" customHeight="1">
@@ -9939,10 +10026,10 @@
         <v>2</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="4:10" ht="18.75" customHeight="1">
@@ -9953,10 +10040,10 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="4:10" ht="18.75" customHeight="1">
@@ -9967,10 +10054,10 @@
         <v>3</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="4:10" ht="18.75" customHeight="1"/>
@@ -10013,7 +10100,7 @@
   <sheetData>
     <row r="1" spans="1:53" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:53" ht="13.5" customHeight="1">
@@ -10110,7 +10197,7 @@
       <c r="AS3" s="13"/>
       <c r="AT3" s="14"/>
       <c r="AY3" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:53" ht="13.5" customHeight="1">
@@ -10160,154 +10247,154 @@
       <c r="AS4" s="13"/>
       <c r="AT4" s="14"/>
       <c r="AZ4" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:53" ht="13.5" customHeight="1">
-      <c r="B5" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="78"/>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="78"/>
-      <c r="AI5" s="78"/>
-      <c r="AJ5" s="78"/>
-      <c r="AK5" s="78"/>
-      <c r="AL5" s="78"/>
-      <c r="AM5" s="78"/>
-      <c r="AN5" s="78"/>
-      <c r="AO5" s="78"/>
-      <c r="AP5" s="78"/>
-      <c r="AQ5" s="78"/>
-      <c r="AR5" s="78"/>
-      <c r="AS5" s="78"/>
-      <c r="AT5" s="79"/>
+      <c r="B5" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="81"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="81"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="81"/>
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="81"/>
+      <c r="AE5" s="81"/>
+      <c r="AF5" s="81"/>
+      <c r="AG5" s="81"/>
+      <c r="AH5" s="81"/>
+      <c r="AI5" s="81"/>
+      <c r="AJ5" s="81"/>
+      <c r="AK5" s="81"/>
+      <c r="AL5" s="81"/>
+      <c r="AM5" s="81"/>
+      <c r="AN5" s="81"/>
+      <c r="AO5" s="81"/>
+      <c r="AP5" s="81"/>
+      <c r="AQ5" s="81"/>
+      <c r="AR5" s="81"/>
+      <c r="AS5" s="81"/>
+      <c r="AT5" s="82"/>
       <c r="BA5" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:53" ht="13.5" customHeight="1">
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="78"/>
-      <c r="AM6" s="78"/>
-      <c r="AN6" s="78"/>
-      <c r="AO6" s="78"/>
-      <c r="AP6" s="78"/>
-      <c r="AQ6" s="78"/>
-      <c r="AR6" s="78"/>
-      <c r="AS6" s="78"/>
-      <c r="AT6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="81"/>
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="81"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="81"/>
+      <c r="AI6" s="81"/>
+      <c r="AJ6" s="81"/>
+      <c r="AK6" s="81"/>
+      <c r="AL6" s="81"/>
+      <c r="AM6" s="81"/>
+      <c r="AN6" s="81"/>
+      <c r="AO6" s="81"/>
+      <c r="AP6" s="81"/>
+      <c r="AQ6" s="81"/>
+      <c r="AR6" s="81"/>
+      <c r="AS6" s="81"/>
+      <c r="AT6" s="82"/>
     </row>
     <row r="7" spans="1:53" ht="13.5" customHeight="1">
-      <c r="B7" s="77"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="78"/>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="78"/>
-      <c r="AJ7" s="78"/>
-      <c r="AK7" s="78"/>
-      <c r="AL7" s="78"/>
-      <c r="AM7" s="78"/>
-      <c r="AN7" s="78"/>
-      <c r="AO7" s="78"/>
-      <c r="AP7" s="78"/>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="78"/>
-      <c r="AS7" s="78"/>
-      <c r="AT7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="81"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="81"/>
+      <c r="AI7" s="81"/>
+      <c r="AJ7" s="81"/>
+      <c r="AK7" s="81"/>
+      <c r="AL7" s="81"/>
+      <c r="AM7" s="81"/>
+      <c r="AN7" s="81"/>
+      <c r="AO7" s="81"/>
+      <c r="AP7" s="81"/>
+      <c r="AQ7" s="81"/>
+      <c r="AR7" s="81"/>
+      <c r="AS7" s="81"/>
+      <c r="AT7" s="82"/>
     </row>
     <row r="8" spans="1:53" ht="13.5" customHeight="1">
       <c r="B8" s="12"/>
@@ -10451,53 +10538,53 @@
       <c r="AT10" s="14"/>
     </row>
     <row r="11" spans="1:53" ht="13.5" customHeight="1">
-      <c r="B11" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75"/>
-      <c r="W11" s="75"/>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="75"/>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="75"/>
-      <c r="AG11" s="75"/>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="75"/>
-      <c r="AJ11" s="75"/>
-      <c r="AK11" s="75"/>
-      <c r="AL11" s="75"/>
-      <c r="AM11" s="75"/>
-      <c r="AN11" s="75"/>
-      <c r="AO11" s="75"/>
-      <c r="AP11" s="75"/>
-      <c r="AQ11" s="75"/>
-      <c r="AR11" s="75"/>
-      <c r="AS11" s="75"/>
-      <c r="AT11" s="76"/>
+      <c r="B11" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="78"/>
+      <c r="AF11" s="78"/>
+      <c r="AG11" s="78"/>
+      <c r="AH11" s="78"/>
+      <c r="AI11" s="78"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="78"/>
+      <c r="AL11" s="78"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="78"/>
+      <c r="AO11" s="78"/>
+      <c r="AP11" s="78"/>
+      <c r="AQ11" s="78"/>
+      <c r="AR11" s="78"/>
+      <c r="AS11" s="78"/>
+      <c r="AT11" s="79"/>
     </row>
     <row r="12" spans="1:53" ht="13.5" customHeight="1">
       <c r="B12" s="12"/>
@@ -10969,7 +11056,7 @@
       <c r="AS21" s="13"/>
       <c r="AT21" s="14"/>
       <c r="AW21" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="2:60" ht="13.5" customHeight="1">
@@ -11301,163 +11388,163 @@
       <c r="AS30" s="13"/>
       <c r="AT30" s="14"/>
       <c r="AZ30" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="2:60" ht="13.5" customHeight="1">
+      <c r="B31" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="81"/>
+      <c r="T31" s="81"/>
+      <c r="U31" s="81"/>
+      <c r="V31" s="81"/>
+      <c r="W31" s="81"/>
+      <c r="X31" s="81"/>
+      <c r="Y31" s="81"/>
+      <c r="Z31" s="81"/>
+      <c r="AA31" s="81"/>
+      <c r="AB31" s="81"/>
+      <c r="AC31" s="81"/>
+      <c r="AD31" s="81"/>
+      <c r="AE31" s="81"/>
+      <c r="AF31" s="81"/>
+      <c r="AG31" s="81"/>
+      <c r="AH31" s="81"/>
+      <c r="AI31" s="81"/>
+      <c r="AJ31" s="81"/>
+      <c r="AK31" s="81"/>
+      <c r="AL31" s="81"/>
+      <c r="AM31" s="81"/>
+      <c r="AN31" s="81"/>
+      <c r="AO31" s="81"/>
+      <c r="AP31" s="81"/>
+      <c r="AQ31" s="81"/>
+      <c r="AR31" s="81"/>
+      <c r="AS31" s="81"/>
+      <c r="AT31" s="82"/>
+      <c r="BA31" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="2:60" ht="13.5" customHeight="1">
-      <c r="B31" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="78"/>
-      <c r="Q31" s="78"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
-      <c r="U31" s="78"/>
-      <c r="V31" s="78"/>
-      <c r="W31" s="78"/>
-      <c r="X31" s="78"/>
-      <c r="Y31" s="78"/>
-      <c r="Z31" s="78"/>
-      <c r="AA31" s="78"/>
-      <c r="AB31" s="78"/>
-      <c r="AC31" s="78"/>
-      <c r="AD31" s="78"/>
-      <c r="AE31" s="78"/>
-      <c r="AF31" s="78"/>
-      <c r="AG31" s="78"/>
-      <c r="AH31" s="78"/>
-      <c r="AI31" s="78"/>
-      <c r="AJ31" s="78"/>
-      <c r="AK31" s="78"/>
-      <c r="AL31" s="78"/>
-      <c r="AM31" s="78"/>
-      <c r="AN31" s="78"/>
-      <c r="AO31" s="78"/>
-      <c r="AP31" s="78"/>
-      <c r="AQ31" s="78"/>
-      <c r="AR31" s="78"/>
-      <c r="AS31" s="78"/>
-      <c r="AT31" s="79"/>
-      <c r="BA31" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
     <row r="32" spans="2:60" ht="13.5" customHeight="1">
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="78"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
-      <c r="Z32" s="78"/>
-      <c r="AA32" s="78"/>
-      <c r="AB32" s="78"/>
-      <c r="AC32" s="78"/>
-      <c r="AD32" s="78"/>
-      <c r="AE32" s="78"/>
-      <c r="AF32" s="78"/>
-      <c r="AG32" s="78"/>
-      <c r="AH32" s="78"/>
-      <c r="AI32" s="78"/>
-      <c r="AJ32" s="78"/>
-      <c r="AK32" s="78"/>
-      <c r="AL32" s="78"/>
-      <c r="AM32" s="78"/>
-      <c r="AN32" s="78"/>
-      <c r="AO32" s="78"/>
-      <c r="AP32" s="78"/>
-      <c r="AQ32" s="78"/>
-      <c r="AR32" s="78"/>
-      <c r="AS32" s="78"/>
-      <c r="AT32" s="79"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="81"/>
+      <c r="U32" s="81"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="81"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="81"/>
+      <c r="Z32" s="81"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="81"/>
+      <c r="AD32" s="81"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="81"/>
+      <c r="AG32" s="81"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="81"/>
+      <c r="AK32" s="81"/>
+      <c r="AL32" s="81"/>
+      <c r="AM32" s="81"/>
+      <c r="AN32" s="81"/>
+      <c r="AO32" s="81"/>
+      <c r="AP32" s="81"/>
+      <c r="AQ32" s="81"/>
+      <c r="AR32" s="81"/>
+      <c r="AS32" s="81"/>
+      <c r="AT32" s="82"/>
       <c r="BB32" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="BG32" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="BH32" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="2:46" ht="13.5" customHeight="1">
-      <c r="B33" s="77"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="78"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="78"/>
-      <c r="AB33" s="78"/>
-      <c r="AC33" s="78"/>
-      <c r="AD33" s="78"/>
-      <c r="AE33" s="78"/>
-      <c r="AF33" s="78"/>
-      <c r="AG33" s="78"/>
-      <c r="AH33" s="78"/>
-      <c r="AI33" s="78"/>
-      <c r="AJ33" s="78"/>
-      <c r="AK33" s="78"/>
-      <c r="AL33" s="78"/>
-      <c r="AM33" s="78"/>
-      <c r="AN33" s="78"/>
-      <c r="AO33" s="78"/>
-      <c r="AP33" s="78"/>
-      <c r="AQ33" s="78"/>
-      <c r="AR33" s="78"/>
-      <c r="AS33" s="78"/>
-      <c r="AT33" s="79"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="81"/>
+      <c r="S33" s="81"/>
+      <c r="T33" s="81"/>
+      <c r="U33" s="81"/>
+      <c r="V33" s="81"/>
+      <c r="W33" s="81"/>
+      <c r="X33" s="81"/>
+      <c r="Y33" s="81"/>
+      <c r="Z33" s="81"/>
+      <c r="AA33" s="81"/>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="81"/>
+      <c r="AD33" s="81"/>
+      <c r="AE33" s="81"/>
+      <c r="AF33" s="81"/>
+      <c r="AG33" s="81"/>
+      <c r="AH33" s="81"/>
+      <c r="AI33" s="81"/>
+      <c r="AJ33" s="81"/>
+      <c r="AK33" s="81"/>
+      <c r="AL33" s="81"/>
+      <c r="AM33" s="81"/>
+      <c r="AN33" s="81"/>
+      <c r="AO33" s="81"/>
+      <c r="AP33" s="81"/>
+      <c r="AQ33" s="81"/>
+      <c r="AR33" s="81"/>
+      <c r="AS33" s="81"/>
+      <c r="AT33" s="82"/>
     </row>
     <row r="34" spans="2:46" ht="13.5" customHeight="1">
       <c r="B34" s="18"/>
@@ -11742,53 +11829,53 @@
       <c r="AT39" s="14"/>
     </row>
     <row r="40" spans="2:46" ht="13.5" customHeight="1">
-      <c r="B40" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="75"/>
-      <c r="S40" s="75"/>
-      <c r="T40" s="75"/>
-      <c r="U40" s="75"/>
-      <c r="V40" s="75"/>
-      <c r="W40" s="75"/>
-      <c r="X40" s="75"/>
-      <c r="Y40" s="75"/>
-      <c r="Z40" s="75"/>
-      <c r="AA40" s="75"/>
-      <c r="AB40" s="75"/>
-      <c r="AC40" s="75"/>
-      <c r="AD40" s="75"/>
-      <c r="AE40" s="75"/>
-      <c r="AF40" s="75"/>
-      <c r="AG40" s="75"/>
-      <c r="AH40" s="75"/>
-      <c r="AI40" s="75"/>
-      <c r="AJ40" s="75"/>
-      <c r="AK40" s="75"/>
-      <c r="AL40" s="75"/>
-      <c r="AM40" s="75"/>
-      <c r="AN40" s="75"/>
-      <c r="AO40" s="75"/>
-      <c r="AP40" s="75"/>
-      <c r="AQ40" s="75"/>
-      <c r="AR40" s="75"/>
-      <c r="AS40" s="75"/>
-      <c r="AT40" s="76"/>
+      <c r="B40" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="78"/>
+      <c r="T40" s="78"/>
+      <c r="U40" s="78"/>
+      <c r="V40" s="78"/>
+      <c r="W40" s="78"/>
+      <c r="X40" s="78"/>
+      <c r="Y40" s="78"/>
+      <c r="Z40" s="78"/>
+      <c r="AA40" s="78"/>
+      <c r="AB40" s="78"/>
+      <c r="AC40" s="78"/>
+      <c r="AD40" s="78"/>
+      <c r="AE40" s="78"/>
+      <c r="AF40" s="78"/>
+      <c r="AG40" s="78"/>
+      <c r="AH40" s="78"/>
+      <c r="AI40" s="78"/>
+      <c r="AJ40" s="78"/>
+      <c r="AK40" s="78"/>
+      <c r="AL40" s="78"/>
+      <c r="AM40" s="78"/>
+      <c r="AN40" s="78"/>
+      <c r="AO40" s="78"/>
+      <c r="AP40" s="78"/>
+      <c r="AQ40" s="78"/>
+      <c r="AR40" s="78"/>
+      <c r="AS40" s="78"/>
+      <c r="AT40" s="79"/>
     </row>
     <row r="41" spans="2:46" ht="13.5" customHeight="1">
       <c r="B41" s="12"/>
@@ -12354,7 +12441,7 @@
       <c r="AS54" s="10"/>
       <c r="AT54" s="11"/>
       <c r="AZ54" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="2:54" ht="13.5" customHeight="1">
@@ -12404,7 +12491,7 @@
       <c r="AS55" s="13"/>
       <c r="AT55" s="14"/>
       <c r="BA55" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="2:54" ht="13.5" customHeight="1">
@@ -12454,154 +12541,154 @@
       <c r="AS56" s="13"/>
       <c r="AT56" s="14"/>
       <c r="BB56" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="2:54" ht="13.5" customHeight="1">
-      <c r="B57" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="78"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="78"/>
-      <c r="R57" s="78"/>
-      <c r="S57" s="78"/>
-      <c r="T57" s="78"/>
-      <c r="U57" s="78"/>
-      <c r="V57" s="78"/>
-      <c r="W57" s="78"/>
-      <c r="X57" s="78"/>
-      <c r="Y57" s="78"/>
-      <c r="Z57" s="78"/>
-      <c r="AA57" s="78"/>
-      <c r="AB57" s="78"/>
-      <c r="AC57" s="78"/>
-      <c r="AD57" s="78"/>
-      <c r="AE57" s="78"/>
-      <c r="AF57" s="78"/>
-      <c r="AG57" s="78"/>
-      <c r="AH57" s="78"/>
-      <c r="AI57" s="78"/>
-      <c r="AJ57" s="78"/>
-      <c r="AK57" s="78"/>
-      <c r="AL57" s="78"/>
-      <c r="AM57" s="78"/>
-      <c r="AN57" s="78"/>
-      <c r="AO57" s="78"/>
-      <c r="AP57" s="78"/>
-      <c r="AQ57" s="78"/>
-      <c r="AR57" s="78"/>
-      <c r="AS57" s="78"/>
-      <c r="AT57" s="79"/>
+      <c r="B57" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="81"/>
+      <c r="M57" s="81"/>
+      <c r="N57" s="81"/>
+      <c r="O57" s="81"/>
+      <c r="P57" s="81"/>
+      <c r="Q57" s="81"/>
+      <c r="R57" s="81"/>
+      <c r="S57" s="81"/>
+      <c r="T57" s="81"/>
+      <c r="U57" s="81"/>
+      <c r="V57" s="81"/>
+      <c r="W57" s="81"/>
+      <c r="X57" s="81"/>
+      <c r="Y57" s="81"/>
+      <c r="Z57" s="81"/>
+      <c r="AA57" s="81"/>
+      <c r="AB57" s="81"/>
+      <c r="AC57" s="81"/>
+      <c r="AD57" s="81"/>
+      <c r="AE57" s="81"/>
+      <c r="AF57" s="81"/>
+      <c r="AG57" s="81"/>
+      <c r="AH57" s="81"/>
+      <c r="AI57" s="81"/>
+      <c r="AJ57" s="81"/>
+      <c r="AK57" s="81"/>
+      <c r="AL57" s="81"/>
+      <c r="AM57" s="81"/>
+      <c r="AN57" s="81"/>
+      <c r="AO57" s="81"/>
+      <c r="AP57" s="81"/>
+      <c r="AQ57" s="81"/>
+      <c r="AR57" s="81"/>
+      <c r="AS57" s="81"/>
+      <c r="AT57" s="82"/>
       <c r="BB57" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="2:54" ht="13.5" customHeight="1">
-      <c r="B58" s="77"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="78"/>
-      <c r="O58" s="78"/>
-      <c r="P58" s="78"/>
-      <c r="Q58" s="78"/>
-      <c r="R58" s="78"/>
-      <c r="S58" s="78"/>
-      <c r="T58" s="78"/>
-      <c r="U58" s="78"/>
-      <c r="V58" s="78"/>
-      <c r="W58" s="78"/>
-      <c r="X58" s="78"/>
-      <c r="Y58" s="78"/>
-      <c r="Z58" s="78"/>
-      <c r="AA58" s="78"/>
-      <c r="AB58" s="78"/>
-      <c r="AC58" s="78"/>
-      <c r="AD58" s="78"/>
-      <c r="AE58" s="78"/>
-      <c r="AF58" s="78"/>
-      <c r="AG58" s="78"/>
-      <c r="AH58" s="78"/>
-      <c r="AI58" s="78"/>
-      <c r="AJ58" s="78"/>
-      <c r="AK58" s="78"/>
-      <c r="AL58" s="78"/>
-      <c r="AM58" s="78"/>
-      <c r="AN58" s="78"/>
-      <c r="AO58" s="78"/>
-      <c r="AP58" s="78"/>
-      <c r="AQ58" s="78"/>
-      <c r="AR58" s="78"/>
-      <c r="AS58" s="78"/>
-      <c r="AT58" s="79"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="81"/>
+      <c r="L58" s="81"/>
+      <c r="M58" s="81"/>
+      <c r="N58" s="81"/>
+      <c r="O58" s="81"/>
+      <c r="P58" s="81"/>
+      <c r="Q58" s="81"/>
+      <c r="R58" s="81"/>
+      <c r="S58" s="81"/>
+      <c r="T58" s="81"/>
+      <c r="U58" s="81"/>
+      <c r="V58" s="81"/>
+      <c r="W58" s="81"/>
+      <c r="X58" s="81"/>
+      <c r="Y58" s="81"/>
+      <c r="Z58" s="81"/>
+      <c r="AA58" s="81"/>
+      <c r="AB58" s="81"/>
+      <c r="AC58" s="81"/>
+      <c r="AD58" s="81"/>
+      <c r="AE58" s="81"/>
+      <c r="AF58" s="81"/>
+      <c r="AG58" s="81"/>
+      <c r="AH58" s="81"/>
+      <c r="AI58" s="81"/>
+      <c r="AJ58" s="81"/>
+      <c r="AK58" s="81"/>
+      <c r="AL58" s="81"/>
+      <c r="AM58" s="81"/>
+      <c r="AN58" s="81"/>
+      <c r="AO58" s="81"/>
+      <c r="AP58" s="81"/>
+      <c r="AQ58" s="81"/>
+      <c r="AR58" s="81"/>
+      <c r="AS58" s="81"/>
+      <c r="AT58" s="82"/>
     </row>
     <row r="59" spans="2:54" ht="13.5" customHeight="1">
-      <c r="B59" s="77"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="78"/>
-      <c r="R59" s="78"/>
-      <c r="S59" s="78"/>
-      <c r="T59" s="78"/>
-      <c r="U59" s="78"/>
-      <c r="V59" s="78"/>
-      <c r="W59" s="78"/>
-      <c r="X59" s="78"/>
-      <c r="Y59" s="78"/>
-      <c r="Z59" s="78"/>
-      <c r="AA59" s="78"/>
-      <c r="AB59" s="78"/>
-      <c r="AC59" s="78"/>
-      <c r="AD59" s="78"/>
-      <c r="AE59" s="78"/>
-      <c r="AF59" s="78"/>
-      <c r="AG59" s="78"/>
-      <c r="AH59" s="78"/>
-      <c r="AI59" s="78"/>
-      <c r="AJ59" s="78"/>
-      <c r="AK59" s="78"/>
-      <c r="AL59" s="78"/>
-      <c r="AM59" s="78"/>
-      <c r="AN59" s="78"/>
-      <c r="AO59" s="78"/>
-      <c r="AP59" s="78"/>
-      <c r="AQ59" s="78"/>
-      <c r="AR59" s="78"/>
-      <c r="AS59" s="78"/>
-      <c r="AT59" s="79"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="81"/>
+      <c r="L59" s="81"/>
+      <c r="M59" s="81"/>
+      <c r="N59" s="81"/>
+      <c r="O59" s="81"/>
+      <c r="P59" s="81"/>
+      <c r="Q59" s="81"/>
+      <c r="R59" s="81"/>
+      <c r="S59" s="81"/>
+      <c r="T59" s="81"/>
+      <c r="U59" s="81"/>
+      <c r="V59" s="81"/>
+      <c r="W59" s="81"/>
+      <c r="X59" s="81"/>
+      <c r="Y59" s="81"/>
+      <c r="Z59" s="81"/>
+      <c r="AA59" s="81"/>
+      <c r="AB59" s="81"/>
+      <c r="AC59" s="81"/>
+      <c r="AD59" s="81"/>
+      <c r="AE59" s="81"/>
+      <c r="AF59" s="81"/>
+      <c r="AG59" s="81"/>
+      <c r="AH59" s="81"/>
+      <c r="AI59" s="81"/>
+      <c r="AJ59" s="81"/>
+      <c r="AK59" s="81"/>
+      <c r="AL59" s="81"/>
+      <c r="AM59" s="81"/>
+      <c r="AN59" s="81"/>
+      <c r="AO59" s="81"/>
+      <c r="AP59" s="81"/>
+      <c r="AQ59" s="81"/>
+      <c r="AR59" s="81"/>
+      <c r="AS59" s="81"/>
+      <c r="AT59" s="82"/>
     </row>
     <row r="60" spans="2:54" ht="13.5" customHeight="1">
       <c r="B60" s="12"/>
@@ -12886,53 +12973,53 @@
       <c r="AT65" s="14"/>
     </row>
     <row r="66" spans="2:46" ht="13.5" customHeight="1">
-      <c r="B66" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C66" s="75"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="75"/>
-      <c r="H66" s="75"/>
-      <c r="I66" s="75"/>
-      <c r="J66" s="75"/>
-      <c r="K66" s="75"/>
-      <c r="L66" s="75"/>
-      <c r="M66" s="75"/>
-      <c r="N66" s="75"/>
-      <c r="O66" s="75"/>
-      <c r="P66" s="75"/>
-      <c r="Q66" s="75"/>
-      <c r="R66" s="75"/>
-      <c r="S66" s="75"/>
-      <c r="T66" s="75"/>
-      <c r="U66" s="75"/>
-      <c r="V66" s="75"/>
-      <c r="W66" s="75"/>
-      <c r="X66" s="75"/>
-      <c r="Y66" s="75"/>
-      <c r="Z66" s="75"/>
-      <c r="AA66" s="75"/>
-      <c r="AB66" s="75"/>
-      <c r="AC66" s="75"/>
-      <c r="AD66" s="75"/>
-      <c r="AE66" s="75"/>
-      <c r="AF66" s="75"/>
-      <c r="AG66" s="75"/>
-      <c r="AH66" s="75"/>
-      <c r="AI66" s="75"/>
-      <c r="AJ66" s="75"/>
-      <c r="AK66" s="75"/>
-      <c r="AL66" s="75"/>
-      <c r="AM66" s="75"/>
-      <c r="AN66" s="75"/>
-      <c r="AO66" s="75"/>
-      <c r="AP66" s="75"/>
-      <c r="AQ66" s="75"/>
-      <c r="AR66" s="75"/>
-      <c r="AS66" s="75"/>
-      <c r="AT66" s="76"/>
+      <c r="B66" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="78"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="78"/>
+      <c r="L66" s="78"/>
+      <c r="M66" s="78"/>
+      <c r="N66" s="78"/>
+      <c r="O66" s="78"/>
+      <c r="P66" s="78"/>
+      <c r="Q66" s="78"/>
+      <c r="R66" s="78"/>
+      <c r="S66" s="78"/>
+      <c r="T66" s="78"/>
+      <c r="U66" s="78"/>
+      <c r="V66" s="78"/>
+      <c r="W66" s="78"/>
+      <c r="X66" s="78"/>
+      <c r="Y66" s="78"/>
+      <c r="Z66" s="78"/>
+      <c r="AA66" s="78"/>
+      <c r="AB66" s="78"/>
+      <c r="AC66" s="78"/>
+      <c r="AD66" s="78"/>
+      <c r="AE66" s="78"/>
+      <c r="AF66" s="78"/>
+      <c r="AG66" s="78"/>
+      <c r="AH66" s="78"/>
+      <c r="AI66" s="78"/>
+      <c r="AJ66" s="78"/>
+      <c r="AK66" s="78"/>
+      <c r="AL66" s="78"/>
+      <c r="AM66" s="78"/>
+      <c r="AN66" s="78"/>
+      <c r="AO66" s="78"/>
+      <c r="AP66" s="78"/>
+      <c r="AQ66" s="78"/>
+      <c r="AR66" s="78"/>
+      <c r="AS66" s="78"/>
+      <c r="AT66" s="79"/>
     </row>
     <row r="67" spans="2:46" ht="13.5" customHeight="1">
       <c r="B67" s="12"/>
@@ -13485,12 +13572,12 @@
   <sheetData>
     <row r="1" spans="1:59" ht="13.5" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:59" ht="13.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="13.5" customHeight="1">
@@ -13587,7 +13674,7 @@
       <c r="AS4" s="13"/>
       <c r="AT4" s="14"/>
       <c r="AX4" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="BG4" s="42"/>
     </row>
@@ -13639,159 +13726,159 @@
       <c r="AT5" s="14"/>
       <c r="AX5" s="2"/>
       <c r="AY5" s="42" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="BG5" s="42"/>
     </row>
     <row r="6" spans="1:59" ht="13.5" customHeight="1">
-      <c r="B6" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="78"/>
-      <c r="AL6" s="78"/>
-      <c r="AM6" s="78"/>
-      <c r="AN6" s="78"/>
-      <c r="AO6" s="78"/>
-      <c r="AP6" s="78"/>
-      <c r="AQ6" s="78"/>
-      <c r="AR6" s="78"/>
-      <c r="AS6" s="78"/>
-      <c r="AT6" s="79"/>
+      <c r="B6" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="81"/>
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="81"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="81"/>
+      <c r="AI6" s="81"/>
+      <c r="AJ6" s="81"/>
+      <c r="AK6" s="81"/>
+      <c r="AL6" s="81"/>
+      <c r="AM6" s="81"/>
+      <c r="AN6" s="81"/>
+      <c r="AO6" s="81"/>
+      <c r="AP6" s="81"/>
+      <c r="AQ6" s="81"/>
+      <c r="AR6" s="81"/>
+      <c r="AS6" s="81"/>
+      <c r="AT6" s="82"/>
       <c r="AY6" s="42" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:59" ht="13.5" customHeight="1">
-      <c r="B7" s="77"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="78"/>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="78"/>
-      <c r="AJ7" s="78"/>
-      <c r="AK7" s="78"/>
-      <c r="AL7" s="78"/>
-      <c r="AM7" s="78"/>
-      <c r="AN7" s="78"/>
-      <c r="AO7" s="78"/>
-      <c r="AP7" s="78"/>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="78"/>
-      <c r="AS7" s="78"/>
-      <c r="AT7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="81"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="81"/>
+      <c r="AI7" s="81"/>
+      <c r="AJ7" s="81"/>
+      <c r="AK7" s="81"/>
+      <c r="AL7" s="81"/>
+      <c r="AM7" s="81"/>
+      <c r="AN7" s="81"/>
+      <c r="AO7" s="81"/>
+      <c r="AP7" s="81"/>
+      <c r="AQ7" s="81"/>
+      <c r="AR7" s="81"/>
+      <c r="AS7" s="81"/>
+      <c r="AT7" s="82"/>
       <c r="AX7" s="2"/>
       <c r="AY7" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:59" ht="13.5" customHeight="1">
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="78"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="78"/>
-      <c r="AE8" s="78"/>
-      <c r="AF8" s="78"/>
-      <c r="AG8" s="78"/>
-      <c r="AH8" s="78"/>
-      <c r="AI8" s="78"/>
-      <c r="AJ8" s="78"/>
-      <c r="AK8" s="78"/>
-      <c r="AL8" s="78"/>
-      <c r="AM8" s="78"/>
-      <c r="AN8" s="78"/>
-      <c r="AO8" s="78"/>
-      <c r="AP8" s="78"/>
-      <c r="AQ8" s="78"/>
-      <c r="AR8" s="78"/>
-      <c r="AS8" s="78"/>
-      <c r="AT8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="81"/>
+      <c r="AD8" s="81"/>
+      <c r="AE8" s="81"/>
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="81"/>
+      <c r="AI8" s="81"/>
+      <c r="AJ8" s="81"/>
+      <c r="AK8" s="81"/>
+      <c r="AL8" s="81"/>
+      <c r="AM8" s="81"/>
+      <c r="AN8" s="81"/>
+      <c r="AO8" s="81"/>
+      <c r="AP8" s="81"/>
+      <c r="AQ8" s="81"/>
+      <c r="AR8" s="81"/>
+      <c r="AS8" s="81"/>
+      <c r="AT8" s="82"/>
     </row>
     <row r="9" spans="1:59" ht="13.5" customHeight="1">
       <c r="B9" s="12"/>
@@ -13935,53 +14022,53 @@
       <c r="AT11" s="14"/>
     </row>
     <row r="12" spans="1:59" ht="13.5" customHeight="1">
-      <c r="B12" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="75"/>
-      <c r="AG12" s="75"/>
-      <c r="AH12" s="75"/>
-      <c r="AI12" s="75"/>
-      <c r="AJ12" s="75"/>
-      <c r="AK12" s="75"/>
-      <c r="AL12" s="75"/>
-      <c r="AM12" s="75"/>
-      <c r="AN12" s="75"/>
-      <c r="AO12" s="75"/>
-      <c r="AP12" s="75"/>
-      <c r="AQ12" s="75"/>
-      <c r="AR12" s="75"/>
-      <c r="AS12" s="75"/>
-      <c r="AT12" s="76"/>
+      <c r="B12" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="78"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="78"/>
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="78"/>
+      <c r="AI12" s="78"/>
+      <c r="AJ12" s="78"/>
+      <c r="AK12" s="78"/>
+      <c r="AL12" s="78"/>
+      <c r="AM12" s="78"/>
+      <c r="AN12" s="78"/>
+      <c r="AO12" s="78"/>
+      <c r="AP12" s="78"/>
+      <c r="AQ12" s="78"/>
+      <c r="AR12" s="78"/>
+      <c r="AS12" s="78"/>
+      <c r="AT12" s="79"/>
     </row>
     <row r="13" spans="1:59" ht="13.5" customHeight="1">
       <c r="B13" s="12"/>
@@ -14688,7 +14775,7 @@
       <c r="AS29" s="10"/>
       <c r="AT29" s="11"/>
       <c r="AX29" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="BG29" s="42"/>
     </row>
@@ -14787,153 +14874,153 @@
       <c r="AS31" s="13"/>
       <c r="AT31" s="14"/>
       <c r="AX31" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="2:59" ht="13.5" customHeight="1">
-      <c r="B32" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="78"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="78"/>
-      <c r="U32" s="78"/>
-      <c r="V32" s="78"/>
-      <c r="W32" s="78"/>
-      <c r="X32" s="78"/>
-      <c r="Y32" s="78"/>
-      <c r="Z32" s="78"/>
-      <c r="AA32" s="78"/>
-      <c r="AB32" s="78"/>
-      <c r="AC32" s="78"/>
-      <c r="AD32" s="78"/>
-      <c r="AE32" s="78"/>
-      <c r="AF32" s="78"/>
-      <c r="AG32" s="78"/>
-      <c r="AH32" s="78"/>
-      <c r="AI32" s="78"/>
-      <c r="AJ32" s="78"/>
-      <c r="AK32" s="78"/>
-      <c r="AL32" s="78"/>
-      <c r="AM32" s="78"/>
-      <c r="AN32" s="78"/>
-      <c r="AO32" s="78"/>
-      <c r="AP32" s="78"/>
-      <c r="AQ32" s="78"/>
-      <c r="AR32" s="78"/>
-      <c r="AS32" s="78"/>
-      <c r="AT32" s="79"/>
+      <c r="B32" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="81"/>
+      <c r="U32" s="81"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="81"/>
+      <c r="X32" s="81"/>
+      <c r="Y32" s="81"/>
+      <c r="Z32" s="81"/>
+      <c r="AA32" s="81"/>
+      <c r="AB32" s="81"/>
+      <c r="AC32" s="81"/>
+      <c r="AD32" s="81"/>
+      <c r="AE32" s="81"/>
+      <c r="AF32" s="81"/>
+      <c r="AG32" s="81"/>
+      <c r="AH32" s="81"/>
+      <c r="AI32" s="81"/>
+      <c r="AJ32" s="81"/>
+      <c r="AK32" s="81"/>
+      <c r="AL32" s="81"/>
+      <c r="AM32" s="81"/>
+      <c r="AN32" s="81"/>
+      <c r="AO32" s="81"/>
+      <c r="AP32" s="81"/>
+      <c r="AQ32" s="81"/>
+      <c r="AR32" s="81"/>
+      <c r="AS32" s="81"/>
+      <c r="AT32" s="82"/>
     </row>
     <row r="33" spans="2:50" ht="13.5" customHeight="1">
-      <c r="B33" s="77"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="78"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="78"/>
-      <c r="AB33" s="78"/>
-      <c r="AC33" s="78"/>
-      <c r="AD33" s="78"/>
-      <c r="AE33" s="78"/>
-      <c r="AF33" s="78"/>
-      <c r="AG33" s="78"/>
-      <c r="AH33" s="78"/>
-      <c r="AI33" s="78"/>
-      <c r="AJ33" s="78"/>
-      <c r="AK33" s="78"/>
-      <c r="AL33" s="78"/>
-      <c r="AM33" s="78"/>
-      <c r="AN33" s="78"/>
-      <c r="AO33" s="78"/>
-      <c r="AP33" s="78"/>
-      <c r="AQ33" s="78"/>
-      <c r="AR33" s="78"/>
-      <c r="AS33" s="78"/>
-      <c r="AT33" s="79"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="81"/>
+      <c r="S33" s="81"/>
+      <c r="T33" s="81"/>
+      <c r="U33" s="81"/>
+      <c r="V33" s="81"/>
+      <c r="W33" s="81"/>
+      <c r="X33" s="81"/>
+      <c r="Y33" s="81"/>
+      <c r="Z33" s="81"/>
+      <c r="AA33" s="81"/>
+      <c r="AB33" s="81"/>
+      <c r="AC33" s="81"/>
+      <c r="AD33" s="81"/>
+      <c r="AE33" s="81"/>
+      <c r="AF33" s="81"/>
+      <c r="AG33" s="81"/>
+      <c r="AH33" s="81"/>
+      <c r="AI33" s="81"/>
+      <c r="AJ33" s="81"/>
+      <c r="AK33" s="81"/>
+      <c r="AL33" s="81"/>
+      <c r="AM33" s="81"/>
+      <c r="AN33" s="81"/>
+      <c r="AO33" s="81"/>
+      <c r="AP33" s="81"/>
+      <c r="AQ33" s="81"/>
+      <c r="AR33" s="81"/>
+      <c r="AS33" s="81"/>
+      <c r="AT33" s="82"/>
     </row>
     <row r="34" spans="2:50" ht="13.5" customHeight="1">
-      <c r="B34" s="77"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="78"/>
-      <c r="R34" s="78"/>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="78"/>
-      <c r="V34" s="78"/>
-      <c r="W34" s="78"/>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="78"/>
-      <c r="Z34" s="78"/>
-      <c r="AA34" s="78"/>
-      <c r="AB34" s="78"/>
-      <c r="AC34" s="78"/>
-      <c r="AD34" s="78"/>
-      <c r="AE34" s="78"/>
-      <c r="AF34" s="78"/>
-      <c r="AG34" s="78"/>
-      <c r="AH34" s="78"/>
-      <c r="AI34" s="78"/>
-      <c r="AJ34" s="78"/>
-      <c r="AK34" s="78"/>
-      <c r="AL34" s="78"/>
-      <c r="AM34" s="78"/>
-      <c r="AN34" s="78"/>
-      <c r="AO34" s="78"/>
-      <c r="AP34" s="78"/>
-      <c r="AQ34" s="78"/>
-      <c r="AR34" s="78"/>
-      <c r="AS34" s="78"/>
-      <c r="AT34" s="79"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
+      <c r="R34" s="81"/>
+      <c r="S34" s="81"/>
+      <c r="T34" s="81"/>
+      <c r="U34" s="81"/>
+      <c r="V34" s="81"/>
+      <c r="W34" s="81"/>
+      <c r="X34" s="81"/>
+      <c r="Y34" s="81"/>
+      <c r="Z34" s="81"/>
+      <c r="AA34" s="81"/>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="81"/>
+      <c r="AD34" s="81"/>
+      <c r="AE34" s="81"/>
+      <c r="AF34" s="81"/>
+      <c r="AG34" s="81"/>
+      <c r="AH34" s="81"/>
+      <c r="AI34" s="81"/>
+      <c r="AJ34" s="81"/>
+      <c r="AK34" s="81"/>
+      <c r="AL34" s="81"/>
+      <c r="AM34" s="81"/>
+      <c r="AN34" s="81"/>
+      <c r="AO34" s="81"/>
+      <c r="AP34" s="81"/>
+      <c r="AQ34" s="81"/>
+      <c r="AR34" s="81"/>
+      <c r="AS34" s="81"/>
+      <c r="AT34" s="82"/>
       <c r="AX34" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="2:50" ht="13.5" customHeight="1">
@@ -14983,7 +15070,7 @@
       <c r="AS35" s="19"/>
       <c r="AT35" s="20"/>
       <c r="AX35" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="2:50" ht="13.5" customHeight="1">
@@ -15222,53 +15309,53 @@
       <c r="AT40" s="14"/>
     </row>
     <row r="41" spans="2:50" ht="13.5" customHeight="1">
-      <c r="B41" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="75"/>
-      <c r="S41" s="75"/>
-      <c r="T41" s="75"/>
-      <c r="U41" s="75"/>
-      <c r="V41" s="75"/>
-      <c r="W41" s="75"/>
-      <c r="X41" s="75"/>
-      <c r="Y41" s="75"/>
-      <c r="Z41" s="75"/>
-      <c r="AA41" s="75"/>
-      <c r="AB41" s="75"/>
-      <c r="AC41" s="75"/>
-      <c r="AD41" s="75"/>
-      <c r="AE41" s="75"/>
-      <c r="AF41" s="75"/>
-      <c r="AG41" s="75"/>
-      <c r="AH41" s="75"/>
-      <c r="AI41" s="75"/>
-      <c r="AJ41" s="75"/>
-      <c r="AK41" s="75"/>
-      <c r="AL41" s="75"/>
-      <c r="AM41" s="75"/>
-      <c r="AN41" s="75"/>
-      <c r="AO41" s="75"/>
-      <c r="AP41" s="75"/>
-      <c r="AQ41" s="75"/>
-      <c r="AR41" s="75"/>
-      <c r="AS41" s="75"/>
-      <c r="AT41" s="76"/>
+      <c r="B41" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="78"/>
+      <c r="S41" s="78"/>
+      <c r="T41" s="78"/>
+      <c r="U41" s="78"/>
+      <c r="V41" s="78"/>
+      <c r="W41" s="78"/>
+      <c r="X41" s="78"/>
+      <c r="Y41" s="78"/>
+      <c r="Z41" s="78"/>
+      <c r="AA41" s="78"/>
+      <c r="AB41" s="78"/>
+      <c r="AC41" s="78"/>
+      <c r="AD41" s="78"/>
+      <c r="AE41" s="78"/>
+      <c r="AF41" s="78"/>
+      <c r="AG41" s="78"/>
+      <c r="AH41" s="78"/>
+      <c r="AI41" s="78"/>
+      <c r="AJ41" s="78"/>
+      <c r="AK41" s="78"/>
+      <c r="AL41" s="78"/>
+      <c r="AM41" s="78"/>
+      <c r="AN41" s="78"/>
+      <c r="AO41" s="78"/>
+      <c r="AP41" s="78"/>
+      <c r="AQ41" s="78"/>
+      <c r="AR41" s="78"/>
+      <c r="AS41" s="78"/>
+      <c r="AT41" s="79"/>
     </row>
     <row r="42" spans="2:50" ht="13.5" customHeight="1">
       <c r="B42" s="12"/>
@@ -15834,16 +15921,16 @@
       <c r="AS55" s="10"/>
       <c r="AT55" s="11"/>
       <c r="AX55" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AY55" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="BC55" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="BG55" s="42" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="2:99" ht="13.5" customHeight="1">
@@ -15893,10 +15980,10 @@
       <c r="AS56" s="13"/>
       <c r="AT56" s="14"/>
       <c r="AX56" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AY56" s="42" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="2:99" ht="13.5" customHeight="1">
@@ -15947,282 +16034,282 @@
       <c r="AT57" s="14"/>
     </row>
     <row r="58" spans="2:99" ht="13.5" customHeight="1">
-      <c r="B58" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="78"/>
-      <c r="O58" s="78"/>
-      <c r="P58" s="78"/>
-      <c r="Q58" s="78"/>
-      <c r="R58" s="78"/>
-      <c r="S58" s="78"/>
-      <c r="T58" s="78"/>
-      <c r="U58" s="78"/>
-      <c r="V58" s="78"/>
-      <c r="W58" s="78"/>
-      <c r="X58" s="78"/>
-      <c r="Y58" s="78"/>
-      <c r="Z58" s="78"/>
-      <c r="AA58" s="78"/>
-      <c r="AB58" s="78"/>
-      <c r="AC58" s="78"/>
-      <c r="AD58" s="78"/>
-      <c r="AE58" s="78"/>
-      <c r="AF58" s="78"/>
-      <c r="AG58" s="78"/>
-      <c r="AH58" s="78"/>
-      <c r="AI58" s="78"/>
-      <c r="AJ58" s="78"/>
-      <c r="AK58" s="78"/>
-      <c r="AL58" s="78"/>
-      <c r="AM58" s="78"/>
-      <c r="AN58" s="78"/>
-      <c r="AO58" s="78"/>
-      <c r="AP58" s="78"/>
-      <c r="AQ58" s="78"/>
-      <c r="AR58" s="78"/>
-      <c r="AS58" s="78"/>
-      <c r="AT58" s="79"/>
-      <c r="BC58" s="80"/>
-      <c r="BD58" s="80"/>
-      <c r="BE58" s="80"/>
-      <c r="BF58" s="80"/>
-      <c r="BG58" s="80"/>
-      <c r="BH58" s="80"/>
-      <c r="BI58" s="80"/>
-      <c r="BJ58" s="80"/>
-      <c r="BK58" s="80"/>
-      <c r="BL58" s="80"/>
-      <c r="BM58" s="80"/>
-      <c r="BN58" s="80"/>
-      <c r="BO58" s="80"/>
-      <c r="BP58" s="80"/>
-      <c r="BQ58" s="80"/>
-      <c r="BR58" s="80"/>
-      <c r="BS58" s="80"/>
-      <c r="BT58" s="80"/>
-      <c r="BU58" s="80"/>
-      <c r="BV58" s="80"/>
-      <c r="BW58" s="80"/>
-      <c r="BX58" s="80"/>
-      <c r="BY58" s="80"/>
-      <c r="BZ58" s="80"/>
-      <c r="CA58" s="80"/>
-      <c r="CB58" s="80"/>
-      <c r="CC58" s="80"/>
-      <c r="CD58" s="80"/>
-      <c r="CE58" s="80"/>
-      <c r="CF58" s="80"/>
-      <c r="CG58" s="80"/>
-      <c r="CH58" s="80"/>
-      <c r="CI58" s="80"/>
-      <c r="CJ58" s="80"/>
-      <c r="CK58" s="80"/>
-      <c r="CL58" s="80"/>
-      <c r="CM58" s="80"/>
-      <c r="CN58" s="80"/>
-      <c r="CO58" s="80"/>
-      <c r="CP58" s="80"/>
-      <c r="CQ58" s="80"/>
-      <c r="CR58" s="80"/>
-      <c r="CS58" s="80"/>
-      <c r="CT58" s="80"/>
-      <c r="CU58" s="80"/>
+      <c r="B58" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="81"/>
+      <c r="L58" s="81"/>
+      <c r="M58" s="81"/>
+      <c r="N58" s="81"/>
+      <c r="O58" s="81"/>
+      <c r="P58" s="81"/>
+      <c r="Q58" s="81"/>
+      <c r="R58" s="81"/>
+      <c r="S58" s="81"/>
+      <c r="T58" s="81"/>
+      <c r="U58" s="81"/>
+      <c r="V58" s="81"/>
+      <c r="W58" s="81"/>
+      <c r="X58" s="81"/>
+      <c r="Y58" s="81"/>
+      <c r="Z58" s="81"/>
+      <c r="AA58" s="81"/>
+      <c r="AB58" s="81"/>
+      <c r="AC58" s="81"/>
+      <c r="AD58" s="81"/>
+      <c r="AE58" s="81"/>
+      <c r="AF58" s="81"/>
+      <c r="AG58" s="81"/>
+      <c r="AH58" s="81"/>
+      <c r="AI58" s="81"/>
+      <c r="AJ58" s="81"/>
+      <c r="AK58" s="81"/>
+      <c r="AL58" s="81"/>
+      <c r="AM58" s="81"/>
+      <c r="AN58" s="81"/>
+      <c r="AO58" s="81"/>
+      <c r="AP58" s="81"/>
+      <c r="AQ58" s="81"/>
+      <c r="AR58" s="81"/>
+      <c r="AS58" s="81"/>
+      <c r="AT58" s="82"/>
+      <c r="BC58" s="83"/>
+      <c r="BD58" s="83"/>
+      <c r="BE58" s="83"/>
+      <c r="BF58" s="83"/>
+      <c r="BG58" s="83"/>
+      <c r="BH58" s="83"/>
+      <c r="BI58" s="83"/>
+      <c r="BJ58" s="83"/>
+      <c r="BK58" s="83"/>
+      <c r="BL58" s="83"/>
+      <c r="BM58" s="83"/>
+      <c r="BN58" s="83"/>
+      <c r="BO58" s="83"/>
+      <c r="BP58" s="83"/>
+      <c r="BQ58" s="83"/>
+      <c r="BR58" s="83"/>
+      <c r="BS58" s="83"/>
+      <c r="BT58" s="83"/>
+      <c r="BU58" s="83"/>
+      <c r="BV58" s="83"/>
+      <c r="BW58" s="83"/>
+      <c r="BX58" s="83"/>
+      <c r="BY58" s="83"/>
+      <c r="BZ58" s="83"/>
+      <c r="CA58" s="83"/>
+      <c r="CB58" s="83"/>
+      <c r="CC58" s="83"/>
+      <c r="CD58" s="83"/>
+      <c r="CE58" s="83"/>
+      <c r="CF58" s="83"/>
+      <c r="CG58" s="83"/>
+      <c r="CH58" s="83"/>
+      <c r="CI58" s="83"/>
+      <c r="CJ58" s="83"/>
+      <c r="CK58" s="83"/>
+      <c r="CL58" s="83"/>
+      <c r="CM58" s="83"/>
+      <c r="CN58" s="83"/>
+      <c r="CO58" s="83"/>
+      <c r="CP58" s="83"/>
+      <c r="CQ58" s="83"/>
+      <c r="CR58" s="83"/>
+      <c r="CS58" s="83"/>
+      <c r="CT58" s="83"/>
+      <c r="CU58" s="83"/>
     </row>
     <row r="59" spans="2:99" ht="13.5" customHeight="1">
-      <c r="B59" s="77"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="78"/>
-      <c r="R59" s="78"/>
-      <c r="S59" s="78"/>
-      <c r="T59" s="78"/>
-      <c r="U59" s="78"/>
-      <c r="V59" s="78"/>
-      <c r="W59" s="78"/>
-      <c r="X59" s="78"/>
-      <c r="Y59" s="78"/>
-      <c r="Z59" s="78"/>
-      <c r="AA59" s="78"/>
-      <c r="AB59" s="78"/>
-      <c r="AC59" s="78"/>
-      <c r="AD59" s="78"/>
-      <c r="AE59" s="78"/>
-      <c r="AF59" s="78"/>
-      <c r="AG59" s="78"/>
-      <c r="AH59" s="78"/>
-      <c r="AI59" s="78"/>
-      <c r="AJ59" s="78"/>
-      <c r="AK59" s="78"/>
-      <c r="AL59" s="78"/>
-      <c r="AM59" s="78"/>
-      <c r="AN59" s="78"/>
-      <c r="AO59" s="78"/>
-      <c r="AP59" s="78"/>
-      <c r="AQ59" s="78"/>
-      <c r="AR59" s="78"/>
-      <c r="AS59" s="78"/>
-      <c r="AT59" s="79"/>
-      <c r="BC59" s="80"/>
-      <c r="BD59" s="80"/>
-      <c r="BE59" s="80"/>
-      <c r="BF59" s="80"/>
-      <c r="BG59" s="80"/>
-      <c r="BH59" s="80"/>
-      <c r="BI59" s="80"/>
-      <c r="BJ59" s="80"/>
-      <c r="BK59" s="80"/>
-      <c r="BL59" s="80"/>
-      <c r="BM59" s="80"/>
-      <c r="BN59" s="80"/>
-      <c r="BO59" s="80"/>
-      <c r="BP59" s="80"/>
-      <c r="BQ59" s="80"/>
-      <c r="BR59" s="80"/>
-      <c r="BS59" s="80"/>
-      <c r="BT59" s="80"/>
-      <c r="BU59" s="80"/>
-      <c r="BV59" s="80"/>
-      <c r="BW59" s="80"/>
-      <c r="BX59" s="80"/>
-      <c r="BY59" s="80"/>
-      <c r="BZ59" s="80"/>
-      <c r="CA59" s="80"/>
-      <c r="CB59" s="80"/>
-      <c r="CC59" s="80"/>
-      <c r="CD59" s="80"/>
-      <c r="CE59" s="80"/>
-      <c r="CF59" s="80"/>
-      <c r="CG59" s="80"/>
-      <c r="CH59" s="80"/>
-      <c r="CI59" s="80"/>
-      <c r="CJ59" s="80"/>
-      <c r="CK59" s="80"/>
-      <c r="CL59" s="80"/>
-      <c r="CM59" s="80"/>
-      <c r="CN59" s="80"/>
-      <c r="CO59" s="80"/>
-      <c r="CP59" s="80"/>
-      <c r="CQ59" s="80"/>
-      <c r="CR59" s="80"/>
-      <c r="CS59" s="80"/>
-      <c r="CT59" s="80"/>
-      <c r="CU59" s="80"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="81"/>
+      <c r="L59" s="81"/>
+      <c r="M59" s="81"/>
+      <c r="N59" s="81"/>
+      <c r="O59" s="81"/>
+      <c r="P59" s="81"/>
+      <c r="Q59" s="81"/>
+      <c r="R59" s="81"/>
+      <c r="S59" s="81"/>
+      <c r="T59" s="81"/>
+      <c r="U59" s="81"/>
+      <c r="V59" s="81"/>
+      <c r="W59" s="81"/>
+      <c r="X59" s="81"/>
+      <c r="Y59" s="81"/>
+      <c r="Z59" s="81"/>
+      <c r="AA59" s="81"/>
+      <c r="AB59" s="81"/>
+      <c r="AC59" s="81"/>
+      <c r="AD59" s="81"/>
+      <c r="AE59" s="81"/>
+      <c r="AF59" s="81"/>
+      <c r="AG59" s="81"/>
+      <c r="AH59" s="81"/>
+      <c r="AI59" s="81"/>
+      <c r="AJ59" s="81"/>
+      <c r="AK59" s="81"/>
+      <c r="AL59" s="81"/>
+      <c r="AM59" s="81"/>
+      <c r="AN59" s="81"/>
+      <c r="AO59" s="81"/>
+      <c r="AP59" s="81"/>
+      <c r="AQ59" s="81"/>
+      <c r="AR59" s="81"/>
+      <c r="AS59" s="81"/>
+      <c r="AT59" s="82"/>
+      <c r="BC59" s="83"/>
+      <c r="BD59" s="83"/>
+      <c r="BE59" s="83"/>
+      <c r="BF59" s="83"/>
+      <c r="BG59" s="83"/>
+      <c r="BH59" s="83"/>
+      <c r="BI59" s="83"/>
+      <c r="BJ59" s="83"/>
+      <c r="BK59" s="83"/>
+      <c r="BL59" s="83"/>
+      <c r="BM59" s="83"/>
+      <c r="BN59" s="83"/>
+      <c r="BO59" s="83"/>
+      <c r="BP59" s="83"/>
+      <c r="BQ59" s="83"/>
+      <c r="BR59" s="83"/>
+      <c r="BS59" s="83"/>
+      <c r="BT59" s="83"/>
+      <c r="BU59" s="83"/>
+      <c r="BV59" s="83"/>
+      <c r="BW59" s="83"/>
+      <c r="BX59" s="83"/>
+      <c r="BY59" s="83"/>
+      <c r="BZ59" s="83"/>
+      <c r="CA59" s="83"/>
+      <c r="CB59" s="83"/>
+      <c r="CC59" s="83"/>
+      <c r="CD59" s="83"/>
+      <c r="CE59" s="83"/>
+      <c r="CF59" s="83"/>
+      <c r="CG59" s="83"/>
+      <c r="CH59" s="83"/>
+      <c r="CI59" s="83"/>
+      <c r="CJ59" s="83"/>
+      <c r="CK59" s="83"/>
+      <c r="CL59" s="83"/>
+      <c r="CM59" s="83"/>
+      <c r="CN59" s="83"/>
+      <c r="CO59" s="83"/>
+      <c r="CP59" s="83"/>
+      <c r="CQ59" s="83"/>
+      <c r="CR59" s="83"/>
+      <c r="CS59" s="83"/>
+      <c r="CT59" s="83"/>
+      <c r="CU59" s="83"/>
     </row>
     <row r="60" spans="2:99" ht="13.5" customHeight="1">
-      <c r="B60" s="77"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="78"/>
-      <c r="P60" s="78"/>
-      <c r="Q60" s="78"/>
-      <c r="R60" s="78"/>
-      <c r="S60" s="78"/>
-      <c r="T60" s="78"/>
-      <c r="U60" s="78"/>
-      <c r="V60" s="78"/>
-      <c r="W60" s="78"/>
-      <c r="X60" s="78"/>
-      <c r="Y60" s="78"/>
-      <c r="Z60" s="78"/>
-      <c r="AA60" s="78"/>
-      <c r="AB60" s="78"/>
-      <c r="AC60" s="78"/>
-      <c r="AD60" s="78"/>
-      <c r="AE60" s="78"/>
-      <c r="AF60" s="78"/>
-      <c r="AG60" s="78"/>
-      <c r="AH60" s="78"/>
-      <c r="AI60" s="78"/>
-      <c r="AJ60" s="78"/>
-      <c r="AK60" s="78"/>
-      <c r="AL60" s="78"/>
-      <c r="AM60" s="78"/>
-      <c r="AN60" s="78"/>
-      <c r="AO60" s="78"/>
-      <c r="AP60" s="78"/>
-      <c r="AQ60" s="78"/>
-      <c r="AR60" s="78"/>
-      <c r="AS60" s="78"/>
-      <c r="AT60" s="79"/>
-      <c r="BC60" s="80"/>
-      <c r="BD60" s="80"/>
-      <c r="BE60" s="80"/>
-      <c r="BF60" s="80"/>
-      <c r="BG60" s="80"/>
-      <c r="BH60" s="80"/>
-      <c r="BI60" s="80"/>
-      <c r="BJ60" s="80"/>
-      <c r="BK60" s="80"/>
-      <c r="BL60" s="80"/>
-      <c r="BM60" s="80"/>
-      <c r="BN60" s="80"/>
-      <c r="BO60" s="80"/>
-      <c r="BP60" s="80"/>
-      <c r="BQ60" s="80"/>
-      <c r="BR60" s="80"/>
-      <c r="BS60" s="80"/>
-      <c r="BT60" s="80"/>
-      <c r="BU60" s="80"/>
-      <c r="BV60" s="80"/>
-      <c r="BW60" s="80"/>
-      <c r="BX60" s="80"/>
-      <c r="BY60" s="80"/>
-      <c r="BZ60" s="80"/>
-      <c r="CA60" s="80"/>
-      <c r="CB60" s="80"/>
-      <c r="CC60" s="80"/>
-      <c r="CD60" s="80"/>
-      <c r="CE60" s="80"/>
-      <c r="CF60" s="80"/>
-      <c r="CG60" s="80"/>
-      <c r="CH60" s="80"/>
-      <c r="CI60" s="80"/>
-      <c r="CJ60" s="80"/>
-      <c r="CK60" s="80"/>
-      <c r="CL60" s="80"/>
-      <c r="CM60" s="80"/>
-      <c r="CN60" s="80"/>
-      <c r="CO60" s="80"/>
-      <c r="CP60" s="80"/>
-      <c r="CQ60" s="80"/>
-      <c r="CR60" s="80"/>
-      <c r="CS60" s="80"/>
-      <c r="CT60" s="80"/>
-      <c r="CU60" s="80"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="81"/>
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
+      <c r="R60" s="81"/>
+      <c r="S60" s="81"/>
+      <c r="T60" s="81"/>
+      <c r="U60" s="81"/>
+      <c r="V60" s="81"/>
+      <c r="W60" s="81"/>
+      <c r="X60" s="81"/>
+      <c r="Y60" s="81"/>
+      <c r="Z60" s="81"/>
+      <c r="AA60" s="81"/>
+      <c r="AB60" s="81"/>
+      <c r="AC60" s="81"/>
+      <c r="AD60" s="81"/>
+      <c r="AE60" s="81"/>
+      <c r="AF60" s="81"/>
+      <c r="AG60" s="81"/>
+      <c r="AH60" s="81"/>
+      <c r="AI60" s="81"/>
+      <c r="AJ60" s="81"/>
+      <c r="AK60" s="81"/>
+      <c r="AL60" s="81"/>
+      <c r="AM60" s="81"/>
+      <c r="AN60" s="81"/>
+      <c r="AO60" s="81"/>
+      <c r="AP60" s="81"/>
+      <c r="AQ60" s="81"/>
+      <c r="AR60" s="81"/>
+      <c r="AS60" s="81"/>
+      <c r="AT60" s="82"/>
+      <c r="BC60" s="83"/>
+      <c r="BD60" s="83"/>
+      <c r="BE60" s="83"/>
+      <c r="BF60" s="83"/>
+      <c r="BG60" s="83"/>
+      <c r="BH60" s="83"/>
+      <c r="BI60" s="83"/>
+      <c r="BJ60" s="83"/>
+      <c r="BK60" s="83"/>
+      <c r="BL60" s="83"/>
+      <c r="BM60" s="83"/>
+      <c r="BN60" s="83"/>
+      <c r="BO60" s="83"/>
+      <c r="BP60" s="83"/>
+      <c r="BQ60" s="83"/>
+      <c r="BR60" s="83"/>
+      <c r="BS60" s="83"/>
+      <c r="BT60" s="83"/>
+      <c r="BU60" s="83"/>
+      <c r="BV60" s="83"/>
+      <c r="BW60" s="83"/>
+      <c r="BX60" s="83"/>
+      <c r="BY60" s="83"/>
+      <c r="BZ60" s="83"/>
+      <c r="CA60" s="83"/>
+      <c r="CB60" s="83"/>
+      <c r="CC60" s="83"/>
+      <c r="CD60" s="83"/>
+      <c r="CE60" s="83"/>
+      <c r="CF60" s="83"/>
+      <c r="CG60" s="83"/>
+      <c r="CH60" s="83"/>
+      <c r="CI60" s="83"/>
+      <c r="CJ60" s="83"/>
+      <c r="CK60" s="83"/>
+      <c r="CL60" s="83"/>
+      <c r="CM60" s="83"/>
+      <c r="CN60" s="83"/>
+      <c r="CO60" s="83"/>
+      <c r="CP60" s="83"/>
+      <c r="CQ60" s="83"/>
+      <c r="CR60" s="83"/>
+      <c r="CS60" s="83"/>
+      <c r="CT60" s="83"/>
+      <c r="CU60" s="83"/>
     </row>
     <row r="61" spans="2:99" ht="13.5" customHeight="1">
       <c r="B61" s="12"/>
@@ -16507,98 +16594,98 @@
       <c r="AT66" s="14"/>
     </row>
     <row r="67" spans="2:99" ht="13.5" customHeight="1">
-      <c r="B67" s="74" t="s">
-        <v>124</v>
-      </c>
-      <c r="C67" s="75"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="75"/>
-      <c r="I67" s="75"/>
-      <c r="J67" s="75"/>
-      <c r="K67" s="75"/>
-      <c r="L67" s="75"/>
-      <c r="M67" s="75"/>
-      <c r="N67" s="75"/>
-      <c r="O67" s="75"/>
-      <c r="P67" s="75"/>
-      <c r="Q67" s="75"/>
-      <c r="R67" s="75"/>
-      <c r="S67" s="75"/>
-      <c r="T67" s="75"/>
-      <c r="U67" s="75"/>
-      <c r="V67" s="75"/>
-      <c r="W67" s="75"/>
-      <c r="X67" s="75"/>
-      <c r="Y67" s="75"/>
-      <c r="Z67" s="75"/>
-      <c r="AA67" s="75"/>
-      <c r="AB67" s="75"/>
-      <c r="AC67" s="75"/>
-      <c r="AD67" s="75"/>
-      <c r="AE67" s="75"/>
-      <c r="AF67" s="75"/>
-      <c r="AG67" s="75"/>
-      <c r="AH67" s="75"/>
-      <c r="AI67" s="75"/>
-      <c r="AJ67" s="75"/>
-      <c r="AK67" s="75"/>
-      <c r="AL67" s="75"/>
-      <c r="AM67" s="75"/>
-      <c r="AN67" s="75"/>
-      <c r="AO67" s="75"/>
-      <c r="AP67" s="75"/>
-      <c r="AQ67" s="75"/>
-      <c r="AR67" s="75"/>
-      <c r="AS67" s="75"/>
-      <c r="AT67" s="76"/>
-      <c r="BC67" s="81"/>
-      <c r="BD67" s="81"/>
-      <c r="BE67" s="81"/>
-      <c r="BF67" s="81"/>
-      <c r="BG67" s="81"/>
-      <c r="BH67" s="81"/>
-      <c r="BI67" s="81"/>
-      <c r="BJ67" s="81"/>
-      <c r="BK67" s="81"/>
-      <c r="BL67" s="81"/>
-      <c r="BM67" s="81"/>
-      <c r="BN67" s="81"/>
-      <c r="BO67" s="81"/>
-      <c r="BP67" s="81"/>
-      <c r="BQ67" s="81"/>
-      <c r="BR67" s="81"/>
-      <c r="BS67" s="81"/>
-      <c r="BT67" s="81"/>
-      <c r="BU67" s="81"/>
-      <c r="BV67" s="81"/>
-      <c r="BW67" s="81"/>
-      <c r="BX67" s="81"/>
-      <c r="BY67" s="81"/>
-      <c r="BZ67" s="81"/>
-      <c r="CA67" s="81"/>
-      <c r="CB67" s="81"/>
-      <c r="CC67" s="81"/>
-      <c r="CD67" s="81"/>
-      <c r="CE67" s="81"/>
-      <c r="CF67" s="81"/>
-      <c r="CG67" s="81"/>
-      <c r="CH67" s="81"/>
-      <c r="CI67" s="81"/>
-      <c r="CJ67" s="81"/>
-      <c r="CK67" s="81"/>
-      <c r="CL67" s="81"/>
-      <c r="CM67" s="81"/>
-      <c r="CN67" s="81"/>
-      <c r="CO67" s="81"/>
-      <c r="CP67" s="81"/>
-      <c r="CQ67" s="81"/>
-      <c r="CR67" s="81"/>
-      <c r="CS67" s="81"/>
-      <c r="CT67" s="81"/>
-      <c r="CU67" s="81"/>
+      <c r="B67" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="78"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="78"/>
+      <c r="L67" s="78"/>
+      <c r="M67" s="78"/>
+      <c r="N67" s="78"/>
+      <c r="O67" s="78"/>
+      <c r="P67" s="78"/>
+      <c r="Q67" s="78"/>
+      <c r="R67" s="78"/>
+      <c r="S67" s="78"/>
+      <c r="T67" s="78"/>
+      <c r="U67" s="78"/>
+      <c r="V67" s="78"/>
+      <c r="W67" s="78"/>
+      <c r="X67" s="78"/>
+      <c r="Y67" s="78"/>
+      <c r="Z67" s="78"/>
+      <c r="AA67" s="78"/>
+      <c r="AB67" s="78"/>
+      <c r="AC67" s="78"/>
+      <c r="AD67" s="78"/>
+      <c r="AE67" s="78"/>
+      <c r="AF67" s="78"/>
+      <c r="AG67" s="78"/>
+      <c r="AH67" s="78"/>
+      <c r="AI67" s="78"/>
+      <c r="AJ67" s="78"/>
+      <c r="AK67" s="78"/>
+      <c r="AL67" s="78"/>
+      <c r="AM67" s="78"/>
+      <c r="AN67" s="78"/>
+      <c r="AO67" s="78"/>
+      <c r="AP67" s="78"/>
+      <c r="AQ67" s="78"/>
+      <c r="AR67" s="78"/>
+      <c r="AS67" s="78"/>
+      <c r="AT67" s="79"/>
+      <c r="BC67" s="84"/>
+      <c r="BD67" s="84"/>
+      <c r="BE67" s="84"/>
+      <c r="BF67" s="84"/>
+      <c r="BG67" s="84"/>
+      <c r="BH67" s="84"/>
+      <c r="BI67" s="84"/>
+      <c r="BJ67" s="84"/>
+      <c r="BK67" s="84"/>
+      <c r="BL67" s="84"/>
+      <c r="BM67" s="84"/>
+      <c r="BN67" s="84"/>
+      <c r="BO67" s="84"/>
+      <c r="BP67" s="84"/>
+      <c r="BQ67" s="84"/>
+      <c r="BR67" s="84"/>
+      <c r="BS67" s="84"/>
+      <c r="BT67" s="84"/>
+      <c r="BU67" s="84"/>
+      <c r="BV67" s="84"/>
+      <c r="BW67" s="84"/>
+      <c r="BX67" s="84"/>
+      <c r="BY67" s="84"/>
+      <c r="BZ67" s="84"/>
+      <c r="CA67" s="84"/>
+      <c r="CB67" s="84"/>
+      <c r="CC67" s="84"/>
+      <c r="CD67" s="84"/>
+      <c r="CE67" s="84"/>
+      <c r="CF67" s="84"/>
+      <c r="CG67" s="84"/>
+      <c r="CH67" s="84"/>
+      <c r="CI67" s="84"/>
+      <c r="CJ67" s="84"/>
+      <c r="CK67" s="84"/>
+      <c r="CL67" s="84"/>
+      <c r="CM67" s="84"/>
+      <c r="CN67" s="84"/>
+      <c r="CO67" s="84"/>
+      <c r="CP67" s="84"/>
+      <c r="CQ67" s="84"/>
+      <c r="CR67" s="84"/>
+      <c r="CS67" s="84"/>
+      <c r="CT67" s="84"/>
+      <c r="CU67" s="84"/>
     </row>
     <row r="68" spans="2:99" ht="13.5" customHeight="1">
       <c r="B68" s="12"/>
@@ -17119,7 +17206,7 @@
     </row>
     <row r="86" spans="1:91" ht="13.5" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AU86" s="1"/>
       <c r="AV86" s="1"/>
@@ -17280,155 +17367,155 @@
       <c r="CM89" s="2"/>
     </row>
     <row r="90" spans="1:91" ht="13.5" customHeight="1">
-      <c r="B90" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="C90" s="78"/>
-      <c r="D90" s="78"/>
-      <c r="E90" s="78"/>
-      <c r="F90" s="78"/>
-      <c r="G90" s="78"/>
-      <c r="H90" s="78"/>
-      <c r="I90" s="78"/>
-      <c r="J90" s="78"/>
-      <c r="K90" s="78"/>
-      <c r="L90" s="78"/>
-      <c r="M90" s="78"/>
-      <c r="N90" s="78"/>
-      <c r="O90" s="78"/>
-      <c r="P90" s="78"/>
-      <c r="Q90" s="78"/>
-      <c r="R90" s="78"/>
-      <c r="S90" s="78"/>
-      <c r="T90" s="78"/>
-      <c r="U90" s="78"/>
-      <c r="V90" s="78"/>
-      <c r="W90" s="78"/>
-      <c r="X90" s="78"/>
-      <c r="Y90" s="78"/>
-      <c r="Z90" s="78"/>
-      <c r="AA90" s="78"/>
-      <c r="AB90" s="78"/>
-      <c r="AC90" s="78"/>
-      <c r="AD90" s="78"/>
-      <c r="AE90" s="78"/>
-      <c r="AF90" s="78"/>
-      <c r="AG90" s="78"/>
-      <c r="AH90" s="78"/>
-      <c r="AI90" s="78"/>
-      <c r="AJ90" s="78"/>
-      <c r="AK90" s="78"/>
-      <c r="AL90" s="78"/>
-      <c r="AM90" s="78"/>
-      <c r="AN90" s="78"/>
-      <c r="AO90" s="78"/>
-      <c r="AP90" s="78"/>
-      <c r="AQ90" s="78"/>
-      <c r="AR90" s="78"/>
-      <c r="AS90" s="78"/>
-      <c r="AT90" s="79"/>
+      <c r="B90" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C90" s="81"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="81"/>
+      <c r="F90" s="81"/>
+      <c r="G90" s="81"/>
+      <c r="H90" s="81"/>
+      <c r="I90" s="81"/>
+      <c r="J90" s="81"/>
+      <c r="K90" s="81"/>
+      <c r="L90" s="81"/>
+      <c r="M90" s="81"/>
+      <c r="N90" s="81"/>
+      <c r="O90" s="81"/>
+      <c r="P90" s="81"/>
+      <c r="Q90" s="81"/>
+      <c r="R90" s="81"/>
+      <c r="S90" s="81"/>
+      <c r="T90" s="81"/>
+      <c r="U90" s="81"/>
+      <c r="V90" s="81"/>
+      <c r="W90" s="81"/>
+      <c r="X90" s="81"/>
+      <c r="Y90" s="81"/>
+      <c r="Z90" s="81"/>
+      <c r="AA90" s="81"/>
+      <c r="AB90" s="81"/>
+      <c r="AC90" s="81"/>
+      <c r="AD90" s="81"/>
+      <c r="AE90" s="81"/>
+      <c r="AF90" s="81"/>
+      <c r="AG90" s="81"/>
+      <c r="AH90" s="81"/>
+      <c r="AI90" s="81"/>
+      <c r="AJ90" s="81"/>
+      <c r="AK90" s="81"/>
+      <c r="AL90" s="81"/>
+      <c r="AM90" s="81"/>
+      <c r="AN90" s="81"/>
+      <c r="AO90" s="81"/>
+      <c r="AP90" s="81"/>
+      <c r="AQ90" s="81"/>
+      <c r="AR90" s="81"/>
+      <c r="AS90" s="81"/>
+      <c r="AT90" s="82"/>
       <c r="AU90" s="1"/>
       <c r="AV90" s="1"/>
       <c r="AW90" s="1"/>
       <c r="CM90" s="2"/>
     </row>
     <row r="91" spans="1:91" ht="13.5" customHeight="1">
-      <c r="B91" s="77"/>
-      <c r="C91" s="78"/>
-      <c r="D91" s="78"/>
-      <c r="E91" s="78"/>
-      <c r="F91" s="78"/>
-      <c r="G91" s="78"/>
-      <c r="H91" s="78"/>
-      <c r="I91" s="78"/>
-      <c r="J91" s="78"/>
-      <c r="K91" s="78"/>
-      <c r="L91" s="78"/>
-      <c r="M91" s="78"/>
-      <c r="N91" s="78"/>
-      <c r="O91" s="78"/>
-      <c r="P91" s="78"/>
-      <c r="Q91" s="78"/>
-      <c r="R91" s="78"/>
-      <c r="S91" s="78"/>
-      <c r="T91" s="78"/>
-      <c r="U91" s="78"/>
-      <c r="V91" s="78"/>
-      <c r="W91" s="78"/>
-      <c r="X91" s="78"/>
-      <c r="Y91" s="78"/>
-      <c r="Z91" s="78"/>
-      <c r="AA91" s="78"/>
-      <c r="AB91" s="78"/>
-      <c r="AC91" s="78"/>
-      <c r="AD91" s="78"/>
-      <c r="AE91" s="78"/>
-      <c r="AF91" s="78"/>
-      <c r="AG91" s="78"/>
-      <c r="AH91" s="78"/>
-      <c r="AI91" s="78"/>
-      <c r="AJ91" s="78"/>
-      <c r="AK91" s="78"/>
-      <c r="AL91" s="78"/>
-      <c r="AM91" s="78"/>
-      <c r="AN91" s="78"/>
-      <c r="AO91" s="78"/>
-      <c r="AP91" s="78"/>
-      <c r="AQ91" s="78"/>
-      <c r="AR91" s="78"/>
-      <c r="AS91" s="78"/>
-      <c r="AT91" s="79"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="81"/>
+      <c r="D91" s="81"/>
+      <c r="E91" s="81"/>
+      <c r="F91" s="81"/>
+      <c r="G91" s="81"/>
+      <c r="H91" s="81"/>
+      <c r="I91" s="81"/>
+      <c r="J91" s="81"/>
+      <c r="K91" s="81"/>
+      <c r="L91" s="81"/>
+      <c r="M91" s="81"/>
+      <c r="N91" s="81"/>
+      <c r="O91" s="81"/>
+      <c r="P91" s="81"/>
+      <c r="Q91" s="81"/>
+      <c r="R91" s="81"/>
+      <c r="S91" s="81"/>
+      <c r="T91" s="81"/>
+      <c r="U91" s="81"/>
+      <c r="V91" s="81"/>
+      <c r="W91" s="81"/>
+      <c r="X91" s="81"/>
+      <c r="Y91" s="81"/>
+      <c r="Z91" s="81"/>
+      <c r="AA91" s="81"/>
+      <c r="AB91" s="81"/>
+      <c r="AC91" s="81"/>
+      <c r="AD91" s="81"/>
+      <c r="AE91" s="81"/>
+      <c r="AF91" s="81"/>
+      <c r="AG91" s="81"/>
+      <c r="AH91" s="81"/>
+      <c r="AI91" s="81"/>
+      <c r="AJ91" s="81"/>
+      <c r="AK91" s="81"/>
+      <c r="AL91" s="81"/>
+      <c r="AM91" s="81"/>
+      <c r="AN91" s="81"/>
+      <c r="AO91" s="81"/>
+      <c r="AP91" s="81"/>
+      <c r="AQ91" s="81"/>
+      <c r="AR91" s="81"/>
+      <c r="AS91" s="81"/>
+      <c r="AT91" s="82"/>
       <c r="AU91" s="1"/>
       <c r="AV91" s="1"/>
       <c r="AW91" s="1"/>
       <c r="CM91" s="2"/>
     </row>
     <row r="92" spans="1:91" ht="13.5" customHeight="1">
-      <c r="B92" s="77"/>
-      <c r="C92" s="78"/>
-      <c r="D92" s="78"/>
-      <c r="E92" s="78"/>
-      <c r="F92" s="78"/>
-      <c r="G92" s="78"/>
-      <c r="H92" s="78"/>
-      <c r="I92" s="78"/>
-      <c r="J92" s="78"/>
-      <c r="K92" s="78"/>
-      <c r="L92" s="78"/>
-      <c r="M92" s="78"/>
-      <c r="N92" s="78"/>
-      <c r="O92" s="78"/>
-      <c r="P92" s="78"/>
-      <c r="Q92" s="78"/>
-      <c r="R92" s="78"/>
-      <c r="S92" s="78"/>
-      <c r="T92" s="78"/>
-      <c r="U92" s="78"/>
-      <c r="V92" s="78"/>
-      <c r="W92" s="78"/>
-      <c r="X92" s="78"/>
-      <c r="Y92" s="78"/>
-      <c r="Z92" s="78"/>
-      <c r="AA92" s="78"/>
-      <c r="AB92" s="78"/>
-      <c r="AC92" s="78"/>
-      <c r="AD92" s="78"/>
-      <c r="AE92" s="78"/>
-      <c r="AF92" s="78"/>
-      <c r="AG92" s="78"/>
-      <c r="AH92" s="78"/>
-      <c r="AI92" s="78"/>
-      <c r="AJ92" s="78"/>
-      <c r="AK92" s="78"/>
-      <c r="AL92" s="78"/>
-      <c r="AM92" s="78"/>
-      <c r="AN92" s="78"/>
-      <c r="AO92" s="78"/>
-      <c r="AP92" s="78"/>
-      <c r="AQ92" s="78"/>
-      <c r="AR92" s="78"/>
-      <c r="AS92" s="78"/>
-      <c r="AT92" s="79"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="81"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="81"/>
+      <c r="F92" s="81"/>
+      <c r="G92" s="81"/>
+      <c r="H92" s="81"/>
+      <c r="I92" s="81"/>
+      <c r="J92" s="81"/>
+      <c r="K92" s="81"/>
+      <c r="L92" s="81"/>
+      <c r="M92" s="81"/>
+      <c r="N92" s="81"/>
+      <c r="O92" s="81"/>
+      <c r="P92" s="81"/>
+      <c r="Q92" s="81"/>
+      <c r="R92" s="81"/>
+      <c r="S92" s="81"/>
+      <c r="T92" s="81"/>
+      <c r="U92" s="81"/>
+      <c r="V92" s="81"/>
+      <c r="W92" s="81"/>
+      <c r="X92" s="81"/>
+      <c r="Y92" s="81"/>
+      <c r="Z92" s="81"/>
+      <c r="AA92" s="81"/>
+      <c r="AB92" s="81"/>
+      <c r="AC92" s="81"/>
+      <c r="AD92" s="81"/>
+      <c r="AE92" s="81"/>
+      <c r="AF92" s="81"/>
+      <c r="AG92" s="81"/>
+      <c r="AH92" s="81"/>
+      <c r="AI92" s="81"/>
+      <c r="AJ92" s="81"/>
+      <c r="AK92" s="81"/>
+      <c r="AL92" s="81"/>
+      <c r="AM92" s="81"/>
+      <c r="AN92" s="81"/>
+      <c r="AO92" s="81"/>
+      <c r="AP92" s="81"/>
+      <c r="AQ92" s="81"/>
+      <c r="AR92" s="81"/>
+      <c r="AS92" s="81"/>
+      <c r="AT92" s="82"/>
       <c r="AU92" s="1"/>
       <c r="AV92" s="1"/>
       <c r="AW92" s="1"/>
@@ -17588,53 +17675,53 @@
       <c r="CM95" s="2"/>
     </row>
     <row r="96" spans="1:91" ht="13.5" customHeight="1">
-      <c r="B96" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="C96" s="75"/>
-      <c r="D96" s="75"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="75"/>
-      <c r="G96" s="75"/>
-      <c r="H96" s="75"/>
-      <c r="I96" s="75"/>
-      <c r="J96" s="75"/>
-      <c r="K96" s="75"/>
-      <c r="L96" s="75"/>
-      <c r="M96" s="75"/>
-      <c r="N96" s="75"/>
-      <c r="O96" s="75"/>
-      <c r="P96" s="75"/>
-      <c r="Q96" s="75"/>
-      <c r="R96" s="75"/>
-      <c r="S96" s="75"/>
-      <c r="T96" s="75"/>
-      <c r="U96" s="75"/>
-      <c r="V96" s="75"/>
-      <c r="W96" s="75"/>
-      <c r="X96" s="75"/>
-      <c r="Y96" s="75"/>
-      <c r="Z96" s="75"/>
-      <c r="AA96" s="75"/>
-      <c r="AB96" s="75"/>
-      <c r="AC96" s="75"/>
-      <c r="AD96" s="75"/>
-      <c r="AE96" s="75"/>
-      <c r="AF96" s="75"/>
-      <c r="AG96" s="75"/>
-      <c r="AH96" s="75"/>
-      <c r="AI96" s="75"/>
-      <c r="AJ96" s="75"/>
-      <c r="AK96" s="75"/>
-      <c r="AL96" s="75"/>
-      <c r="AM96" s="75"/>
-      <c r="AN96" s="75"/>
-      <c r="AO96" s="75"/>
-      <c r="AP96" s="75"/>
-      <c r="AQ96" s="75"/>
-      <c r="AR96" s="75"/>
-      <c r="AS96" s="75"/>
-      <c r="AT96" s="76"/>
+      <c r="B96" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="78"/>
+      <c r="D96" s="78"/>
+      <c r="E96" s="78"/>
+      <c r="F96" s="78"/>
+      <c r="G96" s="78"/>
+      <c r="H96" s="78"/>
+      <c r="I96" s="78"/>
+      <c r="J96" s="78"/>
+      <c r="K96" s="78"/>
+      <c r="L96" s="78"/>
+      <c r="M96" s="78"/>
+      <c r="N96" s="78"/>
+      <c r="O96" s="78"/>
+      <c r="P96" s="78"/>
+      <c r="Q96" s="78"/>
+      <c r="R96" s="78"/>
+      <c r="S96" s="78"/>
+      <c r="T96" s="78"/>
+      <c r="U96" s="78"/>
+      <c r="V96" s="78"/>
+      <c r="W96" s="78"/>
+      <c r="X96" s="78"/>
+      <c r="Y96" s="78"/>
+      <c r="Z96" s="78"/>
+      <c r="AA96" s="78"/>
+      <c r="AB96" s="78"/>
+      <c r="AC96" s="78"/>
+      <c r="AD96" s="78"/>
+      <c r="AE96" s="78"/>
+      <c r="AF96" s="78"/>
+      <c r="AG96" s="78"/>
+      <c r="AH96" s="78"/>
+      <c r="AI96" s="78"/>
+      <c r="AJ96" s="78"/>
+      <c r="AK96" s="78"/>
+      <c r="AL96" s="78"/>
+      <c r="AM96" s="78"/>
+      <c r="AN96" s="78"/>
+      <c r="AO96" s="78"/>
+      <c r="AP96" s="78"/>
+      <c r="AQ96" s="78"/>
+      <c r="AR96" s="78"/>
+      <c r="AS96" s="78"/>
+      <c r="AT96" s="79"/>
       <c r="AU96" s="1"/>
       <c r="AV96" s="1"/>
       <c r="AW96" s="1"/>
@@ -18652,293 +18739,293 @@
       <c r="CP115" s="14"/>
     </row>
     <row r="116" spans="2:94" ht="13.5" customHeight="1">
-      <c r="B116" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="C116" s="78"/>
-      <c r="D116" s="78"/>
-      <c r="E116" s="78"/>
-      <c r="F116" s="78"/>
-      <c r="G116" s="78"/>
-      <c r="H116" s="78"/>
-      <c r="I116" s="78"/>
-      <c r="J116" s="78"/>
-      <c r="K116" s="78"/>
-      <c r="L116" s="78"/>
-      <c r="M116" s="78"/>
-      <c r="N116" s="78"/>
-      <c r="O116" s="78"/>
-      <c r="P116" s="78"/>
-      <c r="Q116" s="78"/>
-      <c r="R116" s="78"/>
-      <c r="S116" s="78"/>
-      <c r="T116" s="78"/>
-      <c r="U116" s="78"/>
-      <c r="V116" s="78"/>
-      <c r="W116" s="78"/>
-      <c r="X116" s="78"/>
-      <c r="Y116" s="78"/>
-      <c r="Z116" s="78"/>
-      <c r="AA116" s="78"/>
-      <c r="AB116" s="78"/>
-      <c r="AC116" s="78"/>
-      <c r="AD116" s="78"/>
-      <c r="AE116" s="78"/>
-      <c r="AF116" s="78"/>
-      <c r="AG116" s="78"/>
-      <c r="AH116" s="78"/>
-      <c r="AI116" s="78"/>
-      <c r="AJ116" s="78"/>
-      <c r="AK116" s="78"/>
-      <c r="AL116" s="78"/>
-      <c r="AM116" s="78"/>
-      <c r="AN116" s="78"/>
-      <c r="AO116" s="78"/>
-      <c r="AP116" s="78"/>
-      <c r="AQ116" s="78"/>
-      <c r="AR116" s="78"/>
-      <c r="AS116" s="78"/>
-      <c r="AT116" s="79"/>
+      <c r="B116" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" s="81"/>
+      <c r="D116" s="81"/>
+      <c r="E116" s="81"/>
+      <c r="F116" s="81"/>
+      <c r="G116" s="81"/>
+      <c r="H116" s="81"/>
+      <c r="I116" s="81"/>
+      <c r="J116" s="81"/>
+      <c r="K116" s="81"/>
+      <c r="L116" s="81"/>
+      <c r="M116" s="81"/>
+      <c r="N116" s="81"/>
+      <c r="O116" s="81"/>
+      <c r="P116" s="81"/>
+      <c r="Q116" s="81"/>
+      <c r="R116" s="81"/>
+      <c r="S116" s="81"/>
+      <c r="T116" s="81"/>
+      <c r="U116" s="81"/>
+      <c r="V116" s="81"/>
+      <c r="W116" s="81"/>
+      <c r="X116" s="81"/>
+      <c r="Y116" s="81"/>
+      <c r="Z116" s="81"/>
+      <c r="AA116" s="81"/>
+      <c r="AB116" s="81"/>
+      <c r="AC116" s="81"/>
+      <c r="AD116" s="81"/>
+      <c r="AE116" s="81"/>
+      <c r="AF116" s="81"/>
+      <c r="AG116" s="81"/>
+      <c r="AH116" s="81"/>
+      <c r="AI116" s="81"/>
+      <c r="AJ116" s="81"/>
+      <c r="AK116" s="81"/>
+      <c r="AL116" s="81"/>
+      <c r="AM116" s="81"/>
+      <c r="AN116" s="81"/>
+      <c r="AO116" s="81"/>
+      <c r="AP116" s="81"/>
+      <c r="AQ116" s="81"/>
+      <c r="AR116" s="81"/>
+      <c r="AS116" s="81"/>
+      <c r="AT116" s="82"/>
       <c r="AU116" s="1"/>
       <c r="AV116" s="1"/>
       <c r="AW116" s="1"/>
-      <c r="AX116" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY116" s="78"/>
-      <c r="AZ116" s="78"/>
-      <c r="BA116" s="78"/>
-      <c r="BB116" s="78"/>
-      <c r="BC116" s="78"/>
-      <c r="BD116" s="78"/>
-      <c r="BE116" s="78"/>
-      <c r="BF116" s="78"/>
-      <c r="BG116" s="78"/>
-      <c r="BH116" s="78"/>
-      <c r="BI116" s="78"/>
-      <c r="BJ116" s="78"/>
-      <c r="BK116" s="78"/>
-      <c r="BL116" s="78"/>
-      <c r="BM116" s="78"/>
-      <c r="BN116" s="78"/>
-      <c r="BO116" s="78"/>
-      <c r="BP116" s="78"/>
-      <c r="BQ116" s="78"/>
-      <c r="BR116" s="78"/>
-      <c r="BS116" s="78"/>
-      <c r="BT116" s="78"/>
-      <c r="BU116" s="78"/>
-      <c r="BV116" s="78"/>
-      <c r="BW116" s="78"/>
-      <c r="BX116" s="78"/>
-      <c r="BY116" s="78"/>
-      <c r="BZ116" s="78"/>
-      <c r="CA116" s="78"/>
-      <c r="CB116" s="78"/>
-      <c r="CC116" s="78"/>
-      <c r="CD116" s="78"/>
-      <c r="CE116" s="78"/>
-      <c r="CF116" s="78"/>
-      <c r="CG116" s="78"/>
-      <c r="CH116" s="78"/>
-      <c r="CI116" s="78"/>
-      <c r="CJ116" s="78"/>
-      <c r="CK116" s="78"/>
-      <c r="CL116" s="78"/>
-      <c r="CM116" s="78"/>
-      <c r="CN116" s="78"/>
-      <c r="CO116" s="78"/>
-      <c r="CP116" s="79"/>
+      <c r="AX116" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="AY116" s="81"/>
+      <c r="AZ116" s="81"/>
+      <c r="BA116" s="81"/>
+      <c r="BB116" s="81"/>
+      <c r="BC116" s="81"/>
+      <c r="BD116" s="81"/>
+      <c r="BE116" s="81"/>
+      <c r="BF116" s="81"/>
+      <c r="BG116" s="81"/>
+      <c r="BH116" s="81"/>
+      <c r="BI116" s="81"/>
+      <c r="BJ116" s="81"/>
+      <c r="BK116" s="81"/>
+      <c r="BL116" s="81"/>
+      <c r="BM116" s="81"/>
+      <c r="BN116" s="81"/>
+      <c r="BO116" s="81"/>
+      <c r="BP116" s="81"/>
+      <c r="BQ116" s="81"/>
+      <c r="BR116" s="81"/>
+      <c r="BS116" s="81"/>
+      <c r="BT116" s="81"/>
+      <c r="BU116" s="81"/>
+      <c r="BV116" s="81"/>
+      <c r="BW116" s="81"/>
+      <c r="BX116" s="81"/>
+      <c r="BY116" s="81"/>
+      <c r="BZ116" s="81"/>
+      <c r="CA116" s="81"/>
+      <c r="CB116" s="81"/>
+      <c r="CC116" s="81"/>
+      <c r="CD116" s="81"/>
+      <c r="CE116" s="81"/>
+      <c r="CF116" s="81"/>
+      <c r="CG116" s="81"/>
+      <c r="CH116" s="81"/>
+      <c r="CI116" s="81"/>
+      <c r="CJ116" s="81"/>
+      <c r="CK116" s="81"/>
+      <c r="CL116" s="81"/>
+      <c r="CM116" s="81"/>
+      <c r="CN116" s="81"/>
+      <c r="CO116" s="81"/>
+      <c r="CP116" s="82"/>
     </row>
     <row r="117" spans="2:94" ht="13.5" customHeight="1">
-      <c r="B117" s="77"/>
-      <c r="C117" s="78"/>
-      <c r="D117" s="78"/>
-      <c r="E117" s="78"/>
-      <c r="F117" s="78"/>
-      <c r="G117" s="78"/>
-      <c r="H117" s="78"/>
-      <c r="I117" s="78"/>
-      <c r="J117" s="78"/>
-      <c r="K117" s="78"/>
-      <c r="L117" s="78"/>
-      <c r="M117" s="78"/>
-      <c r="N117" s="78"/>
-      <c r="O117" s="78"/>
-      <c r="P117" s="78"/>
-      <c r="Q117" s="78"/>
-      <c r="R117" s="78"/>
-      <c r="S117" s="78"/>
-      <c r="T117" s="78"/>
-      <c r="U117" s="78"/>
-      <c r="V117" s="78"/>
-      <c r="W117" s="78"/>
-      <c r="X117" s="78"/>
-      <c r="Y117" s="78"/>
-      <c r="Z117" s="78"/>
-      <c r="AA117" s="78"/>
-      <c r="AB117" s="78"/>
-      <c r="AC117" s="78"/>
-      <c r="AD117" s="78"/>
-      <c r="AE117" s="78"/>
-      <c r="AF117" s="78"/>
-      <c r="AG117" s="78"/>
-      <c r="AH117" s="78"/>
-      <c r="AI117" s="78"/>
-      <c r="AJ117" s="78"/>
-      <c r="AK117" s="78"/>
-      <c r="AL117" s="78"/>
-      <c r="AM117" s="78"/>
-      <c r="AN117" s="78"/>
-      <c r="AO117" s="78"/>
-      <c r="AP117" s="78"/>
-      <c r="AQ117" s="78"/>
-      <c r="AR117" s="78"/>
-      <c r="AS117" s="78"/>
-      <c r="AT117" s="79"/>
+      <c r="B117" s="80"/>
+      <c r="C117" s="81"/>
+      <c r="D117" s="81"/>
+      <c r="E117" s="81"/>
+      <c r="F117" s="81"/>
+      <c r="G117" s="81"/>
+      <c r="H117" s="81"/>
+      <c r="I117" s="81"/>
+      <c r="J117" s="81"/>
+      <c r="K117" s="81"/>
+      <c r="L117" s="81"/>
+      <c r="M117" s="81"/>
+      <c r="N117" s="81"/>
+      <c r="O117" s="81"/>
+      <c r="P117" s="81"/>
+      <c r="Q117" s="81"/>
+      <c r="R117" s="81"/>
+      <c r="S117" s="81"/>
+      <c r="T117" s="81"/>
+      <c r="U117" s="81"/>
+      <c r="V117" s="81"/>
+      <c r="W117" s="81"/>
+      <c r="X117" s="81"/>
+      <c r="Y117" s="81"/>
+      <c r="Z117" s="81"/>
+      <c r="AA117" s="81"/>
+      <c r="AB117" s="81"/>
+      <c r="AC117" s="81"/>
+      <c r="AD117" s="81"/>
+      <c r="AE117" s="81"/>
+      <c r="AF117" s="81"/>
+      <c r="AG117" s="81"/>
+      <c r="AH117" s="81"/>
+      <c r="AI117" s="81"/>
+      <c r="AJ117" s="81"/>
+      <c r="AK117" s="81"/>
+      <c r="AL117" s="81"/>
+      <c r="AM117" s="81"/>
+      <c r="AN117" s="81"/>
+      <c r="AO117" s="81"/>
+      <c r="AP117" s="81"/>
+      <c r="AQ117" s="81"/>
+      <c r="AR117" s="81"/>
+      <c r="AS117" s="81"/>
+      <c r="AT117" s="82"/>
       <c r="AU117" s="1"/>
       <c r="AV117" s="1"/>
       <c r="AW117" s="1"/>
-      <c r="AX117" s="77"/>
-      <c r="AY117" s="78"/>
-      <c r="AZ117" s="78"/>
-      <c r="BA117" s="78"/>
-      <c r="BB117" s="78"/>
-      <c r="BC117" s="78"/>
-      <c r="BD117" s="78"/>
-      <c r="BE117" s="78"/>
-      <c r="BF117" s="78"/>
-      <c r="BG117" s="78"/>
-      <c r="BH117" s="78"/>
-      <c r="BI117" s="78"/>
-      <c r="BJ117" s="78"/>
-      <c r="BK117" s="78"/>
-      <c r="BL117" s="78"/>
-      <c r="BM117" s="78"/>
-      <c r="BN117" s="78"/>
-      <c r="BO117" s="78"/>
-      <c r="BP117" s="78"/>
-      <c r="BQ117" s="78"/>
-      <c r="BR117" s="78"/>
-      <c r="BS117" s="78"/>
-      <c r="BT117" s="78"/>
-      <c r="BU117" s="78"/>
-      <c r="BV117" s="78"/>
-      <c r="BW117" s="78"/>
-      <c r="BX117" s="78"/>
-      <c r="BY117" s="78"/>
-      <c r="BZ117" s="78"/>
-      <c r="CA117" s="78"/>
-      <c r="CB117" s="78"/>
-      <c r="CC117" s="78"/>
-      <c r="CD117" s="78"/>
-      <c r="CE117" s="78"/>
-      <c r="CF117" s="78"/>
-      <c r="CG117" s="78"/>
-      <c r="CH117" s="78"/>
-      <c r="CI117" s="78"/>
-      <c r="CJ117" s="78"/>
-      <c r="CK117" s="78"/>
-      <c r="CL117" s="78"/>
-      <c r="CM117" s="78"/>
-      <c r="CN117" s="78"/>
-      <c r="CO117" s="78"/>
-      <c r="CP117" s="79"/>
+      <c r="AX117" s="80"/>
+      <c r="AY117" s="81"/>
+      <c r="AZ117" s="81"/>
+      <c r="BA117" s="81"/>
+      <c r="BB117" s="81"/>
+      <c r="BC117" s="81"/>
+      <c r="BD117" s="81"/>
+      <c r="BE117" s="81"/>
+      <c r="BF117" s="81"/>
+      <c r="BG117" s="81"/>
+      <c r="BH117" s="81"/>
+      <c r="BI117" s="81"/>
+      <c r="BJ117" s="81"/>
+      <c r="BK117" s="81"/>
+      <c r="BL117" s="81"/>
+      <c r="BM117" s="81"/>
+      <c r="BN117" s="81"/>
+      <c r="BO117" s="81"/>
+      <c r="BP117" s="81"/>
+      <c r="BQ117" s="81"/>
+      <c r="BR117" s="81"/>
+      <c r="BS117" s="81"/>
+      <c r="BT117" s="81"/>
+      <c r="BU117" s="81"/>
+      <c r="BV117" s="81"/>
+      <c r="BW117" s="81"/>
+      <c r="BX117" s="81"/>
+      <c r="BY117" s="81"/>
+      <c r="BZ117" s="81"/>
+      <c r="CA117" s="81"/>
+      <c r="CB117" s="81"/>
+      <c r="CC117" s="81"/>
+      <c r="CD117" s="81"/>
+      <c r="CE117" s="81"/>
+      <c r="CF117" s="81"/>
+      <c r="CG117" s="81"/>
+      <c r="CH117" s="81"/>
+      <c r="CI117" s="81"/>
+      <c r="CJ117" s="81"/>
+      <c r="CK117" s="81"/>
+      <c r="CL117" s="81"/>
+      <c r="CM117" s="81"/>
+      <c r="CN117" s="81"/>
+      <c r="CO117" s="81"/>
+      <c r="CP117" s="82"/>
     </row>
     <row r="118" spans="2:94" ht="13.5" customHeight="1">
-      <c r="B118" s="77"/>
-      <c r="C118" s="78"/>
-      <c r="D118" s="78"/>
-      <c r="E118" s="78"/>
-      <c r="F118" s="78"/>
-      <c r="G118" s="78"/>
-      <c r="H118" s="78"/>
-      <c r="I118" s="78"/>
-      <c r="J118" s="78"/>
-      <c r="K118" s="78"/>
-      <c r="L118" s="78"/>
-      <c r="M118" s="78"/>
-      <c r="N118" s="78"/>
-      <c r="O118" s="78"/>
-      <c r="P118" s="78"/>
-      <c r="Q118" s="78"/>
-      <c r="R118" s="78"/>
-      <c r="S118" s="78"/>
-      <c r="T118" s="78"/>
-      <c r="U118" s="78"/>
-      <c r="V118" s="78"/>
-      <c r="W118" s="78"/>
-      <c r="X118" s="78"/>
-      <c r="Y118" s="78"/>
-      <c r="Z118" s="78"/>
-      <c r="AA118" s="78"/>
-      <c r="AB118" s="78"/>
-      <c r="AC118" s="78"/>
-      <c r="AD118" s="78"/>
-      <c r="AE118" s="78"/>
-      <c r="AF118" s="78"/>
-      <c r="AG118" s="78"/>
-      <c r="AH118" s="78"/>
-      <c r="AI118" s="78"/>
-      <c r="AJ118" s="78"/>
-      <c r="AK118" s="78"/>
-      <c r="AL118" s="78"/>
-      <c r="AM118" s="78"/>
-      <c r="AN118" s="78"/>
-      <c r="AO118" s="78"/>
-      <c r="AP118" s="78"/>
-      <c r="AQ118" s="78"/>
-      <c r="AR118" s="78"/>
-      <c r="AS118" s="78"/>
-      <c r="AT118" s="79"/>
+      <c r="B118" s="80"/>
+      <c r="C118" s="81"/>
+      <c r="D118" s="81"/>
+      <c r="E118" s="81"/>
+      <c r="F118" s="81"/>
+      <c r="G118" s="81"/>
+      <c r="H118" s="81"/>
+      <c r="I118" s="81"/>
+      <c r="J118" s="81"/>
+      <c r="K118" s="81"/>
+      <c r="L118" s="81"/>
+      <c r="M118" s="81"/>
+      <c r="N118" s="81"/>
+      <c r="O118" s="81"/>
+      <c r="P118" s="81"/>
+      <c r="Q118" s="81"/>
+      <c r="R118" s="81"/>
+      <c r="S118" s="81"/>
+      <c r="T118" s="81"/>
+      <c r="U118" s="81"/>
+      <c r="V118" s="81"/>
+      <c r="W118" s="81"/>
+      <c r="X118" s="81"/>
+      <c r="Y118" s="81"/>
+      <c r="Z118" s="81"/>
+      <c r="AA118" s="81"/>
+      <c r="AB118" s="81"/>
+      <c r="AC118" s="81"/>
+      <c r="AD118" s="81"/>
+      <c r="AE118" s="81"/>
+      <c r="AF118" s="81"/>
+      <c r="AG118" s="81"/>
+      <c r="AH118" s="81"/>
+      <c r="AI118" s="81"/>
+      <c r="AJ118" s="81"/>
+      <c r="AK118" s="81"/>
+      <c r="AL118" s="81"/>
+      <c r="AM118" s="81"/>
+      <c r="AN118" s="81"/>
+      <c r="AO118" s="81"/>
+      <c r="AP118" s="81"/>
+      <c r="AQ118" s="81"/>
+      <c r="AR118" s="81"/>
+      <c r="AS118" s="81"/>
+      <c r="AT118" s="82"/>
       <c r="AU118" s="1"/>
       <c r="AV118" s="1"/>
       <c r="AW118" s="1"/>
-      <c r="AX118" s="77"/>
-      <c r="AY118" s="78"/>
-      <c r="AZ118" s="78"/>
-      <c r="BA118" s="78"/>
-      <c r="BB118" s="78"/>
-      <c r="BC118" s="78"/>
-      <c r="BD118" s="78"/>
-      <c r="BE118" s="78"/>
-      <c r="BF118" s="78"/>
-      <c r="BG118" s="78"/>
-      <c r="BH118" s="78"/>
-      <c r="BI118" s="78"/>
-      <c r="BJ118" s="78"/>
-      <c r="BK118" s="78"/>
-      <c r="BL118" s="78"/>
-      <c r="BM118" s="78"/>
-      <c r="BN118" s="78"/>
-      <c r="BO118" s="78"/>
-      <c r="BP118" s="78"/>
-      <c r="BQ118" s="78"/>
-      <c r="BR118" s="78"/>
-      <c r="BS118" s="78"/>
-      <c r="BT118" s="78"/>
-      <c r="BU118" s="78"/>
-      <c r="BV118" s="78"/>
-      <c r="BW118" s="78"/>
-      <c r="BX118" s="78"/>
-      <c r="BY118" s="78"/>
-      <c r="BZ118" s="78"/>
-      <c r="CA118" s="78"/>
-      <c r="CB118" s="78"/>
-      <c r="CC118" s="78"/>
-      <c r="CD118" s="78"/>
-      <c r="CE118" s="78"/>
-      <c r="CF118" s="78"/>
-      <c r="CG118" s="78"/>
-      <c r="CH118" s="78"/>
-      <c r="CI118" s="78"/>
-      <c r="CJ118" s="78"/>
-      <c r="CK118" s="78"/>
-      <c r="CL118" s="78"/>
-      <c r="CM118" s="78"/>
-      <c r="CN118" s="78"/>
-      <c r="CO118" s="78"/>
-      <c r="CP118" s="79"/>
+      <c r="AX118" s="80"/>
+      <c r="AY118" s="81"/>
+      <c r="AZ118" s="81"/>
+      <c r="BA118" s="81"/>
+      <c r="BB118" s="81"/>
+      <c r="BC118" s="81"/>
+      <c r="BD118" s="81"/>
+      <c r="BE118" s="81"/>
+      <c r="BF118" s="81"/>
+      <c r="BG118" s="81"/>
+      <c r="BH118" s="81"/>
+      <c r="BI118" s="81"/>
+      <c r="BJ118" s="81"/>
+      <c r="BK118" s="81"/>
+      <c r="BL118" s="81"/>
+      <c r="BM118" s="81"/>
+      <c r="BN118" s="81"/>
+      <c r="BO118" s="81"/>
+      <c r="BP118" s="81"/>
+      <c r="BQ118" s="81"/>
+      <c r="BR118" s="81"/>
+      <c r="BS118" s="81"/>
+      <c r="BT118" s="81"/>
+      <c r="BU118" s="81"/>
+      <c r="BV118" s="81"/>
+      <c r="BW118" s="81"/>
+      <c r="BX118" s="81"/>
+      <c r="BY118" s="81"/>
+      <c r="BZ118" s="81"/>
+      <c r="CA118" s="81"/>
+      <c r="CB118" s="81"/>
+      <c r="CC118" s="81"/>
+      <c r="CD118" s="81"/>
+      <c r="CE118" s="81"/>
+      <c r="CF118" s="81"/>
+      <c r="CG118" s="81"/>
+      <c r="CH118" s="81"/>
+      <c r="CI118" s="81"/>
+      <c r="CJ118" s="81"/>
+      <c r="CK118" s="81"/>
+      <c r="CL118" s="81"/>
+      <c r="CM118" s="81"/>
+      <c r="CN118" s="81"/>
+      <c r="CO118" s="81"/>
+      <c r="CP118" s="82"/>
     </row>
     <row r="119" spans="2:94" ht="13.5" customHeight="1">
       <c r="B119" s="18"/>
@@ -19131,103 +19218,103 @@
       <c r="CP120" s="14"/>
     </row>
     <row r="121" spans="2:94" ht="13.5" customHeight="1">
-      <c r="B121" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="C121" s="75"/>
-      <c r="D121" s="75"/>
-      <c r="E121" s="75"/>
-      <c r="F121" s="75"/>
-      <c r="G121" s="75"/>
-      <c r="H121" s="75"/>
-      <c r="I121" s="75"/>
-      <c r="J121" s="75"/>
-      <c r="K121" s="75"/>
-      <c r="L121" s="75"/>
-      <c r="M121" s="75"/>
-      <c r="N121" s="75"/>
-      <c r="O121" s="75"/>
-      <c r="P121" s="75"/>
-      <c r="Q121" s="75"/>
-      <c r="R121" s="75"/>
-      <c r="S121" s="75"/>
-      <c r="T121" s="75"/>
-      <c r="U121" s="75"/>
-      <c r="V121" s="75"/>
-      <c r="W121" s="75"/>
-      <c r="X121" s="75"/>
-      <c r="Y121" s="75"/>
-      <c r="Z121" s="75"/>
-      <c r="AA121" s="75"/>
-      <c r="AB121" s="75"/>
-      <c r="AC121" s="75"/>
-      <c r="AD121" s="75"/>
-      <c r="AE121" s="75"/>
-      <c r="AF121" s="75"/>
-      <c r="AG121" s="75"/>
-      <c r="AH121" s="75"/>
-      <c r="AI121" s="75"/>
-      <c r="AJ121" s="75"/>
-      <c r="AK121" s="75"/>
-      <c r="AL121" s="75"/>
-      <c r="AM121" s="75"/>
-      <c r="AN121" s="75"/>
-      <c r="AO121" s="75"/>
-      <c r="AP121" s="75"/>
-      <c r="AQ121" s="75"/>
-      <c r="AR121" s="75"/>
-      <c r="AS121" s="75"/>
-      <c r="AT121" s="76"/>
+      <c r="B121" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" s="78"/>
+      <c r="D121" s="78"/>
+      <c r="E121" s="78"/>
+      <c r="F121" s="78"/>
+      <c r="G121" s="78"/>
+      <c r="H121" s="78"/>
+      <c r="I121" s="78"/>
+      <c r="J121" s="78"/>
+      <c r="K121" s="78"/>
+      <c r="L121" s="78"/>
+      <c r="M121" s="78"/>
+      <c r="N121" s="78"/>
+      <c r="O121" s="78"/>
+      <c r="P121" s="78"/>
+      <c r="Q121" s="78"/>
+      <c r="R121" s="78"/>
+      <c r="S121" s="78"/>
+      <c r="T121" s="78"/>
+      <c r="U121" s="78"/>
+      <c r="V121" s="78"/>
+      <c r="W121" s="78"/>
+      <c r="X121" s="78"/>
+      <c r="Y121" s="78"/>
+      <c r="Z121" s="78"/>
+      <c r="AA121" s="78"/>
+      <c r="AB121" s="78"/>
+      <c r="AC121" s="78"/>
+      <c r="AD121" s="78"/>
+      <c r="AE121" s="78"/>
+      <c r="AF121" s="78"/>
+      <c r="AG121" s="78"/>
+      <c r="AH121" s="78"/>
+      <c r="AI121" s="78"/>
+      <c r="AJ121" s="78"/>
+      <c r="AK121" s="78"/>
+      <c r="AL121" s="78"/>
+      <c r="AM121" s="78"/>
+      <c r="AN121" s="78"/>
+      <c r="AO121" s="78"/>
+      <c r="AP121" s="78"/>
+      <c r="AQ121" s="78"/>
+      <c r="AR121" s="78"/>
+      <c r="AS121" s="78"/>
+      <c r="AT121" s="79"/>
       <c r="AU121" s="1"/>
       <c r="AV121" s="1"/>
       <c r="AW121" s="1"/>
-      <c r="AX121" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="AY121" s="75"/>
-      <c r="AZ121" s="75"/>
-      <c r="BA121" s="75"/>
-      <c r="BB121" s="75"/>
-      <c r="BC121" s="75"/>
-      <c r="BD121" s="75"/>
-      <c r="BE121" s="75"/>
-      <c r="BF121" s="75"/>
-      <c r="BG121" s="75"/>
-      <c r="BH121" s="75"/>
-      <c r="BI121" s="75"/>
-      <c r="BJ121" s="75"/>
-      <c r="BK121" s="75"/>
-      <c r="BL121" s="75"/>
-      <c r="BM121" s="75"/>
-      <c r="BN121" s="75"/>
-      <c r="BO121" s="75"/>
-      <c r="BP121" s="75"/>
-      <c r="BQ121" s="75"/>
-      <c r="BR121" s="75"/>
-      <c r="BS121" s="75"/>
-      <c r="BT121" s="75"/>
-      <c r="BU121" s="75"/>
-      <c r="BV121" s="75"/>
-      <c r="BW121" s="75"/>
-      <c r="BX121" s="75"/>
-      <c r="BY121" s="75"/>
-      <c r="BZ121" s="75"/>
-      <c r="CA121" s="75"/>
-      <c r="CB121" s="75"/>
-      <c r="CC121" s="75"/>
-      <c r="CD121" s="75"/>
-      <c r="CE121" s="75"/>
-      <c r="CF121" s="75"/>
-      <c r="CG121" s="75"/>
-      <c r="CH121" s="75"/>
-      <c r="CI121" s="75"/>
-      <c r="CJ121" s="75"/>
-      <c r="CK121" s="75"/>
-      <c r="CL121" s="75"/>
-      <c r="CM121" s="75"/>
-      <c r="CN121" s="75"/>
-      <c r="CO121" s="75"/>
-      <c r="CP121" s="76"/>
+      <c r="AX121" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY121" s="78"/>
+      <c r="AZ121" s="78"/>
+      <c r="BA121" s="78"/>
+      <c r="BB121" s="78"/>
+      <c r="BC121" s="78"/>
+      <c r="BD121" s="78"/>
+      <c r="BE121" s="78"/>
+      <c r="BF121" s="78"/>
+      <c r="BG121" s="78"/>
+      <c r="BH121" s="78"/>
+      <c r="BI121" s="78"/>
+      <c r="BJ121" s="78"/>
+      <c r="BK121" s="78"/>
+      <c r="BL121" s="78"/>
+      <c r="BM121" s="78"/>
+      <c r="BN121" s="78"/>
+      <c r="BO121" s="78"/>
+      <c r="BP121" s="78"/>
+      <c r="BQ121" s="78"/>
+      <c r="BR121" s="78"/>
+      <c r="BS121" s="78"/>
+      <c r="BT121" s="78"/>
+      <c r="BU121" s="78"/>
+      <c r="BV121" s="78"/>
+      <c r="BW121" s="78"/>
+      <c r="BX121" s="78"/>
+      <c r="BY121" s="78"/>
+      <c r="BZ121" s="78"/>
+      <c r="CA121" s="78"/>
+      <c r="CB121" s="78"/>
+      <c r="CC121" s="78"/>
+      <c r="CD121" s="78"/>
+      <c r="CE121" s="78"/>
+      <c r="CF121" s="78"/>
+      <c r="CG121" s="78"/>
+      <c r="CH121" s="78"/>
+      <c r="CI121" s="78"/>
+      <c r="CJ121" s="78"/>
+      <c r="CK121" s="78"/>
+      <c r="CL121" s="78"/>
+      <c r="CM121" s="78"/>
+      <c r="CN121" s="78"/>
+      <c r="CO121" s="78"/>
+      <c r="CP121" s="79"/>
     </row>
     <row r="122" spans="2:94" ht="13.5" customHeight="1">
       <c r="B122" s="12"/>
@@ -19895,103 +19982,103 @@
       <c r="CP128" s="14"/>
     </row>
     <row r="129" spans="2:94" ht="13.5" customHeight="1">
-      <c r="B129" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="C129" s="83"/>
-      <c r="D129" s="83"/>
-      <c r="E129" s="83"/>
-      <c r="F129" s="83"/>
-      <c r="G129" s="83"/>
-      <c r="H129" s="83"/>
-      <c r="I129" s="83"/>
-      <c r="J129" s="83"/>
-      <c r="K129" s="83"/>
-      <c r="L129" s="83"/>
-      <c r="M129" s="83"/>
-      <c r="N129" s="83"/>
-      <c r="O129" s="83"/>
-      <c r="P129" s="83"/>
-      <c r="Q129" s="83"/>
-      <c r="R129" s="83"/>
-      <c r="S129" s="83"/>
-      <c r="T129" s="83"/>
-      <c r="U129" s="83"/>
-      <c r="V129" s="83"/>
-      <c r="W129" s="83"/>
-      <c r="X129" s="83"/>
-      <c r="Y129" s="83"/>
-      <c r="Z129" s="83"/>
-      <c r="AA129" s="83"/>
-      <c r="AB129" s="83"/>
-      <c r="AC129" s="83"/>
-      <c r="AD129" s="83"/>
-      <c r="AE129" s="83"/>
-      <c r="AF129" s="83"/>
-      <c r="AG129" s="83"/>
-      <c r="AH129" s="83"/>
-      <c r="AI129" s="83"/>
-      <c r="AJ129" s="83"/>
-      <c r="AK129" s="83"/>
-      <c r="AL129" s="83"/>
-      <c r="AM129" s="83"/>
-      <c r="AN129" s="83"/>
-      <c r="AO129" s="83"/>
-      <c r="AP129" s="83"/>
-      <c r="AQ129" s="83"/>
-      <c r="AR129" s="83"/>
-      <c r="AS129" s="83"/>
-      <c r="AT129" s="84"/>
+      <c r="B129" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C129" s="86"/>
+      <c r="D129" s="86"/>
+      <c r="E129" s="86"/>
+      <c r="F129" s="86"/>
+      <c r="G129" s="86"/>
+      <c r="H129" s="86"/>
+      <c r="I129" s="86"/>
+      <c r="J129" s="86"/>
+      <c r="K129" s="86"/>
+      <c r="L129" s="86"/>
+      <c r="M129" s="86"/>
+      <c r="N129" s="86"/>
+      <c r="O129" s="86"/>
+      <c r="P129" s="86"/>
+      <c r="Q129" s="86"/>
+      <c r="R129" s="86"/>
+      <c r="S129" s="86"/>
+      <c r="T129" s="86"/>
+      <c r="U129" s="86"/>
+      <c r="V129" s="86"/>
+      <c r="W129" s="86"/>
+      <c r="X129" s="86"/>
+      <c r="Y129" s="86"/>
+      <c r="Z129" s="86"/>
+      <c r="AA129" s="86"/>
+      <c r="AB129" s="86"/>
+      <c r="AC129" s="86"/>
+      <c r="AD129" s="86"/>
+      <c r="AE129" s="86"/>
+      <c r="AF129" s="86"/>
+      <c r="AG129" s="86"/>
+      <c r="AH129" s="86"/>
+      <c r="AI129" s="86"/>
+      <c r="AJ129" s="86"/>
+      <c r="AK129" s="86"/>
+      <c r="AL129" s="86"/>
+      <c r="AM129" s="86"/>
+      <c r="AN129" s="86"/>
+      <c r="AO129" s="86"/>
+      <c r="AP129" s="86"/>
+      <c r="AQ129" s="86"/>
+      <c r="AR129" s="86"/>
+      <c r="AS129" s="86"/>
+      <c r="AT129" s="87"/>
       <c r="AU129" s="1"/>
       <c r="AV129" s="1"/>
       <c r="AW129" s="1"/>
-      <c r="AX129" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="AY129" s="83"/>
-      <c r="AZ129" s="83"/>
-      <c r="BA129" s="83"/>
-      <c r="BB129" s="83"/>
-      <c r="BC129" s="83"/>
-      <c r="BD129" s="83"/>
-      <c r="BE129" s="83"/>
-      <c r="BF129" s="83"/>
-      <c r="BG129" s="83"/>
-      <c r="BH129" s="83"/>
-      <c r="BI129" s="83"/>
-      <c r="BJ129" s="83"/>
-      <c r="BK129" s="83"/>
-      <c r="BL129" s="83"/>
-      <c r="BM129" s="83"/>
-      <c r="BN129" s="83"/>
-      <c r="BO129" s="83"/>
-      <c r="BP129" s="83"/>
-      <c r="BQ129" s="83"/>
-      <c r="BR129" s="83"/>
-      <c r="BS129" s="83"/>
-      <c r="BT129" s="83"/>
-      <c r="BU129" s="83"/>
-      <c r="BV129" s="83"/>
-      <c r="BW129" s="83"/>
-      <c r="BX129" s="83"/>
-      <c r="BY129" s="83"/>
-      <c r="BZ129" s="83"/>
-      <c r="CA129" s="83"/>
-      <c r="CB129" s="83"/>
-      <c r="CC129" s="83"/>
-      <c r="CD129" s="83"/>
-      <c r="CE129" s="83"/>
-      <c r="CF129" s="83"/>
-      <c r="CG129" s="83"/>
-      <c r="CH129" s="83"/>
-      <c r="CI129" s="83"/>
-      <c r="CJ129" s="83"/>
-      <c r="CK129" s="83"/>
-      <c r="CL129" s="83"/>
-      <c r="CM129" s="83"/>
-      <c r="CN129" s="83"/>
-      <c r="CO129" s="83"/>
-      <c r="CP129" s="84"/>
+      <c r="AX129" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY129" s="86"/>
+      <c r="AZ129" s="86"/>
+      <c r="BA129" s="86"/>
+      <c r="BB129" s="86"/>
+      <c r="BC129" s="86"/>
+      <c r="BD129" s="86"/>
+      <c r="BE129" s="86"/>
+      <c r="BF129" s="86"/>
+      <c r="BG129" s="86"/>
+      <c r="BH129" s="86"/>
+      <c r="BI129" s="86"/>
+      <c r="BJ129" s="86"/>
+      <c r="BK129" s="86"/>
+      <c r="BL129" s="86"/>
+      <c r="BM129" s="86"/>
+      <c r="BN129" s="86"/>
+      <c r="BO129" s="86"/>
+      <c r="BP129" s="86"/>
+      <c r="BQ129" s="86"/>
+      <c r="BR129" s="86"/>
+      <c r="BS129" s="86"/>
+      <c r="BT129" s="86"/>
+      <c r="BU129" s="86"/>
+      <c r="BV129" s="86"/>
+      <c r="BW129" s="86"/>
+      <c r="BX129" s="86"/>
+      <c r="BY129" s="86"/>
+      <c r="BZ129" s="86"/>
+      <c r="CA129" s="86"/>
+      <c r="CB129" s="86"/>
+      <c r="CC129" s="86"/>
+      <c r="CD129" s="86"/>
+      <c r="CE129" s="86"/>
+      <c r="CF129" s="86"/>
+      <c r="CG129" s="86"/>
+      <c r="CH129" s="86"/>
+      <c r="CI129" s="86"/>
+      <c r="CJ129" s="86"/>
+      <c r="CK129" s="86"/>
+      <c r="CL129" s="86"/>
+      <c r="CM129" s="86"/>
+      <c r="CN129" s="86"/>
+      <c r="CO129" s="86"/>
+      <c r="CP129" s="87"/>
     </row>
     <row r="130" spans="2:94" ht="13.5" customHeight="1">
       <c r="B130" s="12"/>
@@ -20663,7 +20750,7 @@
       <c r="AV137" s="1"/>
       <c r="AW137" s="1"/>
       <c r="AX137" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="CM137" s="2"/>
     </row>
@@ -20693,11 +20780,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B6:AT8"/>
-    <mergeCell ref="B12:AT12"/>
-    <mergeCell ref="B32:AT34"/>
-    <mergeCell ref="B41:AT41"/>
-    <mergeCell ref="B58:AT60"/>
     <mergeCell ref="BC58:CU60"/>
     <mergeCell ref="BC67:CU67"/>
     <mergeCell ref="B121:AT121"/>
@@ -20709,6 +20791,11 @@
     <mergeCell ref="B90:AT92"/>
     <mergeCell ref="B96:AT96"/>
     <mergeCell ref="B116:AT118"/>
+    <mergeCell ref="B6:AT8"/>
+    <mergeCell ref="B12:AT12"/>
+    <mergeCell ref="B32:AT34"/>
+    <mergeCell ref="B41:AT41"/>
+    <mergeCell ref="B58:AT60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20786,7 +20873,7 @@
       <c r="BC2" s="1"/>
       <c r="BD2" s="1"/>
       <c r="BE2" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="BF2" s="1"/>
       <c r="BG2" s="42"/>
@@ -20794,20 +20881,20 @@
     </row>
     <row r="3" spans="2:60" ht="13.5" customHeight="1">
       <c r="B3" s="12"/>
-      <c r="C3" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
+      <c r="C3" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="88"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
@@ -20830,13 +20917,13 @@
       <c r="AH3" s="13"/>
       <c r="AI3" s="13"/>
       <c r="AJ3" s="28" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AK3" s="28"/>
       <c r="AL3" s="28"/>
       <c r="AM3" s="28"/>
       <c r="AN3" s="28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO3" s="28"/>
       <c r="AP3" s="28"/>
@@ -20847,18 +20934,18 @@
     </row>
     <row r="4" spans="2:60" ht="13.5" customHeight="1">
       <c r="B4" s="12"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
@@ -20881,13 +20968,13 @@
       <c r="AH4" s="13"/>
       <c r="AI4" s="13"/>
       <c r="AJ4" s="28" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AK4" s="28"/>
       <c r="AL4" s="28"/>
       <c r="AM4" s="28"/>
       <c r="AN4" s="29" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AO4" s="28"/>
       <c r="AP4" s="28"/>
@@ -20932,7 +21019,7 @@
       <c r="AH5" s="21"/>
       <c r="AI5" s="21"/>
       <c r="AJ5" s="28" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AK5" s="28"/>
       <c r="AL5" s="30"/>
@@ -20981,7 +21068,7 @@
       <c r="AH6" s="21"/>
       <c r="AI6" s="21"/>
       <c r="AJ6" s="30" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AK6" s="28"/>
       <c r="AL6" s="30"/>
@@ -21030,7 +21117,7 @@
       <c r="AH7" s="21"/>
       <c r="AI7" s="21"/>
       <c r="AJ7" s="30" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK7" s="28"/>
       <c r="AL7" s="30"/>
@@ -21079,7 +21166,7 @@
       <c r="AH8" s="13"/>
       <c r="AI8" s="13"/>
       <c r="AJ8" s="30" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AK8" s="28"/>
       <c r="AL8" s="30"/>
@@ -21564,53 +21651,53 @@
       <c r="AT18" s="14"/>
     </row>
     <row r="19" spans="2:59" ht="13.5" customHeight="1">
-      <c r="B19" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="87"/>
-      <c r="AD19" s="87"/>
-      <c r="AE19" s="87"/>
-      <c r="AF19" s="87"/>
-      <c r="AG19" s="87"/>
-      <c r="AH19" s="87"/>
-      <c r="AI19" s="87"/>
-      <c r="AJ19" s="87"/>
-      <c r="AK19" s="87"/>
-      <c r="AL19" s="87"/>
-      <c r="AM19" s="87"/>
-      <c r="AN19" s="87"/>
-      <c r="AO19" s="87"/>
-      <c r="AP19" s="87"/>
-      <c r="AQ19" s="87"/>
-      <c r="AR19" s="87"/>
-      <c r="AS19" s="87"/>
-      <c r="AT19" s="88"/>
+      <c r="B19" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="90"/>
+      <c r="T19" s="90"/>
+      <c r="U19" s="90"/>
+      <c r="V19" s="90"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="90"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="90"/>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="90"/>
+      <c r="AD19" s="90"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="90"/>
+      <c r="AG19" s="90"/>
+      <c r="AH19" s="90"/>
+      <c r="AI19" s="90"/>
+      <c r="AJ19" s="90"/>
+      <c r="AK19" s="90"/>
+      <c r="AL19" s="90"/>
+      <c r="AM19" s="90"/>
+      <c r="AN19" s="90"/>
+      <c r="AO19" s="90"/>
+      <c r="AP19" s="90"/>
+      <c r="AQ19" s="90"/>
+      <c r="AR19" s="90"/>
+      <c r="AS19" s="90"/>
+      <c r="AT19" s="91"/>
     </row>
     <row r="20" spans="2:59" ht="13.5" customHeight="1">
       <c r="B20" s="12"/>
@@ -21943,20 +22030,20 @@
     </row>
     <row r="29" spans="2:59" ht="13.5" customHeight="1">
       <c r="B29" s="12"/>
-      <c r="C29" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
+      <c r="C29" s="88" t="s">
+        <v>148</v>
+      </c>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
@@ -21979,13 +22066,13 @@
       <c r="AH29" s="13"/>
       <c r="AI29" s="13"/>
       <c r="AJ29" s="28" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AK29" s="28"/>
       <c r="AL29" s="28"/>
       <c r="AM29" s="28"/>
       <c r="AN29" s="28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO29" s="28"/>
       <c r="AP29" s="28"/>
@@ -21996,18 +22083,18 @@
     </row>
     <row r="30" spans="2:59" ht="13.5" customHeight="1">
       <c r="B30" s="12"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
       <c r="O30" s="13"/>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
@@ -22030,13 +22117,13 @@
       <c r="AH30" s="13"/>
       <c r="AI30" s="13"/>
       <c r="AJ30" s="28" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="AK30" s="28"/>
       <c r="AL30" s="28"/>
       <c r="AM30" s="28"/>
       <c r="AN30" s="29" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AO30" s="28"/>
       <c r="AP30" s="28"/>
@@ -22081,7 +22168,7 @@
       <c r="AH31" s="21"/>
       <c r="AI31" s="21"/>
       <c r="AJ31" s="28" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="AK31" s="28"/>
       <c r="AL31" s="30"/>
@@ -22130,7 +22217,7 @@
       <c r="AH32" s="21"/>
       <c r="AI32" s="21"/>
       <c r="AJ32" s="30" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AK32" s="28"/>
       <c r="AL32" s="30"/>
@@ -22179,7 +22266,7 @@
       <c r="AH33" s="21"/>
       <c r="AI33" s="21"/>
       <c r="AJ33" s="30" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AK33" s="28"/>
       <c r="AL33" s="30"/>
@@ -22228,7 +22315,7 @@
       <c r="AH34" s="13"/>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="30" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AK34" s="28"/>
       <c r="AL34" s="30"/>
@@ -22712,53 +22799,53 @@
       <c r="AT44" s="14"/>
     </row>
     <row r="45" spans="2:46" ht="13.5" customHeight="1">
-      <c r="B45" s="86" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="87"/>
-      <c r="S45" s="87"/>
-      <c r="T45" s="87"/>
-      <c r="U45" s="87"/>
-      <c r="V45" s="87"/>
-      <c r="W45" s="87"/>
-      <c r="X45" s="87"/>
-      <c r="Y45" s="87"/>
-      <c r="Z45" s="87"/>
-      <c r="AA45" s="87"/>
-      <c r="AB45" s="87"/>
-      <c r="AC45" s="87"/>
-      <c r="AD45" s="87"/>
-      <c r="AE45" s="87"/>
-      <c r="AF45" s="87"/>
-      <c r="AG45" s="87"/>
-      <c r="AH45" s="87"/>
-      <c r="AI45" s="87"/>
-      <c r="AJ45" s="87"/>
-      <c r="AK45" s="87"/>
-      <c r="AL45" s="87"/>
-      <c r="AM45" s="87"/>
-      <c r="AN45" s="87"/>
-      <c r="AO45" s="87"/>
-      <c r="AP45" s="87"/>
-      <c r="AQ45" s="87"/>
-      <c r="AR45" s="87"/>
-      <c r="AS45" s="87"/>
-      <c r="AT45" s="88"/>
+      <c r="B45" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="90"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="90"/>
+      <c r="L45" s="90"/>
+      <c r="M45" s="90"/>
+      <c r="N45" s="90"/>
+      <c r="O45" s="90"/>
+      <c r="P45" s="90"/>
+      <c r="Q45" s="90"/>
+      <c r="R45" s="90"/>
+      <c r="S45" s="90"/>
+      <c r="T45" s="90"/>
+      <c r="U45" s="90"/>
+      <c r="V45" s="90"/>
+      <c r="W45" s="90"/>
+      <c r="X45" s="90"/>
+      <c r="Y45" s="90"/>
+      <c r="Z45" s="90"/>
+      <c r="AA45" s="90"/>
+      <c r="AB45" s="90"/>
+      <c r="AC45" s="90"/>
+      <c r="AD45" s="90"/>
+      <c r="AE45" s="90"/>
+      <c r="AF45" s="90"/>
+      <c r="AG45" s="90"/>
+      <c r="AH45" s="90"/>
+      <c r="AI45" s="90"/>
+      <c r="AJ45" s="90"/>
+      <c r="AK45" s="90"/>
+      <c r="AL45" s="90"/>
+      <c r="AM45" s="90"/>
+      <c r="AN45" s="90"/>
+      <c r="AO45" s="90"/>
+      <c r="AP45" s="90"/>
+      <c r="AQ45" s="90"/>
+      <c r="AR45" s="90"/>
+      <c r="AS45" s="90"/>
+      <c r="AT45" s="91"/>
     </row>
     <row r="46" spans="2:46" ht="13.5" customHeight="1">
       <c r="B46" s="12"/>
@@ -23056,12 +23143,94 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D59719D-7CD7-4067-8F4C-6C8111EA6623}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="75"/>
+    <col min="2" max="2" width="24.875" style="75" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="75" customWidth="1"/>
+    <col min="4" max="4" width="9" style="75"/>
+    <col min="5" max="5" width="21.375" style="75" customWidth="1"/>
+    <col min="6" max="6" width="9" style="75"/>
+    <col min="7" max="7" width="21.375" style="75" customWidth="1"/>
+    <col min="8" max="8" width="9" style="75"/>
+    <col min="9" max="9" width="21.375" style="75" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8">
+      <c r="B3" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="75" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="75" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="75" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="D11" s="75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="75" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>